--- a/project_results.xlsx
+++ b/project_results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mafalda\Documents\NOVAIMS\Semester2\MachineLearning\machineLearningProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFE306F8-E2BE-4CB6-BF6C-96131D394283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2261A88-CA2E-48E5-A8D8-95A50D1643EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DBFDAFC6-5964-47A5-B37B-48FDB3DF0ABC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{DBFDAFC6-5964-47A5-B37B-48FDB3DF0ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="SVC" sheetId="2" r:id="rId1"/>
     <sheet name="Logistic Regression" sheetId="1" r:id="rId2"/>
+    <sheet name="LR - RFE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="26">
   <si>
     <t>Logistic Regression</t>
   </si>
@@ -352,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,6 +461,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -535,6 +539,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,191 +904,191 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:157">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91" t="s">
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="K2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="80" t="s">
+      <c r="L2" s="85"/>
+      <c r="M2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="AA2" s="83" t="s">
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="AA2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="80" t="s">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81"/>
-      <c r="AL2" s="81"/>
-      <c r="AM2" s="81"/>
-      <c r="AN2" s="81"/>
-      <c r="AO2" s="82"/>
-      <c r="AQ2" s="83" t="s">
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="83"/>
+      <c r="AQ2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="80" t="s">
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="81"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="81"/>
-      <c r="AX2" s="81"/>
-      <c r="AY2" s="81"/>
-      <c r="AZ2" s="81"/>
-      <c r="BA2" s="81"/>
-      <c r="BB2" s="81"/>
-      <c r="BC2" s="81"/>
-      <c r="BD2" s="81"/>
-      <c r="BE2" s="82"/>
-      <c r="BG2" s="83" t="s">
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82"/>
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="83"/>
+      <c r="BG2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="80" t="s">
+      <c r="BH2" s="85"/>
+      <c r="BI2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="81"/>
-      <c r="BK2" s="81"/>
-      <c r="BL2" s="81"/>
-      <c r="BM2" s="81"/>
-      <c r="BN2" s="81"/>
-      <c r="BO2" s="81"/>
-      <c r="BP2" s="81"/>
-      <c r="BQ2" s="81"/>
-      <c r="BR2" s="81"/>
-      <c r="BS2" s="81"/>
-      <c r="BT2" s="81"/>
-      <c r="BU2" s="82"/>
-      <c r="BW2" s="83" t="s">
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="82"/>
+      <c r="BL2" s="82"/>
+      <c r="BM2" s="82"/>
+      <c r="BN2" s="82"/>
+      <c r="BO2" s="82"/>
+      <c r="BP2" s="82"/>
+      <c r="BQ2" s="82"/>
+      <c r="BR2" s="82"/>
+      <c r="BS2" s="82"/>
+      <c r="BT2" s="82"/>
+      <c r="BU2" s="83"/>
+      <c r="BW2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="BX2" s="84"/>
-      <c r="BY2" s="80" t="s">
+      <c r="BX2" s="85"/>
+      <c r="BY2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="BZ2" s="81"/>
-      <c r="CA2" s="81"/>
-      <c r="CB2" s="81"/>
-      <c r="CC2" s="81"/>
-      <c r="CD2" s="81"/>
-      <c r="CE2" s="81"/>
-      <c r="CF2" s="81"/>
-      <c r="CG2" s="81"/>
-      <c r="CH2" s="81"/>
-      <c r="CI2" s="81"/>
-      <c r="CJ2" s="81"/>
-      <c r="CK2" s="82"/>
-      <c r="CM2" s="83" t="s">
+      <c r="BZ2" s="82"/>
+      <c r="CA2" s="82"/>
+      <c r="CB2" s="82"/>
+      <c r="CC2" s="82"/>
+      <c r="CD2" s="82"/>
+      <c r="CE2" s="82"/>
+      <c r="CF2" s="82"/>
+      <c r="CG2" s="82"/>
+      <c r="CH2" s="82"/>
+      <c r="CI2" s="82"/>
+      <c r="CJ2" s="82"/>
+      <c r="CK2" s="83"/>
+      <c r="CM2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="CN2" s="84"/>
-      <c r="CO2" s="80" t="s">
+      <c r="CN2" s="85"/>
+      <c r="CO2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="CP2" s="81"/>
-      <c r="CQ2" s="81"/>
-      <c r="CR2" s="81"/>
-      <c r="CS2" s="81"/>
-      <c r="CT2" s="81"/>
-      <c r="CU2" s="81"/>
-      <c r="CV2" s="81"/>
-      <c r="CW2" s="81"/>
-      <c r="CX2" s="81"/>
-      <c r="CY2" s="81"/>
-      <c r="CZ2" s="81"/>
-      <c r="DA2" s="82"/>
-      <c r="DC2" s="83" t="s">
+      <c r="CP2" s="82"/>
+      <c r="CQ2" s="82"/>
+      <c r="CR2" s="82"/>
+      <c r="CS2" s="82"/>
+      <c r="CT2" s="82"/>
+      <c r="CU2" s="82"/>
+      <c r="CV2" s="82"/>
+      <c r="CW2" s="82"/>
+      <c r="CX2" s="82"/>
+      <c r="CY2" s="82"/>
+      <c r="CZ2" s="82"/>
+      <c r="DA2" s="83"/>
+      <c r="DC2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="DD2" s="84"/>
-      <c r="DE2" s="80" t="s">
+      <c r="DD2" s="85"/>
+      <c r="DE2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="DF2" s="81"/>
-      <c r="DG2" s="81"/>
-      <c r="DH2" s="81"/>
-      <c r="DI2" s="81"/>
-      <c r="DJ2" s="81"/>
-      <c r="DK2" s="81"/>
-      <c r="DL2" s="81"/>
-      <c r="DM2" s="81"/>
-      <c r="DN2" s="81"/>
-      <c r="DO2" s="81"/>
-      <c r="DP2" s="81"/>
-      <c r="DQ2" s="82"/>
-      <c r="DS2" s="83" t="s">
+      <c r="DF2" s="82"/>
+      <c r="DG2" s="82"/>
+      <c r="DH2" s="82"/>
+      <c r="DI2" s="82"/>
+      <c r="DJ2" s="82"/>
+      <c r="DK2" s="82"/>
+      <c r="DL2" s="82"/>
+      <c r="DM2" s="82"/>
+      <c r="DN2" s="82"/>
+      <c r="DO2" s="82"/>
+      <c r="DP2" s="82"/>
+      <c r="DQ2" s="83"/>
+      <c r="DS2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="DT2" s="84"/>
-      <c r="DU2" s="80" t="s">
+      <c r="DT2" s="85"/>
+      <c r="DU2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="DV2" s="81"/>
-      <c r="DW2" s="81"/>
-      <c r="DX2" s="81"/>
-      <c r="DY2" s="81"/>
-      <c r="DZ2" s="81"/>
-      <c r="EA2" s="81"/>
-      <c r="EB2" s="81"/>
-      <c r="EC2" s="81"/>
-      <c r="ED2" s="81"/>
-      <c r="EE2" s="81"/>
-      <c r="EF2" s="81"/>
-      <c r="EG2" s="82"/>
-      <c r="EI2" s="83" t="s">
+      <c r="DV2" s="82"/>
+      <c r="DW2" s="82"/>
+      <c r="DX2" s="82"/>
+      <c r="DY2" s="82"/>
+      <c r="DZ2" s="82"/>
+      <c r="EA2" s="82"/>
+      <c r="EB2" s="82"/>
+      <c r="EC2" s="82"/>
+      <c r="ED2" s="82"/>
+      <c r="EE2" s="82"/>
+      <c r="EF2" s="82"/>
+      <c r="EG2" s="83"/>
+      <c r="EI2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="EJ2" s="84"/>
-      <c r="EK2" s="80" t="s">
+      <c r="EJ2" s="85"/>
+      <c r="EK2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" s="81"/>
-      <c r="EM2" s="81"/>
-      <c r="EN2" s="81"/>
-      <c r="EO2" s="81"/>
-      <c r="EP2" s="81"/>
-      <c r="EQ2" s="81"/>
-      <c r="ER2" s="81"/>
-      <c r="ES2" s="81"/>
-      <c r="ET2" s="81"/>
-      <c r="EU2" s="81"/>
-      <c r="EV2" s="81"/>
-      <c r="EW2" s="82"/>
+      <c r="EL2" s="82"/>
+      <c r="EM2" s="82"/>
+      <c r="EN2" s="82"/>
+      <c r="EO2" s="82"/>
+      <c r="EP2" s="82"/>
+      <c r="EQ2" s="82"/>
+      <c r="ER2" s="82"/>
+      <c r="ES2" s="82"/>
+      <c r="ET2" s="82"/>
+      <c r="EU2" s="82"/>
+      <c r="EV2" s="82"/>
+      <c r="EW2" s="83"/>
     </row>
     <row r="3" spans="2:157">
       <c r="B3" s="1" t="s">
@@ -1105,7 +1112,7 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="92"/>
+      <c r="I3" s="93"/>
       <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1522,27 +1529,27 @@
       </c>
     </row>
     <row r="4" spans="2:157">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="66">
         <v>0.81100000000000005</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="66">
         <v>0.82</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="66">
         <v>0.80800000000000005</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="66">
         <v>0.81</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="K4" s="85" t="s">
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="K4" s="86" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -1562,7 +1569,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="33"/>
-      <c r="AA4" s="77" t="s">
+      <c r="AA4" s="78" t="s">
         <v>5</v>
       </c>
       <c r="AB4" s="59" t="s">
@@ -1582,7 +1589,7 @@
       <c r="AN4" s="15"/>
       <c r="AO4" s="15"/>
       <c r="AP4" s="25"/>
-      <c r="AQ4" s="77" t="s">
+      <c r="AQ4" s="78" t="s">
         <v>5</v>
       </c>
       <c r="AR4" s="59" t="s">
@@ -1602,7 +1609,7 @@
       <c r="BD4" s="15"/>
       <c r="BE4" s="15"/>
       <c r="BF4" s="25"/>
-      <c r="BG4" s="77" t="s">
+      <c r="BG4" s="78" t="s">
         <v>5</v>
       </c>
       <c r="BH4" s="59" t="s">
@@ -1622,7 +1629,7 @@
       <c r="BT4" s="15"/>
       <c r="BU4" s="15"/>
       <c r="BV4" s="25"/>
-      <c r="BW4" s="77" t="s">
+      <c r="BW4" s="78" t="s">
         <v>5</v>
       </c>
       <c r="BX4" s="59" t="s">
@@ -1642,7 +1649,7 @@
       <c r="CJ4" s="15"/>
       <c r="CK4" s="15"/>
       <c r="CL4" s="25"/>
-      <c r="CM4" s="77" t="s">
+      <c r="CM4" s="78" t="s">
         <v>5</v>
       </c>
       <c r="CN4" s="59" t="s">
@@ -1662,7 +1669,7 @@
       <c r="CZ4" s="15"/>
       <c r="DA4" s="15"/>
       <c r="DB4" s="25"/>
-      <c r="DC4" s="77" t="s">
+      <c r="DC4" s="78" t="s">
         <v>5</v>
       </c>
       <c r="DD4" s="59" t="s">
@@ -1682,7 +1689,7 @@
       <c r="DP4" s="15"/>
       <c r="DQ4" s="15"/>
       <c r="DR4" s="25"/>
-      <c r="DS4" s="77" t="s">
+      <c r="DS4" s="78" t="s">
         <v>5</v>
       </c>
       <c r="DT4" s="59" t="s">
@@ -1702,7 +1709,7 @@
       <c r="EF4" s="15"/>
       <c r="EG4" s="15"/>
       <c r="EH4" s="25"/>
-      <c r="EI4" s="77" t="s">
+      <c r="EI4" s="78" t="s">
         <v>5</v>
       </c>
       <c r="EJ4" s="59" t="s">
@@ -1722,7 +1729,7 @@
       <c r="EV4" s="15"/>
       <c r="EW4" s="15"/>
       <c r="EX4" s="25"/>
-      <c r="EY4" s="77" t="s">
+      <c r="EY4" s="78" t="s">
         <v>5</v>
       </c>
       <c r="EZ4" s="59" t="s">
@@ -1731,25 +1738,25 @@
       <c r="FA4" s="15"/>
     </row>
     <row r="5" spans="2:157">
-      <c r="B5" s="86"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="68">
         <v>0.78900000000000003</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="68">
         <v>0.80400000000000005</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="68">
         <v>0.80300000000000005</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="68">
         <v>0.80700000000000005</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="K5" s="86"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="K5" s="87"/>
       <c r="L5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1767,7 +1774,7 @@
       <c r="X5" s="17"/>
       <c r="Y5" s="17"/>
       <c r="Z5" s="25"/>
-      <c r="AA5" s="78"/>
+      <c r="AA5" s="79"/>
       <c r="AB5" s="63" t="s">
         <v>7</v>
       </c>
@@ -1785,7 +1792,7 @@
       <c r="AN5" s="17"/>
       <c r="AO5" s="17"/>
       <c r="AP5" s="25"/>
-      <c r="AQ5" s="78"/>
+      <c r="AQ5" s="79"/>
       <c r="AR5" s="63" t="s">
         <v>7</v>
       </c>
@@ -1803,7 +1810,7 @@
       <c r="BD5" s="17"/>
       <c r="BE5" s="17"/>
       <c r="BF5" s="25"/>
-      <c r="BG5" s="78"/>
+      <c r="BG5" s="79"/>
       <c r="BH5" s="63" t="s">
         <v>7</v>
       </c>
@@ -1821,7 +1828,7 @@
       <c r="BT5" s="17"/>
       <c r="BU5" s="17"/>
       <c r="BV5" s="25"/>
-      <c r="BW5" s="78"/>
+      <c r="BW5" s="79"/>
       <c r="BX5" s="63" t="s">
         <v>7</v>
       </c>
@@ -1839,7 +1846,7 @@
       <c r="CJ5" s="17"/>
       <c r="CK5" s="17"/>
       <c r="CL5" s="25"/>
-      <c r="CM5" s="78"/>
+      <c r="CM5" s="79"/>
       <c r="CN5" s="63" t="s">
         <v>7</v>
       </c>
@@ -1857,7 +1864,7 @@
       <c r="CZ5" s="17"/>
       <c r="DA5" s="17"/>
       <c r="DB5" s="25"/>
-      <c r="DC5" s="78"/>
+      <c r="DC5" s="79"/>
       <c r="DD5" s="63" t="s">
         <v>7</v>
       </c>
@@ -1875,7 +1882,7 @@
       <c r="DP5" s="17"/>
       <c r="DQ5" s="17"/>
       <c r="DR5" s="25"/>
-      <c r="DS5" s="78"/>
+      <c r="DS5" s="79"/>
       <c r="DT5" s="63" t="s">
         <v>7</v>
       </c>
@@ -1893,7 +1900,7 @@
       <c r="EF5" s="17"/>
       <c r="EG5" s="17"/>
       <c r="EH5" s="25"/>
-      <c r="EI5" s="78"/>
+      <c r="EI5" s="79"/>
       <c r="EJ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -1911,32 +1918,32 @@
       <c r="EV5" s="17"/>
       <c r="EW5" s="17"/>
       <c r="EX5" s="25"/>
-      <c r="EY5" s="78"/>
+      <c r="EY5" s="79"/>
       <c r="EZ5" s="63" t="s">
         <v>7</v>
       </c>
       <c r="FA5" s="17"/>
     </row>
     <row r="6" spans="2:157">
-      <c r="B6" s="86"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="68">
         <v>0.74299999999999999</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="68">
         <v>0.746</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="68">
         <v>0.74399999999999999</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="68">
         <v>0.746</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="K6" s="86"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1954,7 +1961,7 @@
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="25"/>
-      <c r="AA6" s="78"/>
+      <c r="AA6" s="79"/>
       <c r="AB6" s="63" t="s">
         <v>8</v>
       </c>
@@ -1972,7 +1979,7 @@
       <c r="AN6" s="17"/>
       <c r="AO6" s="17"/>
       <c r="AP6" s="25"/>
-      <c r="AQ6" s="78"/>
+      <c r="AQ6" s="79"/>
       <c r="AR6" s="63" t="s">
         <v>8</v>
       </c>
@@ -1990,7 +1997,7 @@
       <c r="BD6" s="17"/>
       <c r="BE6" s="17"/>
       <c r="BF6" s="25"/>
-      <c r="BG6" s="78"/>
+      <c r="BG6" s="79"/>
       <c r="BH6" s="63" t="s">
         <v>8</v>
       </c>
@@ -2008,7 +2015,7 @@
       <c r="BT6" s="17"/>
       <c r="BU6" s="17"/>
       <c r="BV6" s="25"/>
-      <c r="BW6" s="78"/>
+      <c r="BW6" s="79"/>
       <c r="BX6" s="63" t="s">
         <v>8</v>
       </c>
@@ -2026,7 +2033,7 @@
       <c r="CJ6" s="17"/>
       <c r="CK6" s="17"/>
       <c r="CL6" s="25"/>
-      <c r="CM6" s="78"/>
+      <c r="CM6" s="79"/>
       <c r="CN6" s="63" t="s">
         <v>8</v>
       </c>
@@ -2044,7 +2051,7 @@
       <c r="CZ6" s="17"/>
       <c r="DA6" s="17"/>
       <c r="DB6" s="25"/>
-      <c r="DC6" s="78"/>
+      <c r="DC6" s="79"/>
       <c r="DD6" s="63" t="s">
         <v>8</v>
       </c>
@@ -2062,7 +2069,7 @@
       <c r="DP6" s="17"/>
       <c r="DQ6" s="17"/>
       <c r="DR6" s="25"/>
-      <c r="DS6" s="78"/>
+      <c r="DS6" s="79"/>
       <c r="DT6" s="63" t="s">
         <v>8</v>
       </c>
@@ -2080,7 +2087,7 @@
       <c r="EF6" s="17"/>
       <c r="EG6" s="17"/>
       <c r="EH6" s="25"/>
-      <c r="EI6" s="78"/>
+      <c r="EI6" s="79"/>
       <c r="EJ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -2098,32 +2105,32 @@
       <c r="EV6" s="17"/>
       <c r="EW6" s="17"/>
       <c r="EX6" s="25"/>
-      <c r="EY6" s="78"/>
+      <c r="EY6" s="79"/>
       <c r="EZ6" s="63" t="s">
         <v>8</v>
       </c>
       <c r="FA6" s="17"/>
     </row>
     <row r="7" spans="2:157">
-      <c r="B7" s="86"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="68">
         <v>0.80600000000000005</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="68">
         <v>0.8</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="68">
         <v>0.79700000000000004</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="68">
         <v>0.8</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="K7" s="87"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="K7" s="88"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
@@ -2141,7 +2148,7 @@
       <c r="X7" s="19"/>
       <c r="Y7" s="19"/>
       <c r="Z7" s="25"/>
-      <c r="AA7" s="79"/>
+      <c r="AA7" s="80"/>
       <c r="AB7" s="63" t="s">
         <v>9</v>
       </c>
@@ -2159,7 +2166,7 @@
       <c r="AN7" s="19"/>
       <c r="AO7" s="19"/>
       <c r="AP7" s="25"/>
-      <c r="AQ7" s="79"/>
+      <c r="AQ7" s="80"/>
       <c r="AR7" s="63" t="s">
         <v>9</v>
       </c>
@@ -2177,7 +2184,7 @@
       <c r="BD7" s="19"/>
       <c r="BE7" s="19"/>
       <c r="BF7" s="25"/>
-      <c r="BG7" s="79"/>
+      <c r="BG7" s="80"/>
       <c r="BH7" s="63" t="s">
         <v>9</v>
       </c>
@@ -2195,7 +2202,7 @@
       <c r="BT7" s="19"/>
       <c r="BU7" s="19"/>
       <c r="BV7" s="25"/>
-      <c r="BW7" s="79"/>
+      <c r="BW7" s="80"/>
       <c r="BX7" s="63" t="s">
         <v>9</v>
       </c>
@@ -2213,7 +2220,7 @@
       <c r="CJ7" s="19"/>
       <c r="CK7" s="19"/>
       <c r="CL7" s="25"/>
-      <c r="CM7" s="79"/>
+      <c r="CM7" s="80"/>
       <c r="CN7" s="63" t="s">
         <v>9</v>
       </c>
@@ -2231,7 +2238,7 @@
       <c r="CZ7" s="19"/>
       <c r="DA7" s="19"/>
       <c r="DB7" s="25"/>
-      <c r="DC7" s="79"/>
+      <c r="DC7" s="80"/>
       <c r="DD7" s="63" t="s">
         <v>9</v>
       </c>
@@ -2249,7 +2256,7 @@
       <c r="DP7" s="19"/>
       <c r="DQ7" s="19"/>
       <c r="DR7" s="25"/>
-      <c r="DS7" s="79"/>
+      <c r="DS7" s="80"/>
       <c r="DT7" s="63" t="s">
         <v>9</v>
       </c>
@@ -2267,7 +2274,7 @@
       <c r="EF7" s="19"/>
       <c r="EG7" s="19"/>
       <c r="EH7" s="25"/>
-      <c r="EI7" s="79"/>
+      <c r="EI7" s="80"/>
       <c r="EJ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -2285,34 +2292,34 @@
       <c r="EV7" s="19"/>
       <c r="EW7" s="19"/>
       <c r="EX7" s="25"/>
-      <c r="EY7" s="79"/>
+      <c r="EY7" s="80"/>
       <c r="EZ7" s="63" t="s">
         <v>9</v>
       </c>
       <c r="FA7" s="17"/>
     </row>
     <row r="8" spans="2:157">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="75" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="66">
         <v>0.80400000000000005</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="66">
         <v>0.80300000000000005</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="66">
         <v>0.80300000000000005</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="66">
         <v>0.80100000000000005</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="K8" s="74" t="s">
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="K8" s="75" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -2332,7 +2339,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="25"/>
-      <c r="AA8" s="71" t="s">
+      <c r="AA8" s="72" t="s">
         <v>10</v>
       </c>
       <c r="AB8" s="59" t="s">
@@ -2352,7 +2359,7 @@
       <c r="AN8" s="15"/>
       <c r="AO8" s="15"/>
       <c r="AP8" s="25"/>
-      <c r="AQ8" s="71" t="s">
+      <c r="AQ8" s="72" t="s">
         <v>10</v>
       </c>
       <c r="AR8" s="59" t="s">
@@ -2372,7 +2379,7 @@
       <c r="BD8" s="15"/>
       <c r="BE8" s="15"/>
       <c r="BF8" s="25"/>
-      <c r="BG8" s="71" t="s">
+      <c r="BG8" s="72" t="s">
         <v>10</v>
       </c>
       <c r="BH8" s="59" t="s">
@@ -2392,7 +2399,7 @@
       <c r="BT8" s="15"/>
       <c r="BU8" s="15"/>
       <c r="BV8" s="25"/>
-      <c r="BW8" s="71" t="s">
+      <c r="BW8" s="72" t="s">
         <v>10</v>
       </c>
       <c r="BX8" s="59" t="s">
@@ -2412,7 +2419,7 @@
       <c r="CJ8" s="15"/>
       <c r="CK8" s="15"/>
       <c r="CL8" s="25"/>
-      <c r="CM8" s="71" t="s">
+      <c r="CM8" s="72" t="s">
         <v>10</v>
       </c>
       <c r="CN8" s="59" t="s">
@@ -2432,7 +2439,7 @@
       <c r="CZ8" s="15"/>
       <c r="DA8" s="15"/>
       <c r="DB8" s="25"/>
-      <c r="DC8" s="71" t="s">
+      <c r="DC8" s="72" t="s">
         <v>10</v>
       </c>
       <c r="DD8" s="59" t="s">
@@ -2452,7 +2459,7 @@
       <c r="DP8" s="15"/>
       <c r="DQ8" s="15"/>
       <c r="DR8" s="25"/>
-      <c r="DS8" s="71" t="s">
+      <c r="DS8" s="72" t="s">
         <v>10</v>
       </c>
       <c r="DT8" s="59" t="s">
@@ -2472,7 +2479,7 @@
       <c r="EF8" s="15"/>
       <c r="EG8" s="15"/>
       <c r="EH8" s="25"/>
-      <c r="EI8" s="71" t="s">
+      <c r="EI8" s="72" t="s">
         <v>10</v>
       </c>
       <c r="EJ8" s="59" t="s">
@@ -2492,7 +2499,7 @@
       <c r="EV8" s="15"/>
       <c r="EW8" s="15"/>
       <c r="EX8" s="25"/>
-      <c r="EY8" s="71" t="s">
+      <c r="EY8" s="72" t="s">
         <v>10</v>
       </c>
       <c r="EZ8" s="59" t="s">
@@ -2501,25 +2508,25 @@
       <c r="FA8" s="15"/>
     </row>
     <row r="9" spans="2:157">
-      <c r="B9" s="75"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="68">
         <v>0.79900000000000004</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="68">
         <v>0.80300000000000005</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="68">
         <v>0.79700000000000004</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="68">
         <v>0.79700000000000004</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="K9" s="75"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="7" t="s">
         <v>7</v>
       </c>
@@ -2537,7 +2544,7 @@
       <c r="X9" s="17"/>
       <c r="Y9" s="17"/>
       <c r="Z9" s="25"/>
-      <c r="AA9" s="72"/>
+      <c r="AA9" s="73"/>
       <c r="AB9" s="63" t="s">
         <v>7</v>
       </c>
@@ -2555,7 +2562,7 @@
       <c r="AN9" s="17"/>
       <c r="AO9" s="17"/>
       <c r="AP9" s="25"/>
-      <c r="AQ9" s="72"/>
+      <c r="AQ9" s="73"/>
       <c r="AR9" s="63" t="s">
         <v>7</v>
       </c>
@@ -2573,7 +2580,7 @@
       <c r="BD9" s="17"/>
       <c r="BE9" s="17"/>
       <c r="BF9" s="25"/>
-      <c r="BG9" s="72"/>
+      <c r="BG9" s="73"/>
       <c r="BH9" s="63" t="s">
         <v>7</v>
       </c>
@@ -2591,7 +2598,7 @@
       <c r="BT9" s="17"/>
       <c r="BU9" s="17"/>
       <c r="BV9" s="25"/>
-      <c r="BW9" s="72"/>
+      <c r="BW9" s="73"/>
       <c r="BX9" s="63" t="s">
         <v>7</v>
       </c>
@@ -2609,7 +2616,7 @@
       <c r="CJ9" s="17"/>
       <c r="CK9" s="17"/>
       <c r="CL9" s="25"/>
-      <c r="CM9" s="72"/>
+      <c r="CM9" s="73"/>
       <c r="CN9" s="63" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +2634,7 @@
       <c r="CZ9" s="17"/>
       <c r="DA9" s="17"/>
       <c r="DB9" s="25"/>
-      <c r="DC9" s="72"/>
+      <c r="DC9" s="73"/>
       <c r="DD9" s="63" t="s">
         <v>7</v>
       </c>
@@ -2645,7 +2652,7 @@
       <c r="DP9" s="17"/>
       <c r="DQ9" s="17"/>
       <c r="DR9" s="25"/>
-      <c r="DS9" s="72"/>
+      <c r="DS9" s="73"/>
       <c r="DT9" s="63" t="s">
         <v>7</v>
       </c>
@@ -2663,7 +2670,7 @@
       <c r="EF9" s="17"/>
       <c r="EG9" s="17"/>
       <c r="EH9" s="25"/>
-      <c r="EI9" s="72"/>
+      <c r="EI9" s="73"/>
       <c r="EJ9" s="63" t="s">
         <v>7</v>
       </c>
@@ -2681,32 +2688,32 @@
       <c r="EV9" s="17"/>
       <c r="EW9" s="17"/>
       <c r="EX9" s="25"/>
-      <c r="EY9" s="72"/>
+      <c r="EY9" s="73"/>
       <c r="EZ9" s="63" t="s">
         <v>7</v>
       </c>
       <c r="FA9" s="17"/>
     </row>
     <row r="10" spans="2:157">
-      <c r="B10" s="75"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="68">
         <v>0.75900000000000001</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="68">
         <v>0.77200000000000002</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="68">
         <v>0.76700000000000002</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="68">
         <v>0.77200000000000002</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="K10" s="75"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="7" t="s">
         <v>8</v>
       </c>
@@ -2724,7 +2731,7 @@
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
       <c r="Z10" s="25"/>
-      <c r="AA10" s="72"/>
+      <c r="AA10" s="73"/>
       <c r="AB10" s="63" t="s">
         <v>8</v>
       </c>
@@ -2742,7 +2749,7 @@
       <c r="AN10" s="17"/>
       <c r="AO10" s="17"/>
       <c r="AP10" s="25"/>
-      <c r="AQ10" s="72"/>
+      <c r="AQ10" s="73"/>
       <c r="AR10" s="63" t="s">
         <v>8</v>
       </c>
@@ -2760,7 +2767,7 @@
       <c r="BD10" s="17"/>
       <c r="BE10" s="17"/>
       <c r="BF10" s="25"/>
-      <c r="BG10" s="72"/>
+      <c r="BG10" s="73"/>
       <c r="BH10" s="63" t="s">
         <v>8</v>
       </c>
@@ -2778,7 +2785,7 @@
       <c r="BT10" s="17"/>
       <c r="BU10" s="17"/>
       <c r="BV10" s="25"/>
-      <c r="BW10" s="72"/>
+      <c r="BW10" s="73"/>
       <c r="BX10" s="63" t="s">
         <v>8</v>
       </c>
@@ -2796,7 +2803,7 @@
       <c r="CJ10" s="17"/>
       <c r="CK10" s="17"/>
       <c r="CL10" s="25"/>
-      <c r="CM10" s="72"/>
+      <c r="CM10" s="73"/>
       <c r="CN10" s="63" t="s">
         <v>8</v>
       </c>
@@ -2814,7 +2821,7 @@
       <c r="CZ10" s="17"/>
       <c r="DA10" s="17"/>
       <c r="DB10" s="25"/>
-      <c r="DC10" s="72"/>
+      <c r="DC10" s="73"/>
       <c r="DD10" s="63" t="s">
         <v>8</v>
       </c>
@@ -2832,7 +2839,7 @@
       <c r="DP10" s="17"/>
       <c r="DQ10" s="17"/>
       <c r="DR10" s="25"/>
-      <c r="DS10" s="72"/>
+      <c r="DS10" s="73"/>
       <c r="DT10" s="63" t="s">
         <v>8</v>
       </c>
@@ -2850,7 +2857,7 @@
       <c r="EF10" s="17"/>
       <c r="EG10" s="17"/>
       <c r="EH10" s="25"/>
-      <c r="EI10" s="72"/>
+      <c r="EI10" s="73"/>
       <c r="EJ10" s="63" t="s">
         <v>8</v>
       </c>
@@ -2868,32 +2875,32 @@
       <c r="EV10" s="17"/>
       <c r="EW10" s="17"/>
       <c r="EX10" s="25"/>
-      <c r="EY10" s="72"/>
+      <c r="EY10" s="73"/>
       <c r="EZ10" s="63" t="s">
         <v>8</v>
       </c>
       <c r="FA10" s="17"/>
     </row>
     <row r="11" spans="2:157">
-      <c r="B11" s="76"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="70">
         <v>0.80900000000000005</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="70">
         <v>0.80600000000000005</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="70">
         <v>0.80200000000000005</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="70">
         <v>0.80300000000000005</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="8" t="s">
         <v>9</v>
       </c>
@@ -2911,7 +2918,7 @@
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="73"/>
+      <c r="AA11" s="74"/>
       <c r="AB11" s="64" t="s">
         <v>9</v>
       </c>
@@ -2929,7 +2936,7 @@
       <c r="AN11" s="19"/>
       <c r="AO11" s="19"/>
       <c r="AP11" s="25"/>
-      <c r="AQ11" s="73"/>
+      <c r="AQ11" s="74"/>
       <c r="AR11" s="64" t="s">
         <v>9</v>
       </c>
@@ -2947,7 +2954,7 @@
       <c r="BD11" s="19"/>
       <c r="BE11" s="19"/>
       <c r="BF11" s="25"/>
-      <c r="BG11" s="73"/>
+      <c r="BG11" s="74"/>
       <c r="BH11" s="64" t="s">
         <v>9</v>
       </c>
@@ -2965,7 +2972,7 @@
       <c r="BT11" s="19"/>
       <c r="BU11" s="19"/>
       <c r="BV11" s="25"/>
-      <c r="BW11" s="73"/>
+      <c r="BW11" s="74"/>
       <c r="BX11" s="64" t="s">
         <v>9</v>
       </c>
@@ -2983,7 +2990,7 @@
       <c r="CJ11" s="19"/>
       <c r="CK11" s="19"/>
       <c r="CL11" s="25"/>
-      <c r="CM11" s="73"/>
+      <c r="CM11" s="74"/>
       <c r="CN11" s="64" t="s">
         <v>9</v>
       </c>
@@ -3001,7 +3008,7 @@
       <c r="CZ11" s="19"/>
       <c r="DA11" s="19"/>
       <c r="DB11" s="25"/>
-      <c r="DC11" s="73"/>
+      <c r="DC11" s="74"/>
       <c r="DD11" s="64" t="s">
         <v>9</v>
       </c>
@@ -3019,7 +3026,7 @@
       <c r="DP11" s="19"/>
       <c r="DQ11" s="19"/>
       <c r="DR11" s="25"/>
-      <c r="DS11" s="73"/>
+      <c r="DS11" s="74"/>
       <c r="DT11" s="64" t="s">
         <v>9</v>
       </c>
@@ -3037,7 +3044,7 @@
       <c r="EF11" s="19"/>
       <c r="EG11" s="19"/>
       <c r="EH11" s="25"/>
-      <c r="EI11" s="73"/>
+      <c r="EI11" s="74"/>
       <c r="EJ11" s="64" t="s">
         <v>9</v>
       </c>
@@ -3055,32 +3062,32 @@
       <c r="EV11" s="19"/>
       <c r="EW11" s="19"/>
       <c r="EX11" s="25"/>
-      <c r="EY11" s="73"/>
+      <c r="EY11" s="74"/>
       <c r="EZ11" s="64" t="s">
         <v>9</v>
       </c>
       <c r="FA11" s="19"/>
     </row>
     <row r="12" spans="2:157">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="75" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="66">
         <v>0.80800000000000005</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="66">
         <v>0.80700000000000005</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="66">
         <v>0.80200000000000005</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="K12" s="74" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="K12" s="75" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -3100,7 +3107,7 @@
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="25"/>
-      <c r="AA12" s="71" t="s">
+      <c r="AA12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="AB12" s="59" t="s">
@@ -3120,7 +3127,7 @@
       <c r="AN12" s="15"/>
       <c r="AO12" s="15"/>
       <c r="AP12" s="25"/>
-      <c r="AQ12" s="71" t="s">
+      <c r="AQ12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="AR12" s="59" t="s">
@@ -3140,7 +3147,7 @@
       <c r="BD12" s="15"/>
       <c r="BE12" s="15"/>
       <c r="BF12" s="25"/>
-      <c r="BG12" s="71" t="s">
+      <c r="BG12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="BH12" s="59" t="s">
@@ -3160,7 +3167,7 @@
       <c r="BT12" s="15"/>
       <c r="BU12" s="15"/>
       <c r="BV12" s="25"/>
-      <c r="BW12" s="71" t="s">
+      <c r="BW12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="BX12" s="59" t="s">
@@ -3180,7 +3187,7 @@
       <c r="CJ12" s="15"/>
       <c r="CK12" s="15"/>
       <c r="CL12" s="25"/>
-      <c r="CM12" s="71" t="s">
+      <c r="CM12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="CN12" s="59" t="s">
@@ -3200,7 +3207,7 @@
       <c r="CZ12" s="15"/>
       <c r="DA12" s="15"/>
       <c r="DB12" s="25"/>
-      <c r="DC12" s="71" t="s">
+      <c r="DC12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="DD12" s="59" t="s">
@@ -3220,7 +3227,7 @@
       <c r="DP12" s="15"/>
       <c r="DQ12" s="15"/>
       <c r="DR12" s="25"/>
-      <c r="DS12" s="71" t="s">
+      <c r="DS12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="DT12" s="59" t="s">
@@ -3240,7 +3247,7 @@
       <c r="EF12" s="15"/>
       <c r="EG12" s="15"/>
       <c r="EH12" s="25"/>
-      <c r="EI12" s="71" t="s">
+      <c r="EI12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="EJ12" s="59" t="s">
@@ -3260,7 +3267,7 @@
       <c r="EV12" s="15"/>
       <c r="EW12" s="15"/>
       <c r="EX12" s="25"/>
-      <c r="EY12" s="71" t="s">
+      <c r="EY12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="EZ12" s="59" t="s">
@@ -3269,23 +3276,23 @@
       <c r="FA12" s="15"/>
     </row>
     <row r="13" spans="2:157">
-      <c r="B13" s="75"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="68">
         <v>0.79300000000000004</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="68">
         <v>0.80200000000000005</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="68">
         <v>0.79700000000000004</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="K13" s="75"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="K13" s="76"/>
       <c r="L13" s="7" t="s">
         <v>7</v>
       </c>
@@ -3303,7 +3310,7 @@
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
       <c r="Z13" s="25"/>
-      <c r="AA13" s="72"/>
+      <c r="AA13" s="73"/>
       <c r="AB13" s="63" t="s">
         <v>7</v>
       </c>
@@ -3321,7 +3328,7 @@
       <c r="AN13" s="17"/>
       <c r="AO13" s="17"/>
       <c r="AP13" s="25"/>
-      <c r="AQ13" s="72"/>
+      <c r="AQ13" s="73"/>
       <c r="AR13" s="63" t="s">
         <v>7</v>
       </c>
@@ -3339,7 +3346,7 @@
       <c r="BD13" s="17"/>
       <c r="BE13" s="17"/>
       <c r="BF13" s="25"/>
-      <c r="BG13" s="72"/>
+      <c r="BG13" s="73"/>
       <c r="BH13" s="63" t="s">
         <v>7</v>
       </c>
@@ -3357,7 +3364,7 @@
       <c r="BT13" s="17"/>
       <c r="BU13" s="17"/>
       <c r="BV13" s="25"/>
-      <c r="BW13" s="72"/>
+      <c r="BW13" s="73"/>
       <c r="BX13" s="63" t="s">
         <v>7</v>
       </c>
@@ -3375,7 +3382,7 @@
       <c r="CJ13" s="17"/>
       <c r="CK13" s="17"/>
       <c r="CL13" s="25"/>
-      <c r="CM13" s="72"/>
+      <c r="CM13" s="73"/>
       <c r="CN13" s="63" t="s">
         <v>7</v>
       </c>
@@ -3393,7 +3400,7 @@
       <c r="CZ13" s="17"/>
       <c r="DA13" s="17"/>
       <c r="DB13" s="25"/>
-      <c r="DC13" s="72"/>
+      <c r="DC13" s="73"/>
       <c r="DD13" s="63" t="s">
         <v>7</v>
       </c>
@@ -3411,7 +3418,7 @@
       <c r="DP13" s="17"/>
       <c r="DQ13" s="17"/>
       <c r="DR13" s="25"/>
-      <c r="DS13" s="72"/>
+      <c r="DS13" s="73"/>
       <c r="DT13" s="63" t="s">
         <v>7</v>
       </c>
@@ -3429,7 +3436,7 @@
       <c r="EF13" s="17"/>
       <c r="EG13" s="17"/>
       <c r="EH13" s="25"/>
-      <c r="EI13" s="72"/>
+      <c r="EI13" s="73"/>
       <c r="EJ13" s="63" t="s">
         <v>7</v>
       </c>
@@ -3447,30 +3454,30 @@
       <c r="EV13" s="17"/>
       <c r="EW13" s="17"/>
       <c r="EX13" s="25"/>
-      <c r="EY13" s="72"/>
+      <c r="EY13" s="73"/>
       <c r="EZ13" s="63" t="s">
         <v>7</v>
       </c>
       <c r="FA13" s="17"/>
     </row>
     <row r="14" spans="2:157">
-      <c r="B14" s="75"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="68">
         <v>0.75700000000000001</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="68">
         <v>0.754</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="68">
         <v>0.75600000000000001</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="K14" s="75"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="K14" s="76"/>
       <c r="L14" s="7" t="s">
         <v>8</v>
       </c>
@@ -3488,7 +3495,7 @@
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
       <c r="Z14" s="25"/>
-      <c r="AA14" s="72"/>
+      <c r="AA14" s="73"/>
       <c r="AB14" s="63" t="s">
         <v>8</v>
       </c>
@@ -3506,7 +3513,7 @@
       <c r="AN14" s="17"/>
       <c r="AO14" s="17"/>
       <c r="AP14" s="25"/>
-      <c r="AQ14" s="72"/>
+      <c r="AQ14" s="73"/>
       <c r="AR14" s="63" t="s">
         <v>8</v>
       </c>
@@ -3524,7 +3531,7 @@
       <c r="BD14" s="17"/>
       <c r="BE14" s="17"/>
       <c r="BF14" s="25"/>
-      <c r="BG14" s="72"/>
+      <c r="BG14" s="73"/>
       <c r="BH14" s="63" t="s">
         <v>8</v>
       </c>
@@ -3542,7 +3549,7 @@
       <c r="BT14" s="17"/>
       <c r="BU14" s="17"/>
       <c r="BV14" s="25"/>
-      <c r="BW14" s="72"/>
+      <c r="BW14" s="73"/>
       <c r="BX14" s="63" t="s">
         <v>8</v>
       </c>
@@ -3560,7 +3567,7 @@
       <c r="CJ14" s="17"/>
       <c r="CK14" s="17"/>
       <c r="CL14" s="25"/>
-      <c r="CM14" s="72"/>
+      <c r="CM14" s="73"/>
       <c r="CN14" s="63" t="s">
         <v>8</v>
       </c>
@@ -3578,7 +3585,7 @@
       <c r="CZ14" s="17"/>
       <c r="DA14" s="17"/>
       <c r="DB14" s="25"/>
-      <c r="DC14" s="72"/>
+      <c r="DC14" s="73"/>
       <c r="DD14" s="63" t="s">
         <v>8</v>
       </c>
@@ -3596,7 +3603,7 @@
       <c r="DP14" s="17"/>
       <c r="DQ14" s="17"/>
       <c r="DR14" s="25"/>
-      <c r="DS14" s="72"/>
+      <c r="DS14" s="73"/>
       <c r="DT14" s="63" t="s">
         <v>8</v>
       </c>
@@ -3614,7 +3621,7 @@
       <c r="EF14" s="17"/>
       <c r="EG14" s="17"/>
       <c r="EH14" s="25"/>
-      <c r="EI14" s="72"/>
+      <c r="EI14" s="73"/>
       <c r="EJ14" s="63" t="s">
         <v>8</v>
       </c>
@@ -3632,30 +3639,30 @@
       <c r="EV14" s="17"/>
       <c r="EW14" s="17"/>
       <c r="EX14" s="25"/>
-      <c r="EY14" s="72"/>
+      <c r="EY14" s="73"/>
       <c r="EZ14" s="63" t="s">
         <v>8</v>
       </c>
       <c r="FA14" s="17"/>
     </row>
     <row r="15" spans="2:157">
-      <c r="B15" s="76"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="70">
         <v>0.80900000000000005</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="70">
         <v>0.79700000000000004</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="70">
         <v>0.79700000000000004</v>
       </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="K15" s="76"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="8" t="s">
         <v>9</v>
       </c>
@@ -3673,7 +3680,7 @@
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="25"/>
-      <c r="AA15" s="73"/>
+      <c r="AA15" s="74"/>
       <c r="AB15" s="64" t="s">
         <v>9</v>
       </c>
@@ -3691,7 +3698,7 @@
       <c r="AN15" s="19"/>
       <c r="AO15" s="19"/>
       <c r="AP15" s="25"/>
-      <c r="AQ15" s="73"/>
+      <c r="AQ15" s="74"/>
       <c r="AR15" s="64" t="s">
         <v>9</v>
       </c>
@@ -3709,7 +3716,7 @@
       <c r="BD15" s="19"/>
       <c r="BE15" s="19"/>
       <c r="BF15" s="25"/>
-      <c r="BG15" s="73"/>
+      <c r="BG15" s="74"/>
       <c r="BH15" s="64" t="s">
         <v>9</v>
       </c>
@@ -3727,7 +3734,7 @@
       <c r="BT15" s="19"/>
       <c r="BU15" s="19"/>
       <c r="BV15" s="25"/>
-      <c r="BW15" s="73"/>
+      <c r="BW15" s="74"/>
       <c r="BX15" s="64" t="s">
         <v>9</v>
       </c>
@@ -3745,7 +3752,7 @@
       <c r="CJ15" s="19"/>
       <c r="CK15" s="19"/>
       <c r="CL15" s="25"/>
-      <c r="CM15" s="73"/>
+      <c r="CM15" s="74"/>
       <c r="CN15" s="64" t="s">
         <v>9</v>
       </c>
@@ -3763,7 +3770,7 @@
       <c r="CZ15" s="19"/>
       <c r="DA15" s="19"/>
       <c r="DB15" s="25"/>
-      <c r="DC15" s="73"/>
+      <c r="DC15" s="74"/>
       <c r="DD15" s="64" t="s">
         <v>9</v>
       </c>
@@ -3781,7 +3788,7 @@
       <c r="DP15" s="19"/>
       <c r="DQ15" s="19"/>
       <c r="DR15" s="25"/>
-      <c r="DS15" s="73"/>
+      <c r="DS15" s="74"/>
       <c r="DT15" s="64" t="s">
         <v>9</v>
       </c>
@@ -3799,7 +3806,7 @@
       <c r="EF15" s="19"/>
       <c r="EG15" s="19"/>
       <c r="EH15" s="25"/>
-      <c r="EI15" s="73"/>
+      <c r="EI15" s="74"/>
       <c r="EJ15" s="64" t="s">
         <v>9</v>
       </c>
@@ -3817,7 +3824,7 @@
       <c r="EV15" s="19"/>
       <c r="EW15" s="19"/>
       <c r="EX15" s="25"/>
-      <c r="EY15" s="73"/>
+      <c r="EY15" s="74"/>
       <c r="EZ15" s="64" t="s">
         <v>9</v>
       </c>
@@ -3887,10 +3894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64011DA5-02EF-48AC-ACFA-FEAB6A3DC307}">
-  <dimension ref="B2:FA44"/>
+  <dimension ref="B2:FA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39:I44"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3933,198 +3940,198 @@
     <col min="57" max="57" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:157">
-      <c r="B2" s="88" t="s">
+    <row r="2" spans="2:157" ht="14.5" customHeight="1">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91" t="s">
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="K2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="80" t="s">
+      <c r="L2" s="85"/>
+      <c r="M2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="AA2" s="83" t="s">
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="AA2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="80" t="s">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81"/>
-      <c r="AL2" s="81"/>
-      <c r="AM2" s="81"/>
-      <c r="AN2" s="81"/>
-      <c r="AO2" s="82"/>
-      <c r="AQ2" s="83" t="s">
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="83"/>
+      <c r="AQ2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="80" t="s">
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="81"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="81"/>
-      <c r="AX2" s="81"/>
-      <c r="AY2" s="81"/>
-      <c r="AZ2" s="81"/>
-      <c r="BA2" s="81"/>
-      <c r="BB2" s="81"/>
-      <c r="BC2" s="81"/>
-      <c r="BD2" s="81"/>
-      <c r="BE2" s="82"/>
-      <c r="BG2" s="83" t="s">
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82"/>
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="83"/>
+      <c r="BG2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="80" t="s">
+      <c r="BH2" s="85"/>
+      <c r="BI2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="81"/>
-      <c r="BK2" s="81"/>
-      <c r="BL2" s="81"/>
-      <c r="BM2" s="81"/>
-      <c r="BN2" s="81"/>
-      <c r="BO2" s="81"/>
-      <c r="BP2" s="81"/>
-      <c r="BQ2" s="81"/>
-      <c r="BR2" s="81"/>
-      <c r="BS2" s="81"/>
-      <c r="BT2" s="81"/>
-      <c r="BU2" s="82"/>
-      <c r="BW2" s="83" t="s">
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="82"/>
+      <c r="BL2" s="82"/>
+      <c r="BM2" s="82"/>
+      <c r="BN2" s="82"/>
+      <c r="BO2" s="82"/>
+      <c r="BP2" s="82"/>
+      <c r="BQ2" s="82"/>
+      <c r="BR2" s="82"/>
+      <c r="BS2" s="82"/>
+      <c r="BT2" s="82"/>
+      <c r="BU2" s="83"/>
+      <c r="BW2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="BX2" s="84"/>
-      <c r="BY2" s="80" t="s">
+      <c r="BX2" s="85"/>
+      <c r="BY2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="BZ2" s="81"/>
-      <c r="CA2" s="81"/>
-      <c r="CB2" s="81"/>
-      <c r="CC2" s="81"/>
-      <c r="CD2" s="81"/>
-      <c r="CE2" s="81"/>
-      <c r="CF2" s="81"/>
-      <c r="CG2" s="81"/>
-      <c r="CH2" s="81"/>
-      <c r="CI2" s="81"/>
-      <c r="CJ2" s="81"/>
-      <c r="CK2" s="82"/>
-      <c r="CM2" s="83" t="s">
+      <c r="BZ2" s="82"/>
+      <c r="CA2" s="82"/>
+      <c r="CB2" s="82"/>
+      <c r="CC2" s="82"/>
+      <c r="CD2" s="82"/>
+      <c r="CE2" s="82"/>
+      <c r="CF2" s="82"/>
+      <c r="CG2" s="82"/>
+      <c r="CH2" s="82"/>
+      <c r="CI2" s="82"/>
+      <c r="CJ2" s="82"/>
+      <c r="CK2" s="83"/>
+      <c r="CM2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="CN2" s="84"/>
-      <c r="CO2" s="80" t="s">
+      <c r="CN2" s="85"/>
+      <c r="CO2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="CP2" s="81"/>
-      <c r="CQ2" s="81"/>
-      <c r="CR2" s="81"/>
-      <c r="CS2" s="81"/>
-      <c r="CT2" s="81"/>
-      <c r="CU2" s="81"/>
-      <c r="CV2" s="81"/>
-      <c r="CW2" s="81"/>
-      <c r="CX2" s="81"/>
-      <c r="CY2" s="81"/>
-      <c r="CZ2" s="81"/>
-      <c r="DA2" s="82"/>
-      <c r="DC2" s="83" t="s">
+      <c r="CP2" s="82"/>
+      <c r="CQ2" s="82"/>
+      <c r="CR2" s="82"/>
+      <c r="CS2" s="82"/>
+      <c r="CT2" s="82"/>
+      <c r="CU2" s="82"/>
+      <c r="CV2" s="82"/>
+      <c r="CW2" s="82"/>
+      <c r="CX2" s="82"/>
+      <c r="CY2" s="82"/>
+      <c r="CZ2" s="82"/>
+      <c r="DA2" s="83"/>
+      <c r="DC2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="DD2" s="84"/>
-      <c r="DE2" s="80" t="s">
+      <c r="DD2" s="85"/>
+      <c r="DE2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="DF2" s="81"/>
-      <c r="DG2" s="81"/>
-      <c r="DH2" s="81"/>
-      <c r="DI2" s="81"/>
-      <c r="DJ2" s="81"/>
-      <c r="DK2" s="81"/>
-      <c r="DL2" s="81"/>
-      <c r="DM2" s="81"/>
-      <c r="DN2" s="81"/>
-      <c r="DO2" s="81"/>
-      <c r="DP2" s="81"/>
-      <c r="DQ2" s="82"/>
-      <c r="DS2" s="83" t="s">
+      <c r="DF2" s="82"/>
+      <c r="DG2" s="82"/>
+      <c r="DH2" s="82"/>
+      <c r="DI2" s="82"/>
+      <c r="DJ2" s="82"/>
+      <c r="DK2" s="82"/>
+      <c r="DL2" s="82"/>
+      <c r="DM2" s="82"/>
+      <c r="DN2" s="82"/>
+      <c r="DO2" s="82"/>
+      <c r="DP2" s="82"/>
+      <c r="DQ2" s="83"/>
+      <c r="DS2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="DT2" s="84"/>
-      <c r="DU2" s="80" t="s">
+      <c r="DT2" s="85"/>
+      <c r="DU2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="DV2" s="81"/>
-      <c r="DW2" s="81"/>
-      <c r="DX2" s="81"/>
-      <c r="DY2" s="81"/>
-      <c r="DZ2" s="81"/>
-      <c r="EA2" s="81"/>
-      <c r="EB2" s="81"/>
-      <c r="EC2" s="81"/>
-      <c r="ED2" s="81"/>
-      <c r="EE2" s="81"/>
-      <c r="EF2" s="81"/>
-      <c r="EG2" s="82"/>
-      <c r="EI2" s="83" t="s">
+      <c r="DV2" s="82"/>
+      <c r="DW2" s="82"/>
+      <c r="DX2" s="82"/>
+      <c r="DY2" s="82"/>
+      <c r="DZ2" s="82"/>
+      <c r="EA2" s="82"/>
+      <c r="EB2" s="82"/>
+      <c r="EC2" s="82"/>
+      <c r="ED2" s="82"/>
+      <c r="EE2" s="82"/>
+      <c r="EF2" s="82"/>
+      <c r="EG2" s="83"/>
+      <c r="EI2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="EJ2" s="84"/>
-      <c r="EK2" s="80" t="s">
+      <c r="EJ2" s="85"/>
+      <c r="EK2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" s="81"/>
-      <c r="EM2" s="81"/>
-      <c r="EN2" s="81"/>
-      <c r="EO2" s="81"/>
-      <c r="EP2" s="81"/>
-      <c r="EQ2" s="81"/>
-      <c r="ER2" s="81"/>
-      <c r="ES2" s="81"/>
-      <c r="ET2" s="81"/>
-      <c r="EU2" s="81"/>
-      <c r="EV2" s="81"/>
-      <c r="EW2" s="82"/>
+      <c r="EL2" s="82"/>
+      <c r="EM2" s="82"/>
+      <c r="EN2" s="82"/>
+      <c r="EO2" s="82"/>
+      <c r="EP2" s="82"/>
+      <c r="EQ2" s="82"/>
+      <c r="ER2" s="82"/>
+      <c r="ES2" s="82"/>
+      <c r="ET2" s="82"/>
+      <c r="EU2" s="82"/>
+      <c r="EV2" s="82"/>
+      <c r="EW2" s="83"/>
     </row>
     <row r="3" spans="2:157">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="65" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3">
@@ -4142,7 +4149,7 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="92"/>
+      <c r="I3" s="93"/>
       <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4559,7 +4566,7 @@
       </c>
     </row>
     <row r="4" spans="2:157">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -4568,7 +4575,7 @@
       <c r="D4" s="13">
         <v>0.78300000000000003</v>
       </c>
-      <c r="E4" s="93">
+      <c r="E4" s="94">
         <v>0.78700000000000003</v>
       </c>
       <c r="F4" s="13">
@@ -4583,7 +4590,7 @@
       <c r="I4" s="15">
         <v>0.78200000000000003</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="86" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -4629,7 +4636,7 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="Z4" s="33"/>
-      <c r="AA4" s="85" t="s">
+      <c r="AA4" s="86" t="s">
         <v>5</v>
       </c>
       <c r="AB4" s="6" t="s">
@@ -4672,7 +4679,7 @@
       <c r="AO4" s="15">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AQ4" s="85" t="s">
+      <c r="AQ4" s="86" t="s">
         <v>5</v>
       </c>
       <c r="AR4" s="59" t="s">
@@ -4713,7 +4720,7 @@
       <c r="BE4" s="15">
         <v>0.79600000000000004</v>
       </c>
-      <c r="BG4" s="85" t="s">
+      <c r="BG4" s="86" t="s">
         <v>5</v>
       </c>
       <c r="BH4" s="52" t="s">
@@ -4752,7 +4759,7 @@
         <v>0.79</v>
       </c>
       <c r="BU4" s="48"/>
-      <c r="BW4" s="85" t="s">
+      <c r="BW4" s="86" t="s">
         <v>5</v>
       </c>
       <c r="BX4" s="52" t="s">
@@ -4773,7 +4780,7 @@
       <c r="CI4" s="51"/>
       <c r="CJ4" s="48"/>
       <c r="CK4" s="48"/>
-      <c r="CM4" s="85" t="s">
+      <c r="CM4" s="86" t="s">
         <v>5</v>
       </c>
       <c r="CN4" s="52" t="s">
@@ -4794,7 +4801,7 @@
       <c r="CY4" s="51"/>
       <c r="CZ4" s="48"/>
       <c r="DA4" s="48"/>
-      <c r="DC4" s="85" t="s">
+      <c r="DC4" s="86" t="s">
         <v>5</v>
       </c>
       <c r="DD4" s="52" t="s">
@@ -4815,7 +4822,7 @@
       <c r="DO4" s="51"/>
       <c r="DP4" s="48"/>
       <c r="DQ4" s="48"/>
-      <c r="DS4" s="85" t="s">
+      <c r="DS4" s="86" t="s">
         <v>5</v>
       </c>
       <c r="DT4" s="52" t="s">
@@ -4836,7 +4843,7 @@
       <c r="EE4" s="51"/>
       <c r="EF4" s="48"/>
       <c r="EG4" s="48"/>
-      <c r="EI4" s="85" t="s">
+      <c r="EI4" s="86" t="s">
         <v>5</v>
       </c>
       <c r="EJ4" s="52" t="s">
@@ -4857,7 +4864,7 @@
       <c r="EU4" s="51"/>
       <c r="EV4" s="48"/>
       <c r="EW4" s="48"/>
-      <c r="EY4" s="77" t="s">
+      <c r="EY4" s="78" t="s">
         <v>5</v>
       </c>
       <c r="EZ4" s="59" t="s">
@@ -4868,7 +4875,7 @@
       </c>
     </row>
     <row r="5" spans="2:157">
-      <c r="B5" s="86"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
@@ -4890,7 +4897,7 @@
       <c r="I5" s="22">
         <v>0.78800000000000003</v>
       </c>
-      <c r="K5" s="86"/>
+      <c r="K5" s="87"/>
       <c r="L5" s="7" t="s">
         <v>7</v>
       </c>
@@ -4933,7 +4940,7 @@
       <c r="Y5" s="17">
         <v>0.78400000000000003</v>
       </c>
-      <c r="AA5" s="86"/>
+      <c r="AA5" s="87"/>
       <c r="AB5" s="7" t="s">
         <v>7</v>
       </c>
@@ -4974,7 +4981,7 @@
       <c r="AO5" s="17">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AQ5" s="86"/>
+      <c r="AQ5" s="87"/>
       <c r="AR5" s="63" t="s">
         <v>7</v>
       </c>
@@ -5011,7 +5018,7 @@
       <c r="BE5" s="17">
         <v>0.77900000000000003</v>
       </c>
-      <c r="BG5" s="86"/>
+      <c r="BG5" s="87"/>
       <c r="BH5" s="7" t="s">
         <v>7</v>
       </c>
@@ -5048,7 +5055,7 @@
       <c r="BU5" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BW5" s="86"/>
+      <c r="BW5" s="87"/>
       <c r="BX5" s="7" t="s">
         <v>7</v>
       </c>
@@ -5083,7 +5090,7 @@
       <c r="CK5" s="10">
         <v>0.79400000000000004</v>
       </c>
-      <c r="CM5" s="86"/>
+      <c r="CM5" s="87"/>
       <c r="CN5" s="42" t="s">
         <v>7</v>
       </c>
@@ -5116,7 +5123,7 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="DA5" s="43"/>
-      <c r="DC5" s="86"/>
+      <c r="DC5" s="87"/>
       <c r="DD5" s="42" t="s">
         <v>7</v>
       </c>
@@ -5135,7 +5142,7 @@
       <c r="DO5" s="43"/>
       <c r="DP5" s="43"/>
       <c r="DQ5" s="43"/>
-      <c r="DS5" s="86"/>
+      <c r="DS5" s="87"/>
       <c r="DT5" s="42" t="s">
         <v>7</v>
       </c>
@@ -5154,7 +5161,7 @@
       <c r="EE5" s="43"/>
       <c r="EF5" s="43"/>
       <c r="EG5" s="43"/>
-      <c r="EI5" s="86"/>
+      <c r="EI5" s="87"/>
       <c r="EJ5" s="42" t="s">
         <v>7</v>
       </c>
@@ -5173,7 +5180,7 @@
       <c r="EU5" s="43"/>
       <c r="EV5" s="43"/>
       <c r="EW5" s="43"/>
-      <c r="EY5" s="78"/>
+      <c r="EY5" s="79"/>
       <c r="EZ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -5182,7 +5189,7 @@
       </c>
     </row>
     <row r="6" spans="2:157">
-      <c r="B6" s="86"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -5204,7 +5211,7 @@
       <c r="I6" s="22">
         <v>0.78900000000000003</v>
       </c>
-      <c r="K6" s="86"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="7" t="s">
         <v>8</v>
       </c>
@@ -5247,7 +5254,7 @@
       <c r="Y6" s="17">
         <v>0.79</v>
       </c>
-      <c r="AA6" s="86"/>
+      <c r="AA6" s="87"/>
       <c r="AB6" s="7" t="s">
         <v>8</v>
       </c>
@@ -5288,7 +5295,7 @@
       <c r="AO6" s="17">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AQ6" s="86"/>
+      <c r="AQ6" s="87"/>
       <c r="AR6" s="63" t="s">
         <v>8</v>
       </c>
@@ -5323,7 +5330,7 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="BE6" s="17"/>
-      <c r="BG6" s="86"/>
+      <c r="BG6" s="87"/>
       <c r="BH6" s="42" t="s">
         <v>8</v>
       </c>
@@ -5342,7 +5349,7 @@
       <c r="BS6" s="43"/>
       <c r="BT6" s="43"/>
       <c r="BU6" s="43"/>
-      <c r="BW6" s="86"/>
+      <c r="BW6" s="87"/>
       <c r="BX6" s="42" t="s">
         <v>8</v>
       </c>
@@ -5361,7 +5368,7 @@
       <c r="CI6" s="43"/>
       <c r="CJ6" s="43"/>
       <c r="CK6" s="43"/>
-      <c r="CM6" s="86"/>
+      <c r="CM6" s="87"/>
       <c r="CN6" s="42" t="s">
         <v>8</v>
       </c>
@@ -5380,7 +5387,7 @@
       <c r="CY6" s="43"/>
       <c r="CZ6" s="43"/>
       <c r="DA6" s="43"/>
-      <c r="DC6" s="86"/>
+      <c r="DC6" s="87"/>
       <c r="DD6" s="42" t="s">
         <v>8</v>
       </c>
@@ -5399,7 +5406,7 @@
       <c r="DO6" s="43"/>
       <c r="DP6" s="43"/>
       <c r="DQ6" s="43"/>
-      <c r="DS6" s="86"/>
+      <c r="DS6" s="87"/>
       <c r="DT6" s="42" t="s">
         <v>8</v>
       </c>
@@ -5418,7 +5425,7 @@
       <c r="EE6" s="43"/>
       <c r="EF6" s="43"/>
       <c r="EG6" s="43"/>
-      <c r="EI6" s="86"/>
+      <c r="EI6" s="87"/>
       <c r="EJ6" s="42" t="s">
         <v>8</v>
       </c>
@@ -5437,7 +5444,7 @@
       <c r="EU6" s="43"/>
       <c r="EV6" s="43"/>
       <c r="EW6" s="43"/>
-      <c r="EY6" s="78"/>
+      <c r="EY6" s="79"/>
       <c r="EZ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -5446,7 +5453,7 @@
       </c>
     </row>
     <row r="7" spans="2:157">
-      <c r="B7" s="86"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -5468,7 +5475,7 @@
       <c r="I7" s="22">
         <v>0.78600000000000003</v>
       </c>
-      <c r="K7" s="87"/>
+      <c r="K7" s="88"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
@@ -5511,7 +5518,7 @@
       <c r="Y7" s="19">
         <v>0.78600000000000003</v>
       </c>
-      <c r="AA7" s="87"/>
+      <c r="AA7" s="88"/>
       <c r="AB7" s="7" t="s">
         <v>9</v>
       </c>
@@ -5552,7 +5559,7 @@
       <c r="AO7" s="19">
         <v>0.78400000000000003</v>
       </c>
-      <c r="AQ7" s="87"/>
+      <c r="AQ7" s="88"/>
       <c r="AR7" s="63" t="s">
         <v>9</v>
       </c>
@@ -5591,7 +5598,7 @@
       <c r="BE7" s="19">
         <v>0.78800000000000003</v>
       </c>
-      <c r="BG7" s="87"/>
+      <c r="BG7" s="88"/>
       <c r="BH7" s="7" t="s">
         <v>9</v>
       </c>
@@ -5628,7 +5635,7 @@
       <c r="BU7" s="19">
         <v>0.78100000000000003</v>
       </c>
-      <c r="BW7" s="87"/>
+      <c r="BW7" s="88"/>
       <c r="BX7" s="42" t="s">
         <v>9</v>
       </c>
@@ -5663,7 +5670,7 @@
       <c r="CK7" s="56">
         <v>0.78</v>
       </c>
-      <c r="CM7" s="87"/>
+      <c r="CM7" s="88"/>
       <c r="CN7" s="42" t="s">
         <v>9</v>
       </c>
@@ -5682,7 +5689,7 @@
       <c r="CY7" s="58"/>
       <c r="CZ7" s="56"/>
       <c r="DA7" s="56"/>
-      <c r="DC7" s="87"/>
+      <c r="DC7" s="88"/>
       <c r="DD7" s="42" t="s">
         <v>9</v>
       </c>
@@ -5701,7 +5708,7 @@
       <c r="DO7" s="58"/>
       <c r="DP7" s="56"/>
       <c r="DQ7" s="56"/>
-      <c r="DS7" s="87"/>
+      <c r="DS7" s="88"/>
       <c r="DT7" s="42" t="s">
         <v>9</v>
       </c>
@@ -5720,7 +5727,7 @@
       <c r="EE7" s="58"/>
       <c r="EF7" s="56"/>
       <c r="EG7" s="56"/>
-      <c r="EI7" s="87"/>
+      <c r="EI7" s="88"/>
       <c r="EJ7" s="42" t="s">
         <v>9</v>
       </c>
@@ -5739,7 +5746,7 @@
       <c r="EU7" s="58"/>
       <c r="EV7" s="56"/>
       <c r="EW7" s="56"/>
-      <c r="EY7" s="79"/>
+      <c r="EY7" s="80"/>
       <c r="EZ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -5747,8 +5754,8 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="8" spans="2:157">
-      <c r="B8" s="74" t="s">
+    <row r="8" spans="2:157" ht="14.5" customHeight="1">
+      <c r="B8" s="75" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -5772,7 +5779,7 @@
       <c r="I8" s="21">
         <v>0.77900000000000003</v>
       </c>
-      <c r="K8" s="74" t="s">
+      <c r="K8" s="75" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -5817,7 +5824,7 @@
       <c r="Y8" s="15">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AA8" s="74" t="s">
+      <c r="AA8" s="75" t="s">
         <v>10</v>
       </c>
       <c r="AB8" s="6" t="s">
@@ -5860,7 +5867,7 @@
       <c r="AO8" s="15">
         <v>0.78300000000000003</v>
       </c>
-      <c r="AQ8" s="74" t="s">
+      <c r="AQ8" s="75" t="s">
         <v>10</v>
       </c>
       <c r="AR8" s="59" t="s">
@@ -5901,7 +5908,7 @@
       <c r="BE8" s="15">
         <v>0.78800000000000003</v>
       </c>
-      <c r="BG8" s="74" t="s">
+      <c r="BG8" s="75" t="s">
         <v>10</v>
       </c>
       <c r="BH8" s="6" t="s">
@@ -5940,7 +5947,7 @@
       <c r="BU8" s="15">
         <v>0.78600000000000003</v>
       </c>
-      <c r="BW8" s="74" t="s">
+      <c r="BW8" s="75" t="s">
         <v>10</v>
       </c>
       <c r="BX8" s="6" t="s">
@@ -5977,7 +5984,7 @@
       <c r="CK8" s="15">
         <v>0.78800000000000003</v>
       </c>
-      <c r="CM8" s="74" t="s">
+      <c r="CM8" s="75" t="s">
         <v>10</v>
       </c>
       <c r="CN8" s="52" t="s">
@@ -6012,7 +6019,7 @@
       <c r="DA8" s="48">
         <v>0.79100000000000004</v>
       </c>
-      <c r="DC8" s="74" t="s">
+      <c r="DC8" s="75" t="s">
         <v>10</v>
       </c>
       <c r="DD8" s="52" t="s">
@@ -6033,7 +6040,7 @@
       <c r="DO8" s="51"/>
       <c r="DP8" s="48"/>
       <c r="DQ8" s="48"/>
-      <c r="DS8" s="74" t="s">
+      <c r="DS8" s="75" t="s">
         <v>10</v>
       </c>
       <c r="DT8" s="52" t="s">
@@ -6054,7 +6061,7 @@
       <c r="EE8" s="51"/>
       <c r="EF8" s="48"/>
       <c r="EG8" s="48"/>
-      <c r="EI8" s="74" t="s">
+      <c r="EI8" s="75" t="s">
         <v>10</v>
       </c>
       <c r="EJ8" s="52" t="s">
@@ -6075,7 +6082,7 @@
       <c r="EU8" s="51"/>
       <c r="EV8" s="48"/>
       <c r="EW8" s="48"/>
-      <c r="EY8" s="71" t="s">
+      <c r="EY8" s="72" t="s">
         <v>10</v>
       </c>
       <c r="EZ8" s="59" t="s">
@@ -6086,7 +6093,7 @@
       </c>
     </row>
     <row r="9" spans="2:157">
-      <c r="B9" s="75"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -6108,7 +6115,7 @@
       <c r="I9" s="17">
         <v>0.77700000000000002</v>
       </c>
-      <c r="K9" s="75"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="7" t="s">
         <v>7</v>
       </c>
@@ -6151,7 +6158,7 @@
       <c r="Y9" s="17">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AA9" s="75"/>
+      <c r="AA9" s="76"/>
       <c r="AB9" s="7" t="s">
         <v>7</v>
       </c>
@@ -6192,7 +6199,7 @@
       <c r="AO9" s="17">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AQ9" s="75"/>
+      <c r="AQ9" s="76"/>
       <c r="AR9" s="63" t="s">
         <v>7</v>
       </c>
@@ -6231,7 +6238,7 @@
       <c r="BE9" s="17">
         <v>0.78800000000000003</v>
       </c>
-      <c r="BG9" s="75"/>
+      <c r="BG9" s="76"/>
       <c r="BH9" s="7" t="s">
         <v>7</v>
       </c>
@@ -6268,7 +6275,7 @@
       <c r="BU9" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BW9" s="75"/>
+      <c r="BW9" s="76"/>
       <c r="BX9" s="7" t="s">
         <v>7</v>
       </c>
@@ -6303,7 +6310,7 @@
       <c r="CK9" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="CM9" s="75"/>
+      <c r="CM9" s="76"/>
       <c r="CN9" s="7" t="s">
         <v>7</v>
       </c>
@@ -6336,7 +6343,7 @@
       <c r="DA9" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="DC9" s="75"/>
+      <c r="DC9" s="76"/>
       <c r="DD9" s="7" t="s">
         <v>7</v>
       </c>
@@ -6367,7 +6374,7 @@
       <c r="DQ9" s="10">
         <v>0.79100000000000004</v>
       </c>
-      <c r="DS9" s="75"/>
+      <c r="DS9" s="76"/>
       <c r="DT9" s="42" t="s">
         <v>7</v>
       </c>
@@ -6396,7 +6403,7 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="EG9" s="43"/>
-      <c r="EI9" s="75"/>
+      <c r="EI9" s="76"/>
       <c r="EJ9" s="42" t="s">
         <v>7</v>
       </c>
@@ -6415,7 +6422,7 @@
       <c r="EU9" s="46"/>
       <c r="EV9" s="43"/>
       <c r="EW9" s="43"/>
-      <c r="EY9" s="72"/>
+      <c r="EY9" s="73"/>
       <c r="EZ9" s="63" t="s">
         <v>7</v>
       </c>
@@ -6424,7 +6431,7 @@
       </c>
     </row>
     <row r="10" spans="2:157">
-      <c r="B10" s="75"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -6446,7 +6453,7 @@
       <c r="I10" s="22">
         <v>0.78</v>
       </c>
-      <c r="K10" s="75"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="7" t="s">
         <v>8</v>
       </c>
@@ -6489,7 +6496,7 @@
       <c r="Y10" s="17">
         <v>0.78</v>
       </c>
-      <c r="AA10" s="75"/>
+      <c r="AA10" s="76"/>
       <c r="AB10" s="7" t="s">
         <v>8</v>
       </c>
@@ -6530,7 +6537,7 @@
       <c r="AO10" s="17">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AQ10" s="75"/>
+      <c r="AQ10" s="76"/>
       <c r="AR10" s="63" t="s">
         <v>8</v>
       </c>
@@ -6567,7 +6574,7 @@
       <c r="BE10" s="17">
         <v>0.78300000000000003</v>
       </c>
-      <c r="BG10" s="75"/>
+      <c r="BG10" s="76"/>
       <c r="BH10" s="42" t="s">
         <v>8</v>
       </c>
@@ -6586,7 +6593,7 @@
       <c r="BS10" s="46"/>
       <c r="BT10" s="43"/>
       <c r="BU10" s="43"/>
-      <c r="BW10" s="75"/>
+      <c r="BW10" s="76"/>
       <c r="BX10" s="42" t="s">
         <v>8</v>
       </c>
@@ -6605,7 +6612,7 @@
       <c r="CI10" s="46"/>
       <c r="CJ10" s="43"/>
       <c r="CK10" s="43"/>
-      <c r="CM10" s="75"/>
+      <c r="CM10" s="76"/>
       <c r="CN10" s="42" t="s">
         <v>8</v>
       </c>
@@ -6624,7 +6631,7 @@
       <c r="CY10" s="46"/>
       <c r="CZ10" s="43"/>
       <c r="DA10" s="43"/>
-      <c r="DC10" s="75"/>
+      <c r="DC10" s="76"/>
       <c r="DD10" s="42" t="s">
         <v>8</v>
       </c>
@@ -6643,7 +6650,7 @@
       <c r="DO10" s="46"/>
       <c r="DP10" s="43"/>
       <c r="DQ10" s="43"/>
-      <c r="DS10" s="75"/>
+      <c r="DS10" s="76"/>
       <c r="DT10" s="42" t="s">
         <v>8</v>
       </c>
@@ -6662,7 +6669,7 @@
       <c r="EE10" s="46"/>
       <c r="EF10" s="43"/>
       <c r="EG10" s="43"/>
-      <c r="EI10" s="75"/>
+      <c r="EI10" s="76"/>
       <c r="EJ10" s="42" t="s">
         <v>8</v>
       </c>
@@ -6681,7 +6688,7 @@
       <c r="EU10" s="46"/>
       <c r="EV10" s="43"/>
       <c r="EW10" s="43"/>
-      <c r="EY10" s="72"/>
+      <c r="EY10" s="73"/>
       <c r="EZ10" s="63" t="s">
         <v>8</v>
       </c>
@@ -6690,7 +6697,7 @@
       </c>
     </row>
     <row r="11" spans="2:157">
-      <c r="B11" s="76"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -6712,7 +6719,7 @@
       <c r="I11" s="24">
         <v>0.77900000000000003</v>
       </c>
-      <c r="K11" s="76"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="8" t="s">
         <v>9</v>
       </c>
@@ -6755,7 +6762,7 @@
       <c r="Y11" s="19">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AA11" s="76"/>
+      <c r="AA11" s="77"/>
       <c r="AB11" s="8" t="s">
         <v>9</v>
       </c>
@@ -6796,7 +6803,7 @@
       <c r="AO11" s="19">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AQ11" s="76"/>
+      <c r="AQ11" s="77"/>
       <c r="AR11" s="64" t="s">
         <v>9</v>
       </c>
@@ -6835,7 +6842,7 @@
       <c r="BE11" s="19">
         <v>0.78600000000000003</v>
       </c>
-      <c r="BG11" s="76"/>
+      <c r="BG11" s="77"/>
       <c r="BH11" s="8" t="s">
         <v>9</v>
       </c>
@@ -6872,7 +6879,7 @@
       <c r="BU11" s="19">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BW11" s="76"/>
+      <c r="BW11" s="77"/>
       <c r="BX11" s="8" t="s">
         <v>9</v>
       </c>
@@ -6907,7 +6914,7 @@
       <c r="CK11" s="19">
         <v>0.78900000000000003</v>
       </c>
-      <c r="CM11" s="76"/>
+      <c r="CM11" s="77"/>
       <c r="CN11" s="8" t="s">
         <v>9</v>
       </c>
@@ -6940,7 +6947,7 @@
       <c r="DA11" s="14">
         <v>0.78900000000000003</v>
       </c>
-      <c r="DC11" s="76"/>
+      <c r="DC11" s="77"/>
       <c r="DD11" s="60" t="s">
         <v>9</v>
       </c>
@@ -6971,7 +6978,7 @@
         <v>0.61299999999999999</v>
       </c>
       <c r="DQ11" s="56"/>
-      <c r="DS11" s="76"/>
+      <c r="DS11" s="77"/>
       <c r="DT11" s="60" t="s">
         <v>9</v>
       </c>
@@ -6990,7 +6997,7 @@
       <c r="EE11" s="58"/>
       <c r="EF11" s="56"/>
       <c r="EG11" s="56"/>
-      <c r="EI11" s="76"/>
+      <c r="EI11" s="77"/>
       <c r="EJ11" s="60" t="s">
         <v>9</v>
       </c>
@@ -7009,7 +7016,7 @@
       <c r="EU11" s="58"/>
       <c r="EV11" s="56"/>
       <c r="EW11" s="56"/>
-      <c r="EY11" s="73"/>
+      <c r="EY11" s="74"/>
       <c r="EZ11" s="64" t="s">
         <v>9</v>
       </c>
@@ -7017,8 +7024,8 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:157">
-      <c r="B12" s="74" t="s">
+    <row r="12" spans="2:157" ht="14.5" customHeight="1">
+      <c r="B12" s="75" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -7042,7 +7049,7 @@
       <c r="I12" s="21">
         <v>0.77900000000000003</v>
       </c>
-      <c r="K12" s="74" t="s">
+      <c r="K12" s="75" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -7087,7 +7094,7 @@
       <c r="Y12" s="15">
         <v>0.77700000000000002</v>
       </c>
-      <c r="AA12" s="74" t="s">
+      <c r="AA12" s="75" t="s">
         <v>11</v>
       </c>
       <c r="AB12" s="6" t="s">
@@ -7130,7 +7137,7 @@
       <c r="AO12" s="15">
         <v>0.78700000000000003</v>
       </c>
-      <c r="AQ12" s="74" t="s">
+      <c r="AQ12" s="75" t="s">
         <v>11</v>
       </c>
       <c r="AR12" s="6" t="s">
@@ -7171,7 +7178,7 @@
       <c r="BE12" s="15">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BG12" s="74" t="s">
+      <c r="BG12" s="75" t="s">
         <v>11</v>
       </c>
       <c r="BH12" s="6" t="s">
@@ -7210,7 +7217,7 @@
       <c r="BU12" s="15">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BW12" s="74" t="s">
+      <c r="BW12" s="75" t="s">
         <v>11</v>
       </c>
       <c r="BX12" s="59" t="s">
@@ -7247,7 +7254,7 @@
       <c r="CK12" s="15">
         <v>0.78700000000000003</v>
       </c>
-      <c r="CM12" s="74" t="s">
+      <c r="CM12" s="75" t="s">
         <v>11</v>
       </c>
       <c r="CN12" s="59" t="s">
@@ -7282,7 +7289,7 @@
       <c r="DA12" s="15">
         <v>0.78600000000000003</v>
       </c>
-      <c r="DC12" s="74" t="s">
+      <c r="DC12" s="75" t="s">
         <v>11</v>
       </c>
       <c r="DD12" s="59" t="s">
@@ -7315,7 +7322,7 @@
       <c r="DQ12" s="15">
         <v>0.8</v>
       </c>
-      <c r="DS12" s="74" t="s">
+      <c r="DS12" s="75" t="s">
         <v>11</v>
       </c>
       <c r="DT12" s="59" t="s">
@@ -7346,7 +7353,7 @@
       <c r="EG12" s="12">
         <v>0.80100000000000005</v>
       </c>
-      <c r="EI12" s="74" t="s">
+      <c r="EI12" s="75" t="s">
         <v>11</v>
       </c>
       <c r="EJ12" s="59" t="s">
@@ -7375,7 +7382,7 @@
       </c>
       <c r="EV12" s="35"/>
       <c r="EW12" s="35"/>
-      <c r="EY12" s="71" t="s">
+      <c r="EY12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="EZ12" s="59" t="s">
@@ -7386,7 +7393,7 @@
       </c>
     </row>
     <row r="13" spans="2:157">
-      <c r="B13" s="75"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
@@ -7408,7 +7415,7 @@
       <c r="I13" s="22">
         <v>0.78100000000000003</v>
       </c>
-      <c r="K13" s="75"/>
+      <c r="K13" s="76"/>
       <c r="L13" s="7" t="s">
         <v>7</v>
       </c>
@@ -7451,7 +7458,7 @@
       <c r="Y13" s="17">
         <v>0.77700000000000002</v>
       </c>
-      <c r="AA13" s="75"/>
+      <c r="AA13" s="76"/>
       <c r="AB13" s="7" t="s">
         <v>7</v>
       </c>
@@ -7492,7 +7499,7 @@
       <c r="AO13" s="17">
         <v>0.78600000000000003</v>
       </c>
-      <c r="AQ13" s="75"/>
+      <c r="AQ13" s="76"/>
       <c r="AR13" s="7" t="s">
         <v>7</v>
       </c>
@@ -7531,7 +7538,7 @@
       <c r="BE13" s="17">
         <v>0.78600000000000003</v>
       </c>
-      <c r="BG13" s="75"/>
+      <c r="BG13" s="76"/>
       <c r="BH13" s="7" t="s">
         <v>7</v>
       </c>
@@ -7568,7 +7575,7 @@
       <c r="BU13" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BW13" s="75"/>
+      <c r="BW13" s="76"/>
       <c r="BX13" s="7" t="s">
         <v>7</v>
       </c>
@@ -7603,7 +7610,7 @@
       <c r="CK13" s="10">
         <v>0.79900000000000004</v>
       </c>
-      <c r="CM13" s="75"/>
+      <c r="CM13" s="76"/>
       <c r="CN13" s="42" t="s">
         <v>7</v>
       </c>
@@ -7636,7 +7643,7 @@
       </c>
       <c r="CZ13" s="43"/>
       <c r="DA13" s="43"/>
-      <c r="DC13" s="75"/>
+      <c r="DC13" s="76"/>
       <c r="DD13" s="42" t="s">
         <v>7</v>
       </c>
@@ -7655,7 +7662,7 @@
       <c r="DO13" s="46"/>
       <c r="DP13" s="43"/>
       <c r="DQ13" s="43"/>
-      <c r="DS13" s="75"/>
+      <c r="DS13" s="76"/>
       <c r="DT13" s="42" t="s">
         <v>7</v>
       </c>
@@ -7674,7 +7681,7 @@
       <c r="EE13" s="46"/>
       <c r="EF13" s="43"/>
       <c r="EG13" s="43"/>
-      <c r="EI13" s="75"/>
+      <c r="EI13" s="76"/>
       <c r="EJ13" s="42" t="s">
         <v>7</v>
       </c>
@@ -7693,7 +7700,7 @@
       <c r="EU13" s="46"/>
       <c r="EV13" s="43"/>
       <c r="EW13" s="43"/>
-      <c r="EY13" s="72"/>
+      <c r="EY13" s="73"/>
       <c r="EZ13" s="63" t="s">
         <v>7</v>
       </c>
@@ -7702,7 +7709,7 @@
       </c>
     </row>
     <row r="14" spans="2:157">
-      <c r="B14" s="75"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -7724,7 +7731,7 @@
       <c r="I14" s="22">
         <v>0.78300000000000003</v>
       </c>
-      <c r="K14" s="75"/>
+      <c r="K14" s="76"/>
       <c r="L14" s="7" t="s">
         <v>8</v>
       </c>
@@ -7767,7 +7774,7 @@
       <c r="Y14" s="17">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AA14" s="75"/>
+      <c r="AA14" s="76"/>
       <c r="AB14" s="7" t="s">
         <v>8</v>
       </c>
@@ -7808,7 +7815,7 @@
       <c r="AO14" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="AQ14" s="75"/>
+      <c r="AQ14" s="76"/>
       <c r="AR14" s="7" t="s">
         <v>8</v>
       </c>
@@ -7847,7 +7854,7 @@
       <c r="BE14" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BG14" s="75"/>
+      <c r="BG14" s="76"/>
       <c r="BH14" s="7" t="s">
         <v>8</v>
       </c>
@@ -7884,7 +7891,7 @@
       <c r="BU14" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="BW14" s="75"/>
+      <c r="BW14" s="76"/>
       <c r="BX14" s="7" t="s">
         <v>8</v>
       </c>
@@ -7919,7 +7926,7 @@
       <c r="CK14" s="17">
         <v>0.79200000000000004</v>
       </c>
-      <c r="CM14" s="75"/>
+      <c r="CM14" s="76"/>
       <c r="CN14" s="7" t="s">
         <v>8</v>
       </c>
@@ -7952,7 +7959,7 @@
       <c r="DA14" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="DC14" s="75"/>
+      <c r="DC14" s="76"/>
       <c r="DD14" s="42" t="s">
         <v>8</v>
       </c>
@@ -7983,7 +7990,7 @@
       <c r="DQ14" s="43">
         <v>0.79800000000000004</v>
       </c>
-      <c r="DS14" s="75"/>
+      <c r="DS14" s="76"/>
       <c r="DT14" s="42" t="s">
         <v>8</v>
       </c>
@@ -8002,7 +8009,7 @@
       <c r="EE14" s="46"/>
       <c r="EF14" s="43"/>
       <c r="EG14" s="43"/>
-      <c r="EI14" s="75"/>
+      <c r="EI14" s="76"/>
       <c r="EJ14" s="42" t="s">
         <v>8</v>
       </c>
@@ -8021,7 +8028,7 @@
       <c r="EU14" s="46"/>
       <c r="EV14" s="43"/>
       <c r="EW14" s="43"/>
-      <c r="EY14" s="72"/>
+      <c r="EY14" s="73"/>
       <c r="EZ14" s="63" t="s">
         <v>8</v>
       </c>
@@ -8030,7 +8037,7 @@
       </c>
     </row>
     <row r="15" spans="2:157">
-      <c r="B15" s="76"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -8052,7 +8059,7 @@
       <c r="I15" s="24">
         <v>0.78100000000000003</v>
       </c>
-      <c r="K15" s="76"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="8" t="s">
         <v>9</v>
       </c>
@@ -8095,7 +8102,7 @@
       <c r="Y15" s="19">
         <v>0.78200000000000003</v>
       </c>
-      <c r="AA15" s="76"/>
+      <c r="AA15" s="77"/>
       <c r="AB15" s="8" t="s">
         <v>9</v>
       </c>
@@ -8136,7 +8143,7 @@
       <c r="AO15" s="19">
         <v>0.78200000000000003</v>
       </c>
-      <c r="AQ15" s="76"/>
+      <c r="AQ15" s="77"/>
       <c r="AR15" s="8" t="s">
         <v>9</v>
       </c>
@@ -8175,7 +8182,7 @@
       <c r="BE15" s="19">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BG15" s="76"/>
+      <c r="BG15" s="77"/>
       <c r="BH15" s="8" t="s">
         <v>9</v>
       </c>
@@ -8212,7 +8219,7 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="BU15" s="47"/>
-      <c r="BW15" s="76"/>
+      <c r="BW15" s="77"/>
       <c r="BX15" s="8" t="s">
         <v>9</v>
       </c>
@@ -8247,7 +8254,7 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="CK15" s="47"/>
-      <c r="CM15" s="76"/>
+      <c r="CM15" s="77"/>
       <c r="CN15" s="8" t="s">
         <v>9</v>
       </c>
@@ -8280,7 +8287,7 @@
       </c>
       <c r="CZ15" s="47"/>
       <c r="DA15" s="47"/>
-      <c r="DC15" s="76"/>
+      <c r="DC15" s="77"/>
       <c r="DD15" s="60" t="s">
         <v>9</v>
       </c>
@@ -8311,7 +8318,7 @@
       </c>
       <c r="DP15" s="56"/>
       <c r="DQ15" s="56"/>
-      <c r="DS15" s="76"/>
+      <c r="DS15" s="77"/>
       <c r="DT15" s="60" t="s">
         <v>9</v>
       </c>
@@ -8330,7 +8337,7 @@
       <c r="EE15" s="58"/>
       <c r="EF15" s="56"/>
       <c r="EG15" s="56"/>
-      <c r="EI15" s="76"/>
+      <c r="EI15" s="77"/>
       <c r="EJ15" s="60" t="s">
         <v>9</v>
       </c>
@@ -8349,7 +8356,7 @@
       <c r="EU15" s="58"/>
       <c r="EV15" s="56"/>
       <c r="EW15" s="56"/>
-      <c r="EY15" s="73"/>
+      <c r="EY15" s="74"/>
       <c r="EZ15" s="64" t="s">
         <v>9</v>
       </c>
@@ -8358,19 +8365,19 @@
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="95" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="95" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="94" t="s">
+      <c r="H18" s="95" t="s">
         <v>20</v>
       </c>
       <c r="I18" t="s">
@@ -8378,19 +8385,19 @@
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="95" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="94" t="s">
+      <c r="E19" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="94" t="s">
+      <c r="H19" s="95" t="s">
         <v>18</v>
       </c>
       <c r="I19" t="s">
@@ -8398,19 +8405,19 @@
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="95" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="94" t="s">
+      <c r="E20" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="94" t="s">
+      <c r="F20" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="94" t="s">
+      <c r="H20" s="95" t="s">
         <v>22</v>
       </c>
       <c r="I20" t="s">
@@ -8418,19 +8425,19 @@
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="95" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="94" t="s">
+      <c r="E21" s="95" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="94" t="s">
+      <c r="H21" s="95" t="s">
         <v>17</v>
       </c>
       <c r="I21" t="s">
@@ -8438,19 +8445,19 @@
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="95" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="94" t="s">
+      <c r="E22" s="95" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="94" t="s">
+      <c r="H22" s="95" t="s">
         <v>19</v>
       </c>
       <c r="I22" t="s">
@@ -8458,19 +8465,19 @@
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="95" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="94" t="s">
+      <c r="E23" s="95" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="94" t="s">
+      <c r="H23" s="95" t="s">
         <v>15</v>
       </c>
       <c r="I23" t="s">
@@ -8478,23 +8485,23 @@
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="94"/>
-      <c r="E24" s="94"/>
+      <c r="B24" s="95"/>
+      <c r="E24" s="95"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="95" t="s">
         <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="94" t="s">
+      <c r="E25" s="95" t="s">
         <v>20</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="94" t="s">
+      <c r="H25" s="95" t="s">
         <v>20</v>
       </c>
       <c r="I25" t="s">
@@ -8502,19 +8509,19 @@
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="95" t="s">
         <v>18</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="94" t="s">
+      <c r="E26" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="94" t="s">
+      <c r="H26" s="95" t="s">
         <v>18</v>
       </c>
       <c r="I26" t="s">
@@ -8522,19 +8529,19 @@
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="95" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="94" t="s">
+      <c r="E27" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="94" t="s">
+      <c r="F27" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="94" t="s">
+      <c r="H27" s="95" t="s">
         <v>22</v>
       </c>
       <c r="I27" t="s">
@@ -8542,19 +8549,19 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="95" t="s">
         <v>19</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="94" t="s">
+      <c r="E28" s="95" t="s">
         <v>19</v>
       </c>
       <c r="F28" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="94" t="s">
+      <c r="H28" s="95" t="s">
         <v>17</v>
       </c>
       <c r="I28" t="s">
@@ -8562,19 +8569,19 @@
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="95" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="94" t="s">
+      <c r="E29" s="95" t="s">
         <v>17</v>
       </c>
       <c r="F29" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="94" t="s">
+      <c r="H29" s="95" t="s">
         <v>19</v>
       </c>
       <c r="I29" t="s">
@@ -8582,19 +8589,19 @@
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="95" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="94" t="s">
+      <c r="E30" s="95" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="94" t="s">
+      <c r="H30" s="95" t="s">
         <v>15</v>
       </c>
       <c r="I30" t="s">
@@ -8602,244 +8609,280 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="95" t="s">
         <v>20</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="94" t="s">
+      <c r="E32" s="95" t="s">
         <v>20</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="94" t="s">
+      <c r="H32" s="95" t="s">
         <v>20</v>
       </c>
       <c r="I32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="94" t="s">
+    <row r="33" spans="2:11">
+      <c r="B33" s="95" t="s">
         <v>18</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="94" t="s">
+      <c r="E33" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="94" t="s">
+      <c r="H33" s="95" t="s">
         <v>18</v>
       </c>
       <c r="I33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="94" t="s">
+    <row r="34" spans="2:11">
+      <c r="B34" s="95" t="s">
         <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="94" t="s">
+      <c r="E34" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="94" t="s">
+      <c r="F34" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="94" t="s">
+      <c r="H34" s="95" t="s">
         <v>22</v>
       </c>
       <c r="I34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="94" t="s">
+    <row r="35" spans="2:11">
+      <c r="B35" s="95" t="s">
         <v>19</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="94" t="s">
+      <c r="E35" s="95" t="s">
         <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="94" t="s">
+      <c r="H35" s="95" t="s">
         <v>17</v>
       </c>
       <c r="I35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="94" t="s">
+    <row r="36" spans="2:11">
+      <c r="B36" s="95" t="s">
         <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="94" t="s">
+      <c r="E36" s="95" t="s">
         <v>17</v>
       </c>
       <c r="F36" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="94" t="s">
+      <c r="H36" s="95" t="s">
         <v>19</v>
       </c>
       <c r="I36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="94" t="s">
+    <row r="37" spans="2:11">
+      <c r="B37" s="95" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="94" t="s">
+      <c r="E37" s="95" t="s">
         <v>15</v>
       </c>
       <c r="F37" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="94" t="s">
+      <c r="H37" s="95" t="s">
         <v>15</v>
       </c>
       <c r="I37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="94" t="s">
+    <row r="39" spans="2:11">
+      <c r="B39" s="95" t="s">
         <v>20</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="94" t="s">
+      <c r="E39" s="95" t="s">
         <v>20</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="94" t="s">
+      <c r="H39" s="95" t="s">
         <v>20</v>
       </c>
       <c r="I39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="94" t="s">
+    <row r="40" spans="2:11">
+      <c r="B40" s="95" t="s">
         <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="94" t="s">
+      <c r="E40" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="94" t="s">
+      <c r="H40" s="95" t="s">
         <v>18</v>
       </c>
       <c r="I40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="94" t="s">
+    <row r="41" spans="2:11">
+      <c r="B41" s="95" t="s">
         <v>17</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="94" t="s">
+      <c r="E41" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="94" t="s">
+      <c r="F41" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="94" t="s">
+      <c r="H41" s="95" t="s">
         <v>22</v>
       </c>
       <c r="I41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="94" t="s">
+    <row r="42" spans="2:11">
+      <c r="B42" s="95" t="s">
         <v>19</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="94" t="s">
+      <c r="E42" s="95" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="94" t="s">
+      <c r="H42" s="95" t="s">
         <v>17</v>
       </c>
       <c r="I42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="94" t="s">
+    <row r="43" spans="2:11">
+      <c r="B43" s="95" t="s">
         <v>22</v>
       </c>
       <c r="C43" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="94" t="s">
+      <c r="E43" s="95" t="s">
         <v>17</v>
       </c>
       <c r="F43" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="94" t="s">
+      <c r="H43" s="95" t="s">
         <v>19</v>
       </c>
       <c r="I43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="94" t="s">
+    <row r="44" spans="2:11">
+      <c r="B44" s="95" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="94" t="s">
+      <c r="E44" s="95" t="s">
         <v>15</v>
       </c>
       <c r="F44" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="94" t="s">
+      <c r="H44" s="95" t="s">
         <v>15</v>
       </c>
       <c r="I44" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="K48" s="33"/>
+    </row>
+    <row r="49" spans="11:11">
+      <c r="K49" s="33"/>
+    </row>
+    <row r="50" spans="11:11">
+      <c r="K50" s="33"/>
+    </row>
+    <row r="51" spans="11:11">
+      <c r="K51" s="33"/>
+    </row>
+    <row r="52" spans="11:11">
+      <c r="K52" s="33"/>
+    </row>
+    <row r="53" spans="11:11">
+      <c r="K53" s="33"/>
+    </row>
+    <row r="54" spans="11:11">
+      <c r="K54" s="33"/>
+    </row>
+    <row r="55" spans="11:11">
+      <c r="K55" s="33"/>
+    </row>
+    <row r="56" spans="11:11">
+      <c r="K56" s="33"/>
+    </row>
+    <row r="57" spans="11:11">
+      <c r="K57" s="33"/>
+    </row>
+    <row r="58" spans="11:11">
+      <c r="K58" s="33"/>
+    </row>
+    <row r="59" spans="11:11">
+      <c r="K59" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -8901,4 +8944,361 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7043607B-4994-4B8E-B7E6-922A8CCE588D}">
+  <dimension ref="B2:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="93"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="87"/>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="87"/>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.79</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="87"/>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="76"/>
+      <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="76"/>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="77"/>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0.78</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.78</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="76"/>
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="76"/>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="77"/>
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/project_results.xlsx
+++ b/project_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maren\Python\machineLearningProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1C2C97-8A7F-4A50-894A-AE536D88BFBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842BBAB5-9CB6-4999-94DE-5F03F379C9D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{DBFDAFC6-5964-47A5-B37B-48FDB3DF0ABC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" activeTab="4" xr2:uid="{DBFDAFC6-5964-47A5-B37B-48FDB3DF0ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="SVC - RFE" sheetId="4" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="27">
   <si>
     <t>Logistic Regression</t>
   </si>
@@ -115,6 +113,9 @@
   </si>
   <si>
     <t>Is_young</t>
+  </si>
+  <si>
+    <t>KNeighborClassifier</t>
   </si>
 </sst>
 </file>
@@ -360,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,6 +526,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,15 +559,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -564,10 +568,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -579,13 +586,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -917,18 +921,18 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="103" t="s">
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="107" t="s">
         <v>1</v>
       </c>
     </row>
@@ -954,10 +958,10 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="104"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="109" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -983,7 +987,7 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="106"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +1011,7 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="106"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1035,7 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="106"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1055,7 +1059,7 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1081,7 +1085,7 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="108"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1109,7 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="108"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1129,7 +1133,7 @@
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="109"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1153,7 +1157,7 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="101" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1179,7 +1183,7 @@
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="108"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
@@ -1203,7 +1207,7 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="108"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1231,7 @@
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="109"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -1312,210 +1316,210 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:185">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="103" t="s">
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="113" t="s">
+      <c r="K2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115" t="s">
+      <c r="L2" s="121"/>
+      <c r="M2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="AA2" s="113" t="s">
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="AA2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="115" t="s">
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="116"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="116"/>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="116"/>
-      <c r="AN2" s="116"/>
-      <c r="AO2" s="117"/>
-      <c r="AQ2" s="113" t="s">
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="118"/>
+      <c r="AM2" s="118"/>
+      <c r="AN2" s="118"/>
+      <c r="AO2" s="119"/>
+      <c r="AQ2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="AR2" s="114"/>
-      <c r="AS2" s="115" t="s">
+      <c r="AR2" s="121"/>
+      <c r="AS2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="116"/>
-      <c r="AV2" s="116"/>
-      <c r="AW2" s="116"/>
-      <c r="AX2" s="116"/>
-      <c r="AY2" s="116"/>
-      <c r="AZ2" s="116"/>
-      <c r="BA2" s="116"/>
-      <c r="BB2" s="116"/>
-      <c r="BC2" s="116"/>
-      <c r="BD2" s="116"/>
-      <c r="BE2" s="117"/>
-      <c r="BG2" s="113" t="s">
+      <c r="AT2" s="118"/>
+      <c r="AU2" s="118"/>
+      <c r="AV2" s="118"/>
+      <c r="AW2" s="118"/>
+      <c r="AX2" s="118"/>
+      <c r="AY2" s="118"/>
+      <c r="AZ2" s="118"/>
+      <c r="BA2" s="118"/>
+      <c r="BB2" s="118"/>
+      <c r="BC2" s="118"/>
+      <c r="BD2" s="118"/>
+      <c r="BE2" s="119"/>
+      <c r="BG2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="BH2" s="114"/>
-      <c r="BI2" s="115" t="s">
+      <c r="BH2" s="121"/>
+      <c r="BI2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="116"/>
-      <c r="BK2" s="116"/>
-      <c r="BL2" s="116"/>
-      <c r="BM2" s="116"/>
-      <c r="BN2" s="116"/>
-      <c r="BO2" s="116"/>
-      <c r="BP2" s="116"/>
-      <c r="BQ2" s="116"/>
-      <c r="BR2" s="116"/>
-      <c r="BS2" s="116"/>
-      <c r="BT2" s="116"/>
-      <c r="BU2" s="117"/>
-      <c r="BW2" s="113" t="s">
+      <c r="BJ2" s="118"/>
+      <c r="BK2" s="118"/>
+      <c r="BL2" s="118"/>
+      <c r="BM2" s="118"/>
+      <c r="BN2" s="118"/>
+      <c r="BO2" s="118"/>
+      <c r="BP2" s="118"/>
+      <c r="BQ2" s="118"/>
+      <c r="BR2" s="118"/>
+      <c r="BS2" s="118"/>
+      <c r="BT2" s="118"/>
+      <c r="BU2" s="119"/>
+      <c r="BW2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="BX2" s="114"/>
-      <c r="BY2" s="115" t="s">
+      <c r="BX2" s="121"/>
+      <c r="BY2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="BZ2" s="116"/>
-      <c r="CA2" s="116"/>
-      <c r="CB2" s="116"/>
-      <c r="CC2" s="116"/>
-      <c r="CD2" s="116"/>
-      <c r="CE2" s="116"/>
-      <c r="CF2" s="116"/>
-      <c r="CG2" s="116"/>
-      <c r="CH2" s="116"/>
-      <c r="CI2" s="116"/>
-      <c r="CJ2" s="116"/>
-      <c r="CK2" s="117"/>
-      <c r="CM2" s="113" t="s">
+      <c r="BZ2" s="118"/>
+      <c r="CA2" s="118"/>
+      <c r="CB2" s="118"/>
+      <c r="CC2" s="118"/>
+      <c r="CD2" s="118"/>
+      <c r="CE2" s="118"/>
+      <c r="CF2" s="118"/>
+      <c r="CG2" s="118"/>
+      <c r="CH2" s="118"/>
+      <c r="CI2" s="118"/>
+      <c r="CJ2" s="118"/>
+      <c r="CK2" s="119"/>
+      <c r="CM2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="CN2" s="114"/>
-      <c r="CO2" s="115" t="s">
+      <c r="CN2" s="121"/>
+      <c r="CO2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="CP2" s="116"/>
-      <c r="CQ2" s="116"/>
-      <c r="CR2" s="116"/>
-      <c r="CS2" s="116"/>
-      <c r="CT2" s="116"/>
-      <c r="CU2" s="116"/>
-      <c r="CV2" s="116"/>
-      <c r="CW2" s="116"/>
-      <c r="CX2" s="116"/>
-      <c r="CY2" s="116"/>
-      <c r="CZ2" s="116"/>
-      <c r="DA2" s="117"/>
-      <c r="DC2" s="113" t="s">
+      <c r="CP2" s="118"/>
+      <c r="CQ2" s="118"/>
+      <c r="CR2" s="118"/>
+      <c r="CS2" s="118"/>
+      <c r="CT2" s="118"/>
+      <c r="CU2" s="118"/>
+      <c r="CV2" s="118"/>
+      <c r="CW2" s="118"/>
+      <c r="CX2" s="118"/>
+      <c r="CY2" s="118"/>
+      <c r="CZ2" s="118"/>
+      <c r="DA2" s="119"/>
+      <c r="DC2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="DD2" s="114"/>
-      <c r="DE2" s="115" t="s">
+      <c r="DD2" s="121"/>
+      <c r="DE2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="DF2" s="116"/>
-      <c r="DG2" s="116"/>
-      <c r="DH2" s="116"/>
-      <c r="DI2" s="116"/>
-      <c r="DJ2" s="116"/>
-      <c r="DK2" s="116"/>
-      <c r="DL2" s="116"/>
-      <c r="DM2" s="116"/>
-      <c r="DN2" s="116"/>
-      <c r="DO2" s="116"/>
-      <c r="DP2" s="116"/>
-      <c r="DQ2" s="117"/>
-      <c r="DS2" s="113" t="s">
+      <c r="DF2" s="118"/>
+      <c r="DG2" s="118"/>
+      <c r="DH2" s="118"/>
+      <c r="DI2" s="118"/>
+      <c r="DJ2" s="118"/>
+      <c r="DK2" s="118"/>
+      <c r="DL2" s="118"/>
+      <c r="DM2" s="118"/>
+      <c r="DN2" s="118"/>
+      <c r="DO2" s="118"/>
+      <c r="DP2" s="118"/>
+      <c r="DQ2" s="119"/>
+      <c r="DS2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="DT2" s="114"/>
-      <c r="DU2" s="115" t="s">
+      <c r="DT2" s="121"/>
+      <c r="DU2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="DV2" s="116"/>
-      <c r="DW2" s="116"/>
-      <c r="DX2" s="116"/>
-      <c r="DY2" s="116"/>
-      <c r="DZ2" s="116"/>
-      <c r="EA2" s="116"/>
-      <c r="EB2" s="116"/>
-      <c r="EC2" s="116"/>
-      <c r="ED2" s="116"/>
-      <c r="EE2" s="116"/>
-      <c r="EF2" s="116"/>
-      <c r="EG2" s="117"/>
-      <c r="EI2" s="113" t="s">
+      <c r="DV2" s="118"/>
+      <c r="DW2" s="118"/>
+      <c r="DX2" s="118"/>
+      <c r="DY2" s="118"/>
+      <c r="DZ2" s="118"/>
+      <c r="EA2" s="118"/>
+      <c r="EB2" s="118"/>
+      <c r="EC2" s="118"/>
+      <c r="ED2" s="118"/>
+      <c r="EE2" s="118"/>
+      <c r="EF2" s="118"/>
+      <c r="EG2" s="119"/>
+      <c r="EI2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="EJ2" s="114"/>
-      <c r="EK2" s="115" t="s">
+      <c r="EJ2" s="121"/>
+      <c r="EK2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" s="116"/>
-      <c r="EM2" s="116"/>
-      <c r="EN2" s="116"/>
-      <c r="EO2" s="116"/>
-      <c r="EP2" s="116"/>
-      <c r="EQ2" s="116"/>
-      <c r="ER2" s="116"/>
-      <c r="ES2" s="116"/>
-      <c r="ET2" s="116"/>
-      <c r="EU2" s="116"/>
-      <c r="EV2" s="116"/>
-      <c r="EW2" s="117"/>
-      <c r="EY2" s="113" t="s">
+      <c r="EL2" s="118"/>
+      <c r="EM2" s="118"/>
+      <c r="EN2" s="118"/>
+      <c r="EO2" s="118"/>
+      <c r="EP2" s="118"/>
+      <c r="EQ2" s="118"/>
+      <c r="ER2" s="118"/>
+      <c r="ES2" s="118"/>
+      <c r="ET2" s="118"/>
+      <c r="EU2" s="118"/>
+      <c r="EV2" s="118"/>
+      <c r="EW2" s="119"/>
+      <c r="EY2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="EZ2" s="114"/>
-      <c r="FA2" s="115" t="s">
+      <c r="EZ2" s="121"/>
+      <c r="FA2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="FB2" s="116"/>
-      <c r="FC2" s="116"/>
-      <c r="FD2" s="116"/>
-      <c r="FE2" s="116"/>
-      <c r="FF2" s="116"/>
-      <c r="FG2" s="116"/>
-      <c r="FH2" s="116"/>
-      <c r="FI2" s="116"/>
-      <c r="FJ2" s="116"/>
-      <c r="FK2" s="116"/>
-      <c r="FL2" s="116"/>
-      <c r="FM2" s="117"/>
+      <c r="FB2" s="118"/>
+      <c r="FC2" s="118"/>
+      <c r="FD2" s="118"/>
+      <c r="FE2" s="118"/>
+      <c r="FF2" s="118"/>
+      <c r="FG2" s="118"/>
+      <c r="FH2" s="118"/>
+      <c r="FI2" s="118"/>
+      <c r="FJ2" s="118"/>
+      <c r="FK2" s="118"/>
+      <c r="FL2" s="118"/>
+      <c r="FM2" s="119"/>
       <c r="FO2" s="99"/>
       <c r="FP2" s="99"/>
       <c r="FQ2" s="98"/>
@@ -1554,7 +1558,7 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="104"/>
+      <c r="I3" s="108"/>
       <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2032,7 +2036,7 @@
     </row>
     <row r="4" spans="1:185" s="25" customFormat="1">
       <c r="A4"/>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="109" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2057,7 +2061,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="109" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -2103,7 +2107,7 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="Z4" s="33"/>
-      <c r="AA4" s="118" t="s">
+      <c r="AA4" s="114" t="s">
         <v>5</v>
       </c>
       <c r="AB4" s="59" t="s">
@@ -2146,7 +2150,7 @@
       <c r="AO4" s="15">
         <v>0.81899999999999995</v>
       </c>
-      <c r="AQ4" s="118" t="s">
+      <c r="AQ4" s="114" t="s">
         <v>5</v>
       </c>
       <c r="AR4" s="59" t="s">
@@ -2187,7 +2191,7 @@
       <c r="BE4" s="15">
         <v>0.81799999999999995</v>
       </c>
-      <c r="BG4" s="118" t="s">
+      <c r="BG4" s="114" t="s">
         <v>5</v>
       </c>
       <c r="BH4" s="59" t="s">
@@ -2226,7 +2230,7 @@
       <c r="BU4" s="21">
         <v>0.82299999999999995</v>
       </c>
-      <c r="BW4" s="118" t="s">
+      <c r="BW4" s="114" t="s">
         <v>5</v>
       </c>
       <c r="BX4" s="59" t="s">
@@ -2263,7 +2267,7 @@
       </c>
       <c r="CJ4" s="85"/>
       <c r="CK4" s="85"/>
-      <c r="CM4" s="118" t="s">
+      <c r="CM4" s="114" t="s">
         <v>5</v>
       </c>
       <c r="CN4" s="59" t="s">
@@ -2298,7 +2302,7 @@
       </c>
       <c r="CZ4" s="85"/>
       <c r="DA4" s="85"/>
-      <c r="DC4" s="118" t="s">
+      <c r="DC4" s="114" t="s">
         <v>5</v>
       </c>
       <c r="DD4" s="59" t="s">
@@ -2331,7 +2335,7 @@
       </c>
       <c r="DP4" s="85"/>
       <c r="DQ4" s="85"/>
-      <c r="DS4" s="118" t="s">
+      <c r="DS4" s="114" t="s">
         <v>5</v>
       </c>
       <c r="DT4" s="59" t="s">
@@ -2362,7 +2366,7 @@
       </c>
       <c r="EF4" s="85"/>
       <c r="EG4" s="85"/>
-      <c r="EI4" s="118" t="s">
+      <c r="EI4" s="114" t="s">
         <v>5</v>
       </c>
       <c r="EJ4" s="59" t="s">
@@ -2391,7 +2395,7 @@
       </c>
       <c r="EV4" s="85"/>
       <c r="EW4" s="85"/>
-      <c r="EY4" s="118" t="s">
+      <c r="EY4" s="114" t="s">
         <v>5</v>
       </c>
       <c r="EZ4" s="59" t="s">
@@ -2418,7 +2422,7 @@
       </c>
       <c r="FL4" s="85"/>
       <c r="FM4" s="85"/>
-      <c r="FO4" s="118" t="s">
+      <c r="FO4" s="114" t="s">
         <v>5</v>
       </c>
       <c r="FP4" s="59" t="s">
@@ -2441,7 +2445,7 @@
       <c r="GC4" s="33"/>
     </row>
     <row r="5" spans="1:185" s="25" customFormat="1">
-      <c r="B5" s="106"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2463,7 +2467,7 @@
       <c r="I5" s="70">
         <v>0.80900000000000005</v>
       </c>
-      <c r="K5" s="106"/>
+      <c r="K5" s="110"/>
       <c r="L5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2506,7 +2510,7 @@
       <c r="Y5" s="22">
         <v>0.81299999999999994</v>
       </c>
-      <c r="AA5" s="119"/>
+      <c r="AA5" s="115"/>
       <c r="AB5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2547,7 +2551,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="AO5" s="84"/>
-      <c r="AQ5" s="119"/>
+      <c r="AQ5" s="115"/>
       <c r="AR5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2586,7 +2590,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="BE5" s="84"/>
-      <c r="BG5" s="119"/>
+      <c r="BG5" s="115"/>
       <c r="BH5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2623,7 +2627,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="BU5" s="84"/>
-      <c r="BW5" s="119"/>
+      <c r="BW5" s="115"/>
       <c r="BX5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2658,7 +2662,7 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="CK5" s="84"/>
-      <c r="CM5" s="119"/>
+      <c r="CM5" s="115"/>
       <c r="CN5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2691,7 +2695,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="DA5" s="84"/>
-      <c r="DC5" s="119"/>
+      <c r="DC5" s="115"/>
       <c r="DD5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2722,7 +2726,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="DQ5" s="84"/>
-      <c r="DS5" s="119"/>
+      <c r="DS5" s="115"/>
       <c r="DT5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2751,7 +2755,7 @@
       </c>
       <c r="EF5" s="84"/>
       <c r="EG5" s="84"/>
-      <c r="EI5" s="119"/>
+      <c r="EI5" s="115"/>
       <c r="EJ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2778,7 +2782,7 @@
       </c>
       <c r="EV5" s="84"/>
       <c r="EW5" s="84"/>
-      <c r="EY5" s="119"/>
+      <c r="EY5" s="115"/>
       <c r="EZ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2803,7 +2807,7 @@
       </c>
       <c r="FL5" s="84"/>
       <c r="FM5" s="84"/>
-      <c r="FO5" s="119"/>
+      <c r="FO5" s="115"/>
       <c r="FP5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2825,7 +2829,7 @@
     </row>
     <row r="6" spans="1:185" s="25" customFormat="1">
       <c r="A6"/>
-      <c r="B6" s="106"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -2848,7 +2852,7 @@
         <v>0.752</v>
       </c>
       <c r="J6"/>
-      <c r="K6" s="106"/>
+      <c r="K6" s="110"/>
       <c r="L6" s="7" t="s">
         <v>8</v>
       </c>
@@ -2891,7 +2895,7 @@
       <c r="Y6" s="17">
         <v>0.752</v>
       </c>
-      <c r="AA6" s="119"/>
+      <c r="AA6" s="115"/>
       <c r="AB6" s="63" t="s">
         <v>8</v>
       </c>
@@ -2932,7 +2936,7 @@
       <c r="AO6" s="17">
         <v>0.75700000000000001</v>
       </c>
-      <c r="AQ6" s="119"/>
+      <c r="AQ6" s="115"/>
       <c r="AR6" s="63" t="s">
         <v>8</v>
       </c>
@@ -2971,7 +2975,7 @@
       <c r="BE6" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BG6" s="119"/>
+      <c r="BG6" s="115"/>
       <c r="BH6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3008,7 +3012,7 @@
       <c r="BU6" s="22">
         <v>0.82199999999999995</v>
       </c>
-      <c r="BW6" s="119"/>
+      <c r="BW6" s="115"/>
       <c r="BX6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>0.79</v>
       </c>
       <c r="CK6" s="84"/>
-      <c r="CM6" s="119"/>
+      <c r="CM6" s="115"/>
       <c r="CN6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3076,7 +3080,7 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="DA6" s="84"/>
-      <c r="DC6" s="119"/>
+      <c r="DC6" s="115"/>
       <c r="DD6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3107,7 +3111,7 @@
         <v>0.76619999999999999</v>
       </c>
       <c r="DQ6" s="84"/>
-      <c r="DS6" s="119"/>
+      <c r="DS6" s="115"/>
       <c r="DT6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3136,7 +3140,7 @@
         <v>0.752</v>
       </c>
       <c r="EG6" s="84"/>
-      <c r="EI6" s="119"/>
+      <c r="EI6" s="115"/>
       <c r="EJ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3163,7 +3167,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="EW6" s="84"/>
-      <c r="EY6" s="119"/>
+      <c r="EY6" s="115"/>
       <c r="EZ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3188,7 +3192,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="FM6" s="84"/>
-      <c r="FO6" s="119"/>
+      <c r="FO6" s="115"/>
       <c r="FP6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3210,7 +3214,7 @@
     </row>
     <row r="7" spans="1:185" s="25" customFormat="1">
       <c r="A7"/>
-      <c r="B7" s="106"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -3233,7 +3237,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="J7"/>
-      <c r="K7" s="121"/>
+      <c r="K7" s="122"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
@@ -3276,7 +3280,7 @@
       <c r="Y7" s="19">
         <v>0.79300000000000004</v>
       </c>
-      <c r="AA7" s="120"/>
+      <c r="AA7" s="116"/>
       <c r="AB7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3317,7 +3321,7 @@
       <c r="AO7" s="19">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AQ7" s="120"/>
+      <c r="AQ7" s="116"/>
       <c r="AR7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3356,7 +3360,7 @@
       <c r="BE7" s="19">
         <v>0.79700000000000004</v>
       </c>
-      <c r="BG7" s="120"/>
+      <c r="BG7" s="116"/>
       <c r="BH7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3393,7 +3397,7 @@
       <c r="BU7" s="19">
         <v>0.80200000000000005</v>
       </c>
-      <c r="BW7" s="120"/>
+      <c r="BW7" s="116"/>
       <c r="BX7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3428,7 +3432,7 @@
       <c r="CK7" s="19">
         <v>0.8</v>
       </c>
-      <c r="CM7" s="120"/>
+      <c r="CM7" s="116"/>
       <c r="CN7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3461,7 +3465,7 @@
       <c r="DA7" s="19">
         <v>0.81399999999999995</v>
       </c>
-      <c r="DC7" s="120"/>
+      <c r="DC7" s="116"/>
       <c r="DD7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3492,7 +3496,7 @@
       <c r="DQ7" s="24">
         <v>0.80100000000000005</v>
       </c>
-      <c r="DS7" s="120"/>
+      <c r="DS7" s="116"/>
       <c r="DT7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3521,7 +3525,7 @@
       </c>
       <c r="EF7" s="88"/>
       <c r="EG7" s="88"/>
-      <c r="EI7" s="120"/>
+      <c r="EI7" s="116"/>
       <c r="EJ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3548,7 +3552,7 @@
       </c>
       <c r="EV7" s="88"/>
       <c r="EW7" s="88"/>
-      <c r="EY7" s="120"/>
+      <c r="EY7" s="116"/>
       <c r="EZ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3573,7 +3577,7 @@
       </c>
       <c r="FL7" s="88"/>
       <c r="FM7" s="88"/>
-      <c r="FO7" s="120"/>
+      <c r="FO7" s="116"/>
       <c r="FP7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3594,7 +3598,7 @@
       <c r="GC7" s="33"/>
     </row>
     <row r="8" spans="1:185" ht="14.55" customHeight="1">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3618,7 +3622,7 @@
       <c r="I8" s="77">
         <v>0.80600000000000005</v>
       </c>
-      <c r="K8" s="107" t="s">
+      <c r="K8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -3664,7 +3668,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="Z8" s="25"/>
-      <c r="AA8" s="110" t="s">
+      <c r="AA8" s="111" t="s">
         <v>10</v>
       </c>
       <c r="AB8" s="59" t="s">
@@ -3708,7 +3712,7 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="AP8" s="25"/>
-      <c r="AQ8" s="110" t="s">
+      <c r="AQ8" s="111" t="s">
         <v>10</v>
       </c>
       <c r="AR8" s="59" t="s">
@@ -3750,7 +3754,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="BF8" s="25"/>
-      <c r="BG8" s="110" t="s">
+      <c r="BG8" s="111" t="s">
         <v>10</v>
       </c>
       <c r="BH8" s="59" t="s">
@@ -3790,7 +3794,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="BV8" s="25"/>
-      <c r="BW8" s="110" t="s">
+      <c r="BW8" s="111" t="s">
         <v>10</v>
       </c>
       <c r="BX8" s="59" t="s">
@@ -3828,7 +3832,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="CL8" s="25"/>
-      <c r="CM8" s="110" t="s">
+      <c r="CM8" s="111" t="s">
         <v>10</v>
       </c>
       <c r="CN8" s="59" t="s">
@@ -3864,7 +3868,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="DB8" s="25"/>
-      <c r="DC8" s="110" t="s">
+      <c r="DC8" s="111" t="s">
         <v>10</v>
       </c>
       <c r="DD8" s="59" t="s">
@@ -3898,7 +3902,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="DR8" s="25"/>
-      <c r="DS8" s="110" t="s">
+      <c r="DS8" s="111" t="s">
         <v>10</v>
       </c>
       <c r="DT8" s="59" t="s">
@@ -3930,7 +3934,7 @@
         <v>0.746</v>
       </c>
       <c r="EH8" s="25"/>
-      <c r="EI8" s="110" t="s">
+      <c r="EI8" s="111" t="s">
         <v>10</v>
       </c>
       <c r="EJ8" s="59" t="s">
@@ -3960,7 +3964,7 @@
         <v>0.74199999999999999</v>
       </c>
       <c r="EX8" s="25"/>
-      <c r="EY8" s="110" t="s">
+      <c r="EY8" s="111" t="s">
         <v>10</v>
       </c>
       <c r="EZ8" s="59" t="s">
@@ -3987,7 +3991,7 @@
       <c r="FM8" s="15">
         <v>0.74199999999999999</v>
       </c>
-      <c r="FO8" s="110" t="s">
+      <c r="FO8" s="111" t="s">
         <v>10</v>
       </c>
       <c r="FP8" s="59" t="s">
@@ -4010,7 +4014,7 @@
       <c r="GC8" s="33"/>
     </row>
     <row r="9" spans="1:185">
-      <c r="B9" s="108"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -4032,7 +4036,7 @@
       <c r="I9" s="70">
         <v>0.80100000000000005</v>
       </c>
-      <c r="K9" s="108"/>
+      <c r="K9" s="102"/>
       <c r="L9" s="7" t="s">
         <v>7</v>
       </c>
@@ -4076,7 +4080,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="Z9" s="25"/>
-      <c r="AA9" s="111"/>
+      <c r="AA9" s="112"/>
       <c r="AB9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4118,7 +4122,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="AP9" s="25"/>
-      <c r="AQ9" s="111"/>
+      <c r="AQ9" s="112"/>
       <c r="AR9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4158,7 +4162,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="BF9" s="25"/>
-      <c r="BG9" s="111"/>
+      <c r="BG9" s="112"/>
       <c r="BH9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4196,7 +4200,7 @@
         <v>0.82</v>
       </c>
       <c r="BV9" s="25"/>
-      <c r="BW9" s="111"/>
+      <c r="BW9" s="112"/>
       <c r="BX9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4232,7 +4236,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="CL9" s="25"/>
-      <c r="CM9" s="111"/>
+      <c r="CM9" s="112"/>
       <c r="CN9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4266,7 +4270,7 @@
       </c>
       <c r="DA9" s="84"/>
       <c r="DB9" s="25"/>
-      <c r="DC9" s="111"/>
+      <c r="DC9" s="112"/>
       <c r="DD9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4298,7 +4302,7 @@
       </c>
       <c r="DQ9" s="84"/>
       <c r="DR9" s="25"/>
-      <c r="DS9" s="111"/>
+      <c r="DS9" s="112"/>
       <c r="DT9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4328,7 +4332,7 @@
       </c>
       <c r="EG9" s="84"/>
       <c r="EH9" s="25"/>
-      <c r="EI9" s="111"/>
+      <c r="EI9" s="112"/>
       <c r="EJ9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4356,7 +4360,7 @@
       </c>
       <c r="EW9" s="84"/>
       <c r="EX9" s="25"/>
-      <c r="EY9" s="111"/>
+      <c r="EY9" s="112"/>
       <c r="EZ9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4381,7 +4385,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="FM9" s="84"/>
-      <c r="FO9" s="111"/>
+      <c r="FO9" s="112"/>
       <c r="FP9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4402,7 +4406,7 @@
       <c r="GC9" s="33"/>
     </row>
     <row r="10" spans="1:185">
-      <c r="B10" s="108"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -4424,7 +4428,7 @@
       <c r="I10" s="70">
         <v>0.75600000000000001</v>
       </c>
-      <c r="K10" s="108"/>
+      <c r="K10" s="102"/>
       <c r="L10" s="7" t="s">
         <v>8</v>
       </c>
@@ -4468,7 +4472,7 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="Z10" s="25"/>
-      <c r="AA10" s="111"/>
+      <c r="AA10" s="112"/>
       <c r="AB10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4510,7 +4514,7 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="AP10" s="25"/>
-      <c r="AQ10" s="111"/>
+      <c r="AQ10" s="112"/>
       <c r="AR10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4550,7 +4554,7 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="BF10" s="25"/>
-      <c r="BG10" s="111"/>
+      <c r="BG10" s="112"/>
       <c r="BH10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4588,7 +4592,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="BV10" s="25"/>
-      <c r="BW10" s="111"/>
+      <c r="BW10" s="112"/>
       <c r="BX10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4624,7 +4628,7 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="CL10" s="25"/>
-      <c r="CM10" s="111"/>
+      <c r="CM10" s="112"/>
       <c r="CN10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4658,7 +4662,7 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="DB10" s="25"/>
-      <c r="DC10" s="111"/>
+      <c r="DC10" s="112"/>
       <c r="DD10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4690,7 +4694,7 @@
       </c>
       <c r="DQ10" s="84"/>
       <c r="DR10" s="25"/>
-      <c r="DS10" s="111"/>
+      <c r="DS10" s="112"/>
       <c r="DT10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4720,7 +4724,7 @@
       </c>
       <c r="EG10" s="84"/>
       <c r="EH10" s="25"/>
-      <c r="EI10" s="111"/>
+      <c r="EI10" s="112"/>
       <c r="EJ10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4748,7 +4752,7 @@
       </c>
       <c r="EW10" s="84"/>
       <c r="EX10" s="25"/>
-      <c r="EY10" s="111"/>
+      <c r="EY10" s="112"/>
       <c r="EZ10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4773,7 +4777,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="FM10" s="84"/>
-      <c r="FO10" s="111"/>
+      <c r="FO10" s="112"/>
       <c r="FP10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4794,7 +4798,7 @@
       <c r="GC10" s="33"/>
     </row>
     <row r="11" spans="1:185">
-      <c r="B11" s="109"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -4816,7 +4820,7 @@
       <c r="I11" s="72">
         <v>0.80700000000000005</v>
       </c>
-      <c r="K11" s="109"/>
+      <c r="K11" s="103"/>
       <c r="L11" s="8" t="s">
         <v>9</v>
       </c>
@@ -4860,7 +4864,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="112"/>
+      <c r="AA11" s="113"/>
       <c r="AB11" s="64" t="s">
         <v>9</v>
       </c>
@@ -4902,7 +4906,7 @@
         <v>0.81299999999999994</v>
       </c>
       <c r="AP11" s="25"/>
-      <c r="AQ11" s="112"/>
+      <c r="AQ11" s="113"/>
       <c r="AR11" s="64" t="s">
         <v>9</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="BF11" s="25"/>
-      <c r="BG11" s="112"/>
+      <c r="BG11" s="113"/>
       <c r="BH11" s="64" t="s">
         <v>9</v>
       </c>
@@ -4980,7 +4984,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="BV11" s="25"/>
-      <c r="BW11" s="112"/>
+      <c r="BW11" s="113"/>
       <c r="BX11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5016,7 +5020,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="CL11" s="25"/>
-      <c r="CM11" s="112"/>
+      <c r="CM11" s="113"/>
       <c r="CN11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5050,7 +5054,7 @@
       <c r="CZ11" s="88"/>
       <c r="DA11" s="88"/>
       <c r="DB11" s="25"/>
-      <c r="DC11" s="112"/>
+      <c r="DC11" s="113"/>
       <c r="DD11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5082,7 +5086,7 @@
       <c r="DP11" s="88"/>
       <c r="DQ11" s="88"/>
       <c r="DR11" s="25"/>
-      <c r="DS11" s="112"/>
+      <c r="DS11" s="113"/>
       <c r="DT11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5112,7 +5116,7 @@
       <c r="EF11" s="88"/>
       <c r="EG11" s="88"/>
       <c r="EH11" s="25"/>
-      <c r="EI11" s="112"/>
+      <c r="EI11" s="113"/>
       <c r="EJ11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5140,7 +5144,7 @@
       <c r="EV11" s="88"/>
       <c r="EW11" s="88"/>
       <c r="EX11" s="25"/>
-      <c r="EY11" s="112"/>
+      <c r="EY11" s="113"/>
       <c r="EZ11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5165,7 +5169,7 @@
       </c>
       <c r="FL11" s="88"/>
       <c r="FM11" s="88"/>
-      <c r="FO11" s="112"/>
+      <c r="FO11" s="113"/>
       <c r="FP11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5186,7 +5190,7 @@
       <c r="GC11" s="33"/>
     </row>
     <row r="12" spans="1:185" ht="14.55" customHeight="1">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="101" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -5210,7 +5214,7 @@
       <c r="I12" s="68">
         <v>0.80600000000000005</v>
       </c>
-      <c r="K12" s="107" t="s">
+      <c r="K12" s="101" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -5256,7 +5260,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="Z12" s="25"/>
-      <c r="AA12" s="110" t="s">
+      <c r="AA12" s="111" t="s">
         <v>11</v>
       </c>
       <c r="AB12" s="59" t="s">
@@ -5300,7 +5304,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="AP12" s="25"/>
-      <c r="AQ12" s="110" t="s">
+      <c r="AQ12" s="111" t="s">
         <v>11</v>
       </c>
       <c r="AR12" s="59" t="s">
@@ -5342,7 +5346,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="BF12" s="25"/>
-      <c r="BG12" s="110" t="s">
+      <c r="BG12" s="111" t="s">
         <v>11</v>
       </c>
       <c r="BH12" s="59" t="s">
@@ -5382,7 +5386,7 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="BV12" s="25"/>
-      <c r="BW12" s="110" t="s">
+      <c r="BW12" s="111" t="s">
         <v>11</v>
       </c>
       <c r="BX12" s="59" t="s">
@@ -5420,7 +5424,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="CL12" s="25"/>
-      <c r="CM12" s="110" t="s">
+      <c r="CM12" s="111" t="s">
         <v>11</v>
       </c>
       <c r="CN12" s="59" t="s">
@@ -5456,7 +5460,7 @@
       <c r="CZ12" s="85"/>
       <c r="DA12" s="85"/>
       <c r="DB12" s="25"/>
-      <c r="DC12" s="110" t="s">
+      <c r="DC12" s="111" t="s">
         <v>11</v>
       </c>
       <c r="DD12" s="59" t="s">
@@ -5490,7 +5494,7 @@
       <c r="DP12" s="85"/>
       <c r="DQ12" s="85"/>
       <c r="DR12" s="25"/>
-      <c r="DS12" s="110" t="s">
+      <c r="DS12" s="111" t="s">
         <v>11</v>
       </c>
       <c r="DT12" s="59" t="s">
@@ -5522,7 +5526,7 @@
       <c r="EF12" s="85"/>
       <c r="EG12" s="85"/>
       <c r="EH12" s="25"/>
-      <c r="EI12" s="110" t="s">
+      <c r="EI12" s="111" t="s">
         <v>11</v>
       </c>
       <c r="EJ12" s="59" t="s">
@@ -5552,7 +5556,7 @@
       <c r="EV12" s="85"/>
       <c r="EW12" s="85"/>
       <c r="EX12" s="25"/>
-      <c r="EY12" s="110" t="s">
+      <c r="EY12" s="111" t="s">
         <v>11</v>
       </c>
       <c r="EZ12" s="59" t="s">
@@ -5579,7 +5583,7 @@
       </c>
       <c r="FL12" s="85"/>
       <c r="FM12" s="85"/>
-      <c r="FO12" s="110" t="s">
+      <c r="FO12" s="111" t="s">
         <v>11</v>
       </c>
       <c r="FP12" s="59" t="s">
@@ -5602,7 +5606,7 @@
       <c r="GC12" s="33"/>
     </row>
     <row r="13" spans="1:185">
-      <c r="B13" s="108"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
@@ -5624,7 +5628,7 @@
       <c r="I13" s="70">
         <v>0.80200000000000005</v>
       </c>
-      <c r="K13" s="108"/>
+      <c r="K13" s="102"/>
       <c r="L13" s="7" t="s">
         <v>7</v>
       </c>
@@ -5668,7 +5672,7 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="Z13" s="25"/>
-      <c r="AA13" s="111"/>
+      <c r="AA13" s="112"/>
       <c r="AB13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5710,7 +5714,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="AP13" s="25"/>
-      <c r="AQ13" s="111"/>
+      <c r="AQ13" s="112"/>
       <c r="AR13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5750,7 +5754,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="BF13" s="25"/>
-      <c r="BG13" s="111"/>
+      <c r="BG13" s="112"/>
       <c r="BH13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5788,7 +5792,7 @@
         <v>0.82</v>
       </c>
       <c r="BV13" s="25"/>
-      <c r="BW13" s="111"/>
+      <c r="BW13" s="112"/>
       <c r="BX13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5824,7 +5828,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="CL13" s="25"/>
-      <c r="CM13" s="111"/>
+      <c r="CM13" s="112"/>
       <c r="CN13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5858,7 +5862,7 @@
       </c>
       <c r="DA13" s="84"/>
       <c r="DB13" s="25"/>
-      <c r="DC13" s="111"/>
+      <c r="DC13" s="112"/>
       <c r="DD13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5890,7 +5894,7 @@
       </c>
       <c r="DQ13" s="84"/>
       <c r="DR13" s="25"/>
-      <c r="DS13" s="111"/>
+      <c r="DS13" s="112"/>
       <c r="DT13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5920,7 +5924,7 @@
       </c>
       <c r="EG13" s="84"/>
       <c r="EH13" s="25"/>
-      <c r="EI13" s="111"/>
+      <c r="EI13" s="112"/>
       <c r="EJ13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5948,7 +5952,7 @@
       </c>
       <c r="EW13" s="84"/>
       <c r="EX13" s="25"/>
-      <c r="EY13" s="111"/>
+      <c r="EY13" s="112"/>
       <c r="EZ13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5973,7 +5977,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="FM13" s="84"/>
-      <c r="FO13" s="111"/>
+      <c r="FO13" s="112"/>
       <c r="FP13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5994,7 +5998,7 @@
       <c r="GC13" s="33"/>
     </row>
     <row r="14" spans="1:185">
-      <c r="B14" s="108"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -6016,7 +6020,7 @@
       <c r="I14" s="76">
         <v>0.75900000000000001</v>
       </c>
-      <c r="K14" s="108"/>
+      <c r="K14" s="102"/>
       <c r="L14" s="7" t="s">
         <v>8</v>
       </c>
@@ -6060,7 +6064,7 @@
         <v>0.76</v>
       </c>
       <c r="Z14" s="25"/>
-      <c r="AA14" s="111"/>
+      <c r="AA14" s="112"/>
       <c r="AB14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6102,7 +6106,7 @@
         <v>0.77100000000000002</v>
       </c>
       <c r="AP14" s="25"/>
-      <c r="AQ14" s="111"/>
+      <c r="AQ14" s="112"/>
       <c r="AR14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6142,7 +6146,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="BF14" s="25"/>
-      <c r="BG14" s="111"/>
+      <c r="BG14" s="112"/>
       <c r="BH14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6180,7 +6184,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="BV14" s="25"/>
-      <c r="BW14" s="111"/>
+      <c r="BW14" s="112"/>
       <c r="BX14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6216,7 +6220,7 @@
       </c>
       <c r="CK14" s="84"/>
       <c r="CL14" s="25"/>
-      <c r="CM14" s="111"/>
+      <c r="CM14" s="112"/>
       <c r="CN14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6250,7 +6254,7 @@
       </c>
       <c r="DA14" s="84"/>
       <c r="DB14" s="25"/>
-      <c r="DC14" s="111"/>
+      <c r="DC14" s="112"/>
       <c r="DD14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6282,7 +6286,7 @@
       </c>
       <c r="DQ14" s="84"/>
       <c r="DR14" s="25"/>
-      <c r="DS14" s="111"/>
+      <c r="DS14" s="112"/>
       <c r="DT14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6312,7 +6316,7 @@
       </c>
       <c r="EG14" s="84"/>
       <c r="EH14" s="25"/>
-      <c r="EI14" s="111"/>
+      <c r="EI14" s="112"/>
       <c r="EJ14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6340,7 +6344,7 @@
       </c>
       <c r="EW14" s="84"/>
       <c r="EX14" s="25"/>
-      <c r="EY14" s="111"/>
+      <c r="EY14" s="112"/>
       <c r="EZ14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6365,7 +6369,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="FM14" s="84"/>
-      <c r="FO14" s="111"/>
+      <c r="FO14" s="112"/>
       <c r="FP14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6386,7 +6390,7 @@
       <c r="GC14" s="33"/>
     </row>
     <row r="15" spans="1:185">
-      <c r="B15" s="109"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -6408,7 +6412,7 @@
       <c r="I15" s="72">
         <v>0.78900000000000003</v>
       </c>
-      <c r="K15" s="109"/>
+      <c r="K15" s="103"/>
       <c r="L15" s="8" t="s">
         <v>9</v>
       </c>
@@ -6452,7 +6456,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="Z15" s="25"/>
-      <c r="AA15" s="112"/>
+      <c r="AA15" s="113"/>
       <c r="AB15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6494,7 +6498,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="AP15" s="25"/>
-      <c r="AQ15" s="112"/>
+      <c r="AQ15" s="113"/>
       <c r="AR15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6534,7 +6538,7 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="BF15" s="25"/>
-      <c r="BG15" s="112"/>
+      <c r="BG15" s="113"/>
       <c r="BH15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6572,7 +6576,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="BV15" s="25"/>
-      <c r="BW15" s="112"/>
+      <c r="BW15" s="113"/>
       <c r="BX15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6608,7 +6612,7 @@
       <c r="CJ15" s="88"/>
       <c r="CK15" s="88"/>
       <c r="CL15" s="25"/>
-      <c r="CM15" s="112"/>
+      <c r="CM15" s="113"/>
       <c r="CN15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6642,7 +6646,7 @@
       <c r="CZ15" s="88"/>
       <c r="DA15" s="88"/>
       <c r="DB15" s="25"/>
-      <c r="DC15" s="112"/>
+      <c r="DC15" s="113"/>
       <c r="DD15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6674,7 +6678,7 @@
       <c r="DP15" s="88"/>
       <c r="DQ15" s="88"/>
       <c r="DR15" s="25"/>
-      <c r="DS15" s="112"/>
+      <c r="DS15" s="113"/>
       <c r="DT15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6704,7 +6708,7 @@
       <c r="EF15" s="88"/>
       <c r="EG15" s="88"/>
       <c r="EH15" s="25"/>
-      <c r="EI15" s="112"/>
+      <c r="EI15" s="113"/>
       <c r="EJ15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6732,7 +6736,7 @@
       <c r="EV15" s="88"/>
       <c r="EW15" s="88"/>
       <c r="EX15" s="25"/>
-      <c r="EY15" s="112"/>
+      <c r="EY15" s="113"/>
       <c r="EZ15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6757,7 +6761,7 @@
       </c>
       <c r="FL15" s="88"/>
       <c r="FM15" s="88"/>
-      <c r="FO15" s="112"/>
+      <c r="FO15" s="113"/>
       <c r="FP15" s="64" t="s">
         <v>9</v>
       </c>
@@ -7072,31 +7076,24 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="BW12:BW15"/>
-    <mergeCell ref="CM12:CM15"/>
-    <mergeCell ref="DC12:DC15"/>
-    <mergeCell ref="DS12:DS15"/>
-    <mergeCell ref="EI12:EI15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="AA12:AA15"/>
-    <mergeCell ref="AQ12:AQ15"/>
-    <mergeCell ref="BG12:BG15"/>
-    <mergeCell ref="DC4:DC7"/>
-    <mergeCell ref="DS4:DS7"/>
-    <mergeCell ref="EI4:EI7"/>
-    <mergeCell ref="EY4:EY7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="AA8:AA11"/>
-    <mergeCell ref="AQ8:AQ11"/>
-    <mergeCell ref="BG8:BG11"/>
-    <mergeCell ref="BW8:BW11"/>
-    <mergeCell ref="CM8:CM11"/>
-    <mergeCell ref="DC8:DC11"/>
-    <mergeCell ref="DS8:DS11"/>
-    <mergeCell ref="EI8:EI11"/>
-    <mergeCell ref="EY8:EY11"/>
+    <mergeCell ref="FO8:FO11"/>
+    <mergeCell ref="FO12:FO15"/>
+    <mergeCell ref="EY2:EZ2"/>
+    <mergeCell ref="FA2:FM2"/>
+    <mergeCell ref="FO4:FO7"/>
+    <mergeCell ref="EY12:EY15"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AO2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:BE2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BU2"/>
     <mergeCell ref="DU2:EG2"/>
     <mergeCell ref="EI2:EJ2"/>
     <mergeCell ref="EK2:EW2"/>
@@ -7113,24 +7110,31 @@
     <mergeCell ref="DC2:DD2"/>
     <mergeCell ref="DE2:DQ2"/>
     <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AO2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:BE2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BU2"/>
-    <mergeCell ref="FO8:FO11"/>
-    <mergeCell ref="FO12:FO15"/>
-    <mergeCell ref="EY2:EZ2"/>
-    <mergeCell ref="FA2:FM2"/>
-    <mergeCell ref="FO4:FO7"/>
-    <mergeCell ref="EY12:EY15"/>
+    <mergeCell ref="DC4:DC7"/>
+    <mergeCell ref="DS4:DS7"/>
+    <mergeCell ref="EI4:EI7"/>
+    <mergeCell ref="EY4:EY7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="AA8:AA11"/>
+    <mergeCell ref="AQ8:AQ11"/>
+    <mergeCell ref="BG8:BG11"/>
+    <mergeCell ref="BW8:BW11"/>
+    <mergeCell ref="CM8:CM11"/>
+    <mergeCell ref="DC8:DC11"/>
+    <mergeCell ref="DS8:DS11"/>
+    <mergeCell ref="EI8:EI11"/>
+    <mergeCell ref="EY8:EY11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="AA12:AA15"/>
+    <mergeCell ref="AQ12:AQ15"/>
+    <mergeCell ref="BG12:BG15"/>
+    <mergeCell ref="BW12:BW15"/>
+    <mergeCell ref="CM12:CM15"/>
+    <mergeCell ref="DC12:DC15"/>
+    <mergeCell ref="DS12:DS15"/>
+    <mergeCell ref="EI12:EI15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7186,191 +7190,191 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:157" ht="14.55" customHeight="1">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="113" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="103" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="113" t="s">
+      <c r="K2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115" t="s">
+      <c r="L2" s="121"/>
+      <c r="M2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="AA2" s="113" t="s">
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="AA2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="115" t="s">
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="116"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="116"/>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="116"/>
-      <c r="AN2" s="116"/>
-      <c r="AO2" s="117"/>
-      <c r="AQ2" s="113" t="s">
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="118"/>
+      <c r="AM2" s="118"/>
+      <c r="AN2" s="118"/>
+      <c r="AO2" s="119"/>
+      <c r="AQ2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="AR2" s="114"/>
-      <c r="AS2" s="115" t="s">
+      <c r="AR2" s="121"/>
+      <c r="AS2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="116"/>
-      <c r="AV2" s="116"/>
-      <c r="AW2" s="116"/>
-      <c r="AX2" s="116"/>
-      <c r="AY2" s="116"/>
-      <c r="AZ2" s="116"/>
-      <c r="BA2" s="116"/>
-      <c r="BB2" s="116"/>
-      <c r="BC2" s="116"/>
-      <c r="BD2" s="116"/>
-      <c r="BE2" s="117"/>
-      <c r="BG2" s="113" t="s">
+      <c r="AT2" s="118"/>
+      <c r="AU2" s="118"/>
+      <c r="AV2" s="118"/>
+      <c r="AW2" s="118"/>
+      <c r="AX2" s="118"/>
+      <c r="AY2" s="118"/>
+      <c r="AZ2" s="118"/>
+      <c r="BA2" s="118"/>
+      <c r="BB2" s="118"/>
+      <c r="BC2" s="118"/>
+      <c r="BD2" s="118"/>
+      <c r="BE2" s="119"/>
+      <c r="BG2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="BH2" s="114"/>
-      <c r="BI2" s="115" t="s">
+      <c r="BH2" s="121"/>
+      <c r="BI2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="116"/>
-      <c r="BK2" s="116"/>
-      <c r="BL2" s="116"/>
-      <c r="BM2" s="116"/>
-      <c r="BN2" s="116"/>
-      <c r="BO2" s="116"/>
-      <c r="BP2" s="116"/>
-      <c r="BQ2" s="116"/>
-      <c r="BR2" s="116"/>
-      <c r="BS2" s="116"/>
-      <c r="BT2" s="116"/>
-      <c r="BU2" s="117"/>
-      <c r="BW2" s="113" t="s">
+      <c r="BJ2" s="118"/>
+      <c r="BK2" s="118"/>
+      <c r="BL2" s="118"/>
+      <c r="BM2" s="118"/>
+      <c r="BN2" s="118"/>
+      <c r="BO2" s="118"/>
+      <c r="BP2" s="118"/>
+      <c r="BQ2" s="118"/>
+      <c r="BR2" s="118"/>
+      <c r="BS2" s="118"/>
+      <c r="BT2" s="118"/>
+      <c r="BU2" s="119"/>
+      <c r="BW2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="BX2" s="114"/>
-      <c r="BY2" s="115" t="s">
+      <c r="BX2" s="121"/>
+      <c r="BY2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="BZ2" s="116"/>
-      <c r="CA2" s="116"/>
-      <c r="CB2" s="116"/>
-      <c r="CC2" s="116"/>
-      <c r="CD2" s="116"/>
-      <c r="CE2" s="116"/>
-      <c r="CF2" s="116"/>
-      <c r="CG2" s="116"/>
-      <c r="CH2" s="116"/>
-      <c r="CI2" s="116"/>
-      <c r="CJ2" s="116"/>
-      <c r="CK2" s="117"/>
-      <c r="CM2" s="113" t="s">
+      <c r="BZ2" s="118"/>
+      <c r="CA2" s="118"/>
+      <c r="CB2" s="118"/>
+      <c r="CC2" s="118"/>
+      <c r="CD2" s="118"/>
+      <c r="CE2" s="118"/>
+      <c r="CF2" s="118"/>
+      <c r="CG2" s="118"/>
+      <c r="CH2" s="118"/>
+      <c r="CI2" s="118"/>
+      <c r="CJ2" s="118"/>
+      <c r="CK2" s="119"/>
+      <c r="CM2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="CN2" s="114"/>
-      <c r="CO2" s="115" t="s">
+      <c r="CN2" s="121"/>
+      <c r="CO2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="CP2" s="116"/>
-      <c r="CQ2" s="116"/>
-      <c r="CR2" s="116"/>
-      <c r="CS2" s="116"/>
-      <c r="CT2" s="116"/>
-      <c r="CU2" s="116"/>
-      <c r="CV2" s="116"/>
-      <c r="CW2" s="116"/>
-      <c r="CX2" s="116"/>
-      <c r="CY2" s="116"/>
-      <c r="CZ2" s="116"/>
-      <c r="DA2" s="117"/>
-      <c r="DC2" s="113" t="s">
+      <c r="CP2" s="118"/>
+      <c r="CQ2" s="118"/>
+      <c r="CR2" s="118"/>
+      <c r="CS2" s="118"/>
+      <c r="CT2" s="118"/>
+      <c r="CU2" s="118"/>
+      <c r="CV2" s="118"/>
+      <c r="CW2" s="118"/>
+      <c r="CX2" s="118"/>
+      <c r="CY2" s="118"/>
+      <c r="CZ2" s="118"/>
+      <c r="DA2" s="119"/>
+      <c r="DC2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="DD2" s="114"/>
-      <c r="DE2" s="115" t="s">
+      <c r="DD2" s="121"/>
+      <c r="DE2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="DF2" s="116"/>
-      <c r="DG2" s="116"/>
-      <c r="DH2" s="116"/>
-      <c r="DI2" s="116"/>
-      <c r="DJ2" s="116"/>
-      <c r="DK2" s="116"/>
-      <c r="DL2" s="116"/>
-      <c r="DM2" s="116"/>
-      <c r="DN2" s="116"/>
-      <c r="DO2" s="116"/>
-      <c r="DP2" s="116"/>
-      <c r="DQ2" s="117"/>
-      <c r="DS2" s="113" t="s">
+      <c r="DF2" s="118"/>
+      <c r="DG2" s="118"/>
+      <c r="DH2" s="118"/>
+      <c r="DI2" s="118"/>
+      <c r="DJ2" s="118"/>
+      <c r="DK2" s="118"/>
+      <c r="DL2" s="118"/>
+      <c r="DM2" s="118"/>
+      <c r="DN2" s="118"/>
+      <c r="DO2" s="118"/>
+      <c r="DP2" s="118"/>
+      <c r="DQ2" s="119"/>
+      <c r="DS2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="DT2" s="114"/>
-      <c r="DU2" s="115" t="s">
+      <c r="DT2" s="121"/>
+      <c r="DU2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="DV2" s="116"/>
-      <c r="DW2" s="116"/>
-      <c r="DX2" s="116"/>
-      <c r="DY2" s="116"/>
-      <c r="DZ2" s="116"/>
-      <c r="EA2" s="116"/>
-      <c r="EB2" s="116"/>
-      <c r="EC2" s="116"/>
-      <c r="ED2" s="116"/>
-      <c r="EE2" s="116"/>
-      <c r="EF2" s="116"/>
-      <c r="EG2" s="117"/>
-      <c r="EI2" s="113" t="s">
+      <c r="DV2" s="118"/>
+      <c r="DW2" s="118"/>
+      <c r="DX2" s="118"/>
+      <c r="DY2" s="118"/>
+      <c r="DZ2" s="118"/>
+      <c r="EA2" s="118"/>
+      <c r="EB2" s="118"/>
+      <c r="EC2" s="118"/>
+      <c r="ED2" s="118"/>
+      <c r="EE2" s="118"/>
+      <c r="EF2" s="118"/>
+      <c r="EG2" s="119"/>
+      <c r="EI2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="EJ2" s="114"/>
-      <c r="EK2" s="115" t="s">
+      <c r="EJ2" s="121"/>
+      <c r="EK2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" s="116"/>
-      <c r="EM2" s="116"/>
-      <c r="EN2" s="116"/>
-      <c r="EO2" s="116"/>
-      <c r="EP2" s="116"/>
-      <c r="EQ2" s="116"/>
-      <c r="ER2" s="116"/>
-      <c r="ES2" s="116"/>
-      <c r="ET2" s="116"/>
-      <c r="EU2" s="116"/>
-      <c r="EV2" s="116"/>
-      <c r="EW2" s="117"/>
+      <c r="EL2" s="118"/>
+      <c r="EM2" s="118"/>
+      <c r="EN2" s="118"/>
+      <c r="EO2" s="118"/>
+      <c r="EP2" s="118"/>
+      <c r="EQ2" s="118"/>
+      <c r="ER2" s="118"/>
+      <c r="ES2" s="118"/>
+      <c r="ET2" s="118"/>
+      <c r="EU2" s="118"/>
+      <c r="EV2" s="118"/>
+      <c r="EW2" s="119"/>
     </row>
     <row r="3" spans="2:157">
       <c r="B3" s="66" t="s">
@@ -7394,7 +7398,7 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="104"/>
+      <c r="I3" s="108"/>
       <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7811,7 +7815,7 @@
       </c>
     </row>
     <row r="4" spans="2:157">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="109" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -7835,7 +7839,7 @@
       <c r="I4" s="15">
         <v>0.78200000000000003</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="109" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -7881,7 +7885,7 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="Z4" s="33"/>
-      <c r="AA4" s="105" t="s">
+      <c r="AA4" s="109" t="s">
         <v>5</v>
       </c>
       <c r="AB4" s="6" t="s">
@@ -7924,7 +7928,7 @@
       <c r="AO4" s="15">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AQ4" s="105" t="s">
+      <c r="AQ4" s="109" t="s">
         <v>5</v>
       </c>
       <c r="AR4" s="59" t="s">
@@ -7965,7 +7969,7 @@
       <c r="BE4" s="15">
         <v>0.79600000000000004</v>
       </c>
-      <c r="BG4" s="105" t="s">
+      <c r="BG4" s="109" t="s">
         <v>5</v>
       </c>
       <c r="BH4" s="52" t="s">
@@ -8004,7 +8008,7 @@
         <v>0.79</v>
       </c>
       <c r="BU4" s="48"/>
-      <c r="BW4" s="105" t="s">
+      <c r="BW4" s="109" t="s">
         <v>5</v>
       </c>
       <c r="BX4" s="52" t="s">
@@ -8025,7 +8029,7 @@
       <c r="CI4" s="51"/>
       <c r="CJ4" s="48"/>
       <c r="CK4" s="48"/>
-      <c r="CM4" s="105" t="s">
+      <c r="CM4" s="109" t="s">
         <v>5</v>
       </c>
       <c r="CN4" s="52" t="s">
@@ -8046,7 +8050,7 @@
       <c r="CY4" s="51"/>
       <c r="CZ4" s="48"/>
       <c r="DA4" s="48"/>
-      <c r="DC4" s="105" t="s">
+      <c r="DC4" s="109" t="s">
         <v>5</v>
       </c>
       <c r="DD4" s="52" t="s">
@@ -8067,7 +8071,7 @@
       <c r="DO4" s="51"/>
       <c r="DP4" s="48"/>
       <c r="DQ4" s="48"/>
-      <c r="DS4" s="105" t="s">
+      <c r="DS4" s="109" t="s">
         <v>5</v>
       </c>
       <c r="DT4" s="52" t="s">
@@ -8088,7 +8092,7 @@
       <c r="EE4" s="51"/>
       <c r="EF4" s="48"/>
       <c r="EG4" s="48"/>
-      <c r="EI4" s="105" t="s">
+      <c r="EI4" s="109" t="s">
         <v>5</v>
       </c>
       <c r="EJ4" s="52" t="s">
@@ -8109,7 +8113,7 @@
       <c r="EU4" s="51"/>
       <c r="EV4" s="48"/>
       <c r="EW4" s="48"/>
-      <c r="EY4" s="118" t="s">
+      <c r="EY4" s="114" t="s">
         <v>5</v>
       </c>
       <c r="EZ4" s="59" t="s">
@@ -8120,7 +8124,7 @@
       </c>
     </row>
     <row r="5" spans="2:157">
-      <c r="B5" s="106"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
@@ -8142,7 +8146,7 @@
       <c r="I5" s="22">
         <v>0.78800000000000003</v>
       </c>
-      <c r="K5" s="106"/>
+      <c r="K5" s="110"/>
       <c r="L5" s="7" t="s">
         <v>7</v>
       </c>
@@ -8185,7 +8189,7 @@
       <c r="Y5" s="17">
         <v>0.78400000000000003</v>
       </c>
-      <c r="AA5" s="106"/>
+      <c r="AA5" s="110"/>
       <c r="AB5" s="7" t="s">
         <v>7</v>
       </c>
@@ -8226,7 +8230,7 @@
       <c r="AO5" s="17">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AQ5" s="106"/>
+      <c r="AQ5" s="110"/>
       <c r="AR5" s="63" t="s">
         <v>7</v>
       </c>
@@ -8263,7 +8267,7 @@
       <c r="BE5" s="17">
         <v>0.77900000000000003</v>
       </c>
-      <c r="BG5" s="106"/>
+      <c r="BG5" s="110"/>
       <c r="BH5" s="7" t="s">
         <v>7</v>
       </c>
@@ -8300,7 +8304,7 @@
       <c r="BU5" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BW5" s="106"/>
+      <c r="BW5" s="110"/>
       <c r="BX5" s="7" t="s">
         <v>7</v>
       </c>
@@ -8335,7 +8339,7 @@
       <c r="CK5" s="10">
         <v>0.79400000000000004</v>
       </c>
-      <c r="CM5" s="106"/>
+      <c r="CM5" s="110"/>
       <c r="CN5" s="42" t="s">
         <v>7</v>
       </c>
@@ -8368,7 +8372,7 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="DA5" s="43"/>
-      <c r="DC5" s="106"/>
+      <c r="DC5" s="110"/>
       <c r="DD5" s="42" t="s">
         <v>7</v>
       </c>
@@ -8387,7 +8391,7 @@
       <c r="DO5" s="43"/>
       <c r="DP5" s="43"/>
       <c r="DQ5" s="43"/>
-      <c r="DS5" s="106"/>
+      <c r="DS5" s="110"/>
       <c r="DT5" s="42" t="s">
         <v>7</v>
       </c>
@@ -8406,7 +8410,7 @@
       <c r="EE5" s="43"/>
       <c r="EF5" s="43"/>
       <c r="EG5" s="43"/>
-      <c r="EI5" s="106"/>
+      <c r="EI5" s="110"/>
       <c r="EJ5" s="42" t="s">
         <v>7</v>
       </c>
@@ -8425,7 +8429,7 @@
       <c r="EU5" s="43"/>
       <c r="EV5" s="43"/>
       <c r="EW5" s="43"/>
-      <c r="EY5" s="119"/>
+      <c r="EY5" s="115"/>
       <c r="EZ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -8434,7 +8438,7 @@
       </c>
     </row>
     <row r="6" spans="2:157">
-      <c r="B6" s="106"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -8456,7 +8460,7 @@
       <c r="I6" s="22">
         <v>0.78900000000000003</v>
       </c>
-      <c r="K6" s="106"/>
+      <c r="K6" s="110"/>
       <c r="L6" s="7" t="s">
         <v>8</v>
       </c>
@@ -8499,7 +8503,7 @@
       <c r="Y6" s="17">
         <v>0.79</v>
       </c>
-      <c r="AA6" s="106"/>
+      <c r="AA6" s="110"/>
       <c r="AB6" s="7" t="s">
         <v>8</v>
       </c>
@@ -8540,7 +8544,7 @@
       <c r="AO6" s="17">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AQ6" s="106"/>
+      <c r="AQ6" s="110"/>
       <c r="AR6" s="63" t="s">
         <v>8</v>
       </c>
@@ -8575,7 +8579,7 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="BE6" s="17"/>
-      <c r="BG6" s="106"/>
+      <c r="BG6" s="110"/>
       <c r="BH6" s="42" t="s">
         <v>8</v>
       </c>
@@ -8594,7 +8598,7 @@
       <c r="BS6" s="43"/>
       <c r="BT6" s="43"/>
       <c r="BU6" s="43"/>
-      <c r="BW6" s="106"/>
+      <c r="BW6" s="110"/>
       <c r="BX6" s="42" t="s">
         <v>8</v>
       </c>
@@ -8613,7 +8617,7 @@
       <c r="CI6" s="43"/>
       <c r="CJ6" s="43"/>
       <c r="CK6" s="43"/>
-      <c r="CM6" s="106"/>
+      <c r="CM6" s="110"/>
       <c r="CN6" s="42" t="s">
         <v>8</v>
       </c>
@@ -8632,7 +8636,7 @@
       <c r="CY6" s="43"/>
       <c r="CZ6" s="43"/>
       <c r="DA6" s="43"/>
-      <c r="DC6" s="106"/>
+      <c r="DC6" s="110"/>
       <c r="DD6" s="42" t="s">
         <v>8</v>
       </c>
@@ -8651,7 +8655,7 @@
       <c r="DO6" s="43"/>
       <c r="DP6" s="43"/>
       <c r="DQ6" s="43"/>
-      <c r="DS6" s="106"/>
+      <c r="DS6" s="110"/>
       <c r="DT6" s="42" t="s">
         <v>8</v>
       </c>
@@ -8670,7 +8674,7 @@
       <c r="EE6" s="43"/>
       <c r="EF6" s="43"/>
       <c r="EG6" s="43"/>
-      <c r="EI6" s="106"/>
+      <c r="EI6" s="110"/>
       <c r="EJ6" s="42" t="s">
         <v>8</v>
       </c>
@@ -8689,7 +8693,7 @@
       <c r="EU6" s="43"/>
       <c r="EV6" s="43"/>
       <c r="EW6" s="43"/>
-      <c r="EY6" s="119"/>
+      <c r="EY6" s="115"/>
       <c r="EZ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -8698,7 +8702,7 @@
       </c>
     </row>
     <row r="7" spans="2:157">
-      <c r="B7" s="121"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -8720,7 +8724,7 @@
       <c r="I7" s="22">
         <v>0.78600000000000003</v>
       </c>
-      <c r="K7" s="121"/>
+      <c r="K7" s="122"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
@@ -8763,7 +8767,7 @@
       <c r="Y7" s="19">
         <v>0.78600000000000003</v>
       </c>
-      <c r="AA7" s="121"/>
+      <c r="AA7" s="122"/>
       <c r="AB7" s="7" t="s">
         <v>9</v>
       </c>
@@ -8804,7 +8808,7 @@
       <c r="AO7" s="19">
         <v>0.78400000000000003</v>
       </c>
-      <c r="AQ7" s="121"/>
+      <c r="AQ7" s="122"/>
       <c r="AR7" s="63" t="s">
         <v>9</v>
       </c>
@@ -8843,7 +8847,7 @@
       <c r="BE7" s="19">
         <v>0.78800000000000003</v>
       </c>
-      <c r="BG7" s="121"/>
+      <c r="BG7" s="122"/>
       <c r="BH7" s="7" t="s">
         <v>9</v>
       </c>
@@ -8880,7 +8884,7 @@
       <c r="BU7" s="19">
         <v>0.78100000000000003</v>
       </c>
-      <c r="BW7" s="121"/>
+      <c r="BW7" s="122"/>
       <c r="BX7" s="42" t="s">
         <v>9</v>
       </c>
@@ -8915,7 +8919,7 @@
       <c r="CK7" s="56">
         <v>0.78</v>
       </c>
-      <c r="CM7" s="121"/>
+      <c r="CM7" s="122"/>
       <c r="CN7" s="42" t="s">
         <v>9</v>
       </c>
@@ -8934,7 +8938,7 @@
       <c r="CY7" s="58"/>
       <c r="CZ7" s="56"/>
       <c r="DA7" s="56"/>
-      <c r="DC7" s="121"/>
+      <c r="DC7" s="122"/>
       <c r="DD7" s="42" t="s">
         <v>9</v>
       </c>
@@ -8953,7 +8957,7 @@
       <c r="DO7" s="58"/>
       <c r="DP7" s="56"/>
       <c r="DQ7" s="56"/>
-      <c r="DS7" s="121"/>
+      <c r="DS7" s="122"/>
       <c r="DT7" s="42" t="s">
         <v>9</v>
       </c>
@@ -8972,7 +8976,7 @@
       <c r="EE7" s="58"/>
       <c r="EF7" s="56"/>
       <c r="EG7" s="56"/>
-      <c r="EI7" s="121"/>
+      <c r="EI7" s="122"/>
       <c r="EJ7" s="42" t="s">
         <v>9</v>
       </c>
@@ -8991,7 +8995,7 @@
       <c r="EU7" s="58"/>
       <c r="EV7" s="56"/>
       <c r="EW7" s="56"/>
-      <c r="EY7" s="120"/>
+      <c r="EY7" s="116"/>
       <c r="EZ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -9000,7 +9004,7 @@
       </c>
     </row>
     <row r="8" spans="2:157" ht="14.55" customHeight="1">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -9024,7 +9028,7 @@
       <c r="I8" s="21">
         <v>0.77900000000000003</v>
       </c>
-      <c r="K8" s="107" t="s">
+      <c r="K8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -9069,7 +9073,7 @@
       <c r="Y8" s="15">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AA8" s="107" t="s">
+      <c r="AA8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="AB8" s="6" t="s">
@@ -9112,7 +9116,7 @@
       <c r="AO8" s="15">
         <v>0.78300000000000003</v>
       </c>
-      <c r="AQ8" s="107" t="s">
+      <c r="AQ8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="AR8" s="59" t="s">
@@ -9153,7 +9157,7 @@
       <c r="BE8" s="15">
         <v>0.78800000000000003</v>
       </c>
-      <c r="BG8" s="107" t="s">
+      <c r="BG8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="BH8" s="6" t="s">
@@ -9192,7 +9196,7 @@
       <c r="BU8" s="15">
         <v>0.78600000000000003</v>
       </c>
-      <c r="BW8" s="107" t="s">
+      <c r="BW8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="BX8" s="6" t="s">
@@ -9229,7 +9233,7 @@
       <c r="CK8" s="15">
         <v>0.78800000000000003</v>
       </c>
-      <c r="CM8" s="107" t="s">
+      <c r="CM8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="CN8" s="52" t="s">
@@ -9264,7 +9268,7 @@
       <c r="DA8" s="48">
         <v>0.79100000000000004</v>
       </c>
-      <c r="DC8" s="107" t="s">
+      <c r="DC8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="DD8" s="52" t="s">
@@ -9285,7 +9289,7 @@
       <c r="DO8" s="51"/>
       <c r="DP8" s="48"/>
       <c r="DQ8" s="48"/>
-      <c r="DS8" s="107" t="s">
+      <c r="DS8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="DT8" s="52" t="s">
@@ -9306,7 +9310,7 @@
       <c r="EE8" s="51"/>
       <c r="EF8" s="48"/>
       <c r="EG8" s="48"/>
-      <c r="EI8" s="107" t="s">
+      <c r="EI8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="EJ8" s="52" t="s">
@@ -9327,7 +9331,7 @@
       <c r="EU8" s="51"/>
       <c r="EV8" s="48"/>
       <c r="EW8" s="48"/>
-      <c r="EY8" s="110" t="s">
+      <c r="EY8" s="111" t="s">
         <v>10</v>
       </c>
       <c r="EZ8" s="59" t="s">
@@ -9338,7 +9342,7 @@
       </c>
     </row>
     <row r="9" spans="2:157">
-      <c r="B9" s="108"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -9360,7 +9364,7 @@
       <c r="I9" s="17">
         <v>0.77700000000000002</v>
       </c>
-      <c r="K9" s="108"/>
+      <c r="K9" s="102"/>
       <c r="L9" s="7" t="s">
         <v>7</v>
       </c>
@@ -9403,7 +9407,7 @@
       <c r="Y9" s="17">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AA9" s="108"/>
+      <c r="AA9" s="102"/>
       <c r="AB9" s="7" t="s">
         <v>7</v>
       </c>
@@ -9444,7 +9448,7 @@
       <c r="AO9" s="17">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AQ9" s="108"/>
+      <c r="AQ9" s="102"/>
       <c r="AR9" s="63" t="s">
         <v>7</v>
       </c>
@@ -9483,7 +9487,7 @@
       <c r="BE9" s="17">
         <v>0.78800000000000003</v>
       </c>
-      <c r="BG9" s="108"/>
+      <c r="BG9" s="102"/>
       <c r="BH9" s="7" t="s">
         <v>7</v>
       </c>
@@ -9520,7 +9524,7 @@
       <c r="BU9" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BW9" s="108"/>
+      <c r="BW9" s="102"/>
       <c r="BX9" s="7" t="s">
         <v>7</v>
       </c>
@@ -9555,7 +9559,7 @@
       <c r="CK9" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="CM9" s="108"/>
+      <c r="CM9" s="102"/>
       <c r="CN9" s="7" t="s">
         <v>7</v>
       </c>
@@ -9588,7 +9592,7 @@
       <c r="DA9" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="DC9" s="108"/>
+      <c r="DC9" s="102"/>
       <c r="DD9" s="7" t="s">
         <v>7</v>
       </c>
@@ -9619,7 +9623,7 @@
       <c r="DQ9" s="10">
         <v>0.79100000000000004</v>
       </c>
-      <c r="DS9" s="108"/>
+      <c r="DS9" s="102"/>
       <c r="DT9" s="42" t="s">
         <v>7</v>
       </c>
@@ -9648,7 +9652,7 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="EG9" s="43"/>
-      <c r="EI9" s="108"/>
+      <c r="EI9" s="102"/>
       <c r="EJ9" s="42" t="s">
         <v>7</v>
       </c>
@@ -9667,7 +9671,7 @@
       <c r="EU9" s="46"/>
       <c r="EV9" s="43"/>
       <c r="EW9" s="43"/>
-      <c r="EY9" s="111"/>
+      <c r="EY9" s="112"/>
       <c r="EZ9" s="63" t="s">
         <v>7</v>
       </c>
@@ -9676,7 +9680,7 @@
       </c>
     </row>
     <row r="10" spans="2:157">
-      <c r="B10" s="108"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -9698,7 +9702,7 @@
       <c r="I10" s="22">
         <v>0.78</v>
       </c>
-      <c r="K10" s="108"/>
+      <c r="K10" s="102"/>
       <c r="L10" s="7" t="s">
         <v>8</v>
       </c>
@@ -9741,7 +9745,7 @@
       <c r="Y10" s="17">
         <v>0.78</v>
       </c>
-      <c r="AA10" s="108"/>
+      <c r="AA10" s="102"/>
       <c r="AB10" s="7" t="s">
         <v>8</v>
       </c>
@@ -9782,7 +9786,7 @@
       <c r="AO10" s="17">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AQ10" s="108"/>
+      <c r="AQ10" s="102"/>
       <c r="AR10" s="63" t="s">
         <v>8</v>
       </c>
@@ -9819,7 +9823,7 @@
       <c r="BE10" s="17">
         <v>0.78300000000000003</v>
       </c>
-      <c r="BG10" s="108"/>
+      <c r="BG10" s="102"/>
       <c r="BH10" s="42" t="s">
         <v>8</v>
       </c>
@@ -9838,7 +9842,7 @@
       <c r="BS10" s="46"/>
       <c r="BT10" s="43"/>
       <c r="BU10" s="43"/>
-      <c r="BW10" s="108"/>
+      <c r="BW10" s="102"/>
       <c r="BX10" s="42" t="s">
         <v>8</v>
       </c>
@@ -9857,7 +9861,7 @@
       <c r="CI10" s="46"/>
       <c r="CJ10" s="43"/>
       <c r="CK10" s="43"/>
-      <c r="CM10" s="108"/>
+      <c r="CM10" s="102"/>
       <c r="CN10" s="42" t="s">
         <v>8</v>
       </c>
@@ -9876,7 +9880,7 @@
       <c r="CY10" s="46"/>
       <c r="CZ10" s="43"/>
       <c r="DA10" s="43"/>
-      <c r="DC10" s="108"/>
+      <c r="DC10" s="102"/>
       <c r="DD10" s="42" t="s">
         <v>8</v>
       </c>
@@ -9895,7 +9899,7 @@
       <c r="DO10" s="46"/>
       <c r="DP10" s="43"/>
       <c r="DQ10" s="43"/>
-      <c r="DS10" s="108"/>
+      <c r="DS10" s="102"/>
       <c r="DT10" s="42" t="s">
         <v>8</v>
       </c>
@@ -9914,7 +9918,7 @@
       <c r="EE10" s="46"/>
       <c r="EF10" s="43"/>
       <c r="EG10" s="43"/>
-      <c r="EI10" s="108"/>
+      <c r="EI10" s="102"/>
       <c r="EJ10" s="42" t="s">
         <v>8</v>
       </c>
@@ -9933,7 +9937,7 @@
       <c r="EU10" s="46"/>
       <c r="EV10" s="43"/>
       <c r="EW10" s="43"/>
-      <c r="EY10" s="111"/>
+      <c r="EY10" s="112"/>
       <c r="EZ10" s="63" t="s">
         <v>8</v>
       </c>
@@ -9942,7 +9946,7 @@
       </c>
     </row>
     <row r="11" spans="2:157">
-      <c r="B11" s="109"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -9964,7 +9968,7 @@
       <c r="I11" s="24">
         <v>0.77900000000000003</v>
       </c>
-      <c r="K11" s="109"/>
+      <c r="K11" s="103"/>
       <c r="L11" s="8" t="s">
         <v>9</v>
       </c>
@@ -10007,7 +10011,7 @@
       <c r="Y11" s="19">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AA11" s="109"/>
+      <c r="AA11" s="103"/>
       <c r="AB11" s="8" t="s">
         <v>9</v>
       </c>
@@ -10048,7 +10052,7 @@
       <c r="AO11" s="19">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AQ11" s="109"/>
+      <c r="AQ11" s="103"/>
       <c r="AR11" s="64" t="s">
         <v>9</v>
       </c>
@@ -10087,7 +10091,7 @@
       <c r="BE11" s="19">
         <v>0.78600000000000003</v>
       </c>
-      <c r="BG11" s="109"/>
+      <c r="BG11" s="103"/>
       <c r="BH11" s="8" t="s">
         <v>9</v>
       </c>
@@ -10124,7 +10128,7 @@
       <c r="BU11" s="19">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BW11" s="109"/>
+      <c r="BW11" s="103"/>
       <c r="BX11" s="8" t="s">
         <v>9</v>
       </c>
@@ -10159,7 +10163,7 @@
       <c r="CK11" s="19">
         <v>0.78900000000000003</v>
       </c>
-      <c r="CM11" s="109"/>
+      <c r="CM11" s="103"/>
       <c r="CN11" s="8" t="s">
         <v>9</v>
       </c>
@@ -10192,7 +10196,7 @@
       <c r="DA11" s="14">
         <v>0.78900000000000003</v>
       </c>
-      <c r="DC11" s="109"/>
+      <c r="DC11" s="103"/>
       <c r="DD11" s="60" t="s">
         <v>9</v>
       </c>
@@ -10223,7 +10227,7 @@
         <v>0.61299999999999999</v>
       </c>
       <c r="DQ11" s="56"/>
-      <c r="DS11" s="109"/>
+      <c r="DS11" s="103"/>
       <c r="DT11" s="60" t="s">
         <v>9</v>
       </c>
@@ -10242,7 +10246,7 @@
       <c r="EE11" s="58"/>
       <c r="EF11" s="56"/>
       <c r="EG11" s="56"/>
-      <c r="EI11" s="109"/>
+      <c r="EI11" s="103"/>
       <c r="EJ11" s="60" t="s">
         <v>9</v>
       </c>
@@ -10261,7 +10265,7 @@
       <c r="EU11" s="58"/>
       <c r="EV11" s="56"/>
       <c r="EW11" s="56"/>
-      <c r="EY11" s="112"/>
+      <c r="EY11" s="113"/>
       <c r="EZ11" s="64" t="s">
         <v>9</v>
       </c>
@@ -10270,7 +10274,7 @@
       </c>
     </row>
     <row r="12" spans="2:157" ht="14.55" customHeight="1">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="101" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -10294,7 +10298,7 @@
       <c r="I12" s="21">
         <v>0.77900000000000003</v>
       </c>
-      <c r="K12" s="107" t="s">
+      <c r="K12" s="101" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -10339,7 +10343,7 @@
       <c r="Y12" s="15">
         <v>0.77700000000000002</v>
       </c>
-      <c r="AA12" s="107" t="s">
+      <c r="AA12" s="101" t="s">
         <v>11</v>
       </c>
       <c r="AB12" s="6" t="s">
@@ -10382,7 +10386,7 @@
       <c r="AO12" s="15">
         <v>0.78700000000000003</v>
       </c>
-      <c r="AQ12" s="107" t="s">
+      <c r="AQ12" s="101" t="s">
         <v>11</v>
       </c>
       <c r="AR12" s="6" t="s">
@@ -10423,7 +10427,7 @@
       <c r="BE12" s="15">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BG12" s="107" t="s">
+      <c r="BG12" s="101" t="s">
         <v>11</v>
       </c>
       <c r="BH12" s="6" t="s">
@@ -10462,7 +10466,7 @@
       <c r="BU12" s="15">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BW12" s="107" t="s">
+      <c r="BW12" s="101" t="s">
         <v>11</v>
       </c>
       <c r="BX12" s="59" t="s">
@@ -10499,7 +10503,7 @@
       <c r="CK12" s="15">
         <v>0.78700000000000003</v>
       </c>
-      <c r="CM12" s="107" t="s">
+      <c r="CM12" s="101" t="s">
         <v>11</v>
       </c>
       <c r="CN12" s="59" t="s">
@@ -10534,7 +10538,7 @@
       <c r="DA12" s="15">
         <v>0.78600000000000003</v>
       </c>
-      <c r="DC12" s="107" t="s">
+      <c r="DC12" s="101" t="s">
         <v>11</v>
       </c>
       <c r="DD12" s="59" t="s">
@@ -10567,7 +10571,7 @@
       <c r="DQ12" s="15">
         <v>0.8</v>
       </c>
-      <c r="DS12" s="107" t="s">
+      <c r="DS12" s="101" t="s">
         <v>11</v>
       </c>
       <c r="DT12" s="59" t="s">
@@ -10598,7 +10602,7 @@
       <c r="EG12" s="12">
         <v>0.80100000000000005</v>
       </c>
-      <c r="EI12" s="107" t="s">
+      <c r="EI12" s="101" t="s">
         <v>11</v>
       </c>
       <c r="EJ12" s="59" t="s">
@@ -10627,7 +10631,7 @@
       </c>
       <c r="EV12" s="35"/>
       <c r="EW12" s="35"/>
-      <c r="EY12" s="110" t="s">
+      <c r="EY12" s="111" t="s">
         <v>11</v>
       </c>
       <c r="EZ12" s="59" t="s">
@@ -10638,7 +10642,7 @@
       </c>
     </row>
     <row r="13" spans="2:157">
-      <c r="B13" s="108"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
@@ -10660,7 +10664,7 @@
       <c r="I13" s="22">
         <v>0.78100000000000003</v>
       </c>
-      <c r="K13" s="108"/>
+      <c r="K13" s="102"/>
       <c r="L13" s="7" t="s">
         <v>7</v>
       </c>
@@ -10703,7 +10707,7 @@
       <c r="Y13" s="17">
         <v>0.77700000000000002</v>
       </c>
-      <c r="AA13" s="108"/>
+      <c r="AA13" s="102"/>
       <c r="AB13" s="7" t="s">
         <v>7</v>
       </c>
@@ -10744,7 +10748,7 @@
       <c r="AO13" s="17">
         <v>0.78600000000000003</v>
       </c>
-      <c r="AQ13" s="108"/>
+      <c r="AQ13" s="102"/>
       <c r="AR13" s="7" t="s">
         <v>7</v>
       </c>
@@ -10783,7 +10787,7 @@
       <c r="BE13" s="17">
         <v>0.78600000000000003</v>
       </c>
-      <c r="BG13" s="108"/>
+      <c r="BG13" s="102"/>
       <c r="BH13" s="7" t="s">
         <v>7</v>
       </c>
@@ -10820,7 +10824,7 @@
       <c r="BU13" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BW13" s="108"/>
+      <c r="BW13" s="102"/>
       <c r="BX13" s="7" t="s">
         <v>7</v>
       </c>
@@ -10855,7 +10859,7 @@
       <c r="CK13" s="10">
         <v>0.79900000000000004</v>
       </c>
-      <c r="CM13" s="108"/>
+      <c r="CM13" s="102"/>
       <c r="CN13" s="42" t="s">
         <v>7</v>
       </c>
@@ -10888,7 +10892,7 @@
       </c>
       <c r="CZ13" s="43"/>
       <c r="DA13" s="43"/>
-      <c r="DC13" s="108"/>
+      <c r="DC13" s="102"/>
       <c r="DD13" s="42" t="s">
         <v>7</v>
       </c>
@@ -10907,7 +10911,7 @@
       <c r="DO13" s="46"/>
       <c r="DP13" s="43"/>
       <c r="DQ13" s="43"/>
-      <c r="DS13" s="108"/>
+      <c r="DS13" s="102"/>
       <c r="DT13" s="42" t="s">
         <v>7</v>
       </c>
@@ -10926,7 +10930,7 @@
       <c r="EE13" s="46"/>
       <c r="EF13" s="43"/>
       <c r="EG13" s="43"/>
-      <c r="EI13" s="108"/>
+      <c r="EI13" s="102"/>
       <c r="EJ13" s="42" t="s">
         <v>7</v>
       </c>
@@ -10945,7 +10949,7 @@
       <c r="EU13" s="46"/>
       <c r="EV13" s="43"/>
       <c r="EW13" s="43"/>
-      <c r="EY13" s="111"/>
+      <c r="EY13" s="112"/>
       <c r="EZ13" s="63" t="s">
         <v>7</v>
       </c>
@@ -10954,7 +10958,7 @@
       </c>
     </row>
     <row r="14" spans="2:157">
-      <c r="B14" s="108"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -10976,7 +10980,7 @@
       <c r="I14" s="22">
         <v>0.78300000000000003</v>
       </c>
-      <c r="K14" s="108"/>
+      <c r="K14" s="102"/>
       <c r="L14" s="7" t="s">
         <v>8</v>
       </c>
@@ -11019,7 +11023,7 @@
       <c r="Y14" s="17">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AA14" s="108"/>
+      <c r="AA14" s="102"/>
       <c r="AB14" s="7" t="s">
         <v>8</v>
       </c>
@@ -11060,7 +11064,7 @@
       <c r="AO14" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="AQ14" s="108"/>
+      <c r="AQ14" s="102"/>
       <c r="AR14" s="7" t="s">
         <v>8</v>
       </c>
@@ -11099,7 +11103,7 @@
       <c r="BE14" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BG14" s="108"/>
+      <c r="BG14" s="102"/>
       <c r="BH14" s="7" t="s">
         <v>8</v>
       </c>
@@ -11136,7 +11140,7 @@
       <c r="BU14" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="BW14" s="108"/>
+      <c r="BW14" s="102"/>
       <c r="BX14" s="7" t="s">
         <v>8</v>
       </c>
@@ -11171,7 +11175,7 @@
       <c r="CK14" s="17">
         <v>0.79200000000000004</v>
       </c>
-      <c r="CM14" s="108"/>
+      <c r="CM14" s="102"/>
       <c r="CN14" s="7" t="s">
         <v>8</v>
       </c>
@@ -11204,7 +11208,7 @@
       <c r="DA14" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="DC14" s="108"/>
+      <c r="DC14" s="102"/>
       <c r="DD14" s="42" t="s">
         <v>8</v>
       </c>
@@ -11235,7 +11239,7 @@
       <c r="DQ14" s="43">
         <v>0.79800000000000004</v>
       </c>
-      <c r="DS14" s="108"/>
+      <c r="DS14" s="102"/>
       <c r="DT14" s="42" t="s">
         <v>8</v>
       </c>
@@ -11254,7 +11258,7 @@
       <c r="EE14" s="46"/>
       <c r="EF14" s="43"/>
       <c r="EG14" s="43"/>
-      <c r="EI14" s="108"/>
+      <c r="EI14" s="102"/>
       <c r="EJ14" s="42" t="s">
         <v>8</v>
       </c>
@@ -11273,7 +11277,7 @@
       <c r="EU14" s="46"/>
       <c r="EV14" s="43"/>
       <c r="EW14" s="43"/>
-      <c r="EY14" s="111"/>
+      <c r="EY14" s="112"/>
       <c r="EZ14" s="63" t="s">
         <v>8</v>
       </c>
@@ -11282,7 +11286,7 @@
       </c>
     </row>
     <row r="15" spans="2:157">
-      <c r="B15" s="109"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -11304,7 +11308,7 @@
       <c r="I15" s="24">
         <v>0.78100000000000003</v>
       </c>
-      <c r="K15" s="109"/>
+      <c r="K15" s="103"/>
       <c r="L15" s="8" t="s">
         <v>9</v>
       </c>
@@ -11347,7 +11351,7 @@
       <c r="Y15" s="19">
         <v>0.78200000000000003</v>
       </c>
-      <c r="AA15" s="109"/>
+      <c r="AA15" s="103"/>
       <c r="AB15" s="8" t="s">
         <v>9</v>
       </c>
@@ -11388,7 +11392,7 @@
       <c r="AO15" s="19">
         <v>0.78200000000000003</v>
       </c>
-      <c r="AQ15" s="109"/>
+      <c r="AQ15" s="103"/>
       <c r="AR15" s="8" t="s">
         <v>9</v>
       </c>
@@ -11427,7 +11431,7 @@
       <c r="BE15" s="19">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BG15" s="109"/>
+      <c r="BG15" s="103"/>
       <c r="BH15" s="8" t="s">
         <v>9</v>
       </c>
@@ -11464,7 +11468,7 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="BU15" s="47"/>
-      <c r="BW15" s="109"/>
+      <c r="BW15" s="103"/>
       <c r="BX15" s="8" t="s">
         <v>9</v>
       </c>
@@ -11499,7 +11503,7 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="CK15" s="47"/>
-      <c r="CM15" s="109"/>
+      <c r="CM15" s="103"/>
       <c r="CN15" s="8" t="s">
         <v>9</v>
       </c>
@@ -11532,7 +11536,7 @@
       </c>
       <c r="CZ15" s="47"/>
       <c r="DA15" s="47"/>
-      <c r="DC15" s="109"/>
+      <c r="DC15" s="103"/>
       <c r="DD15" s="60" t="s">
         <v>9</v>
       </c>
@@ -11563,7 +11567,7 @@
       </c>
       <c r="DP15" s="56"/>
       <c r="DQ15" s="56"/>
-      <c r="DS15" s="109"/>
+      <c r="DS15" s="103"/>
       <c r="DT15" s="60" t="s">
         <v>9</v>
       </c>
@@ -11582,7 +11586,7 @@
       <c r="EE15" s="58"/>
       <c r="EF15" s="56"/>
       <c r="EG15" s="56"/>
-      <c r="EI15" s="109"/>
+      <c r="EI15" s="103"/>
       <c r="EJ15" s="60" t="s">
         <v>9</v>
       </c>
@@ -11601,7 +11605,7 @@
       <c r="EU15" s="58"/>
       <c r="EV15" s="56"/>
       <c r="EW15" s="56"/>
-      <c r="EY15" s="112"/>
+      <c r="EY15" s="113"/>
       <c r="EZ15" s="64" t="s">
         <v>9</v>
       </c>
@@ -12131,17 +12135,34 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:Y2"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="EK2:EW2"/>
+    <mergeCell ref="EI4:EI7"/>
+    <mergeCell ref="EI8:EI11"/>
+    <mergeCell ref="EI12:EI15"/>
+    <mergeCell ref="EY4:EY7"/>
+    <mergeCell ref="EY8:EY11"/>
+    <mergeCell ref="EY12:EY15"/>
+    <mergeCell ref="EI2:EJ2"/>
+    <mergeCell ref="DS2:DT2"/>
+    <mergeCell ref="DU2:EG2"/>
+    <mergeCell ref="DS4:DS7"/>
+    <mergeCell ref="DS8:DS11"/>
+    <mergeCell ref="DS12:DS15"/>
+    <mergeCell ref="DE2:DQ2"/>
+    <mergeCell ref="DC4:DC7"/>
+    <mergeCell ref="DC8:DC11"/>
+    <mergeCell ref="DC12:DC15"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:CK2"/>
+    <mergeCell ref="BW4:BW7"/>
+    <mergeCell ref="BW8:BW11"/>
+    <mergeCell ref="BW12:BW15"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="CO2:DA2"/>
+    <mergeCell ref="CM4:CM7"/>
+    <mergeCell ref="CM8:CM11"/>
+    <mergeCell ref="CM12:CM15"/>
+    <mergeCell ref="DC2:DD2"/>
     <mergeCell ref="BI2:BU2"/>
     <mergeCell ref="BG4:BG7"/>
     <mergeCell ref="BG8:BG11"/>
@@ -12157,34 +12178,17 @@
     <mergeCell ref="AQ8:AQ11"/>
     <mergeCell ref="AQ12:AQ15"/>
     <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="DE2:DQ2"/>
-    <mergeCell ref="DC4:DC7"/>
-    <mergeCell ref="DC8:DC11"/>
-    <mergeCell ref="DC12:DC15"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BY2:CK2"/>
-    <mergeCell ref="BW4:BW7"/>
-    <mergeCell ref="BW8:BW11"/>
-    <mergeCell ref="BW12:BW15"/>
-    <mergeCell ref="CM2:CN2"/>
-    <mergeCell ref="CO2:DA2"/>
-    <mergeCell ref="CM4:CM7"/>
-    <mergeCell ref="CM8:CM11"/>
-    <mergeCell ref="CM12:CM15"/>
-    <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="DU2:EG2"/>
-    <mergeCell ref="DS4:DS7"/>
-    <mergeCell ref="DS8:DS11"/>
-    <mergeCell ref="DS12:DS15"/>
-    <mergeCell ref="EK2:EW2"/>
-    <mergeCell ref="EI4:EI7"/>
-    <mergeCell ref="EI8:EI11"/>
-    <mergeCell ref="EI12:EI15"/>
-    <mergeCell ref="EY4:EY7"/>
-    <mergeCell ref="EY8:EY11"/>
-    <mergeCell ref="EY12:EY15"/>
-    <mergeCell ref="EI2:EJ2"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:Y2"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12195,25 +12199,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7043607B-4994-4B8E-B7E6-922A8CCE588D}">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="103" t="s">
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="107" t="s">
         <v>1</v>
       </c>
     </row>
@@ -12239,10 +12243,10 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="104"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="109" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -12268,7 +12272,7 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="106"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
@@ -12292,7 +12296,7 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="106"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -12316,7 +12320,7 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="106"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -12340,7 +12344,7 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -12366,7 +12370,7 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="108"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -12390,7 +12394,7 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="108"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -12414,7 +12418,7 @@
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="109"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -12438,7 +12442,7 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="101" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -12464,7 +12468,7 @@
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="108"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
@@ -12488,7 +12492,7 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="108"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -12512,7 +12516,7 @@
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="109"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -12550,12 +12554,357 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28142D6-465F-40D5-8A8B-BB292355189C}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5</v>
+      </c>
+      <c r="I4" s="108"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="110"/>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="110"/>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.80600000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="110"/>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="102"/>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="102"/>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.79</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0.79</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="103"/>
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E12" s="80">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="102"/>
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="102"/>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="103"/>
+      <c r="C16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="F16" s="80">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/project_results.xlsx
+++ b/project_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maren\Python\machineLearningProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842BBAB5-9CB6-4999-94DE-5F03F379C9D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4609DB-63C0-4E86-9323-ECEA0EEB6ACB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" activeTab="4" xr2:uid="{DBFDAFC6-5964-47A5-B37B-48FDB3DF0ABC}"/>
   </bookViews>
@@ -115,7 +115,7 @@
     <t>Is_young</t>
   </si>
   <si>
-    <t>KNeighborClassifier</t>
+    <t>KNeighborsClassifier</t>
   </si>
 </sst>
 </file>
@@ -568,13 +568,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -586,10 +583,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1330,196 +1330,196 @@
       <c r="I2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="120" t="s">
+      <c r="K2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="117" t="s">
+      <c r="L2" s="115"/>
+      <c r="M2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="118"/>
-      <c r="AA2" s="120" t="s">
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="AA2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="117" t="s">
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="118"/>
-      <c r="AG2" s="118"/>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="118"/>
-      <c r="AJ2" s="118"/>
-      <c r="AK2" s="118"/>
-      <c r="AL2" s="118"/>
-      <c r="AM2" s="118"/>
-      <c r="AN2" s="118"/>
-      <c r="AO2" s="119"/>
-      <c r="AQ2" s="120" t="s">
+      <c r="AD2" s="117"/>
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="117"/>
+      <c r="AJ2" s="117"/>
+      <c r="AK2" s="117"/>
+      <c r="AL2" s="117"/>
+      <c r="AM2" s="117"/>
+      <c r="AN2" s="117"/>
+      <c r="AO2" s="118"/>
+      <c r="AQ2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="AR2" s="121"/>
-      <c r="AS2" s="117" t="s">
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="118"/>
-      <c r="AU2" s="118"/>
-      <c r="AV2" s="118"/>
-      <c r="AW2" s="118"/>
-      <c r="AX2" s="118"/>
-      <c r="AY2" s="118"/>
-      <c r="AZ2" s="118"/>
-      <c r="BA2" s="118"/>
-      <c r="BB2" s="118"/>
-      <c r="BC2" s="118"/>
-      <c r="BD2" s="118"/>
-      <c r="BE2" s="119"/>
-      <c r="BG2" s="120" t="s">
+      <c r="AT2" s="117"/>
+      <c r="AU2" s="117"/>
+      <c r="AV2" s="117"/>
+      <c r="AW2" s="117"/>
+      <c r="AX2" s="117"/>
+      <c r="AY2" s="117"/>
+      <c r="AZ2" s="117"/>
+      <c r="BA2" s="117"/>
+      <c r="BB2" s="117"/>
+      <c r="BC2" s="117"/>
+      <c r="BD2" s="117"/>
+      <c r="BE2" s="118"/>
+      <c r="BG2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="BH2" s="121"/>
-      <c r="BI2" s="117" t="s">
+      <c r="BH2" s="115"/>
+      <c r="BI2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="118"/>
-      <c r="BK2" s="118"/>
-      <c r="BL2" s="118"/>
-      <c r="BM2" s="118"/>
-      <c r="BN2" s="118"/>
-      <c r="BO2" s="118"/>
-      <c r="BP2" s="118"/>
-      <c r="BQ2" s="118"/>
-      <c r="BR2" s="118"/>
-      <c r="BS2" s="118"/>
-      <c r="BT2" s="118"/>
-      <c r="BU2" s="119"/>
-      <c r="BW2" s="120" t="s">
+      <c r="BJ2" s="117"/>
+      <c r="BK2" s="117"/>
+      <c r="BL2" s="117"/>
+      <c r="BM2" s="117"/>
+      <c r="BN2" s="117"/>
+      <c r="BO2" s="117"/>
+      <c r="BP2" s="117"/>
+      <c r="BQ2" s="117"/>
+      <c r="BR2" s="117"/>
+      <c r="BS2" s="117"/>
+      <c r="BT2" s="117"/>
+      <c r="BU2" s="118"/>
+      <c r="BW2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="BX2" s="121"/>
-      <c r="BY2" s="117" t="s">
+      <c r="BX2" s="115"/>
+      <c r="BY2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="BZ2" s="118"/>
-      <c r="CA2" s="118"/>
-      <c r="CB2" s="118"/>
-      <c r="CC2" s="118"/>
-      <c r="CD2" s="118"/>
-      <c r="CE2" s="118"/>
-      <c r="CF2" s="118"/>
-      <c r="CG2" s="118"/>
-      <c r="CH2" s="118"/>
-      <c r="CI2" s="118"/>
-      <c r="CJ2" s="118"/>
-      <c r="CK2" s="119"/>
-      <c r="CM2" s="120" t="s">
+      <c r="BZ2" s="117"/>
+      <c r="CA2" s="117"/>
+      <c r="CB2" s="117"/>
+      <c r="CC2" s="117"/>
+      <c r="CD2" s="117"/>
+      <c r="CE2" s="117"/>
+      <c r="CF2" s="117"/>
+      <c r="CG2" s="117"/>
+      <c r="CH2" s="117"/>
+      <c r="CI2" s="117"/>
+      <c r="CJ2" s="117"/>
+      <c r="CK2" s="118"/>
+      <c r="CM2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="CN2" s="121"/>
-      <c r="CO2" s="117" t="s">
+      <c r="CN2" s="115"/>
+      <c r="CO2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="CP2" s="118"/>
-      <c r="CQ2" s="118"/>
-      <c r="CR2" s="118"/>
-      <c r="CS2" s="118"/>
-      <c r="CT2" s="118"/>
-      <c r="CU2" s="118"/>
-      <c r="CV2" s="118"/>
-      <c r="CW2" s="118"/>
-      <c r="CX2" s="118"/>
-      <c r="CY2" s="118"/>
-      <c r="CZ2" s="118"/>
-      <c r="DA2" s="119"/>
-      <c r="DC2" s="120" t="s">
+      <c r="CP2" s="117"/>
+      <c r="CQ2" s="117"/>
+      <c r="CR2" s="117"/>
+      <c r="CS2" s="117"/>
+      <c r="CT2" s="117"/>
+      <c r="CU2" s="117"/>
+      <c r="CV2" s="117"/>
+      <c r="CW2" s="117"/>
+      <c r="CX2" s="117"/>
+      <c r="CY2" s="117"/>
+      <c r="CZ2" s="117"/>
+      <c r="DA2" s="118"/>
+      <c r="DC2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="DD2" s="121"/>
-      <c r="DE2" s="117" t="s">
+      <c r="DD2" s="115"/>
+      <c r="DE2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="DF2" s="118"/>
-      <c r="DG2" s="118"/>
-      <c r="DH2" s="118"/>
-      <c r="DI2" s="118"/>
-      <c r="DJ2" s="118"/>
-      <c r="DK2" s="118"/>
-      <c r="DL2" s="118"/>
-      <c r="DM2" s="118"/>
-      <c r="DN2" s="118"/>
-      <c r="DO2" s="118"/>
-      <c r="DP2" s="118"/>
-      <c r="DQ2" s="119"/>
-      <c r="DS2" s="120" t="s">
+      <c r="DF2" s="117"/>
+      <c r="DG2" s="117"/>
+      <c r="DH2" s="117"/>
+      <c r="DI2" s="117"/>
+      <c r="DJ2" s="117"/>
+      <c r="DK2" s="117"/>
+      <c r="DL2" s="117"/>
+      <c r="DM2" s="117"/>
+      <c r="DN2" s="117"/>
+      <c r="DO2" s="117"/>
+      <c r="DP2" s="117"/>
+      <c r="DQ2" s="118"/>
+      <c r="DS2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="DT2" s="121"/>
-      <c r="DU2" s="117" t="s">
+      <c r="DT2" s="115"/>
+      <c r="DU2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="DV2" s="118"/>
-      <c r="DW2" s="118"/>
-      <c r="DX2" s="118"/>
-      <c r="DY2" s="118"/>
-      <c r="DZ2" s="118"/>
-      <c r="EA2" s="118"/>
-      <c r="EB2" s="118"/>
-      <c r="EC2" s="118"/>
-      <c r="ED2" s="118"/>
-      <c r="EE2" s="118"/>
-      <c r="EF2" s="118"/>
-      <c r="EG2" s="119"/>
-      <c r="EI2" s="120" t="s">
+      <c r="DV2" s="117"/>
+      <c r="DW2" s="117"/>
+      <c r="DX2" s="117"/>
+      <c r="DY2" s="117"/>
+      <c r="DZ2" s="117"/>
+      <c r="EA2" s="117"/>
+      <c r="EB2" s="117"/>
+      <c r="EC2" s="117"/>
+      <c r="ED2" s="117"/>
+      <c r="EE2" s="117"/>
+      <c r="EF2" s="117"/>
+      <c r="EG2" s="118"/>
+      <c r="EI2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="EJ2" s="121"/>
-      <c r="EK2" s="117" t="s">
+      <c r="EJ2" s="115"/>
+      <c r="EK2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" s="118"/>
-      <c r="EM2" s="118"/>
-      <c r="EN2" s="118"/>
-      <c r="EO2" s="118"/>
-      <c r="EP2" s="118"/>
-      <c r="EQ2" s="118"/>
-      <c r="ER2" s="118"/>
-      <c r="ES2" s="118"/>
-      <c r="ET2" s="118"/>
-      <c r="EU2" s="118"/>
-      <c r="EV2" s="118"/>
-      <c r="EW2" s="119"/>
-      <c r="EY2" s="120" t="s">
+      <c r="EL2" s="117"/>
+      <c r="EM2" s="117"/>
+      <c r="EN2" s="117"/>
+      <c r="EO2" s="117"/>
+      <c r="EP2" s="117"/>
+      <c r="EQ2" s="117"/>
+      <c r="ER2" s="117"/>
+      <c r="ES2" s="117"/>
+      <c r="ET2" s="117"/>
+      <c r="EU2" s="117"/>
+      <c r="EV2" s="117"/>
+      <c r="EW2" s="118"/>
+      <c r="EY2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="EZ2" s="121"/>
-      <c r="FA2" s="117" t="s">
+      <c r="EZ2" s="115"/>
+      <c r="FA2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="FB2" s="118"/>
-      <c r="FC2" s="118"/>
-      <c r="FD2" s="118"/>
-      <c r="FE2" s="118"/>
-      <c r="FF2" s="118"/>
-      <c r="FG2" s="118"/>
-      <c r="FH2" s="118"/>
-      <c r="FI2" s="118"/>
-      <c r="FJ2" s="118"/>
-      <c r="FK2" s="118"/>
-      <c r="FL2" s="118"/>
-      <c r="FM2" s="119"/>
+      <c r="FB2" s="117"/>
+      <c r="FC2" s="117"/>
+      <c r="FD2" s="117"/>
+      <c r="FE2" s="117"/>
+      <c r="FF2" s="117"/>
+      <c r="FG2" s="117"/>
+      <c r="FH2" s="117"/>
+      <c r="FI2" s="117"/>
+      <c r="FJ2" s="117"/>
+      <c r="FK2" s="117"/>
+      <c r="FL2" s="117"/>
+      <c r="FM2" s="118"/>
       <c r="FO2" s="99"/>
       <c r="FP2" s="99"/>
       <c r="FQ2" s="98"/>
@@ -2107,7 +2107,7 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="Z4" s="33"/>
-      <c r="AA4" s="114" t="s">
+      <c r="AA4" s="119" t="s">
         <v>5</v>
       </c>
       <c r="AB4" s="59" t="s">
@@ -2150,7 +2150,7 @@
       <c r="AO4" s="15">
         <v>0.81899999999999995</v>
       </c>
-      <c r="AQ4" s="114" t="s">
+      <c r="AQ4" s="119" t="s">
         <v>5</v>
       </c>
       <c r="AR4" s="59" t="s">
@@ -2191,7 +2191,7 @@
       <c r="BE4" s="15">
         <v>0.81799999999999995</v>
       </c>
-      <c r="BG4" s="114" t="s">
+      <c r="BG4" s="119" t="s">
         <v>5</v>
       </c>
       <c r="BH4" s="59" t="s">
@@ -2230,7 +2230,7 @@
       <c r="BU4" s="21">
         <v>0.82299999999999995</v>
       </c>
-      <c r="BW4" s="114" t="s">
+      <c r="BW4" s="119" t="s">
         <v>5</v>
       </c>
       <c r="BX4" s="59" t="s">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="CJ4" s="85"/>
       <c r="CK4" s="85"/>
-      <c r="CM4" s="114" t="s">
+      <c r="CM4" s="119" t="s">
         <v>5</v>
       </c>
       <c r="CN4" s="59" t="s">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="CZ4" s="85"/>
       <c r="DA4" s="85"/>
-      <c r="DC4" s="114" t="s">
+      <c r="DC4" s="119" t="s">
         <v>5</v>
       </c>
       <c r="DD4" s="59" t="s">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="DP4" s="85"/>
       <c r="DQ4" s="85"/>
-      <c r="DS4" s="114" t="s">
+      <c r="DS4" s="119" t="s">
         <v>5</v>
       </c>
       <c r="DT4" s="59" t="s">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="EF4" s="85"/>
       <c r="EG4" s="85"/>
-      <c r="EI4" s="114" t="s">
+      <c r="EI4" s="119" t="s">
         <v>5</v>
       </c>
       <c r="EJ4" s="59" t="s">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="EV4" s="85"/>
       <c r="EW4" s="85"/>
-      <c r="EY4" s="114" t="s">
+      <c r="EY4" s="119" t="s">
         <v>5</v>
       </c>
       <c r="EZ4" s="59" t="s">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="FL4" s="85"/>
       <c r="FM4" s="85"/>
-      <c r="FO4" s="114" t="s">
+      <c r="FO4" s="119" t="s">
         <v>5</v>
       </c>
       <c r="FP4" s="59" t="s">
@@ -2510,7 +2510,7 @@
       <c r="Y5" s="22">
         <v>0.81299999999999994</v>
       </c>
-      <c r="AA5" s="115"/>
+      <c r="AA5" s="120"/>
       <c r="AB5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="AO5" s="84"/>
-      <c r="AQ5" s="115"/>
+      <c r="AQ5" s="120"/>
       <c r="AR5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="BE5" s="84"/>
-      <c r="BG5" s="115"/>
+      <c r="BG5" s="120"/>
       <c r="BH5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="BU5" s="84"/>
-      <c r="BW5" s="115"/>
+      <c r="BW5" s="120"/>
       <c r="BX5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="CK5" s="84"/>
-      <c r="CM5" s="115"/>
+      <c r="CM5" s="120"/>
       <c r="CN5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="DA5" s="84"/>
-      <c r="DC5" s="115"/>
+      <c r="DC5" s="120"/>
       <c r="DD5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="DQ5" s="84"/>
-      <c r="DS5" s="115"/>
+      <c r="DS5" s="120"/>
       <c r="DT5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="EF5" s="84"/>
       <c r="EG5" s="84"/>
-      <c r="EI5" s="115"/>
+      <c r="EI5" s="120"/>
       <c r="EJ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="EV5" s="84"/>
       <c r="EW5" s="84"/>
-      <c r="EY5" s="115"/>
+      <c r="EY5" s="120"/>
       <c r="EZ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="FL5" s="84"/>
       <c r="FM5" s="84"/>
-      <c r="FO5" s="115"/>
+      <c r="FO5" s="120"/>
       <c r="FP5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2895,7 +2895,7 @@
       <c r="Y6" s="17">
         <v>0.752</v>
       </c>
-      <c r="AA6" s="115"/>
+      <c r="AA6" s="120"/>
       <c r="AB6" s="63" t="s">
         <v>8</v>
       </c>
@@ -2936,7 +2936,7 @@
       <c r="AO6" s="17">
         <v>0.75700000000000001</v>
       </c>
-      <c r="AQ6" s="115"/>
+      <c r="AQ6" s="120"/>
       <c r="AR6" s="63" t="s">
         <v>8</v>
       </c>
@@ -2975,7 +2975,7 @@
       <c r="BE6" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BG6" s="115"/>
+      <c r="BG6" s="120"/>
       <c r="BH6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="BU6" s="22">
         <v>0.82199999999999995</v>
       </c>
-      <c r="BW6" s="115"/>
+      <c r="BW6" s="120"/>
       <c r="BX6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>0.79</v>
       </c>
       <c r="CK6" s="84"/>
-      <c r="CM6" s="115"/>
+      <c r="CM6" s="120"/>
       <c r="CN6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="DA6" s="84"/>
-      <c r="DC6" s="115"/>
+      <c r="DC6" s="120"/>
       <c r="DD6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>0.76619999999999999</v>
       </c>
       <c r="DQ6" s="84"/>
-      <c r="DS6" s="115"/>
+      <c r="DS6" s="120"/>
       <c r="DT6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>0.752</v>
       </c>
       <c r="EG6" s="84"/>
-      <c r="EI6" s="115"/>
+      <c r="EI6" s="120"/>
       <c r="EJ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="EW6" s="84"/>
-      <c r="EY6" s="115"/>
+      <c r="EY6" s="120"/>
       <c r="EZ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="FM6" s="84"/>
-      <c r="FO6" s="115"/>
+      <c r="FO6" s="120"/>
       <c r="FP6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3280,7 +3280,7 @@
       <c r="Y7" s="19">
         <v>0.79300000000000004</v>
       </c>
-      <c r="AA7" s="116"/>
+      <c r="AA7" s="121"/>
       <c r="AB7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="AO7" s="19">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AQ7" s="116"/>
+      <c r="AQ7" s="121"/>
       <c r="AR7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="BE7" s="19">
         <v>0.79700000000000004</v>
       </c>
-      <c r="BG7" s="116"/>
+      <c r="BG7" s="121"/>
       <c r="BH7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="BU7" s="19">
         <v>0.80200000000000005</v>
       </c>
-      <c r="BW7" s="116"/>
+      <c r="BW7" s="121"/>
       <c r="BX7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="CK7" s="19">
         <v>0.8</v>
       </c>
-      <c r="CM7" s="116"/>
+      <c r="CM7" s="121"/>
       <c r="CN7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="DA7" s="19">
         <v>0.81399999999999995</v>
       </c>
-      <c r="DC7" s="116"/>
+      <c r="DC7" s="121"/>
       <c r="DD7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="DQ7" s="24">
         <v>0.80100000000000005</v>
       </c>
-      <c r="DS7" s="116"/>
+      <c r="DS7" s="121"/>
       <c r="DT7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="EF7" s="88"/>
       <c r="EG7" s="88"/>
-      <c r="EI7" s="116"/>
+      <c r="EI7" s="121"/>
       <c r="EJ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="EV7" s="88"/>
       <c r="EW7" s="88"/>
-      <c r="EY7" s="116"/>
+      <c r="EY7" s="121"/>
       <c r="EZ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="FL7" s="88"/>
       <c r="FM7" s="88"/>
-      <c r="FO7" s="116"/>
+      <c r="FO7" s="121"/>
       <c r="FP7" s="63" t="s">
         <v>9</v>
       </c>
@@ -7076,24 +7076,31 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="FO8:FO11"/>
-    <mergeCell ref="FO12:FO15"/>
-    <mergeCell ref="EY2:EZ2"/>
-    <mergeCell ref="FA2:FM2"/>
-    <mergeCell ref="FO4:FO7"/>
-    <mergeCell ref="EY12:EY15"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AO2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:BE2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BU2"/>
+    <mergeCell ref="BW12:BW15"/>
+    <mergeCell ref="CM12:CM15"/>
+    <mergeCell ref="DC12:DC15"/>
+    <mergeCell ref="DS12:DS15"/>
+    <mergeCell ref="EI12:EI15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="AA12:AA15"/>
+    <mergeCell ref="AQ12:AQ15"/>
+    <mergeCell ref="BG12:BG15"/>
+    <mergeCell ref="DC4:DC7"/>
+    <mergeCell ref="DS4:DS7"/>
+    <mergeCell ref="EI4:EI7"/>
+    <mergeCell ref="EY4:EY7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="AA8:AA11"/>
+    <mergeCell ref="AQ8:AQ11"/>
+    <mergeCell ref="BG8:BG11"/>
+    <mergeCell ref="BW8:BW11"/>
+    <mergeCell ref="CM8:CM11"/>
+    <mergeCell ref="DC8:DC11"/>
+    <mergeCell ref="DS8:DS11"/>
+    <mergeCell ref="EI8:EI11"/>
+    <mergeCell ref="EY8:EY11"/>
     <mergeCell ref="DU2:EG2"/>
     <mergeCell ref="EI2:EJ2"/>
     <mergeCell ref="EK2:EW2"/>
@@ -7110,31 +7117,24 @@
     <mergeCell ref="DC2:DD2"/>
     <mergeCell ref="DE2:DQ2"/>
     <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="DC4:DC7"/>
-    <mergeCell ref="DS4:DS7"/>
-    <mergeCell ref="EI4:EI7"/>
-    <mergeCell ref="EY4:EY7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="AA8:AA11"/>
-    <mergeCell ref="AQ8:AQ11"/>
-    <mergeCell ref="BG8:BG11"/>
-    <mergeCell ref="BW8:BW11"/>
-    <mergeCell ref="CM8:CM11"/>
-    <mergeCell ref="DC8:DC11"/>
-    <mergeCell ref="DS8:DS11"/>
-    <mergeCell ref="EI8:EI11"/>
-    <mergeCell ref="EY8:EY11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="AA12:AA15"/>
-    <mergeCell ref="AQ12:AQ15"/>
-    <mergeCell ref="BG12:BG15"/>
-    <mergeCell ref="BW12:BW15"/>
-    <mergeCell ref="CM12:CM15"/>
-    <mergeCell ref="DC12:DC15"/>
-    <mergeCell ref="DS12:DS15"/>
-    <mergeCell ref="EI12:EI15"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AO2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:BE2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BU2"/>
+    <mergeCell ref="FO8:FO11"/>
+    <mergeCell ref="FO12:FO15"/>
+    <mergeCell ref="EY2:EZ2"/>
+    <mergeCell ref="FA2:FM2"/>
+    <mergeCell ref="FO4:FO7"/>
+    <mergeCell ref="EY12:EY15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7190,191 +7190,191 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:157" ht="14.55" customHeight="1">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="114" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="123"/>
       <c r="F2" s="123"/>
       <c r="G2" s="123"/>
-      <c r="H2" s="121"/>
+      <c r="H2" s="115"/>
       <c r="I2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="120" t="s">
+      <c r="K2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="117" t="s">
+      <c r="L2" s="115"/>
+      <c r="M2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="118"/>
-      <c r="AA2" s="120" t="s">
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="AA2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="117" t="s">
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="118"/>
-      <c r="AG2" s="118"/>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="118"/>
-      <c r="AJ2" s="118"/>
-      <c r="AK2" s="118"/>
-      <c r="AL2" s="118"/>
-      <c r="AM2" s="118"/>
-      <c r="AN2" s="118"/>
-      <c r="AO2" s="119"/>
-      <c r="AQ2" s="120" t="s">
+      <c r="AD2" s="117"/>
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="117"/>
+      <c r="AJ2" s="117"/>
+      <c r="AK2" s="117"/>
+      <c r="AL2" s="117"/>
+      <c r="AM2" s="117"/>
+      <c r="AN2" s="117"/>
+      <c r="AO2" s="118"/>
+      <c r="AQ2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="AR2" s="121"/>
-      <c r="AS2" s="117" t="s">
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="118"/>
-      <c r="AU2" s="118"/>
-      <c r="AV2" s="118"/>
-      <c r="AW2" s="118"/>
-      <c r="AX2" s="118"/>
-      <c r="AY2" s="118"/>
-      <c r="AZ2" s="118"/>
-      <c r="BA2" s="118"/>
-      <c r="BB2" s="118"/>
-      <c r="BC2" s="118"/>
-      <c r="BD2" s="118"/>
-      <c r="BE2" s="119"/>
-      <c r="BG2" s="120" t="s">
+      <c r="AT2" s="117"/>
+      <c r="AU2" s="117"/>
+      <c r="AV2" s="117"/>
+      <c r="AW2" s="117"/>
+      <c r="AX2" s="117"/>
+      <c r="AY2" s="117"/>
+      <c r="AZ2" s="117"/>
+      <c r="BA2" s="117"/>
+      <c r="BB2" s="117"/>
+      <c r="BC2" s="117"/>
+      <c r="BD2" s="117"/>
+      <c r="BE2" s="118"/>
+      <c r="BG2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="BH2" s="121"/>
-      <c r="BI2" s="117" t="s">
+      <c r="BH2" s="115"/>
+      <c r="BI2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="118"/>
-      <c r="BK2" s="118"/>
-      <c r="BL2" s="118"/>
-      <c r="BM2" s="118"/>
-      <c r="BN2" s="118"/>
-      <c r="BO2" s="118"/>
-      <c r="BP2" s="118"/>
-      <c r="BQ2" s="118"/>
-      <c r="BR2" s="118"/>
-      <c r="BS2" s="118"/>
-      <c r="BT2" s="118"/>
-      <c r="BU2" s="119"/>
-      <c r="BW2" s="120" t="s">
+      <c r="BJ2" s="117"/>
+      <c r="BK2" s="117"/>
+      <c r="BL2" s="117"/>
+      <c r="BM2" s="117"/>
+      <c r="BN2" s="117"/>
+      <c r="BO2" s="117"/>
+      <c r="BP2" s="117"/>
+      <c r="BQ2" s="117"/>
+      <c r="BR2" s="117"/>
+      <c r="BS2" s="117"/>
+      <c r="BT2" s="117"/>
+      <c r="BU2" s="118"/>
+      <c r="BW2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="BX2" s="121"/>
-      <c r="BY2" s="117" t="s">
+      <c r="BX2" s="115"/>
+      <c r="BY2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="BZ2" s="118"/>
-      <c r="CA2" s="118"/>
-      <c r="CB2" s="118"/>
-      <c r="CC2" s="118"/>
-      <c r="CD2" s="118"/>
-      <c r="CE2" s="118"/>
-      <c r="CF2" s="118"/>
-      <c r="CG2" s="118"/>
-      <c r="CH2" s="118"/>
-      <c r="CI2" s="118"/>
-      <c r="CJ2" s="118"/>
-      <c r="CK2" s="119"/>
-      <c r="CM2" s="120" t="s">
+      <c r="BZ2" s="117"/>
+      <c r="CA2" s="117"/>
+      <c r="CB2" s="117"/>
+      <c r="CC2" s="117"/>
+      <c r="CD2" s="117"/>
+      <c r="CE2" s="117"/>
+      <c r="CF2" s="117"/>
+      <c r="CG2" s="117"/>
+      <c r="CH2" s="117"/>
+      <c r="CI2" s="117"/>
+      <c r="CJ2" s="117"/>
+      <c r="CK2" s="118"/>
+      <c r="CM2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="CN2" s="121"/>
-      <c r="CO2" s="117" t="s">
+      <c r="CN2" s="115"/>
+      <c r="CO2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="CP2" s="118"/>
-      <c r="CQ2" s="118"/>
-      <c r="CR2" s="118"/>
-      <c r="CS2" s="118"/>
-      <c r="CT2" s="118"/>
-      <c r="CU2" s="118"/>
-      <c r="CV2" s="118"/>
-      <c r="CW2" s="118"/>
-      <c r="CX2" s="118"/>
-      <c r="CY2" s="118"/>
-      <c r="CZ2" s="118"/>
-      <c r="DA2" s="119"/>
-      <c r="DC2" s="120" t="s">
+      <c r="CP2" s="117"/>
+      <c r="CQ2" s="117"/>
+      <c r="CR2" s="117"/>
+      <c r="CS2" s="117"/>
+      <c r="CT2" s="117"/>
+      <c r="CU2" s="117"/>
+      <c r="CV2" s="117"/>
+      <c r="CW2" s="117"/>
+      <c r="CX2" s="117"/>
+      <c r="CY2" s="117"/>
+      <c r="CZ2" s="117"/>
+      <c r="DA2" s="118"/>
+      <c r="DC2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="DD2" s="121"/>
-      <c r="DE2" s="117" t="s">
+      <c r="DD2" s="115"/>
+      <c r="DE2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="DF2" s="118"/>
-      <c r="DG2" s="118"/>
-      <c r="DH2" s="118"/>
-      <c r="DI2" s="118"/>
-      <c r="DJ2" s="118"/>
-      <c r="DK2" s="118"/>
-      <c r="DL2" s="118"/>
-      <c r="DM2" s="118"/>
-      <c r="DN2" s="118"/>
-      <c r="DO2" s="118"/>
-      <c r="DP2" s="118"/>
-      <c r="DQ2" s="119"/>
-      <c r="DS2" s="120" t="s">
+      <c r="DF2" s="117"/>
+      <c r="DG2" s="117"/>
+      <c r="DH2" s="117"/>
+      <c r="DI2" s="117"/>
+      <c r="DJ2" s="117"/>
+      <c r="DK2" s="117"/>
+      <c r="DL2" s="117"/>
+      <c r="DM2" s="117"/>
+      <c r="DN2" s="117"/>
+      <c r="DO2" s="117"/>
+      <c r="DP2" s="117"/>
+      <c r="DQ2" s="118"/>
+      <c r="DS2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="DT2" s="121"/>
-      <c r="DU2" s="117" t="s">
+      <c r="DT2" s="115"/>
+      <c r="DU2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="DV2" s="118"/>
-      <c r="DW2" s="118"/>
-      <c r="DX2" s="118"/>
-      <c r="DY2" s="118"/>
-      <c r="DZ2" s="118"/>
-      <c r="EA2" s="118"/>
-      <c r="EB2" s="118"/>
-      <c r="EC2" s="118"/>
-      <c r="ED2" s="118"/>
-      <c r="EE2" s="118"/>
-      <c r="EF2" s="118"/>
-      <c r="EG2" s="119"/>
-      <c r="EI2" s="120" t="s">
+      <c r="DV2" s="117"/>
+      <c r="DW2" s="117"/>
+      <c r="DX2" s="117"/>
+      <c r="DY2" s="117"/>
+      <c r="DZ2" s="117"/>
+      <c r="EA2" s="117"/>
+      <c r="EB2" s="117"/>
+      <c r="EC2" s="117"/>
+      <c r="ED2" s="117"/>
+      <c r="EE2" s="117"/>
+      <c r="EF2" s="117"/>
+      <c r="EG2" s="118"/>
+      <c r="EI2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="EJ2" s="121"/>
-      <c r="EK2" s="117" t="s">
+      <c r="EJ2" s="115"/>
+      <c r="EK2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" s="118"/>
-      <c r="EM2" s="118"/>
-      <c r="EN2" s="118"/>
-      <c r="EO2" s="118"/>
-      <c r="EP2" s="118"/>
-      <c r="EQ2" s="118"/>
-      <c r="ER2" s="118"/>
-      <c r="ES2" s="118"/>
-      <c r="ET2" s="118"/>
-      <c r="EU2" s="118"/>
-      <c r="EV2" s="118"/>
-      <c r="EW2" s="119"/>
+      <c r="EL2" s="117"/>
+      <c r="EM2" s="117"/>
+      <c r="EN2" s="117"/>
+      <c r="EO2" s="117"/>
+      <c r="EP2" s="117"/>
+      <c r="EQ2" s="117"/>
+      <c r="ER2" s="117"/>
+      <c r="ES2" s="117"/>
+      <c r="ET2" s="117"/>
+      <c r="EU2" s="117"/>
+      <c r="EV2" s="117"/>
+      <c r="EW2" s="118"/>
     </row>
     <row r="3" spans="2:157">
       <c r="B3" s="66" t="s">
@@ -8113,7 +8113,7 @@
       <c r="EU4" s="51"/>
       <c r="EV4" s="48"/>
       <c r="EW4" s="48"/>
-      <c r="EY4" s="114" t="s">
+      <c r="EY4" s="119" t="s">
         <v>5</v>
       </c>
       <c r="EZ4" s="59" t="s">
@@ -8429,7 +8429,7 @@
       <c r="EU5" s="43"/>
       <c r="EV5" s="43"/>
       <c r="EW5" s="43"/>
-      <c r="EY5" s="115"/>
+      <c r="EY5" s="120"/>
       <c r="EZ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -8693,7 +8693,7 @@
       <c r="EU6" s="43"/>
       <c r="EV6" s="43"/>
       <c r="EW6" s="43"/>
-      <c r="EY6" s="115"/>
+      <c r="EY6" s="120"/>
       <c r="EZ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -8995,7 +8995,7 @@
       <c r="EU7" s="58"/>
       <c r="EV7" s="56"/>
       <c r="EW7" s="56"/>
-      <c r="EY7" s="116"/>
+      <c r="EY7" s="121"/>
       <c r="EZ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -12135,19 +12135,32 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="EK2:EW2"/>
-    <mergeCell ref="EI4:EI7"/>
-    <mergeCell ref="EI8:EI11"/>
-    <mergeCell ref="EI12:EI15"/>
-    <mergeCell ref="EY4:EY7"/>
-    <mergeCell ref="EY8:EY11"/>
-    <mergeCell ref="EY12:EY15"/>
-    <mergeCell ref="EI2:EJ2"/>
-    <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="DU2:EG2"/>
-    <mergeCell ref="DS4:DS7"/>
-    <mergeCell ref="DS8:DS11"/>
-    <mergeCell ref="DS12:DS15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:Y2"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="BI2:BU2"/>
+    <mergeCell ref="BG4:BG7"/>
+    <mergeCell ref="BG8:BG11"/>
+    <mergeCell ref="BG12:BG15"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AO2"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AA8:AA11"/>
+    <mergeCell ref="AA12:AA15"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:BE2"/>
+    <mergeCell ref="AQ4:AQ7"/>
+    <mergeCell ref="AQ8:AQ11"/>
+    <mergeCell ref="AQ12:AQ15"/>
+    <mergeCell ref="BG2:BH2"/>
     <mergeCell ref="DE2:DQ2"/>
     <mergeCell ref="DC4:DC7"/>
     <mergeCell ref="DC8:DC11"/>
@@ -12163,32 +12176,19 @@
     <mergeCell ref="CM8:CM11"/>
     <mergeCell ref="CM12:CM15"/>
     <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="BI2:BU2"/>
-    <mergeCell ref="BG4:BG7"/>
-    <mergeCell ref="BG8:BG11"/>
-    <mergeCell ref="BG12:BG15"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AO2"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AA8:AA11"/>
-    <mergeCell ref="AA12:AA15"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:BE2"/>
-    <mergeCell ref="AQ4:AQ7"/>
-    <mergeCell ref="AQ8:AQ11"/>
-    <mergeCell ref="AQ12:AQ15"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:Y2"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="DS2:DT2"/>
+    <mergeCell ref="DU2:EG2"/>
+    <mergeCell ref="DS4:DS7"/>
+    <mergeCell ref="DS8:DS11"/>
+    <mergeCell ref="DS12:DS15"/>
+    <mergeCell ref="EK2:EW2"/>
+    <mergeCell ref="EI4:EI7"/>
+    <mergeCell ref="EI8:EI11"/>
+    <mergeCell ref="EI12:EI15"/>
+    <mergeCell ref="EY4:EY7"/>
+    <mergeCell ref="EY8:EY11"/>
+    <mergeCell ref="EY12:EY15"/>
+    <mergeCell ref="EI2:EJ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12557,7 +12557,7 @@
   <dimension ref="B3:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -12898,12 +12898,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B13:B16"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project_results.xlsx
+++ b/project_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maren\Python\machineLearningProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4609DB-63C0-4E86-9323-ECEA0EEB6ACB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17D777C-3D51-45B2-B41C-A983FFA52B1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" activeTab="4" xr2:uid="{DBFDAFC6-5964-47A5-B37B-48FDB3DF0ABC}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="2" activeTab="4" xr2:uid="{DBFDAFC6-5964-47A5-B37B-48FDB3DF0ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="SVC - RFE" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="27">
   <si>
     <t>Logistic Regression</t>
   </si>
@@ -142,7 +142,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +176,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,6 +577,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -568,10 +622,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -583,13 +640,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -598,6 +652,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -921,18 +1008,18 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="107" t="s">
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109" t="s">
         <v>1</v>
       </c>
     </row>
@@ -958,10 +1045,10 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="108"/>
+      <c r="I3" s="110"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -987,7 +1074,7 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="110"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1098,7 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="110"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1035,7 +1122,7 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="110"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1059,7 +1146,7 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1085,7 +1172,7 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="102"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +1196,7 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="102"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1220,7 @@
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="103"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1244,7 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="103" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1183,7 +1270,7 @@
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="102"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
@@ -1207,7 +1294,7 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="102"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -1231,7 +1318,7 @@
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="103"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -1316,210 +1403,210 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:185">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="107" t="s">
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="114" t="s">
+      <c r="K2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116" t="s">
+      <c r="L2" s="123"/>
+      <c r="M2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="AA2" s="114" t="s">
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="AA2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="116" t="s">
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="117"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="117"/>
-      <c r="AJ2" s="117"/>
-      <c r="AK2" s="117"/>
-      <c r="AL2" s="117"/>
-      <c r="AM2" s="117"/>
-      <c r="AN2" s="117"/>
-      <c r="AO2" s="118"/>
-      <c r="AQ2" s="114" t="s">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="120"/>
+      <c r="AJ2" s="120"/>
+      <c r="AK2" s="120"/>
+      <c r="AL2" s="120"/>
+      <c r="AM2" s="120"/>
+      <c r="AN2" s="120"/>
+      <c r="AO2" s="121"/>
+      <c r="AQ2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="AR2" s="115"/>
-      <c r="AS2" s="116" t="s">
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="117"/>
-      <c r="AU2" s="117"/>
-      <c r="AV2" s="117"/>
-      <c r="AW2" s="117"/>
-      <c r="AX2" s="117"/>
-      <c r="AY2" s="117"/>
-      <c r="AZ2" s="117"/>
-      <c r="BA2" s="117"/>
-      <c r="BB2" s="117"/>
-      <c r="BC2" s="117"/>
-      <c r="BD2" s="117"/>
-      <c r="BE2" s="118"/>
-      <c r="BG2" s="114" t="s">
+      <c r="AT2" s="120"/>
+      <c r="AU2" s="120"/>
+      <c r="AV2" s="120"/>
+      <c r="AW2" s="120"/>
+      <c r="AX2" s="120"/>
+      <c r="AY2" s="120"/>
+      <c r="AZ2" s="120"/>
+      <c r="BA2" s="120"/>
+      <c r="BB2" s="120"/>
+      <c r="BC2" s="120"/>
+      <c r="BD2" s="120"/>
+      <c r="BE2" s="121"/>
+      <c r="BG2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="BH2" s="115"/>
-      <c r="BI2" s="116" t="s">
+      <c r="BH2" s="123"/>
+      <c r="BI2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="117"/>
-      <c r="BK2" s="117"/>
-      <c r="BL2" s="117"/>
-      <c r="BM2" s="117"/>
-      <c r="BN2" s="117"/>
-      <c r="BO2" s="117"/>
-      <c r="BP2" s="117"/>
-      <c r="BQ2" s="117"/>
-      <c r="BR2" s="117"/>
-      <c r="BS2" s="117"/>
-      <c r="BT2" s="117"/>
-      <c r="BU2" s="118"/>
-      <c r="BW2" s="114" t="s">
+      <c r="BJ2" s="120"/>
+      <c r="BK2" s="120"/>
+      <c r="BL2" s="120"/>
+      <c r="BM2" s="120"/>
+      <c r="BN2" s="120"/>
+      <c r="BO2" s="120"/>
+      <c r="BP2" s="120"/>
+      <c r="BQ2" s="120"/>
+      <c r="BR2" s="120"/>
+      <c r="BS2" s="120"/>
+      <c r="BT2" s="120"/>
+      <c r="BU2" s="121"/>
+      <c r="BW2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="BX2" s="115"/>
-      <c r="BY2" s="116" t="s">
+      <c r="BX2" s="123"/>
+      <c r="BY2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="BZ2" s="117"/>
-      <c r="CA2" s="117"/>
-      <c r="CB2" s="117"/>
-      <c r="CC2" s="117"/>
-      <c r="CD2" s="117"/>
-      <c r="CE2" s="117"/>
-      <c r="CF2" s="117"/>
-      <c r="CG2" s="117"/>
-      <c r="CH2" s="117"/>
-      <c r="CI2" s="117"/>
-      <c r="CJ2" s="117"/>
-      <c r="CK2" s="118"/>
-      <c r="CM2" s="114" t="s">
+      <c r="BZ2" s="120"/>
+      <c r="CA2" s="120"/>
+      <c r="CB2" s="120"/>
+      <c r="CC2" s="120"/>
+      <c r="CD2" s="120"/>
+      <c r="CE2" s="120"/>
+      <c r="CF2" s="120"/>
+      <c r="CG2" s="120"/>
+      <c r="CH2" s="120"/>
+      <c r="CI2" s="120"/>
+      <c r="CJ2" s="120"/>
+      <c r="CK2" s="121"/>
+      <c r="CM2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="CN2" s="115"/>
-      <c r="CO2" s="116" t="s">
+      <c r="CN2" s="123"/>
+      <c r="CO2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="CP2" s="117"/>
-      <c r="CQ2" s="117"/>
-      <c r="CR2" s="117"/>
-      <c r="CS2" s="117"/>
-      <c r="CT2" s="117"/>
-      <c r="CU2" s="117"/>
-      <c r="CV2" s="117"/>
-      <c r="CW2" s="117"/>
-      <c r="CX2" s="117"/>
-      <c r="CY2" s="117"/>
-      <c r="CZ2" s="117"/>
-      <c r="DA2" s="118"/>
-      <c r="DC2" s="114" t="s">
+      <c r="CP2" s="120"/>
+      <c r="CQ2" s="120"/>
+      <c r="CR2" s="120"/>
+      <c r="CS2" s="120"/>
+      <c r="CT2" s="120"/>
+      <c r="CU2" s="120"/>
+      <c r="CV2" s="120"/>
+      <c r="CW2" s="120"/>
+      <c r="CX2" s="120"/>
+      <c r="CY2" s="120"/>
+      <c r="CZ2" s="120"/>
+      <c r="DA2" s="121"/>
+      <c r="DC2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="DD2" s="115"/>
-      <c r="DE2" s="116" t="s">
+      <c r="DD2" s="123"/>
+      <c r="DE2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="DF2" s="117"/>
-      <c r="DG2" s="117"/>
-      <c r="DH2" s="117"/>
-      <c r="DI2" s="117"/>
-      <c r="DJ2" s="117"/>
-      <c r="DK2" s="117"/>
-      <c r="DL2" s="117"/>
-      <c r="DM2" s="117"/>
-      <c r="DN2" s="117"/>
-      <c r="DO2" s="117"/>
-      <c r="DP2" s="117"/>
-      <c r="DQ2" s="118"/>
-      <c r="DS2" s="114" t="s">
+      <c r="DF2" s="120"/>
+      <c r="DG2" s="120"/>
+      <c r="DH2" s="120"/>
+      <c r="DI2" s="120"/>
+      <c r="DJ2" s="120"/>
+      <c r="DK2" s="120"/>
+      <c r="DL2" s="120"/>
+      <c r="DM2" s="120"/>
+      <c r="DN2" s="120"/>
+      <c r="DO2" s="120"/>
+      <c r="DP2" s="120"/>
+      <c r="DQ2" s="121"/>
+      <c r="DS2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="DT2" s="115"/>
-      <c r="DU2" s="116" t="s">
+      <c r="DT2" s="123"/>
+      <c r="DU2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="DV2" s="117"/>
-      <c r="DW2" s="117"/>
-      <c r="DX2" s="117"/>
-      <c r="DY2" s="117"/>
-      <c r="DZ2" s="117"/>
-      <c r="EA2" s="117"/>
-      <c r="EB2" s="117"/>
-      <c r="EC2" s="117"/>
-      <c r="ED2" s="117"/>
-      <c r="EE2" s="117"/>
-      <c r="EF2" s="117"/>
-      <c r="EG2" s="118"/>
-      <c r="EI2" s="114" t="s">
+      <c r="DV2" s="120"/>
+      <c r="DW2" s="120"/>
+      <c r="DX2" s="120"/>
+      <c r="DY2" s="120"/>
+      <c r="DZ2" s="120"/>
+      <c r="EA2" s="120"/>
+      <c r="EB2" s="120"/>
+      <c r="EC2" s="120"/>
+      <c r="ED2" s="120"/>
+      <c r="EE2" s="120"/>
+      <c r="EF2" s="120"/>
+      <c r="EG2" s="121"/>
+      <c r="EI2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="EJ2" s="115"/>
-      <c r="EK2" s="116" t="s">
+      <c r="EJ2" s="123"/>
+      <c r="EK2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" s="117"/>
-      <c r="EM2" s="117"/>
-      <c r="EN2" s="117"/>
-      <c r="EO2" s="117"/>
-      <c r="EP2" s="117"/>
-      <c r="EQ2" s="117"/>
-      <c r="ER2" s="117"/>
-      <c r="ES2" s="117"/>
-      <c r="ET2" s="117"/>
-      <c r="EU2" s="117"/>
-      <c r="EV2" s="117"/>
-      <c r="EW2" s="118"/>
-      <c r="EY2" s="114" t="s">
+      <c r="EL2" s="120"/>
+      <c r="EM2" s="120"/>
+      <c r="EN2" s="120"/>
+      <c r="EO2" s="120"/>
+      <c r="EP2" s="120"/>
+      <c r="EQ2" s="120"/>
+      <c r="ER2" s="120"/>
+      <c r="ES2" s="120"/>
+      <c r="ET2" s="120"/>
+      <c r="EU2" s="120"/>
+      <c r="EV2" s="120"/>
+      <c r="EW2" s="121"/>
+      <c r="EY2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="EZ2" s="115"/>
-      <c r="FA2" s="116" t="s">
+      <c r="EZ2" s="123"/>
+      <c r="FA2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="FB2" s="117"/>
-      <c r="FC2" s="117"/>
-      <c r="FD2" s="117"/>
-      <c r="FE2" s="117"/>
-      <c r="FF2" s="117"/>
-      <c r="FG2" s="117"/>
-      <c r="FH2" s="117"/>
-      <c r="FI2" s="117"/>
-      <c r="FJ2" s="117"/>
-      <c r="FK2" s="117"/>
-      <c r="FL2" s="117"/>
-      <c r="FM2" s="118"/>
+      <c r="FB2" s="120"/>
+      <c r="FC2" s="120"/>
+      <c r="FD2" s="120"/>
+      <c r="FE2" s="120"/>
+      <c r="FF2" s="120"/>
+      <c r="FG2" s="120"/>
+      <c r="FH2" s="120"/>
+      <c r="FI2" s="120"/>
+      <c r="FJ2" s="120"/>
+      <c r="FK2" s="120"/>
+      <c r="FL2" s="120"/>
+      <c r="FM2" s="121"/>
       <c r="FO2" s="99"/>
       <c r="FP2" s="99"/>
       <c r="FQ2" s="98"/>
@@ -1558,7 +1645,7 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="108"/>
+      <c r="I3" s="110"/>
       <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2036,7 +2123,7 @@
     </row>
     <row r="4" spans="1:185" s="25" customFormat="1">
       <c r="A4"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2061,7 +2148,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -2107,7 +2194,7 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="Z4" s="33"/>
-      <c r="AA4" s="119" t="s">
+      <c r="AA4" s="116" t="s">
         <v>5</v>
       </c>
       <c r="AB4" s="59" t="s">
@@ -2150,7 +2237,7 @@
       <c r="AO4" s="15">
         <v>0.81899999999999995</v>
       </c>
-      <c r="AQ4" s="119" t="s">
+      <c r="AQ4" s="116" t="s">
         <v>5</v>
       </c>
       <c r="AR4" s="59" t="s">
@@ -2191,7 +2278,7 @@
       <c r="BE4" s="15">
         <v>0.81799999999999995</v>
       </c>
-      <c r="BG4" s="119" t="s">
+      <c r="BG4" s="116" t="s">
         <v>5</v>
       </c>
       <c r="BH4" s="59" t="s">
@@ -2230,7 +2317,7 @@
       <c r="BU4" s="21">
         <v>0.82299999999999995</v>
       </c>
-      <c r="BW4" s="119" t="s">
+      <c r="BW4" s="116" t="s">
         <v>5</v>
       </c>
       <c r="BX4" s="59" t="s">
@@ -2267,7 +2354,7 @@
       </c>
       <c r="CJ4" s="85"/>
       <c r="CK4" s="85"/>
-      <c r="CM4" s="119" t="s">
+      <c r="CM4" s="116" t="s">
         <v>5</v>
       </c>
       <c r="CN4" s="59" t="s">
@@ -2302,7 +2389,7 @@
       </c>
       <c r="CZ4" s="85"/>
       <c r="DA4" s="85"/>
-      <c r="DC4" s="119" t="s">
+      <c r="DC4" s="116" t="s">
         <v>5</v>
       </c>
       <c r="DD4" s="59" t="s">
@@ -2335,7 +2422,7 @@
       </c>
       <c r="DP4" s="85"/>
       <c r="DQ4" s="85"/>
-      <c r="DS4" s="119" t="s">
+      <c r="DS4" s="116" t="s">
         <v>5</v>
       </c>
       <c r="DT4" s="59" t="s">
@@ -2366,7 +2453,7 @@
       </c>
       <c r="EF4" s="85"/>
       <c r="EG4" s="85"/>
-      <c r="EI4" s="119" t="s">
+      <c r="EI4" s="116" t="s">
         <v>5</v>
       </c>
       <c r="EJ4" s="59" t="s">
@@ -2395,7 +2482,7 @@
       </c>
       <c r="EV4" s="85"/>
       <c r="EW4" s="85"/>
-      <c r="EY4" s="119" t="s">
+      <c r="EY4" s="116" t="s">
         <v>5</v>
       </c>
       <c r="EZ4" s="59" t="s">
@@ -2422,7 +2509,7 @@
       </c>
       <c r="FL4" s="85"/>
       <c r="FM4" s="85"/>
-      <c r="FO4" s="119" t="s">
+      <c r="FO4" s="116" t="s">
         <v>5</v>
       </c>
       <c r="FP4" s="59" t="s">
@@ -2445,7 +2532,7 @@
       <c r="GC4" s="33"/>
     </row>
     <row r="5" spans="1:185" s="25" customFormat="1">
-      <c r="B5" s="110"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2467,7 +2554,7 @@
       <c r="I5" s="70">
         <v>0.80900000000000005</v>
       </c>
-      <c r="K5" s="110"/>
+      <c r="K5" s="112"/>
       <c r="L5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2510,7 +2597,7 @@
       <c r="Y5" s="22">
         <v>0.81299999999999994</v>
       </c>
-      <c r="AA5" s="120"/>
+      <c r="AA5" s="117"/>
       <c r="AB5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2551,7 +2638,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="AO5" s="84"/>
-      <c r="AQ5" s="120"/>
+      <c r="AQ5" s="117"/>
       <c r="AR5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2590,7 +2677,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="BE5" s="84"/>
-      <c r="BG5" s="120"/>
+      <c r="BG5" s="117"/>
       <c r="BH5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +2714,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="BU5" s="84"/>
-      <c r="BW5" s="120"/>
+      <c r="BW5" s="117"/>
       <c r="BX5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2662,7 +2749,7 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="CK5" s="84"/>
-      <c r="CM5" s="120"/>
+      <c r="CM5" s="117"/>
       <c r="CN5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2695,7 +2782,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="DA5" s="84"/>
-      <c r="DC5" s="120"/>
+      <c r="DC5" s="117"/>
       <c r="DD5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2726,7 +2813,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="DQ5" s="84"/>
-      <c r="DS5" s="120"/>
+      <c r="DS5" s="117"/>
       <c r="DT5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2755,7 +2842,7 @@
       </c>
       <c r="EF5" s="84"/>
       <c r="EG5" s="84"/>
-      <c r="EI5" s="120"/>
+      <c r="EI5" s="117"/>
       <c r="EJ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2782,7 +2869,7 @@
       </c>
       <c r="EV5" s="84"/>
       <c r="EW5" s="84"/>
-      <c r="EY5" s="120"/>
+      <c r="EY5" s="117"/>
       <c r="EZ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2807,7 +2894,7 @@
       </c>
       <c r="FL5" s="84"/>
       <c r="FM5" s="84"/>
-      <c r="FO5" s="120"/>
+      <c r="FO5" s="117"/>
       <c r="FP5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2829,7 +2916,7 @@
     </row>
     <row r="6" spans="1:185" s="25" customFormat="1">
       <c r="A6"/>
-      <c r="B6" s="110"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -2852,7 +2939,7 @@
         <v>0.752</v>
       </c>
       <c r="J6"/>
-      <c r="K6" s="110"/>
+      <c r="K6" s="112"/>
       <c r="L6" s="7" t="s">
         <v>8</v>
       </c>
@@ -2895,7 +2982,7 @@
       <c r="Y6" s="17">
         <v>0.752</v>
       </c>
-      <c r="AA6" s="120"/>
+      <c r="AA6" s="117"/>
       <c r="AB6" s="63" t="s">
         <v>8</v>
       </c>
@@ -2936,7 +3023,7 @@
       <c r="AO6" s="17">
         <v>0.75700000000000001</v>
       </c>
-      <c r="AQ6" s="120"/>
+      <c r="AQ6" s="117"/>
       <c r="AR6" s="63" t="s">
         <v>8</v>
       </c>
@@ -2975,7 +3062,7 @@
       <c r="BE6" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BG6" s="120"/>
+      <c r="BG6" s="117"/>
       <c r="BH6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3012,7 +3099,7 @@
       <c r="BU6" s="22">
         <v>0.82199999999999995</v>
       </c>
-      <c r="BW6" s="120"/>
+      <c r="BW6" s="117"/>
       <c r="BX6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3047,7 +3134,7 @@
         <v>0.79</v>
       </c>
       <c r="CK6" s="84"/>
-      <c r="CM6" s="120"/>
+      <c r="CM6" s="117"/>
       <c r="CN6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3080,7 +3167,7 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="DA6" s="84"/>
-      <c r="DC6" s="120"/>
+      <c r="DC6" s="117"/>
       <c r="DD6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3111,7 +3198,7 @@
         <v>0.76619999999999999</v>
       </c>
       <c r="DQ6" s="84"/>
-      <c r="DS6" s="120"/>
+      <c r="DS6" s="117"/>
       <c r="DT6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3140,7 +3227,7 @@
         <v>0.752</v>
       </c>
       <c r="EG6" s="84"/>
-      <c r="EI6" s="120"/>
+      <c r="EI6" s="117"/>
       <c r="EJ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3167,7 +3254,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="EW6" s="84"/>
-      <c r="EY6" s="120"/>
+      <c r="EY6" s="117"/>
       <c r="EZ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3192,7 +3279,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="FM6" s="84"/>
-      <c r="FO6" s="120"/>
+      <c r="FO6" s="117"/>
       <c r="FP6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3214,7 +3301,7 @@
     </row>
     <row r="7" spans="1:185" s="25" customFormat="1">
       <c r="A7"/>
-      <c r="B7" s="110"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -3237,7 +3324,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="J7"/>
-      <c r="K7" s="122"/>
+      <c r="K7" s="124"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
@@ -3280,7 +3367,7 @@
       <c r="Y7" s="19">
         <v>0.79300000000000004</v>
       </c>
-      <c r="AA7" s="121"/>
+      <c r="AA7" s="118"/>
       <c r="AB7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3321,7 +3408,7 @@
       <c r="AO7" s="19">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AQ7" s="121"/>
+      <c r="AQ7" s="118"/>
       <c r="AR7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3360,7 +3447,7 @@
       <c r="BE7" s="19">
         <v>0.79700000000000004</v>
       </c>
-      <c r="BG7" s="121"/>
+      <c r="BG7" s="118"/>
       <c r="BH7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3397,7 +3484,7 @@
       <c r="BU7" s="19">
         <v>0.80200000000000005</v>
       </c>
-      <c r="BW7" s="121"/>
+      <c r="BW7" s="118"/>
       <c r="BX7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3432,7 +3519,7 @@
       <c r="CK7" s="19">
         <v>0.8</v>
       </c>
-      <c r="CM7" s="121"/>
+      <c r="CM7" s="118"/>
       <c r="CN7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3465,7 +3552,7 @@
       <c r="DA7" s="19">
         <v>0.81399999999999995</v>
       </c>
-      <c r="DC7" s="121"/>
+      <c r="DC7" s="118"/>
       <c r="DD7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3496,7 +3583,7 @@
       <c r="DQ7" s="24">
         <v>0.80100000000000005</v>
       </c>
-      <c r="DS7" s="121"/>
+      <c r="DS7" s="118"/>
       <c r="DT7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3525,7 +3612,7 @@
       </c>
       <c r="EF7" s="88"/>
       <c r="EG7" s="88"/>
-      <c r="EI7" s="121"/>
+      <c r="EI7" s="118"/>
       <c r="EJ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3552,7 +3639,7 @@
       </c>
       <c r="EV7" s="88"/>
       <c r="EW7" s="88"/>
-      <c r="EY7" s="121"/>
+      <c r="EY7" s="118"/>
       <c r="EZ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3577,7 +3664,7 @@
       </c>
       <c r="FL7" s="88"/>
       <c r="FM7" s="88"/>
-      <c r="FO7" s="121"/>
+      <c r="FO7" s="118"/>
       <c r="FP7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3598,7 +3685,7 @@
       <c r="GC7" s="33"/>
     </row>
     <row r="8" spans="1:185" ht="14.55" customHeight="1">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3622,7 +3709,7 @@
       <c r="I8" s="77">
         <v>0.80600000000000005</v>
       </c>
-      <c r="K8" s="101" t="s">
+      <c r="K8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -3668,7 +3755,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="Z8" s="25"/>
-      <c r="AA8" s="111" t="s">
+      <c r="AA8" s="113" t="s">
         <v>10</v>
       </c>
       <c r="AB8" s="59" t="s">
@@ -3712,7 +3799,7 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="AP8" s="25"/>
-      <c r="AQ8" s="111" t="s">
+      <c r="AQ8" s="113" t="s">
         <v>10</v>
       </c>
       <c r="AR8" s="59" t="s">
@@ -3754,7 +3841,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="BF8" s="25"/>
-      <c r="BG8" s="111" t="s">
+      <c r="BG8" s="113" t="s">
         <v>10</v>
       </c>
       <c r="BH8" s="59" t="s">
@@ -3794,7 +3881,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="BV8" s="25"/>
-      <c r="BW8" s="111" t="s">
+      <c r="BW8" s="113" t="s">
         <v>10</v>
       </c>
       <c r="BX8" s="59" t="s">
@@ -3832,7 +3919,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="CL8" s="25"/>
-      <c r="CM8" s="111" t="s">
+      <c r="CM8" s="113" t="s">
         <v>10</v>
       </c>
       <c r="CN8" s="59" t="s">
@@ -3868,7 +3955,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="DB8" s="25"/>
-      <c r="DC8" s="111" t="s">
+      <c r="DC8" s="113" t="s">
         <v>10</v>
       </c>
       <c r="DD8" s="59" t="s">
@@ -3902,7 +3989,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="DR8" s="25"/>
-      <c r="DS8" s="111" t="s">
+      <c r="DS8" s="113" t="s">
         <v>10</v>
       </c>
       <c r="DT8" s="59" t="s">
@@ -3934,7 +4021,7 @@
         <v>0.746</v>
       </c>
       <c r="EH8" s="25"/>
-      <c r="EI8" s="111" t="s">
+      <c r="EI8" s="113" t="s">
         <v>10</v>
       </c>
       <c r="EJ8" s="59" t="s">
@@ -3964,7 +4051,7 @@
         <v>0.74199999999999999</v>
       </c>
       <c r="EX8" s="25"/>
-      <c r="EY8" s="111" t="s">
+      <c r="EY8" s="113" t="s">
         <v>10</v>
       </c>
       <c r="EZ8" s="59" t="s">
@@ -3991,7 +4078,7 @@
       <c r="FM8" s="15">
         <v>0.74199999999999999</v>
       </c>
-      <c r="FO8" s="111" t="s">
+      <c r="FO8" s="113" t="s">
         <v>10</v>
       </c>
       <c r="FP8" s="59" t="s">
@@ -4014,7 +4101,7 @@
       <c r="GC8" s="33"/>
     </row>
     <row r="9" spans="1:185">
-      <c r="B9" s="102"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -4036,7 +4123,7 @@
       <c r="I9" s="70">
         <v>0.80100000000000005</v>
       </c>
-      <c r="K9" s="102"/>
+      <c r="K9" s="104"/>
       <c r="L9" s="7" t="s">
         <v>7</v>
       </c>
@@ -4080,7 +4167,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="Z9" s="25"/>
-      <c r="AA9" s="112"/>
+      <c r="AA9" s="114"/>
       <c r="AB9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4122,7 +4209,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="AP9" s="25"/>
-      <c r="AQ9" s="112"/>
+      <c r="AQ9" s="114"/>
       <c r="AR9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4162,7 +4249,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="BF9" s="25"/>
-      <c r="BG9" s="112"/>
+      <c r="BG9" s="114"/>
       <c r="BH9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4200,7 +4287,7 @@
         <v>0.82</v>
       </c>
       <c r="BV9" s="25"/>
-      <c r="BW9" s="112"/>
+      <c r="BW9" s="114"/>
       <c r="BX9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4236,7 +4323,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="CL9" s="25"/>
-      <c r="CM9" s="112"/>
+      <c r="CM9" s="114"/>
       <c r="CN9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4270,7 +4357,7 @@
       </c>
       <c r="DA9" s="84"/>
       <c r="DB9" s="25"/>
-      <c r="DC9" s="112"/>
+      <c r="DC9" s="114"/>
       <c r="DD9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4302,7 +4389,7 @@
       </c>
       <c r="DQ9" s="84"/>
       <c r="DR9" s="25"/>
-      <c r="DS9" s="112"/>
+      <c r="DS9" s="114"/>
       <c r="DT9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4332,7 +4419,7 @@
       </c>
       <c r="EG9" s="84"/>
       <c r="EH9" s="25"/>
-      <c r="EI9" s="112"/>
+      <c r="EI9" s="114"/>
       <c r="EJ9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4360,7 +4447,7 @@
       </c>
       <c r="EW9" s="84"/>
       <c r="EX9" s="25"/>
-      <c r="EY9" s="112"/>
+      <c r="EY9" s="114"/>
       <c r="EZ9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4385,7 +4472,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="FM9" s="84"/>
-      <c r="FO9" s="112"/>
+      <c r="FO9" s="114"/>
       <c r="FP9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4406,7 +4493,7 @@
       <c r="GC9" s="33"/>
     </row>
     <row r="10" spans="1:185">
-      <c r="B10" s="102"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -4428,7 +4515,7 @@
       <c r="I10" s="70">
         <v>0.75600000000000001</v>
       </c>
-      <c r="K10" s="102"/>
+      <c r="K10" s="104"/>
       <c r="L10" s="7" t="s">
         <v>8</v>
       </c>
@@ -4472,7 +4559,7 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="Z10" s="25"/>
-      <c r="AA10" s="112"/>
+      <c r="AA10" s="114"/>
       <c r="AB10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4514,7 +4601,7 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="AP10" s="25"/>
-      <c r="AQ10" s="112"/>
+      <c r="AQ10" s="114"/>
       <c r="AR10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4554,7 +4641,7 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="BF10" s="25"/>
-      <c r="BG10" s="112"/>
+      <c r="BG10" s="114"/>
       <c r="BH10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4592,7 +4679,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="BV10" s="25"/>
-      <c r="BW10" s="112"/>
+      <c r="BW10" s="114"/>
       <c r="BX10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4628,7 +4715,7 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="CL10" s="25"/>
-      <c r="CM10" s="112"/>
+      <c r="CM10" s="114"/>
       <c r="CN10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4662,7 +4749,7 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="DB10" s="25"/>
-      <c r="DC10" s="112"/>
+      <c r="DC10" s="114"/>
       <c r="DD10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4694,7 +4781,7 @@
       </c>
       <c r="DQ10" s="84"/>
       <c r="DR10" s="25"/>
-      <c r="DS10" s="112"/>
+      <c r="DS10" s="114"/>
       <c r="DT10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4724,7 +4811,7 @@
       </c>
       <c r="EG10" s="84"/>
       <c r="EH10" s="25"/>
-      <c r="EI10" s="112"/>
+      <c r="EI10" s="114"/>
       <c r="EJ10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4752,7 +4839,7 @@
       </c>
       <c r="EW10" s="84"/>
       <c r="EX10" s="25"/>
-      <c r="EY10" s="112"/>
+      <c r="EY10" s="114"/>
       <c r="EZ10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4777,7 +4864,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="FM10" s="84"/>
-      <c r="FO10" s="112"/>
+      <c r="FO10" s="114"/>
       <c r="FP10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4798,7 +4885,7 @@
       <c r="GC10" s="33"/>
     </row>
     <row r="11" spans="1:185">
-      <c r="B11" s="103"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -4820,7 +4907,7 @@
       <c r="I11" s="72">
         <v>0.80700000000000005</v>
       </c>
-      <c r="K11" s="103"/>
+      <c r="K11" s="105"/>
       <c r="L11" s="8" t="s">
         <v>9</v>
       </c>
@@ -4864,7 +4951,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="113"/>
+      <c r="AA11" s="115"/>
       <c r="AB11" s="64" t="s">
         <v>9</v>
       </c>
@@ -4906,7 +4993,7 @@
         <v>0.81299999999999994</v>
       </c>
       <c r="AP11" s="25"/>
-      <c r="AQ11" s="113"/>
+      <c r="AQ11" s="115"/>
       <c r="AR11" s="64" t="s">
         <v>9</v>
       </c>
@@ -4946,7 +5033,7 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="BF11" s="25"/>
-      <c r="BG11" s="113"/>
+      <c r="BG11" s="115"/>
       <c r="BH11" s="64" t="s">
         <v>9</v>
       </c>
@@ -4984,7 +5071,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="BV11" s="25"/>
-      <c r="BW11" s="113"/>
+      <c r="BW11" s="115"/>
       <c r="BX11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5020,7 +5107,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="CL11" s="25"/>
-      <c r="CM11" s="113"/>
+      <c r="CM11" s="115"/>
       <c r="CN11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5054,7 +5141,7 @@
       <c r="CZ11" s="88"/>
       <c r="DA11" s="88"/>
       <c r="DB11" s="25"/>
-      <c r="DC11" s="113"/>
+      <c r="DC11" s="115"/>
       <c r="DD11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5086,7 +5173,7 @@
       <c r="DP11" s="88"/>
       <c r="DQ11" s="88"/>
       <c r="DR11" s="25"/>
-      <c r="DS11" s="113"/>
+      <c r="DS11" s="115"/>
       <c r="DT11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5116,7 +5203,7 @@
       <c r="EF11" s="88"/>
       <c r="EG11" s="88"/>
       <c r="EH11" s="25"/>
-      <c r="EI11" s="113"/>
+      <c r="EI11" s="115"/>
       <c r="EJ11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5144,7 +5231,7 @@
       <c r="EV11" s="88"/>
       <c r="EW11" s="88"/>
       <c r="EX11" s="25"/>
-      <c r="EY11" s="113"/>
+      <c r="EY11" s="115"/>
       <c r="EZ11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5169,7 +5256,7 @@
       </c>
       <c r="FL11" s="88"/>
       <c r="FM11" s="88"/>
-      <c r="FO11" s="113"/>
+      <c r="FO11" s="115"/>
       <c r="FP11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5190,7 +5277,7 @@
       <c r="GC11" s="33"/>
     </row>
     <row r="12" spans="1:185" ht="14.55" customHeight="1">
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="103" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -5214,7 +5301,7 @@
       <c r="I12" s="68">
         <v>0.80600000000000005</v>
       </c>
-      <c r="K12" s="101" t="s">
+      <c r="K12" s="103" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -5260,7 +5347,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="Z12" s="25"/>
-      <c r="AA12" s="111" t="s">
+      <c r="AA12" s="113" t="s">
         <v>11</v>
       </c>
       <c r="AB12" s="59" t="s">
@@ -5304,7 +5391,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="AP12" s="25"/>
-      <c r="AQ12" s="111" t="s">
+      <c r="AQ12" s="113" t="s">
         <v>11</v>
       </c>
       <c r="AR12" s="59" t="s">
@@ -5346,7 +5433,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="BF12" s="25"/>
-      <c r="BG12" s="111" t="s">
+      <c r="BG12" s="113" t="s">
         <v>11</v>
       </c>
       <c r="BH12" s="59" t="s">
@@ -5386,7 +5473,7 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="BV12" s="25"/>
-      <c r="BW12" s="111" t="s">
+      <c r="BW12" s="113" t="s">
         <v>11</v>
       </c>
       <c r="BX12" s="59" t="s">
@@ -5424,7 +5511,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="CL12" s="25"/>
-      <c r="CM12" s="111" t="s">
+      <c r="CM12" s="113" t="s">
         <v>11</v>
       </c>
       <c r="CN12" s="59" t="s">
@@ -5460,7 +5547,7 @@
       <c r="CZ12" s="85"/>
       <c r="DA12" s="85"/>
       <c r="DB12" s="25"/>
-      <c r="DC12" s="111" t="s">
+      <c r="DC12" s="113" t="s">
         <v>11</v>
       </c>
       <c r="DD12" s="59" t="s">
@@ -5494,7 +5581,7 @@
       <c r="DP12" s="85"/>
       <c r="DQ12" s="85"/>
       <c r="DR12" s="25"/>
-      <c r="DS12" s="111" t="s">
+      <c r="DS12" s="113" t="s">
         <v>11</v>
       </c>
       <c r="DT12" s="59" t="s">
@@ -5526,7 +5613,7 @@
       <c r="EF12" s="85"/>
       <c r="EG12" s="85"/>
       <c r="EH12" s="25"/>
-      <c r="EI12" s="111" t="s">
+      <c r="EI12" s="113" t="s">
         <v>11</v>
       </c>
       <c r="EJ12" s="59" t="s">
@@ -5556,7 +5643,7 @@
       <c r="EV12" s="85"/>
       <c r="EW12" s="85"/>
       <c r="EX12" s="25"/>
-      <c r="EY12" s="111" t="s">
+      <c r="EY12" s="113" t="s">
         <v>11</v>
       </c>
       <c r="EZ12" s="59" t="s">
@@ -5583,7 +5670,7 @@
       </c>
       <c r="FL12" s="85"/>
       <c r="FM12" s="85"/>
-      <c r="FO12" s="111" t="s">
+      <c r="FO12" s="113" t="s">
         <v>11</v>
       </c>
       <c r="FP12" s="59" t="s">
@@ -5606,7 +5693,7 @@
       <c r="GC12" s="33"/>
     </row>
     <row r="13" spans="1:185">
-      <c r="B13" s="102"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
@@ -5628,7 +5715,7 @@
       <c r="I13" s="70">
         <v>0.80200000000000005</v>
       </c>
-      <c r="K13" s="102"/>
+      <c r="K13" s="104"/>
       <c r="L13" s="7" t="s">
         <v>7</v>
       </c>
@@ -5672,7 +5759,7 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="Z13" s="25"/>
-      <c r="AA13" s="112"/>
+      <c r="AA13" s="114"/>
       <c r="AB13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5714,7 +5801,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="AP13" s="25"/>
-      <c r="AQ13" s="112"/>
+      <c r="AQ13" s="114"/>
       <c r="AR13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5754,7 +5841,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="BF13" s="25"/>
-      <c r="BG13" s="112"/>
+      <c r="BG13" s="114"/>
       <c r="BH13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5792,7 +5879,7 @@
         <v>0.82</v>
       </c>
       <c r="BV13" s="25"/>
-      <c r="BW13" s="112"/>
+      <c r="BW13" s="114"/>
       <c r="BX13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5828,7 +5915,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="CL13" s="25"/>
-      <c r="CM13" s="112"/>
+      <c r="CM13" s="114"/>
       <c r="CN13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5862,7 +5949,7 @@
       </c>
       <c r="DA13" s="84"/>
       <c r="DB13" s="25"/>
-      <c r="DC13" s="112"/>
+      <c r="DC13" s="114"/>
       <c r="DD13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5894,7 +5981,7 @@
       </c>
       <c r="DQ13" s="84"/>
       <c r="DR13" s="25"/>
-      <c r="DS13" s="112"/>
+      <c r="DS13" s="114"/>
       <c r="DT13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5924,7 +6011,7 @@
       </c>
       <c r="EG13" s="84"/>
       <c r="EH13" s="25"/>
-      <c r="EI13" s="112"/>
+      <c r="EI13" s="114"/>
       <c r="EJ13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5952,7 +6039,7 @@
       </c>
       <c r="EW13" s="84"/>
       <c r="EX13" s="25"/>
-      <c r="EY13" s="112"/>
+      <c r="EY13" s="114"/>
       <c r="EZ13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5977,7 +6064,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="FM13" s="84"/>
-      <c r="FO13" s="112"/>
+      <c r="FO13" s="114"/>
       <c r="FP13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5998,7 +6085,7 @@
       <c r="GC13" s="33"/>
     </row>
     <row r="14" spans="1:185">
-      <c r="B14" s="102"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -6020,7 +6107,7 @@
       <c r="I14" s="76">
         <v>0.75900000000000001</v>
       </c>
-      <c r="K14" s="102"/>
+      <c r="K14" s="104"/>
       <c r="L14" s="7" t="s">
         <v>8</v>
       </c>
@@ -6064,7 +6151,7 @@
         <v>0.76</v>
       </c>
       <c r="Z14" s="25"/>
-      <c r="AA14" s="112"/>
+      <c r="AA14" s="114"/>
       <c r="AB14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6106,7 +6193,7 @@
         <v>0.77100000000000002</v>
       </c>
       <c r="AP14" s="25"/>
-      <c r="AQ14" s="112"/>
+      <c r="AQ14" s="114"/>
       <c r="AR14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6146,7 +6233,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="BF14" s="25"/>
-      <c r="BG14" s="112"/>
+      <c r="BG14" s="114"/>
       <c r="BH14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6184,7 +6271,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="BV14" s="25"/>
-      <c r="BW14" s="112"/>
+      <c r="BW14" s="114"/>
       <c r="BX14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6220,7 +6307,7 @@
       </c>
       <c r="CK14" s="84"/>
       <c r="CL14" s="25"/>
-      <c r="CM14" s="112"/>
+      <c r="CM14" s="114"/>
       <c r="CN14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6254,7 +6341,7 @@
       </c>
       <c r="DA14" s="84"/>
       <c r="DB14" s="25"/>
-      <c r="DC14" s="112"/>
+      <c r="DC14" s="114"/>
       <c r="DD14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6286,7 +6373,7 @@
       </c>
       <c r="DQ14" s="84"/>
       <c r="DR14" s="25"/>
-      <c r="DS14" s="112"/>
+      <c r="DS14" s="114"/>
       <c r="DT14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6316,7 +6403,7 @@
       </c>
       <c r="EG14" s="84"/>
       <c r="EH14" s="25"/>
-      <c r="EI14" s="112"/>
+      <c r="EI14" s="114"/>
       <c r="EJ14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6344,7 +6431,7 @@
       </c>
       <c r="EW14" s="84"/>
       <c r="EX14" s="25"/>
-      <c r="EY14" s="112"/>
+      <c r="EY14" s="114"/>
       <c r="EZ14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6369,7 +6456,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="FM14" s="84"/>
-      <c r="FO14" s="112"/>
+      <c r="FO14" s="114"/>
       <c r="FP14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6390,7 +6477,7 @@
       <c r="GC14" s="33"/>
     </row>
     <row r="15" spans="1:185">
-      <c r="B15" s="103"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -6412,7 +6499,7 @@
       <c r="I15" s="72">
         <v>0.78900000000000003</v>
       </c>
-      <c r="K15" s="103"/>
+      <c r="K15" s="105"/>
       <c r="L15" s="8" t="s">
         <v>9</v>
       </c>
@@ -6456,7 +6543,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="Z15" s="25"/>
-      <c r="AA15" s="113"/>
+      <c r="AA15" s="115"/>
       <c r="AB15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6498,7 +6585,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="AP15" s="25"/>
-      <c r="AQ15" s="113"/>
+      <c r="AQ15" s="115"/>
       <c r="AR15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6538,7 +6625,7 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="BF15" s="25"/>
-      <c r="BG15" s="113"/>
+      <c r="BG15" s="115"/>
       <c r="BH15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6576,7 +6663,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="BV15" s="25"/>
-      <c r="BW15" s="113"/>
+      <c r="BW15" s="115"/>
       <c r="BX15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6612,7 +6699,7 @@
       <c r="CJ15" s="88"/>
       <c r="CK15" s="88"/>
       <c r="CL15" s="25"/>
-      <c r="CM15" s="113"/>
+      <c r="CM15" s="115"/>
       <c r="CN15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6646,7 +6733,7 @@
       <c r="CZ15" s="88"/>
       <c r="DA15" s="88"/>
       <c r="DB15" s="25"/>
-      <c r="DC15" s="113"/>
+      <c r="DC15" s="115"/>
       <c r="DD15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6678,7 +6765,7 @@
       <c r="DP15" s="88"/>
       <c r="DQ15" s="88"/>
       <c r="DR15" s="25"/>
-      <c r="DS15" s="113"/>
+      <c r="DS15" s="115"/>
       <c r="DT15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6708,7 +6795,7 @@
       <c r="EF15" s="88"/>
       <c r="EG15" s="88"/>
       <c r="EH15" s="25"/>
-      <c r="EI15" s="113"/>
+      <c r="EI15" s="115"/>
       <c r="EJ15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6736,7 +6823,7 @@
       <c r="EV15" s="88"/>
       <c r="EW15" s="88"/>
       <c r="EX15" s="25"/>
-      <c r="EY15" s="113"/>
+      <c r="EY15" s="115"/>
       <c r="EZ15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6761,7 +6848,7 @@
       </c>
       <c r="FL15" s="88"/>
       <c r="FM15" s="88"/>
-      <c r="FO15" s="113"/>
+      <c r="FO15" s="115"/>
       <c r="FP15" s="64" t="s">
         <v>9</v>
       </c>
@@ -7076,31 +7163,24 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="BW12:BW15"/>
-    <mergeCell ref="CM12:CM15"/>
-    <mergeCell ref="DC12:DC15"/>
-    <mergeCell ref="DS12:DS15"/>
-    <mergeCell ref="EI12:EI15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="AA12:AA15"/>
-    <mergeCell ref="AQ12:AQ15"/>
-    <mergeCell ref="BG12:BG15"/>
-    <mergeCell ref="DC4:DC7"/>
-    <mergeCell ref="DS4:DS7"/>
-    <mergeCell ref="EI4:EI7"/>
-    <mergeCell ref="EY4:EY7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="AA8:AA11"/>
-    <mergeCell ref="AQ8:AQ11"/>
-    <mergeCell ref="BG8:BG11"/>
-    <mergeCell ref="BW8:BW11"/>
-    <mergeCell ref="CM8:CM11"/>
-    <mergeCell ref="DC8:DC11"/>
-    <mergeCell ref="DS8:DS11"/>
-    <mergeCell ref="EI8:EI11"/>
-    <mergeCell ref="EY8:EY11"/>
+    <mergeCell ref="FO8:FO11"/>
+    <mergeCell ref="FO12:FO15"/>
+    <mergeCell ref="EY2:EZ2"/>
+    <mergeCell ref="FA2:FM2"/>
+    <mergeCell ref="FO4:FO7"/>
+    <mergeCell ref="EY12:EY15"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AO2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:BE2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BU2"/>
     <mergeCell ref="DU2:EG2"/>
     <mergeCell ref="EI2:EJ2"/>
     <mergeCell ref="EK2:EW2"/>
@@ -7117,24 +7197,31 @@
     <mergeCell ref="DC2:DD2"/>
     <mergeCell ref="DE2:DQ2"/>
     <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AO2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:BE2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BU2"/>
-    <mergeCell ref="FO8:FO11"/>
-    <mergeCell ref="FO12:FO15"/>
-    <mergeCell ref="EY2:EZ2"/>
-    <mergeCell ref="FA2:FM2"/>
-    <mergeCell ref="FO4:FO7"/>
-    <mergeCell ref="EY12:EY15"/>
+    <mergeCell ref="DC4:DC7"/>
+    <mergeCell ref="DS4:DS7"/>
+    <mergeCell ref="EI4:EI7"/>
+    <mergeCell ref="EY4:EY7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="AA8:AA11"/>
+    <mergeCell ref="AQ8:AQ11"/>
+    <mergeCell ref="BG8:BG11"/>
+    <mergeCell ref="BW8:BW11"/>
+    <mergeCell ref="CM8:CM11"/>
+    <mergeCell ref="DC8:DC11"/>
+    <mergeCell ref="DS8:DS11"/>
+    <mergeCell ref="EI8:EI11"/>
+    <mergeCell ref="EY8:EY11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="AA12:AA15"/>
+    <mergeCell ref="AQ12:AQ15"/>
+    <mergeCell ref="BG12:BG15"/>
+    <mergeCell ref="BW12:BW15"/>
+    <mergeCell ref="CM12:CM15"/>
+    <mergeCell ref="DC12:DC15"/>
+    <mergeCell ref="DS12:DS15"/>
+    <mergeCell ref="EI12:EI15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7145,8 +7232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64011DA5-02EF-48AC-ACFA-FEAB6A3DC307}">
   <dimension ref="B2:FA59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:I59"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25"/>
@@ -7190,191 +7277,191 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:157" ht="14.55" customHeight="1">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="114" t="s">
+      <c r="C2" s="123"/>
+      <c r="D2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="107" t="s">
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="114" t="s">
+      <c r="K2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116" t="s">
+      <c r="L2" s="123"/>
+      <c r="M2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="AA2" s="114" t="s">
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="AA2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="116" t="s">
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="117"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="117"/>
-      <c r="AJ2" s="117"/>
-      <c r="AK2" s="117"/>
-      <c r="AL2" s="117"/>
-      <c r="AM2" s="117"/>
-      <c r="AN2" s="117"/>
-      <c r="AO2" s="118"/>
-      <c r="AQ2" s="114" t="s">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="120"/>
+      <c r="AJ2" s="120"/>
+      <c r="AK2" s="120"/>
+      <c r="AL2" s="120"/>
+      <c r="AM2" s="120"/>
+      <c r="AN2" s="120"/>
+      <c r="AO2" s="121"/>
+      <c r="AQ2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="AR2" s="115"/>
-      <c r="AS2" s="116" t="s">
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="117"/>
-      <c r="AU2" s="117"/>
-      <c r="AV2" s="117"/>
-      <c r="AW2" s="117"/>
-      <c r="AX2" s="117"/>
-      <c r="AY2" s="117"/>
-      <c r="AZ2" s="117"/>
-      <c r="BA2" s="117"/>
-      <c r="BB2" s="117"/>
-      <c r="BC2" s="117"/>
-      <c r="BD2" s="117"/>
-      <c r="BE2" s="118"/>
-      <c r="BG2" s="114" t="s">
+      <c r="AT2" s="120"/>
+      <c r="AU2" s="120"/>
+      <c r="AV2" s="120"/>
+      <c r="AW2" s="120"/>
+      <c r="AX2" s="120"/>
+      <c r="AY2" s="120"/>
+      <c r="AZ2" s="120"/>
+      <c r="BA2" s="120"/>
+      <c r="BB2" s="120"/>
+      <c r="BC2" s="120"/>
+      <c r="BD2" s="120"/>
+      <c r="BE2" s="121"/>
+      <c r="BG2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="BH2" s="115"/>
-      <c r="BI2" s="116" t="s">
+      <c r="BH2" s="123"/>
+      <c r="BI2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="117"/>
-      <c r="BK2" s="117"/>
-      <c r="BL2" s="117"/>
-      <c r="BM2" s="117"/>
-      <c r="BN2" s="117"/>
-      <c r="BO2" s="117"/>
-      <c r="BP2" s="117"/>
-      <c r="BQ2" s="117"/>
-      <c r="BR2" s="117"/>
-      <c r="BS2" s="117"/>
-      <c r="BT2" s="117"/>
-      <c r="BU2" s="118"/>
-      <c r="BW2" s="114" t="s">
+      <c r="BJ2" s="120"/>
+      <c r="BK2" s="120"/>
+      <c r="BL2" s="120"/>
+      <c r="BM2" s="120"/>
+      <c r="BN2" s="120"/>
+      <c r="BO2" s="120"/>
+      <c r="BP2" s="120"/>
+      <c r="BQ2" s="120"/>
+      <c r="BR2" s="120"/>
+      <c r="BS2" s="120"/>
+      <c r="BT2" s="120"/>
+      <c r="BU2" s="121"/>
+      <c r="BW2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="BX2" s="115"/>
-      <c r="BY2" s="116" t="s">
+      <c r="BX2" s="123"/>
+      <c r="BY2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="BZ2" s="117"/>
-      <c r="CA2" s="117"/>
-      <c r="CB2" s="117"/>
-      <c r="CC2" s="117"/>
-      <c r="CD2" s="117"/>
-      <c r="CE2" s="117"/>
-      <c r="CF2" s="117"/>
-      <c r="CG2" s="117"/>
-      <c r="CH2" s="117"/>
-      <c r="CI2" s="117"/>
-      <c r="CJ2" s="117"/>
-      <c r="CK2" s="118"/>
-      <c r="CM2" s="114" t="s">
+      <c r="BZ2" s="120"/>
+      <c r="CA2" s="120"/>
+      <c r="CB2" s="120"/>
+      <c r="CC2" s="120"/>
+      <c r="CD2" s="120"/>
+      <c r="CE2" s="120"/>
+      <c r="CF2" s="120"/>
+      <c r="CG2" s="120"/>
+      <c r="CH2" s="120"/>
+      <c r="CI2" s="120"/>
+      <c r="CJ2" s="120"/>
+      <c r="CK2" s="121"/>
+      <c r="CM2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="CN2" s="115"/>
-      <c r="CO2" s="116" t="s">
+      <c r="CN2" s="123"/>
+      <c r="CO2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="CP2" s="117"/>
-      <c r="CQ2" s="117"/>
-      <c r="CR2" s="117"/>
-      <c r="CS2" s="117"/>
-      <c r="CT2" s="117"/>
-      <c r="CU2" s="117"/>
-      <c r="CV2" s="117"/>
-      <c r="CW2" s="117"/>
-      <c r="CX2" s="117"/>
-      <c r="CY2" s="117"/>
-      <c r="CZ2" s="117"/>
-      <c r="DA2" s="118"/>
-      <c r="DC2" s="114" t="s">
+      <c r="CP2" s="120"/>
+      <c r="CQ2" s="120"/>
+      <c r="CR2" s="120"/>
+      <c r="CS2" s="120"/>
+      <c r="CT2" s="120"/>
+      <c r="CU2" s="120"/>
+      <c r="CV2" s="120"/>
+      <c r="CW2" s="120"/>
+      <c r="CX2" s="120"/>
+      <c r="CY2" s="120"/>
+      <c r="CZ2" s="120"/>
+      <c r="DA2" s="121"/>
+      <c r="DC2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="DD2" s="115"/>
-      <c r="DE2" s="116" t="s">
+      <c r="DD2" s="123"/>
+      <c r="DE2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="DF2" s="117"/>
-      <c r="DG2" s="117"/>
-      <c r="DH2" s="117"/>
-      <c r="DI2" s="117"/>
-      <c r="DJ2" s="117"/>
-      <c r="DK2" s="117"/>
-      <c r="DL2" s="117"/>
-      <c r="DM2" s="117"/>
-      <c r="DN2" s="117"/>
-      <c r="DO2" s="117"/>
-      <c r="DP2" s="117"/>
-      <c r="DQ2" s="118"/>
-      <c r="DS2" s="114" t="s">
+      <c r="DF2" s="120"/>
+      <c r="DG2" s="120"/>
+      <c r="DH2" s="120"/>
+      <c r="DI2" s="120"/>
+      <c r="DJ2" s="120"/>
+      <c r="DK2" s="120"/>
+      <c r="DL2" s="120"/>
+      <c r="DM2" s="120"/>
+      <c r="DN2" s="120"/>
+      <c r="DO2" s="120"/>
+      <c r="DP2" s="120"/>
+      <c r="DQ2" s="121"/>
+      <c r="DS2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="DT2" s="115"/>
-      <c r="DU2" s="116" t="s">
+      <c r="DT2" s="123"/>
+      <c r="DU2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="DV2" s="117"/>
-      <c r="DW2" s="117"/>
-      <c r="DX2" s="117"/>
-      <c r="DY2" s="117"/>
-      <c r="DZ2" s="117"/>
-      <c r="EA2" s="117"/>
-      <c r="EB2" s="117"/>
-      <c r="EC2" s="117"/>
-      <c r="ED2" s="117"/>
-      <c r="EE2" s="117"/>
-      <c r="EF2" s="117"/>
-      <c r="EG2" s="118"/>
-      <c r="EI2" s="114" t="s">
+      <c r="DV2" s="120"/>
+      <c r="DW2" s="120"/>
+      <c r="DX2" s="120"/>
+      <c r="DY2" s="120"/>
+      <c r="DZ2" s="120"/>
+      <c r="EA2" s="120"/>
+      <c r="EB2" s="120"/>
+      <c r="EC2" s="120"/>
+      <c r="ED2" s="120"/>
+      <c r="EE2" s="120"/>
+      <c r="EF2" s="120"/>
+      <c r="EG2" s="121"/>
+      <c r="EI2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="EJ2" s="115"/>
-      <c r="EK2" s="116" t="s">
+      <c r="EJ2" s="123"/>
+      <c r="EK2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" s="117"/>
-      <c r="EM2" s="117"/>
-      <c r="EN2" s="117"/>
-      <c r="EO2" s="117"/>
-      <c r="EP2" s="117"/>
-      <c r="EQ2" s="117"/>
-      <c r="ER2" s="117"/>
-      <c r="ES2" s="117"/>
-      <c r="ET2" s="117"/>
-      <c r="EU2" s="117"/>
-      <c r="EV2" s="117"/>
-      <c r="EW2" s="118"/>
+      <c r="EL2" s="120"/>
+      <c r="EM2" s="120"/>
+      <c r="EN2" s="120"/>
+      <c r="EO2" s="120"/>
+      <c r="EP2" s="120"/>
+      <c r="EQ2" s="120"/>
+      <c r="ER2" s="120"/>
+      <c r="ES2" s="120"/>
+      <c r="ET2" s="120"/>
+      <c r="EU2" s="120"/>
+      <c r="EV2" s="120"/>
+      <c r="EW2" s="121"/>
     </row>
     <row r="3" spans="2:157">
       <c r="B3" s="66" t="s">
@@ -7398,7 +7485,7 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="108"/>
+      <c r="I3" s="110"/>
       <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7815,7 +7902,7 @@
       </c>
     </row>
     <row r="4" spans="2:157">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -7839,7 +7926,7 @@
       <c r="I4" s="15">
         <v>0.78200000000000003</v>
       </c>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -7885,7 +7972,7 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="Z4" s="33"/>
-      <c r="AA4" s="109" t="s">
+      <c r="AA4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="AB4" s="6" t="s">
@@ -7928,7 +8015,7 @@
       <c r="AO4" s="15">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AQ4" s="109" t="s">
+      <c r="AQ4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="AR4" s="59" t="s">
@@ -7969,7 +8056,7 @@
       <c r="BE4" s="15">
         <v>0.79600000000000004</v>
       </c>
-      <c r="BG4" s="109" t="s">
+      <c r="BG4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="BH4" s="52" t="s">
@@ -8008,7 +8095,7 @@
         <v>0.79</v>
       </c>
       <c r="BU4" s="48"/>
-      <c r="BW4" s="109" t="s">
+      <c r="BW4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="BX4" s="52" t="s">
@@ -8029,7 +8116,7 @@
       <c r="CI4" s="51"/>
       <c r="CJ4" s="48"/>
       <c r="CK4" s="48"/>
-      <c r="CM4" s="109" t="s">
+      <c r="CM4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="CN4" s="52" t="s">
@@ -8050,7 +8137,7 @@
       <c r="CY4" s="51"/>
       <c r="CZ4" s="48"/>
       <c r="DA4" s="48"/>
-      <c r="DC4" s="109" t="s">
+      <c r="DC4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="DD4" s="52" t="s">
@@ -8071,7 +8158,7 @@
       <c r="DO4" s="51"/>
       <c r="DP4" s="48"/>
       <c r="DQ4" s="48"/>
-      <c r="DS4" s="109" t="s">
+      <c r="DS4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="DT4" s="52" t="s">
@@ -8092,7 +8179,7 @@
       <c r="EE4" s="51"/>
       <c r="EF4" s="48"/>
       <c r="EG4" s="48"/>
-      <c r="EI4" s="109" t="s">
+      <c r="EI4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="EJ4" s="52" t="s">
@@ -8113,7 +8200,7 @@
       <c r="EU4" s="51"/>
       <c r="EV4" s="48"/>
       <c r="EW4" s="48"/>
-      <c r="EY4" s="119" t="s">
+      <c r="EY4" s="116" t="s">
         <v>5</v>
       </c>
       <c r="EZ4" s="59" t="s">
@@ -8124,7 +8211,7 @@
       </c>
     </row>
     <row r="5" spans="2:157">
-      <c r="B5" s="110"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
@@ -8146,7 +8233,7 @@
       <c r="I5" s="22">
         <v>0.78800000000000003</v>
       </c>
-      <c r="K5" s="110"/>
+      <c r="K5" s="112"/>
       <c r="L5" s="7" t="s">
         <v>7</v>
       </c>
@@ -8189,7 +8276,7 @@
       <c r="Y5" s="17">
         <v>0.78400000000000003</v>
       </c>
-      <c r="AA5" s="110"/>
+      <c r="AA5" s="112"/>
       <c r="AB5" s="7" t="s">
         <v>7</v>
       </c>
@@ -8230,7 +8317,7 @@
       <c r="AO5" s="17">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AQ5" s="110"/>
+      <c r="AQ5" s="112"/>
       <c r="AR5" s="63" t="s">
         <v>7</v>
       </c>
@@ -8267,7 +8354,7 @@
       <c r="BE5" s="17">
         <v>0.77900000000000003</v>
       </c>
-      <c r="BG5" s="110"/>
+      <c r="BG5" s="112"/>
       <c r="BH5" s="7" t="s">
         <v>7</v>
       </c>
@@ -8304,7 +8391,7 @@
       <c r="BU5" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BW5" s="110"/>
+      <c r="BW5" s="112"/>
       <c r="BX5" s="7" t="s">
         <v>7</v>
       </c>
@@ -8339,7 +8426,7 @@
       <c r="CK5" s="10">
         <v>0.79400000000000004</v>
       </c>
-      <c r="CM5" s="110"/>
+      <c r="CM5" s="112"/>
       <c r="CN5" s="42" t="s">
         <v>7</v>
       </c>
@@ -8372,7 +8459,7 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="DA5" s="43"/>
-      <c r="DC5" s="110"/>
+      <c r="DC5" s="112"/>
       <c r="DD5" s="42" t="s">
         <v>7</v>
       </c>
@@ -8391,7 +8478,7 @@
       <c r="DO5" s="43"/>
       <c r="DP5" s="43"/>
       <c r="DQ5" s="43"/>
-      <c r="DS5" s="110"/>
+      <c r="DS5" s="112"/>
       <c r="DT5" s="42" t="s">
         <v>7</v>
       </c>
@@ -8410,7 +8497,7 @@
       <c r="EE5" s="43"/>
       <c r="EF5" s="43"/>
       <c r="EG5" s="43"/>
-      <c r="EI5" s="110"/>
+      <c r="EI5" s="112"/>
       <c r="EJ5" s="42" t="s">
         <v>7</v>
       </c>
@@ -8429,7 +8516,7 @@
       <c r="EU5" s="43"/>
       <c r="EV5" s="43"/>
       <c r="EW5" s="43"/>
-      <c r="EY5" s="120"/>
+      <c r="EY5" s="117"/>
       <c r="EZ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -8438,7 +8525,7 @@
       </c>
     </row>
     <row r="6" spans="2:157">
-      <c r="B6" s="110"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -8460,7 +8547,7 @@
       <c r="I6" s="22">
         <v>0.78900000000000003</v>
       </c>
-      <c r="K6" s="110"/>
+      <c r="K6" s="112"/>
       <c r="L6" s="7" t="s">
         <v>8</v>
       </c>
@@ -8503,7 +8590,7 @@
       <c r="Y6" s="17">
         <v>0.79</v>
       </c>
-      <c r="AA6" s="110"/>
+      <c r="AA6" s="112"/>
       <c r="AB6" s="7" t="s">
         <v>8</v>
       </c>
@@ -8544,7 +8631,7 @@
       <c r="AO6" s="17">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AQ6" s="110"/>
+      <c r="AQ6" s="112"/>
       <c r="AR6" s="63" t="s">
         <v>8</v>
       </c>
@@ -8579,7 +8666,7 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="BE6" s="17"/>
-      <c r="BG6" s="110"/>
+      <c r="BG6" s="112"/>
       <c r="BH6" s="42" t="s">
         <v>8</v>
       </c>
@@ -8598,7 +8685,7 @@
       <c r="BS6" s="43"/>
       <c r="BT6" s="43"/>
       <c r="BU6" s="43"/>
-      <c r="BW6" s="110"/>
+      <c r="BW6" s="112"/>
       <c r="BX6" s="42" t="s">
         <v>8</v>
       </c>
@@ -8617,7 +8704,7 @@
       <c r="CI6" s="43"/>
       <c r="CJ6" s="43"/>
       <c r="CK6" s="43"/>
-      <c r="CM6" s="110"/>
+      <c r="CM6" s="112"/>
       <c r="CN6" s="42" t="s">
         <v>8</v>
       </c>
@@ -8636,7 +8723,7 @@
       <c r="CY6" s="43"/>
       <c r="CZ6" s="43"/>
       <c r="DA6" s="43"/>
-      <c r="DC6" s="110"/>
+      <c r="DC6" s="112"/>
       <c r="DD6" s="42" t="s">
         <v>8</v>
       </c>
@@ -8655,7 +8742,7 @@
       <c r="DO6" s="43"/>
       <c r="DP6" s="43"/>
       <c r="DQ6" s="43"/>
-      <c r="DS6" s="110"/>
+      <c r="DS6" s="112"/>
       <c r="DT6" s="42" t="s">
         <v>8</v>
       </c>
@@ -8674,7 +8761,7 @@
       <c r="EE6" s="43"/>
       <c r="EF6" s="43"/>
       <c r="EG6" s="43"/>
-      <c r="EI6" s="110"/>
+      <c r="EI6" s="112"/>
       <c r="EJ6" s="42" t="s">
         <v>8</v>
       </c>
@@ -8693,7 +8780,7 @@
       <c r="EU6" s="43"/>
       <c r="EV6" s="43"/>
       <c r="EW6" s="43"/>
-      <c r="EY6" s="120"/>
+      <c r="EY6" s="117"/>
       <c r="EZ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -8702,7 +8789,7 @@
       </c>
     </row>
     <row r="7" spans="2:157">
-      <c r="B7" s="122"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -8724,7 +8811,7 @@
       <c r="I7" s="22">
         <v>0.78600000000000003</v>
       </c>
-      <c r="K7" s="122"/>
+      <c r="K7" s="124"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
@@ -8767,7 +8854,7 @@
       <c r="Y7" s="19">
         <v>0.78600000000000003</v>
       </c>
-      <c r="AA7" s="122"/>
+      <c r="AA7" s="124"/>
       <c r="AB7" s="7" t="s">
         <v>9</v>
       </c>
@@ -8808,7 +8895,7 @@
       <c r="AO7" s="19">
         <v>0.78400000000000003</v>
       </c>
-      <c r="AQ7" s="122"/>
+      <c r="AQ7" s="124"/>
       <c r="AR7" s="63" t="s">
         <v>9</v>
       </c>
@@ -8847,7 +8934,7 @@
       <c r="BE7" s="19">
         <v>0.78800000000000003</v>
       </c>
-      <c r="BG7" s="122"/>
+      <c r="BG7" s="124"/>
       <c r="BH7" s="7" t="s">
         <v>9</v>
       </c>
@@ -8884,7 +8971,7 @@
       <c r="BU7" s="19">
         <v>0.78100000000000003</v>
       </c>
-      <c r="BW7" s="122"/>
+      <c r="BW7" s="124"/>
       <c r="BX7" s="42" t="s">
         <v>9</v>
       </c>
@@ -8919,7 +9006,7 @@
       <c r="CK7" s="56">
         <v>0.78</v>
       </c>
-      <c r="CM7" s="122"/>
+      <c r="CM7" s="124"/>
       <c r="CN7" s="42" t="s">
         <v>9</v>
       </c>
@@ -8938,7 +9025,7 @@
       <c r="CY7" s="58"/>
       <c r="CZ7" s="56"/>
       <c r="DA7" s="56"/>
-      <c r="DC7" s="122"/>
+      <c r="DC7" s="124"/>
       <c r="DD7" s="42" t="s">
         <v>9</v>
       </c>
@@ -8957,7 +9044,7 @@
       <c r="DO7" s="58"/>
       <c r="DP7" s="56"/>
       <c r="DQ7" s="56"/>
-      <c r="DS7" s="122"/>
+      <c r="DS7" s="124"/>
       <c r="DT7" s="42" t="s">
         <v>9</v>
       </c>
@@ -8976,7 +9063,7 @@
       <c r="EE7" s="58"/>
       <c r="EF7" s="56"/>
       <c r="EG7" s="56"/>
-      <c r="EI7" s="122"/>
+      <c r="EI7" s="124"/>
       <c r="EJ7" s="42" t="s">
         <v>9</v>
       </c>
@@ -8995,7 +9082,7 @@
       <c r="EU7" s="58"/>
       <c r="EV7" s="56"/>
       <c r="EW7" s="56"/>
-      <c r="EY7" s="121"/>
+      <c r="EY7" s="118"/>
       <c r="EZ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -9004,7 +9091,7 @@
       </c>
     </row>
     <row r="8" spans="2:157" ht="14.55" customHeight="1">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -9028,7 +9115,7 @@
       <c r="I8" s="21">
         <v>0.77900000000000003</v>
       </c>
-      <c r="K8" s="101" t="s">
+      <c r="K8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -9073,7 +9160,7 @@
       <c r="Y8" s="15">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AA8" s="101" t="s">
+      <c r="AA8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="AB8" s="6" t="s">
@@ -9116,7 +9203,7 @@
       <c r="AO8" s="15">
         <v>0.78300000000000003</v>
       </c>
-      <c r="AQ8" s="101" t="s">
+      <c r="AQ8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="AR8" s="59" t="s">
@@ -9157,7 +9244,7 @@
       <c r="BE8" s="15">
         <v>0.78800000000000003</v>
       </c>
-      <c r="BG8" s="101" t="s">
+      <c r="BG8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="BH8" s="6" t="s">
@@ -9196,7 +9283,7 @@
       <c r="BU8" s="15">
         <v>0.78600000000000003</v>
       </c>
-      <c r="BW8" s="101" t="s">
+      <c r="BW8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="BX8" s="6" t="s">
@@ -9233,7 +9320,7 @@
       <c r="CK8" s="15">
         <v>0.78800000000000003</v>
       </c>
-      <c r="CM8" s="101" t="s">
+      <c r="CM8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="CN8" s="52" t="s">
@@ -9268,7 +9355,7 @@
       <c r="DA8" s="48">
         <v>0.79100000000000004</v>
       </c>
-      <c r="DC8" s="101" t="s">
+      <c r="DC8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="DD8" s="52" t="s">
@@ -9289,7 +9376,7 @@
       <c r="DO8" s="51"/>
       <c r="DP8" s="48"/>
       <c r="DQ8" s="48"/>
-      <c r="DS8" s="101" t="s">
+      <c r="DS8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="DT8" s="52" t="s">
@@ -9310,7 +9397,7 @@
       <c r="EE8" s="51"/>
       <c r="EF8" s="48"/>
       <c r="EG8" s="48"/>
-      <c r="EI8" s="101" t="s">
+      <c r="EI8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="EJ8" s="52" t="s">
@@ -9331,7 +9418,7 @@
       <c r="EU8" s="51"/>
       <c r="EV8" s="48"/>
       <c r="EW8" s="48"/>
-      <c r="EY8" s="111" t="s">
+      <c r="EY8" s="113" t="s">
         <v>10</v>
       </c>
       <c r="EZ8" s="59" t="s">
@@ -9342,7 +9429,7 @@
       </c>
     </row>
     <row r="9" spans="2:157">
-      <c r="B9" s="102"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -9364,7 +9451,7 @@
       <c r="I9" s="17">
         <v>0.77700000000000002</v>
       </c>
-      <c r="K9" s="102"/>
+      <c r="K9" s="104"/>
       <c r="L9" s="7" t="s">
         <v>7</v>
       </c>
@@ -9407,7 +9494,7 @@
       <c r="Y9" s="17">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AA9" s="102"/>
+      <c r="AA9" s="104"/>
       <c r="AB9" s="7" t="s">
         <v>7</v>
       </c>
@@ -9448,7 +9535,7 @@
       <c r="AO9" s="17">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AQ9" s="102"/>
+      <c r="AQ9" s="104"/>
       <c r="AR9" s="63" t="s">
         <v>7</v>
       </c>
@@ -9487,7 +9574,7 @@
       <c r="BE9" s="17">
         <v>0.78800000000000003</v>
       </c>
-      <c r="BG9" s="102"/>
+      <c r="BG9" s="104"/>
       <c r="BH9" s="7" t="s">
         <v>7</v>
       </c>
@@ -9524,7 +9611,7 @@
       <c r="BU9" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BW9" s="102"/>
+      <c r="BW9" s="104"/>
       <c r="BX9" s="7" t="s">
         <v>7</v>
       </c>
@@ -9559,7 +9646,7 @@
       <c r="CK9" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="CM9" s="102"/>
+      <c r="CM9" s="104"/>
       <c r="CN9" s="7" t="s">
         <v>7</v>
       </c>
@@ -9592,7 +9679,7 @@
       <c r="DA9" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="DC9" s="102"/>
+      <c r="DC9" s="104"/>
       <c r="DD9" s="7" t="s">
         <v>7</v>
       </c>
@@ -9623,7 +9710,7 @@
       <c r="DQ9" s="10">
         <v>0.79100000000000004</v>
       </c>
-      <c r="DS9" s="102"/>
+      <c r="DS9" s="104"/>
       <c r="DT9" s="42" t="s">
         <v>7</v>
       </c>
@@ -9652,7 +9739,7 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="EG9" s="43"/>
-      <c r="EI9" s="102"/>
+      <c r="EI9" s="104"/>
       <c r="EJ9" s="42" t="s">
         <v>7</v>
       </c>
@@ -9671,7 +9758,7 @@
       <c r="EU9" s="46"/>
       <c r="EV9" s="43"/>
       <c r="EW9" s="43"/>
-      <c r="EY9" s="112"/>
+      <c r="EY9" s="114"/>
       <c r="EZ9" s="63" t="s">
         <v>7</v>
       </c>
@@ -9680,7 +9767,7 @@
       </c>
     </row>
     <row r="10" spans="2:157">
-      <c r="B10" s="102"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -9702,7 +9789,7 @@
       <c r="I10" s="22">
         <v>0.78</v>
       </c>
-      <c r="K10" s="102"/>
+      <c r="K10" s="104"/>
       <c r="L10" s="7" t="s">
         <v>8</v>
       </c>
@@ -9745,7 +9832,7 @@
       <c r="Y10" s="17">
         <v>0.78</v>
       </c>
-      <c r="AA10" s="102"/>
+      <c r="AA10" s="104"/>
       <c r="AB10" s="7" t="s">
         <v>8</v>
       </c>
@@ -9786,7 +9873,7 @@
       <c r="AO10" s="17">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AQ10" s="102"/>
+      <c r="AQ10" s="104"/>
       <c r="AR10" s="63" t="s">
         <v>8</v>
       </c>
@@ -9823,7 +9910,7 @@
       <c r="BE10" s="17">
         <v>0.78300000000000003</v>
       </c>
-      <c r="BG10" s="102"/>
+      <c r="BG10" s="104"/>
       <c r="BH10" s="42" t="s">
         <v>8</v>
       </c>
@@ -9842,7 +9929,7 @@
       <c r="BS10" s="46"/>
       <c r="BT10" s="43"/>
       <c r="BU10" s="43"/>
-      <c r="BW10" s="102"/>
+      <c r="BW10" s="104"/>
       <c r="BX10" s="42" t="s">
         <v>8</v>
       </c>
@@ -9861,7 +9948,7 @@
       <c r="CI10" s="46"/>
       <c r="CJ10" s="43"/>
       <c r="CK10" s="43"/>
-      <c r="CM10" s="102"/>
+      <c r="CM10" s="104"/>
       <c r="CN10" s="42" t="s">
         <v>8</v>
       </c>
@@ -9880,7 +9967,7 @@
       <c r="CY10" s="46"/>
       <c r="CZ10" s="43"/>
       <c r="DA10" s="43"/>
-      <c r="DC10" s="102"/>
+      <c r="DC10" s="104"/>
       <c r="DD10" s="42" t="s">
         <v>8</v>
       </c>
@@ -9899,7 +9986,7 @@
       <c r="DO10" s="46"/>
       <c r="DP10" s="43"/>
       <c r="DQ10" s="43"/>
-      <c r="DS10" s="102"/>
+      <c r="DS10" s="104"/>
       <c r="DT10" s="42" t="s">
         <v>8</v>
       </c>
@@ -9918,7 +10005,7 @@
       <c r="EE10" s="46"/>
       <c r="EF10" s="43"/>
       <c r="EG10" s="43"/>
-      <c r="EI10" s="102"/>
+      <c r="EI10" s="104"/>
       <c r="EJ10" s="42" t="s">
         <v>8</v>
       </c>
@@ -9937,7 +10024,7 @@
       <c r="EU10" s="46"/>
       <c r="EV10" s="43"/>
       <c r="EW10" s="43"/>
-      <c r="EY10" s="112"/>
+      <c r="EY10" s="114"/>
       <c r="EZ10" s="63" t="s">
         <v>8</v>
       </c>
@@ -9946,7 +10033,7 @@
       </c>
     </row>
     <row r="11" spans="2:157">
-      <c r="B11" s="103"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -9968,7 +10055,7 @@
       <c r="I11" s="24">
         <v>0.77900000000000003</v>
       </c>
-      <c r="K11" s="103"/>
+      <c r="K11" s="105"/>
       <c r="L11" s="8" t="s">
         <v>9</v>
       </c>
@@ -10011,7 +10098,7 @@
       <c r="Y11" s="19">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AA11" s="103"/>
+      <c r="AA11" s="105"/>
       <c r="AB11" s="8" t="s">
         <v>9</v>
       </c>
@@ -10052,7 +10139,7 @@
       <c r="AO11" s="19">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AQ11" s="103"/>
+      <c r="AQ11" s="105"/>
       <c r="AR11" s="64" t="s">
         <v>9</v>
       </c>
@@ -10091,7 +10178,7 @@
       <c r="BE11" s="19">
         <v>0.78600000000000003</v>
       </c>
-      <c r="BG11" s="103"/>
+      <c r="BG11" s="105"/>
       <c r="BH11" s="8" t="s">
         <v>9</v>
       </c>
@@ -10128,7 +10215,7 @@
       <c r="BU11" s="19">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BW11" s="103"/>
+      <c r="BW11" s="105"/>
       <c r="BX11" s="8" t="s">
         <v>9</v>
       </c>
@@ -10163,7 +10250,7 @@
       <c r="CK11" s="19">
         <v>0.78900000000000003</v>
       </c>
-      <c r="CM11" s="103"/>
+      <c r="CM11" s="105"/>
       <c r="CN11" s="8" t="s">
         <v>9</v>
       </c>
@@ -10196,7 +10283,7 @@
       <c r="DA11" s="14">
         <v>0.78900000000000003</v>
       </c>
-      <c r="DC11" s="103"/>
+      <c r="DC11" s="105"/>
       <c r="DD11" s="60" t="s">
         <v>9</v>
       </c>
@@ -10227,7 +10314,7 @@
         <v>0.61299999999999999</v>
       </c>
       <c r="DQ11" s="56"/>
-      <c r="DS11" s="103"/>
+      <c r="DS11" s="105"/>
       <c r="DT11" s="60" t="s">
         <v>9</v>
       </c>
@@ -10246,7 +10333,7 @@
       <c r="EE11" s="58"/>
       <c r="EF11" s="56"/>
       <c r="EG11" s="56"/>
-      <c r="EI11" s="103"/>
+      <c r="EI11" s="105"/>
       <c r="EJ11" s="60" t="s">
         <v>9</v>
       </c>
@@ -10265,7 +10352,7 @@
       <c r="EU11" s="58"/>
       <c r="EV11" s="56"/>
       <c r="EW11" s="56"/>
-      <c r="EY11" s="113"/>
+      <c r="EY11" s="115"/>
       <c r="EZ11" s="64" t="s">
         <v>9</v>
       </c>
@@ -10274,7 +10361,7 @@
       </c>
     </row>
     <row r="12" spans="2:157" ht="14.55" customHeight="1">
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="103" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -10298,7 +10385,7 @@
       <c r="I12" s="21">
         <v>0.77900000000000003</v>
       </c>
-      <c r="K12" s="101" t="s">
+      <c r="K12" s="103" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -10343,7 +10430,7 @@
       <c r="Y12" s="15">
         <v>0.77700000000000002</v>
       </c>
-      <c r="AA12" s="101" t="s">
+      <c r="AA12" s="103" t="s">
         <v>11</v>
       </c>
       <c r="AB12" s="6" t="s">
@@ -10386,7 +10473,7 @@
       <c r="AO12" s="15">
         <v>0.78700000000000003</v>
       </c>
-      <c r="AQ12" s="101" t="s">
+      <c r="AQ12" s="103" t="s">
         <v>11</v>
       </c>
       <c r="AR12" s="6" t="s">
@@ -10427,7 +10514,7 @@
       <c r="BE12" s="15">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BG12" s="101" t="s">
+      <c r="BG12" s="103" t="s">
         <v>11</v>
       </c>
       <c r="BH12" s="6" t="s">
@@ -10466,7 +10553,7 @@
       <c r="BU12" s="15">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BW12" s="101" t="s">
+      <c r="BW12" s="103" t="s">
         <v>11</v>
       </c>
       <c r="BX12" s="59" t="s">
@@ -10503,7 +10590,7 @@
       <c r="CK12" s="15">
         <v>0.78700000000000003</v>
       </c>
-      <c r="CM12" s="101" t="s">
+      <c r="CM12" s="103" t="s">
         <v>11</v>
       </c>
       <c r="CN12" s="59" t="s">
@@ -10538,7 +10625,7 @@
       <c r="DA12" s="15">
         <v>0.78600000000000003</v>
       </c>
-      <c r="DC12" s="101" t="s">
+      <c r="DC12" s="103" t="s">
         <v>11</v>
       </c>
       <c r="DD12" s="59" t="s">
@@ -10571,7 +10658,7 @@
       <c r="DQ12" s="15">
         <v>0.8</v>
       </c>
-      <c r="DS12" s="101" t="s">
+      <c r="DS12" s="103" t="s">
         <v>11</v>
       </c>
       <c r="DT12" s="59" t="s">
@@ -10602,7 +10689,7 @@
       <c r="EG12" s="12">
         <v>0.80100000000000005</v>
       </c>
-      <c r="EI12" s="101" t="s">
+      <c r="EI12" s="103" t="s">
         <v>11</v>
       </c>
       <c r="EJ12" s="59" t="s">
@@ -10631,7 +10718,7 @@
       </c>
       <c r="EV12" s="35"/>
       <c r="EW12" s="35"/>
-      <c r="EY12" s="111" t="s">
+      <c r="EY12" s="113" t="s">
         <v>11</v>
       </c>
       <c r="EZ12" s="59" t="s">
@@ -10642,7 +10729,7 @@
       </c>
     </row>
     <row r="13" spans="2:157">
-      <c r="B13" s="102"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
@@ -10664,7 +10751,7 @@
       <c r="I13" s="22">
         <v>0.78100000000000003</v>
       </c>
-      <c r="K13" s="102"/>
+      <c r="K13" s="104"/>
       <c r="L13" s="7" t="s">
         <v>7</v>
       </c>
@@ -10707,7 +10794,7 @@
       <c r="Y13" s="17">
         <v>0.77700000000000002</v>
       </c>
-      <c r="AA13" s="102"/>
+      <c r="AA13" s="104"/>
       <c r="AB13" s="7" t="s">
         <v>7</v>
       </c>
@@ -10748,7 +10835,7 @@
       <c r="AO13" s="17">
         <v>0.78600000000000003</v>
       </c>
-      <c r="AQ13" s="102"/>
+      <c r="AQ13" s="104"/>
       <c r="AR13" s="7" t="s">
         <v>7</v>
       </c>
@@ -10787,7 +10874,7 @@
       <c r="BE13" s="17">
         <v>0.78600000000000003</v>
       </c>
-      <c r="BG13" s="102"/>
+      <c r="BG13" s="104"/>
       <c r="BH13" s="7" t="s">
         <v>7</v>
       </c>
@@ -10824,7 +10911,7 @@
       <c r="BU13" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BW13" s="102"/>
+      <c r="BW13" s="104"/>
       <c r="BX13" s="7" t="s">
         <v>7</v>
       </c>
@@ -10859,7 +10946,7 @@
       <c r="CK13" s="10">
         <v>0.79900000000000004</v>
       </c>
-      <c r="CM13" s="102"/>
+      <c r="CM13" s="104"/>
       <c r="CN13" s="42" t="s">
         <v>7</v>
       </c>
@@ -10892,7 +10979,7 @@
       </c>
       <c r="CZ13" s="43"/>
       <c r="DA13" s="43"/>
-      <c r="DC13" s="102"/>
+      <c r="DC13" s="104"/>
       <c r="DD13" s="42" t="s">
         <v>7</v>
       </c>
@@ -10911,7 +10998,7 @@
       <c r="DO13" s="46"/>
       <c r="DP13" s="43"/>
       <c r="DQ13" s="43"/>
-      <c r="DS13" s="102"/>
+      <c r="DS13" s="104"/>
       <c r="DT13" s="42" t="s">
         <v>7</v>
       </c>
@@ -10930,7 +11017,7 @@
       <c r="EE13" s="46"/>
       <c r="EF13" s="43"/>
       <c r="EG13" s="43"/>
-      <c r="EI13" s="102"/>
+      <c r="EI13" s="104"/>
       <c r="EJ13" s="42" t="s">
         <v>7</v>
       </c>
@@ -10949,7 +11036,7 @@
       <c r="EU13" s="46"/>
       <c r="EV13" s="43"/>
       <c r="EW13" s="43"/>
-      <c r="EY13" s="112"/>
+      <c r="EY13" s="114"/>
       <c r="EZ13" s="63" t="s">
         <v>7</v>
       </c>
@@ -10958,7 +11045,7 @@
       </c>
     </row>
     <row r="14" spans="2:157">
-      <c r="B14" s="102"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -10980,7 +11067,7 @@
       <c r="I14" s="22">
         <v>0.78300000000000003</v>
       </c>
-      <c r="K14" s="102"/>
+      <c r="K14" s="104"/>
       <c r="L14" s="7" t="s">
         <v>8</v>
       </c>
@@ -11023,7 +11110,7 @@
       <c r="Y14" s="17">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AA14" s="102"/>
+      <c r="AA14" s="104"/>
       <c r="AB14" s="7" t="s">
         <v>8</v>
       </c>
@@ -11064,7 +11151,7 @@
       <c r="AO14" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="AQ14" s="102"/>
+      <c r="AQ14" s="104"/>
       <c r="AR14" s="7" t="s">
         <v>8</v>
       </c>
@@ -11103,7 +11190,7 @@
       <c r="BE14" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BG14" s="102"/>
+      <c r="BG14" s="104"/>
       <c r="BH14" s="7" t="s">
         <v>8</v>
       </c>
@@ -11140,7 +11227,7 @@
       <c r="BU14" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="BW14" s="102"/>
+      <c r="BW14" s="104"/>
       <c r="BX14" s="7" t="s">
         <v>8</v>
       </c>
@@ -11175,7 +11262,7 @@
       <c r="CK14" s="17">
         <v>0.79200000000000004</v>
       </c>
-      <c r="CM14" s="102"/>
+      <c r="CM14" s="104"/>
       <c r="CN14" s="7" t="s">
         <v>8</v>
       </c>
@@ -11208,7 +11295,7 @@
       <c r="DA14" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="DC14" s="102"/>
+      <c r="DC14" s="104"/>
       <c r="DD14" s="42" t="s">
         <v>8</v>
       </c>
@@ -11239,7 +11326,7 @@
       <c r="DQ14" s="43">
         <v>0.79800000000000004</v>
       </c>
-      <c r="DS14" s="102"/>
+      <c r="DS14" s="104"/>
       <c r="DT14" s="42" t="s">
         <v>8</v>
       </c>
@@ -11258,7 +11345,7 @@
       <c r="EE14" s="46"/>
       <c r="EF14" s="43"/>
       <c r="EG14" s="43"/>
-      <c r="EI14" s="102"/>
+      <c r="EI14" s="104"/>
       <c r="EJ14" s="42" t="s">
         <v>8</v>
       </c>
@@ -11277,7 +11364,7 @@
       <c r="EU14" s="46"/>
       <c r="EV14" s="43"/>
       <c r="EW14" s="43"/>
-      <c r="EY14" s="112"/>
+      <c r="EY14" s="114"/>
       <c r="EZ14" s="63" t="s">
         <v>8</v>
       </c>
@@ -11286,7 +11373,7 @@
       </c>
     </row>
     <row r="15" spans="2:157">
-      <c r="B15" s="103"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -11308,7 +11395,7 @@
       <c r="I15" s="24">
         <v>0.78100000000000003</v>
       </c>
-      <c r="K15" s="103"/>
+      <c r="K15" s="105"/>
       <c r="L15" s="8" t="s">
         <v>9</v>
       </c>
@@ -11351,7 +11438,7 @@
       <c r="Y15" s="19">
         <v>0.78200000000000003</v>
       </c>
-      <c r="AA15" s="103"/>
+      <c r="AA15" s="105"/>
       <c r="AB15" s="8" t="s">
         <v>9</v>
       </c>
@@ -11392,7 +11479,7 @@
       <c r="AO15" s="19">
         <v>0.78200000000000003</v>
       </c>
-      <c r="AQ15" s="103"/>
+      <c r="AQ15" s="105"/>
       <c r="AR15" s="8" t="s">
         <v>9</v>
       </c>
@@ -11431,7 +11518,7 @@
       <c r="BE15" s="19">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BG15" s="103"/>
+      <c r="BG15" s="105"/>
       <c r="BH15" s="8" t="s">
         <v>9</v>
       </c>
@@ -11468,7 +11555,7 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="BU15" s="47"/>
-      <c r="BW15" s="103"/>
+      <c r="BW15" s="105"/>
       <c r="BX15" s="8" t="s">
         <v>9</v>
       </c>
@@ -11503,7 +11590,7 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="CK15" s="47"/>
-      <c r="CM15" s="103"/>
+      <c r="CM15" s="105"/>
       <c r="CN15" s="8" t="s">
         <v>9</v>
       </c>
@@ -11536,7 +11623,7 @@
       </c>
       <c r="CZ15" s="47"/>
       <c r="DA15" s="47"/>
-      <c r="DC15" s="103"/>
+      <c r="DC15" s="105"/>
       <c r="DD15" s="60" t="s">
         <v>9</v>
       </c>
@@ -11567,7 +11654,7 @@
       </c>
       <c r="DP15" s="56"/>
       <c r="DQ15" s="56"/>
-      <c r="DS15" s="103"/>
+      <c r="DS15" s="105"/>
       <c r="DT15" s="60" t="s">
         <v>9</v>
       </c>
@@ -11586,7 +11673,7 @@
       <c r="EE15" s="58"/>
       <c r="EF15" s="56"/>
       <c r="EG15" s="56"/>
-      <c r="EI15" s="103"/>
+      <c r="EI15" s="105"/>
       <c r="EJ15" s="60" t="s">
         <v>9</v>
       </c>
@@ -11605,7 +11692,7 @@
       <c r="EU15" s="58"/>
       <c r="EV15" s="56"/>
       <c r="EW15" s="56"/>
-      <c r="EY15" s="113"/>
+      <c r="EY15" s="115"/>
       <c r="EZ15" s="64" t="s">
         <v>9</v>
       </c>
@@ -12135,17 +12222,34 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:Y2"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="EK2:EW2"/>
+    <mergeCell ref="EI4:EI7"/>
+    <mergeCell ref="EI8:EI11"/>
+    <mergeCell ref="EI12:EI15"/>
+    <mergeCell ref="EY4:EY7"/>
+    <mergeCell ref="EY8:EY11"/>
+    <mergeCell ref="EY12:EY15"/>
+    <mergeCell ref="EI2:EJ2"/>
+    <mergeCell ref="DS2:DT2"/>
+    <mergeCell ref="DU2:EG2"/>
+    <mergeCell ref="DS4:DS7"/>
+    <mergeCell ref="DS8:DS11"/>
+    <mergeCell ref="DS12:DS15"/>
+    <mergeCell ref="DE2:DQ2"/>
+    <mergeCell ref="DC4:DC7"/>
+    <mergeCell ref="DC8:DC11"/>
+    <mergeCell ref="DC12:DC15"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:CK2"/>
+    <mergeCell ref="BW4:BW7"/>
+    <mergeCell ref="BW8:BW11"/>
+    <mergeCell ref="BW12:BW15"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="CO2:DA2"/>
+    <mergeCell ref="CM4:CM7"/>
+    <mergeCell ref="CM8:CM11"/>
+    <mergeCell ref="CM12:CM15"/>
+    <mergeCell ref="DC2:DD2"/>
     <mergeCell ref="BI2:BU2"/>
     <mergeCell ref="BG4:BG7"/>
     <mergeCell ref="BG8:BG11"/>
@@ -12161,34 +12265,17 @@
     <mergeCell ref="AQ8:AQ11"/>
     <mergeCell ref="AQ12:AQ15"/>
     <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="DE2:DQ2"/>
-    <mergeCell ref="DC4:DC7"/>
-    <mergeCell ref="DC8:DC11"/>
-    <mergeCell ref="DC12:DC15"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BY2:CK2"/>
-    <mergeCell ref="BW4:BW7"/>
-    <mergeCell ref="BW8:BW11"/>
-    <mergeCell ref="BW12:BW15"/>
-    <mergeCell ref="CM2:CN2"/>
-    <mergeCell ref="CO2:DA2"/>
-    <mergeCell ref="CM4:CM7"/>
-    <mergeCell ref="CM8:CM11"/>
-    <mergeCell ref="CM12:CM15"/>
-    <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="DU2:EG2"/>
-    <mergeCell ref="DS4:DS7"/>
-    <mergeCell ref="DS8:DS11"/>
-    <mergeCell ref="DS12:DS15"/>
-    <mergeCell ref="EK2:EW2"/>
-    <mergeCell ref="EI4:EI7"/>
-    <mergeCell ref="EI8:EI11"/>
-    <mergeCell ref="EI12:EI15"/>
-    <mergeCell ref="EY4:EY7"/>
-    <mergeCell ref="EY8:EY11"/>
-    <mergeCell ref="EY12:EY15"/>
-    <mergeCell ref="EI2:EJ2"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:Y2"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12206,18 +12293,18 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="107" t="s">
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109" t="s">
         <v>1</v>
       </c>
     </row>
@@ -12243,10 +12330,10 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="108"/>
+      <c r="I3" s="110"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -12272,7 +12359,7 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="110"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
@@ -12296,7 +12383,7 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="110"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -12320,7 +12407,7 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="110"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -12344,7 +12431,7 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -12370,7 +12457,7 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="102"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -12394,7 +12481,7 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="102"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -12418,7 +12505,7 @@
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="103"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -12442,7 +12529,7 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="103" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -12468,7 +12555,7 @@
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="102"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
@@ -12492,7 +12579,7 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="102"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -12516,7 +12603,7 @@
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="103"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -12554,27 +12641,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28142D6-465F-40D5-8A8B-BB292355189C}">
-  <dimension ref="B3:I16"/>
+  <dimension ref="B3:DX34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="DN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DV33" sqref="DV33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="3" spans="2:9">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="107" t="s">
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109" t="s">
         <v>1</v>
       </c>
     </row>
@@ -12600,10 +12687,10 @@
       <c r="H4" s="5">
         <v>5</v>
       </c>
-      <c r="I4" s="108"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="111" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -12624,28 +12711,28 @@
       <c r="H5" s="15">
         <v>0.79600000000000004</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="22">
         <v>0.80300000000000005</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="110"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="16">
         <v>0.81100000000000005</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="22">
         <v>0.81399999999999995</v>
       </c>
       <c r="F6" s="16">
         <v>0.81</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="16">
         <v>0.80700000000000005</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="17">
         <v>0.80900000000000005</v>
       </c>
       <c r="I6" s="22">
@@ -12653,7 +12740,7 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="110"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
@@ -12666,7 +12753,7 @@
       <c r="F7" s="16">
         <v>0.79700000000000004</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="22">
         <v>0.80600000000000005</v>
       </c>
       <c r="H7" s="17">
@@ -12677,7 +12764,7 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="110"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
@@ -12701,7 +12788,7 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="103" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -12722,12 +12809,12 @@
       <c r="H9" s="15">
         <v>0.80300000000000005</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="21">
         <v>0.80900000000000005</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="102"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
@@ -12737,7 +12824,7 @@
       <c r="E10" s="13">
         <v>0.80100000000000005</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="23">
         <v>0.80100000000000005</v>
       </c>
       <c r="G10" s="16">
@@ -12751,14 +12838,14 @@
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="102"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D11">
         <v>0.79700000000000004</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="23">
         <v>0.79900000000000004</v>
       </c>
       <c r="F11" s="16">
@@ -12775,7 +12862,7 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="103"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
@@ -12799,7 +12886,7 @@
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="103" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -12820,12 +12907,12 @@
       <c r="H13" s="15">
         <v>0.80400000000000005</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="21">
         <v>0.81200000000000006</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="102"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
@@ -12844,12 +12931,12 @@
       <c r="H14" s="17">
         <v>0.80600000000000005</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="22">
         <v>0.81100000000000005</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="102"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="7" t="s">
         <v>8</v>
       </c>
@@ -12868,22 +12955,22 @@
       <c r="H15" s="17">
         <v>0.80100000000000005</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="22">
         <v>0.80900000000000005</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="103"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="18">
         <v>0.80700000000000005</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="80">
         <v>0.81299999999999994</v>
       </c>
-      <c r="F16" s="80">
+      <c r="F16" s="18">
         <v>0.81200000000000006</v>
       </c>
       <c r="G16" s="18">
@@ -12896,8 +12983,3716 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
+    <row r="20" spans="2:128">
+      <c r="B20" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="123"/>
+      <c r="D20" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="R20" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="123"/>
+      <c r="T20" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="120"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="120"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="120"/>
+      <c r="AB20" s="120"/>
+      <c r="AC20" s="120"/>
+      <c r="AD20" s="120"/>
+      <c r="AE20" s="120"/>
+      <c r="AF20" s="120"/>
+      <c r="AH20" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI20" s="123"/>
+      <c r="AJ20" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK20" s="120"/>
+      <c r="AL20" s="120"/>
+      <c r="AM20" s="120"/>
+      <c r="AN20" s="120"/>
+      <c r="AO20" s="120"/>
+      <c r="AP20" s="120"/>
+      <c r="AQ20" s="120"/>
+      <c r="AR20" s="120"/>
+      <c r="AS20" s="120"/>
+      <c r="AT20" s="120"/>
+      <c r="AU20" s="120"/>
+      <c r="AV20" s="120"/>
+      <c r="AX20" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY20" s="123"/>
+      <c r="AZ20" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA20" s="120"/>
+      <c r="BB20" s="120"/>
+      <c r="BC20" s="120"/>
+      <c r="BD20" s="120"/>
+      <c r="BE20" s="120"/>
+      <c r="BF20" s="120"/>
+      <c r="BG20" s="120"/>
+      <c r="BH20" s="120"/>
+      <c r="BI20" s="120"/>
+      <c r="BJ20" s="120"/>
+      <c r="BK20" s="120"/>
+      <c r="BL20" s="120"/>
+      <c r="BN20" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO20" s="123"/>
+      <c r="BP20" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ20" s="120"/>
+      <c r="BR20" s="120"/>
+      <c r="BS20" s="120"/>
+      <c r="BT20" s="120"/>
+      <c r="BU20" s="120"/>
+      <c r="BV20" s="120"/>
+      <c r="BW20" s="120"/>
+      <c r="BX20" s="120"/>
+      <c r="BY20" s="120"/>
+      <c r="BZ20" s="120"/>
+      <c r="CA20" s="120"/>
+      <c r="CB20" s="120"/>
+      <c r="CD20" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE20" s="123"/>
+      <c r="CF20" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="CG20" s="120"/>
+      <c r="CH20" s="120"/>
+      <c r="CI20" s="120"/>
+      <c r="CJ20" s="120"/>
+      <c r="CK20" s="120"/>
+      <c r="CL20" s="120"/>
+      <c r="CM20" s="120"/>
+      <c r="CN20" s="120"/>
+      <c r="CO20" s="120"/>
+      <c r="CP20" s="120"/>
+      <c r="CQ20" s="120"/>
+      <c r="CR20" s="120"/>
+      <c r="CT20" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU20" s="123"/>
+      <c r="CV20" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="CW20" s="120"/>
+      <c r="CX20" s="120"/>
+      <c r="CY20" s="120"/>
+      <c r="CZ20" s="120"/>
+      <c r="DA20" s="120"/>
+      <c r="DB20" s="120"/>
+      <c r="DC20" s="120"/>
+      <c r="DD20" s="120"/>
+      <c r="DE20" s="120"/>
+      <c r="DF20" s="120"/>
+      <c r="DG20" s="120"/>
+      <c r="DH20" s="120"/>
+      <c r="DJ20" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="DK20" s="123"/>
+      <c r="DL20" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="DM20" s="120"/>
+      <c r="DN20" s="120"/>
+      <c r="DO20" s="120"/>
+      <c r="DP20" s="120"/>
+      <c r="DQ20" s="120"/>
+      <c r="DR20" s="120"/>
+      <c r="DS20" s="120"/>
+      <c r="DT20" s="120"/>
+      <c r="DU20" s="120"/>
+      <c r="DV20" s="120"/>
+      <c r="DW20" s="120"/>
+      <c r="DX20" s="120"/>
+    </row>
+    <row r="21" spans="2:128">
+      <c r="B21" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="U21" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="V21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="X21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC21" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF21" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH21" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ21" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK21" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS21" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV21" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX21" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY21" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ21" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA21" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI21" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL21" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="BN21" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO21" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP21" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ21" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="BU21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="BV21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="BX21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="BY21" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="BZ21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="CB21" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="CD21" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE21" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF21" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="CG21" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="CI21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="CJ21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="CK21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="CL21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="CM21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="CN21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="CO21" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="CP21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR21" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="CT21" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU21" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="CV21" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="CW21" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="CX21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="CY21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="CZ21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="DA21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="DB21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="DC21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="DD21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="DE21" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="DF21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="DG21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="DH21" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="DJ21" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="DK21" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="DL21" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="DM21" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="DN21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="DO21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="DP21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="DQ21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="DR21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="DS21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="DT21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU21" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="DV21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="DX21" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:128">
+      <c r="B22" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G22" s="73">
+        <v>0.81</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="N22" s="26">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="U22" s="17">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="V22" s="13">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="W22" s="126"/>
+      <c r="X22" s="13">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="Z22" s="15">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AA22" s="15">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AC22" s="127">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AD22" s="26">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AE22" s="15">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AF22" s="15">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AH22" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ22" s="15">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AK22" s="17">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="AL22" s="13">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AM22" s="126"/>
+      <c r="AN22" s="13">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AO22" s="13">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AP22" s="15">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="AQ22" s="15">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AR22" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="AS22" s="127"/>
+      <c r="AT22" s="26">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="AU22" s="15">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AV22" s="132">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AX22" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ22" s="15">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BA22" s="17">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="BB22" s="13">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="BC22" s="126"/>
+      <c r="BD22" s="13">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="BE22" s="13">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="BF22" s="15">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="BG22" s="15">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="BH22" s="13">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="BI22" s="127"/>
+      <c r="BJ22" s="26">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="BK22" s="138">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BL22" s="132"/>
+      <c r="BN22" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP22" s="15">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BQ22" s="17">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="BR22" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="BS22" s="126"/>
+      <c r="BT22" s="148">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="BU22" s="13">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BV22" s="15">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="BW22" s="15">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="BX22" s="13">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BY22" s="127"/>
+      <c r="BZ22" s="26">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="CA22" s="138"/>
+      <c r="CB22" s="132"/>
+      <c r="CD22" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF22" s="13">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="CG22" s="17">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="CH22" s="13">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="CI22" s="126"/>
+      <c r="CJ22" s="148"/>
+      <c r="CK22" s="13">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="CL22" s="15">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="CM22" s="15">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="CN22" s="156">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="CO22" s="127"/>
+      <c r="CP22" s="26">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="CQ22" s="138"/>
+      <c r="CR22" s="132"/>
+      <c r="CT22" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV22" s="156">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="CW22" s="17">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="CX22" s="13">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="CY22" s="126"/>
+      <c r="CZ22" s="148"/>
+      <c r="DA22" s="157">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="DB22" s="15">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="DC22" s="15">
+        <v>0.81</v>
+      </c>
+      <c r="DD22" s="156"/>
+      <c r="DE22" s="127"/>
+      <c r="DF22" s="26">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="DG22" s="138"/>
+      <c r="DH22" s="132"/>
+      <c r="DJ22" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="DL22" s="157">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="DM22" s="17">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="DN22" s="13">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="DO22" s="126"/>
+      <c r="DP22" s="148"/>
+      <c r="DQ22" s="157"/>
+      <c r="DR22" s="15">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="DS22" s="15">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="DT22" s="156"/>
+      <c r="DU22" s="127"/>
+      <c r="DV22" s="26">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="DW22" s="138"/>
+      <c r="DX22" s="132"/>
+    </row>
+    <row r="23" spans="2:128">
+      <c r="B23" s="112"/>
+      <c r="C23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="G23" s="23">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="K23" s="17">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="M23" s="17">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="N23" s="17">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="O23" s="17">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="P23" s="17">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="R23" s="112"/>
+      <c r="S23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="16">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="U23" s="16">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="V23" s="16">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="W23" s="126"/>
+      <c r="X23" s="16">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="Y23" s="16">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="Z23" s="17">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AA23" s="17">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AB23" s="16">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AC23" s="128">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AD23" s="17">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="AE23" s="17">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AF23" s="17">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AH23" s="112"/>
+      <c r="AI23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ23" s="17">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AK23" s="16">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="AL23" s="16">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AM23" s="126"/>
+      <c r="AN23" s="16">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AO23" s="133">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="AP23" s="17">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="AQ23" s="17">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AR23" s="16">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AS23" s="128"/>
+      <c r="AT23" s="17">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="AU23" s="17">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AV23" s="17">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AX23" s="112"/>
+      <c r="AY23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ23" s="16">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="BA23" s="16">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="BB23" s="16">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="BC23" s="126"/>
+      <c r="BD23" s="16">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BE23" s="133"/>
+      <c r="BF23" s="17">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="BG23" s="17">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="BH23" s="16">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="BI23" s="128"/>
+      <c r="BJ23" s="17">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="BK23" s="17">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="BL23" s="139">
+        <v>0.82</v>
+      </c>
+      <c r="BN23" s="112"/>
+      <c r="BO23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP23" s="143">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="BQ23" s="143"/>
+      <c r="BR23" s="143"/>
+      <c r="BS23" s="143"/>
+      <c r="BT23" s="143"/>
+      <c r="BU23" s="143"/>
+      <c r="BV23" s="143"/>
+      <c r="BW23" s="143"/>
+      <c r="BX23" s="143"/>
+      <c r="BY23" s="143"/>
+      <c r="BZ23" s="143"/>
+      <c r="CA23" s="143"/>
+      <c r="CB23" s="143"/>
+      <c r="CD23" s="112"/>
+      <c r="CE23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF23" s="143">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="CG23" s="143"/>
+      <c r="CH23" s="143"/>
+      <c r="CI23" s="143"/>
+      <c r="CJ23" s="143"/>
+      <c r="CK23" s="143"/>
+      <c r="CL23" s="143"/>
+      <c r="CM23" s="143"/>
+      <c r="CN23" s="143"/>
+      <c r="CO23" s="143"/>
+      <c r="CP23" s="143"/>
+      <c r="CQ23" s="143"/>
+      <c r="CR23" s="143"/>
+      <c r="CT23" s="112"/>
+      <c r="CU23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV23" s="143">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="CW23" s="143"/>
+      <c r="CX23" s="143"/>
+      <c r="CY23" s="143"/>
+      <c r="CZ23" s="143"/>
+      <c r="DA23" s="143"/>
+      <c r="DB23" s="143"/>
+      <c r="DC23" s="143"/>
+      <c r="DD23" s="143"/>
+      <c r="DE23" s="143"/>
+      <c r="DF23" s="143"/>
+      <c r="DG23" s="143"/>
+      <c r="DH23" s="143"/>
+      <c r="DJ23" s="112"/>
+      <c r="DK23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="DL23" s="143">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="DM23" s="143"/>
+      <c r="DN23" s="143"/>
+      <c r="DO23" s="143"/>
+      <c r="DP23" s="143"/>
+      <c r="DQ23" s="143"/>
+      <c r="DR23" s="143"/>
+      <c r="DS23" s="143"/>
+      <c r="DT23" s="143"/>
+      <c r="DU23" s="143"/>
+      <c r="DV23" s="143"/>
+      <c r="DW23" s="143"/>
+      <c r="DX23" s="143"/>
+    </row>
+    <row r="24" spans="2:128">
+      <c r="B24" s="112"/>
+      <c r="C24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="J24" s="22">
+        <v>0.81</v>
+      </c>
+      <c r="K24" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="L24" s="16">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="M24" s="17">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="N24" s="17">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="O24" s="17">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="P24" s="17">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="R24" s="112"/>
+      <c r="S24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="U24" s="16">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="V24" s="16">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="W24" s="16">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="X24" s="16">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="Y24" s="16">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="Z24" s="84"/>
+      <c r="AA24" s="17">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AB24" s="16">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AC24" s="17">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AD24" s="17">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AE24" s="17">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AF24" s="128">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AH24" s="112"/>
+      <c r="AI24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ24" s="17">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AK24" s="16">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="AL24" s="133">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AM24" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="AN24" s="16">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AO24" s="16">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AP24" s="84"/>
+      <c r="AQ24" s="128"/>
+      <c r="AR24" s="16">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AS24" s="17">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AT24" s="17">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AU24" s="17">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="AV24" s="17">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AX24" s="112"/>
+      <c r="AY24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ24" s="16">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="BA24" s="16">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="BB24" s="133"/>
+      <c r="BC24" s="16">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="BD24" s="16">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BE24" s="140">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="BF24" s="84"/>
+      <c r="BG24" s="128"/>
+      <c r="BH24" s="16">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="BI24" s="17">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="BJ24" s="17">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="BK24" s="17">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="BL24" s="17">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="BN24" s="112"/>
+      <c r="BO24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP24" s="16">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="BQ24" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="BR24" s="133"/>
+      <c r="BS24" s="16">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="BT24" s="16">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BU24" s="140"/>
+      <c r="BV24" s="84"/>
+      <c r="BW24" s="128"/>
+      <c r="BX24" s="16">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="BY24" s="17">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BZ24" s="17">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="CA24" s="17">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="CB24" s="17">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="CD24" s="112"/>
+      <c r="CE24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF24" s="13">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="CG24" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="CH24" s="133"/>
+      <c r="CI24" s="16">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="CJ24" s="149"/>
+      <c r="CK24" s="140"/>
+      <c r="CL24" s="84"/>
+      <c r="CM24" s="128"/>
+      <c r="CN24" s="16">
+        <v>0.79</v>
+      </c>
+      <c r="CO24" s="17">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="CP24" s="17">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="CQ24" s="17">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="CR24" s="17">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="CT24" s="112"/>
+      <c r="CU24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV24" s="143">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="CW24" s="143"/>
+      <c r="CX24" s="143"/>
+      <c r="CY24" s="143"/>
+      <c r="CZ24" s="143"/>
+      <c r="DA24" s="143"/>
+      <c r="DB24" s="143"/>
+      <c r="DC24" s="143"/>
+      <c r="DD24" s="143"/>
+      <c r="DE24" s="143"/>
+      <c r="DF24" s="143"/>
+      <c r="DG24" s="143"/>
+      <c r="DH24" s="143"/>
+      <c r="DJ24" s="112"/>
+      <c r="DK24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="DL24" s="143">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="DM24" s="143"/>
+      <c r="DN24" s="143"/>
+      <c r="DO24" s="143"/>
+      <c r="DP24" s="143"/>
+      <c r="DQ24" s="143"/>
+      <c r="DR24" s="143"/>
+      <c r="DS24" s="143"/>
+      <c r="DT24" s="143"/>
+      <c r="DU24" s="143"/>
+      <c r="DV24" s="143"/>
+      <c r="DW24" s="143"/>
+      <c r="DX24" s="143"/>
+    </row>
+    <row r="25" spans="2:128">
+      <c r="B25" s="124"/>
+      <c r="C25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="K25" s="19">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="L25" s="80">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="M25" s="19">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="N25" s="28">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="O25" s="19">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="P25" s="19">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="R25" s="124"/>
+      <c r="S25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T25" s="18">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="U25" s="16">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="V25" s="16">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="W25" s="16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="X25" s="16">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="Y25" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="Z25" s="19">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="AA25" s="19">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="19">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AD25" s="28">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="AE25" s="19">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AF25" s="129">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ25" s="19">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AK25" s="16">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="AL25" s="16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="AM25" s="16">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="AN25" s="16">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AO25" s="16">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AP25" s="19">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="AQ25" s="134">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AR25" s="83"/>
+      <c r="AS25" s="19">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AT25" s="28">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="AU25" s="19">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AV25" s="129"/>
+      <c r="AX25" s="124"/>
+      <c r="AY25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ25" s="19">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BA25" s="16">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="BB25" s="16">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="BC25" s="16">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="BD25" s="16">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="BE25" s="16">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="BF25" s="19">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="BG25" s="134"/>
+      <c r="BH25" s="83"/>
+      <c r="BI25" s="141">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="BJ25" s="28">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="BK25" s="19">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="BL25" s="129"/>
+      <c r="BN25" s="124"/>
+      <c r="BO25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP25" s="19">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="BQ25" s="16">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="BR25" s="16">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="BS25" s="16">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="BT25" s="16">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="BU25" s="149">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="BV25" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="BW25" s="134"/>
+      <c r="BX25" s="83"/>
+      <c r="BY25" s="141"/>
+      <c r="BZ25" s="28">
+        <v>0.82</v>
+      </c>
+      <c r="CA25" s="19">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="CB25" s="129"/>
+      <c r="CD25" s="124"/>
+      <c r="CE25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF25" s="13">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="CG25" s="16">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="CH25" s="16">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="CI25" s="16">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="CJ25" s="16">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="CK25" s="149"/>
+      <c r="CL25" s="19">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="CM25" s="134"/>
+      <c r="CN25" s="83"/>
+      <c r="CO25" s="141"/>
+      <c r="CP25" s="155">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="CQ25" s="19">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="CR25" s="129"/>
+      <c r="CT25" s="124"/>
+      <c r="CU25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV25" s="155">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="CW25" s="16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="CX25" s="16">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="CY25" s="16">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="CZ25" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="DA25" s="149"/>
+      <c r="DB25" s="19">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="DC25" s="134"/>
+      <c r="DD25" s="83"/>
+      <c r="DE25" s="141"/>
+      <c r="DF25" s="155"/>
+      <c r="DG25" s="19">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="DH25" s="129"/>
+      <c r="DJ25" s="124"/>
+      <c r="DK25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="DL25" s="143">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="DM25" s="143"/>
+      <c r="DN25" s="143"/>
+      <c r="DO25" s="143"/>
+      <c r="DP25" s="143"/>
+      <c r="DQ25" s="143"/>
+      <c r="DR25" s="143"/>
+      <c r="DS25" s="143"/>
+      <c r="DT25" s="143"/>
+      <c r="DU25" s="143"/>
+      <c r="DV25" s="143"/>
+      <c r="DW25" s="143"/>
+      <c r="DX25" s="143"/>
+    </row>
+    <row r="26" spans="2:128">
+      <c r="B26" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="G26" s="73">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="N26" s="26">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="O26" s="15">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="P26" s="15">
+        <v>0.81</v>
+      </c>
+      <c r="R26" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T26" s="13">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="U26" s="13">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="V26" s="13">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="W26" s="81"/>
+      <c r="X26" s="13">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="Y26" s="127">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="AA26" s="15">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AC26" s="15">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="AD26" s="26">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="AE26" s="15">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AF26" s="15">
+        <v>0.81</v>
+      </c>
+      <c r="AH26" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ26" s="15">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AK26" s="13">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="AL26" s="13">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AM26" s="81"/>
+      <c r="AN26" s="13">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AO26" s="127"/>
+      <c r="AP26" s="13">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="AQ26" s="15">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AR26" s="13">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AS26" s="15">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AT26" s="26">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="AU26" s="15">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AV26" s="132">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AX26" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ26" s="15">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BA26" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="BB26" s="13">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="BC26" s="81"/>
+      <c r="BD26" s="13">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="BE26" s="127"/>
+      <c r="BF26" s="13">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="BG26" s="15">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="BH26" s="13">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BI26" s="15">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="BJ26" s="26">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="BK26" s="138">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BL26" s="132"/>
+      <c r="BN26" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP26" s="145">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BQ26" s="143"/>
+      <c r="BR26" s="143"/>
+      <c r="BS26" s="143"/>
+      <c r="BT26" s="143"/>
+      <c r="BU26" s="143"/>
+      <c r="BV26" s="143"/>
+      <c r="BW26" s="143"/>
+      <c r="BX26" s="143"/>
+      <c r="BY26" s="143"/>
+      <c r="BZ26" s="143"/>
+      <c r="CA26" s="143"/>
+      <c r="CB26" s="143"/>
+      <c r="CD26" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="CE26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF26" s="145">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="CG26" s="143"/>
+      <c r="CH26" s="143"/>
+      <c r="CI26" s="143"/>
+      <c r="CJ26" s="143"/>
+      <c r="CK26" s="143"/>
+      <c r="CL26" s="143"/>
+      <c r="CM26" s="143"/>
+      <c r="CN26" s="143"/>
+      <c r="CO26" s="143"/>
+      <c r="CP26" s="143"/>
+      <c r="CQ26" s="143"/>
+      <c r="CR26" s="143"/>
+      <c r="CT26" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="CU26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV26" s="145">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="CW26" s="143"/>
+      <c r="CX26" s="143"/>
+      <c r="CY26" s="143"/>
+      <c r="CZ26" s="143"/>
+      <c r="DA26" s="143"/>
+      <c r="DB26" s="143"/>
+      <c r="DC26" s="143"/>
+      <c r="DD26" s="143"/>
+      <c r="DE26" s="143"/>
+      <c r="DF26" s="143"/>
+      <c r="DG26" s="143"/>
+      <c r="DH26" s="143"/>
+      <c r="DJ26" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="DK26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="DL26" s="145">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="DM26" s="143"/>
+      <c r="DN26" s="143"/>
+      <c r="DO26" s="143"/>
+      <c r="DP26" s="143"/>
+      <c r="DQ26" s="143"/>
+      <c r="DR26" s="143"/>
+      <c r="DS26" s="143"/>
+      <c r="DT26" s="143"/>
+      <c r="DU26" s="143"/>
+      <c r="DV26" s="143"/>
+      <c r="DW26" s="143"/>
+      <c r="DX26" s="143"/>
+    </row>
+    <row r="27" spans="2:128">
+      <c r="B27" s="104"/>
+      <c r="C27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="K27" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="L27" s="16">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="M27" s="17">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="N27" s="27">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="O27" s="17">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="P27" s="17">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="R27" s="104"/>
+      <c r="S27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" s="16">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="U27" s="16">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="V27" s="16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="W27" s="81"/>
+      <c r="X27" s="16">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="Y27" s="16">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="Z27" s="16">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AA27" s="17">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AB27" s="16">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AC27" s="128">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AD27" s="27">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AE27" s="17">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="AF27" s="17">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AH27" s="104"/>
+      <c r="AI27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ27" s="17">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AK27" s="16">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="AL27" s="16">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="AM27" s="81"/>
+      <c r="AN27" s="16">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AO27" s="133">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AP27" s="16">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AQ27" s="17">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AR27" s="16">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AS27" s="128"/>
+      <c r="AT27" s="27">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="AU27" s="17">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="AV27" s="17">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AX27" s="104"/>
+      <c r="AY27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ27" s="16">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BA27" s="16">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="BB27" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="BC27" s="81"/>
+      <c r="BD27" s="16">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BE27" s="133"/>
+      <c r="BF27" s="16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="BG27" s="17">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="BH27" s="16">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="BI27" s="128"/>
+      <c r="BJ27" s="27">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="BK27" s="17">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="BL27" s="139">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BN27" s="104"/>
+      <c r="BO27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP27" s="143">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BQ27" s="143"/>
+      <c r="BR27" s="143"/>
+      <c r="BS27" s="143"/>
+      <c r="BT27" s="143"/>
+      <c r="BU27" s="143"/>
+      <c r="BV27" s="143"/>
+      <c r="BW27" s="143"/>
+      <c r="BX27" s="143"/>
+      <c r="BY27" s="143"/>
+      <c r="BZ27" s="143"/>
+      <c r="CA27" s="143"/>
+      <c r="CB27" s="143"/>
+      <c r="CD27" s="104"/>
+      <c r="CE27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF27" s="143">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="CG27" s="143"/>
+      <c r="CH27" s="143"/>
+      <c r="CI27" s="143"/>
+      <c r="CJ27" s="143"/>
+      <c r="CK27" s="143"/>
+      <c r="CL27" s="143"/>
+      <c r="CM27" s="143"/>
+      <c r="CN27" s="143"/>
+      <c r="CO27" s="143"/>
+      <c r="CP27" s="143"/>
+      <c r="CQ27" s="143"/>
+      <c r="CR27" s="143"/>
+      <c r="CT27" s="104"/>
+      <c r="CU27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV27" s="143">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="CW27" s="143"/>
+      <c r="CX27" s="143"/>
+      <c r="CY27" s="143"/>
+      <c r="CZ27" s="143"/>
+      <c r="DA27" s="143"/>
+      <c r="DB27" s="143"/>
+      <c r="DC27" s="143"/>
+      <c r="DD27" s="143"/>
+      <c r="DE27" s="143"/>
+      <c r="DF27" s="143"/>
+      <c r="DG27" s="143"/>
+      <c r="DH27" s="143"/>
+      <c r="DJ27" s="104"/>
+      <c r="DK27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="DL27" s="143">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="DM27" s="143"/>
+      <c r="DN27" s="143"/>
+      <c r="DO27" s="143"/>
+      <c r="DP27" s="143"/>
+      <c r="DQ27" s="143"/>
+      <c r="DR27" s="143"/>
+      <c r="DS27" s="143"/>
+      <c r="DT27" s="143"/>
+      <c r="DU27" s="143"/>
+      <c r="DV27" s="143"/>
+      <c r="DW27" s="143"/>
+      <c r="DX27" s="143"/>
+    </row>
+    <row r="28" spans="2:128">
+      <c r="B28" s="104"/>
+      <c r="C28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="H28" s="23">
+        <v>0.81</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="K28" s="17">
+        <v>0.79</v>
+      </c>
+      <c r="L28" s="16">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="M28" s="17">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="N28" s="27">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="O28" s="17">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="P28" s="17">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="R28" s="104"/>
+      <c r="S28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T28" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="U28" s="16">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="V28" s="16">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="W28" s="16">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="16">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="Z28" s="16">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AA28" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="AB28" s="16">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="AC28" s="17">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AD28" s="27">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="AE28" s="17">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="AF28" s="128">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="AH28" s="104"/>
+      <c r="AI28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ28" s="17">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="AK28" s="16">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="AL28" s="16">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AM28" s="16">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="AN28" s="82"/>
+      <c r="AO28" s="16">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AP28" s="133">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AQ28" s="17">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AR28" s="16">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AS28" s="17">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AT28" s="27">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="AU28" s="17">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="AV28" s="128"/>
+      <c r="AX28" s="104"/>
+      <c r="AY28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ28" s="16">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BA28" s="16">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="BB28" s="16">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="BC28" s="16">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="BD28" s="82"/>
+      <c r="BE28" s="16">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="BF28" s="133"/>
+      <c r="BG28" s="139">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="BH28" s="16">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="BI28" s="17">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="BJ28" s="27">
+        <v>0.79</v>
+      </c>
+      <c r="BK28" s="17">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="BL28" s="128"/>
+      <c r="BN28" s="104"/>
+      <c r="BO28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP28" s="143">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BQ28" s="143"/>
+      <c r="BR28" s="143"/>
+      <c r="BS28" s="143"/>
+      <c r="BT28" s="143"/>
+      <c r="BU28" s="143"/>
+      <c r="BV28" s="143"/>
+      <c r="BW28" s="143"/>
+      <c r="BX28" s="143"/>
+      <c r="BY28" s="143"/>
+      <c r="BZ28" s="143"/>
+      <c r="CA28" s="143"/>
+      <c r="CB28" s="143"/>
+      <c r="CD28" s="104"/>
+      <c r="CE28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF28" s="143">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="CG28" s="143"/>
+      <c r="CH28" s="143"/>
+      <c r="CI28" s="143"/>
+      <c r="CJ28" s="143"/>
+      <c r="CK28" s="143"/>
+      <c r="CL28" s="143"/>
+      <c r="CM28" s="143"/>
+      <c r="CN28" s="143"/>
+      <c r="CO28" s="143"/>
+      <c r="CP28" s="143"/>
+      <c r="CQ28" s="143"/>
+      <c r="CR28" s="143"/>
+      <c r="CT28" s="104"/>
+      <c r="CU28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV28" s="143">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="CW28" s="143"/>
+      <c r="CX28" s="143"/>
+      <c r="CY28" s="143"/>
+      <c r="CZ28" s="143"/>
+      <c r="DA28" s="143"/>
+      <c r="DB28" s="143"/>
+      <c r="DC28" s="143"/>
+      <c r="DD28" s="143"/>
+      <c r="DE28" s="143"/>
+      <c r="DF28" s="143"/>
+      <c r="DG28" s="143"/>
+      <c r="DH28" s="143"/>
+      <c r="DJ28" s="104"/>
+      <c r="DK28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="DL28" s="143">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="DM28" s="143"/>
+      <c r="DN28" s="143"/>
+      <c r="DO28" s="143"/>
+      <c r="DP28" s="143"/>
+      <c r="DQ28" s="143"/>
+      <c r="DR28" s="143"/>
+      <c r="DS28" s="143"/>
+      <c r="DT28" s="143"/>
+      <c r="DU28" s="143"/>
+      <c r="DV28" s="143"/>
+      <c r="DW28" s="143"/>
+      <c r="DX28" s="143"/>
+    </row>
+    <row r="29" spans="2:128">
+      <c r="B29" s="105"/>
+      <c r="C29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="I29" s="18">
+        <v>0.81</v>
+      </c>
+      <c r="J29" s="18">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="K29" s="18">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="L29" s="18">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="M29" s="19">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="N29" s="28">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="O29" s="19">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="P29" s="24">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="R29" s="105"/>
+      <c r="S29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T29" s="19">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="U29" s="18">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="V29" s="18">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="W29" s="18">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="X29" s="18">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="Y29" s="18">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="Z29" s="18">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AA29" s="18">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AB29" s="18">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AC29" s="19">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="AD29" s="28">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="AE29" s="129">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AF29" s="88"/>
+      <c r="AH29" s="105"/>
+      <c r="AI29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ29" s="18">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AK29" s="18">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="AL29" s="18">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AM29" s="18">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AN29" s="18">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AO29" s="18">
+        <v>0.82</v>
+      </c>
+      <c r="AP29" s="18">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AQ29" s="129"/>
+      <c r="AR29" s="18">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AS29" s="134">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="AT29" s="28">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="AU29" s="17">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AV29" s="88"/>
+      <c r="AX29" s="105"/>
+      <c r="AY29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ29" s="19">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="BA29" s="18">
+        <v>0.79</v>
+      </c>
+      <c r="BB29" s="18">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="BC29" s="18">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="BD29" s="18">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="BE29" s="18">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="BF29" s="18">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="BG29" s="129"/>
+      <c r="BH29" s="18">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="BI29" s="134"/>
+      <c r="BJ29" s="28">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="BK29" s="139">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="BL29" s="88"/>
+      <c r="BN29" s="105"/>
+      <c r="BO29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP29" s="17">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="BQ29" s="18">
+        <v>0.79</v>
+      </c>
+      <c r="BR29" s="18">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="BS29" s="18">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="BT29" s="18">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="BU29" s="18">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="BV29" s="18">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="BW29" s="129"/>
+      <c r="BX29" s="18">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="BY29" s="134"/>
+      <c r="BZ29" s="28">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="CA29" s="139"/>
+      <c r="CB29" s="88"/>
+      <c r="CD29" s="105"/>
+      <c r="CE29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF29" s="144">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="CG29" s="150"/>
+      <c r="CH29" s="150"/>
+      <c r="CI29" s="150"/>
+      <c r="CJ29" s="150"/>
+      <c r="CK29" s="150"/>
+      <c r="CL29" s="150"/>
+      <c r="CM29" s="151"/>
+      <c r="CN29" s="150"/>
+      <c r="CO29" s="151"/>
+      <c r="CP29" s="152"/>
+      <c r="CQ29" s="144"/>
+      <c r="CR29" s="151"/>
+      <c r="CT29" s="105"/>
+      <c r="CU29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV29" s="144">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="CW29" s="150"/>
+      <c r="CX29" s="150"/>
+      <c r="CY29" s="150"/>
+      <c r="CZ29" s="150"/>
+      <c r="DA29" s="150"/>
+      <c r="DB29" s="150"/>
+      <c r="DC29" s="151"/>
+      <c r="DD29" s="150"/>
+      <c r="DE29" s="151"/>
+      <c r="DF29" s="152"/>
+      <c r="DG29" s="144"/>
+      <c r="DH29" s="151"/>
+      <c r="DJ29" s="105"/>
+      <c r="DK29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="DL29" s="144">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="DM29" s="150"/>
+      <c r="DN29" s="150"/>
+      <c r="DO29" s="150"/>
+      <c r="DP29" s="150"/>
+      <c r="DQ29" s="150"/>
+      <c r="DR29" s="150"/>
+      <c r="DS29" s="151"/>
+      <c r="DT29" s="150"/>
+      <c r="DU29" s="151"/>
+      <c r="DV29" s="152"/>
+      <c r="DW29" s="144"/>
+      <c r="DX29" s="151"/>
+    </row>
+    <row r="30" spans="2:128">
+      <c r="B30" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="O30" s="26">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="P30" s="21">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="R30" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T30" s="15">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="U30" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="V30" s="13">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="W30" s="130">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="X30" s="13">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="Y30" s="15">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AA30" s="15">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="AC30" s="15">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AD30" s="17">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="AE30" s="26">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AF30" s="85"/>
+      <c r="AH30" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ30" s="13">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AK30" s="13">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="AL30" s="13">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="AM30" s="130"/>
+      <c r="AN30" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="AO30" s="15">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AP30" s="13">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="AQ30" s="15">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AR30" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="AS30" s="15">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AT30" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="AU30" s="135">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AV30" s="85"/>
+      <c r="AX30" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ30" s="26">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BA30" s="13">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="BB30" s="13">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="BC30" s="130"/>
+      <c r="BD30" s="13">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BE30" s="15">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="BF30" s="13">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="BG30" s="15">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BH30" s="13">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="BI30" s="138">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="BJ30" s="17">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="BK30" s="135"/>
+      <c r="BL30" s="85"/>
+      <c r="BN30" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP30" s="15">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="BQ30" s="13">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="BR30" s="13">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="BS30" s="130"/>
+      <c r="BT30" s="148">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="BU30" s="15">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="BV30" s="13">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="BW30" s="15">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="BX30" s="13">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BY30" s="138"/>
+      <c r="BZ30" s="17">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="CA30" s="135"/>
+      <c r="CB30" s="85"/>
+      <c r="CD30" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF30" s="13">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="CG30" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="CH30" s="13">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="CI30" s="130"/>
+      <c r="CJ30" s="148"/>
+      <c r="CK30" s="154">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="CL30" s="13">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="CM30" s="15">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="CN30" s="13">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="CO30" s="138"/>
+      <c r="CP30" s="17">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="CQ30" s="135"/>
+      <c r="CR30" s="85"/>
+      <c r="CT30" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV30" s="154">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="CW30" s="13">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="CX30" s="13">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="CY30" s="130"/>
+      <c r="CZ30" s="148"/>
+      <c r="DA30" s="154"/>
+      <c r="DB30" s="13">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="DC30" s="15">
+        <v>0.82</v>
+      </c>
+      <c r="DD30" s="157">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="DE30" s="138"/>
+      <c r="DF30" s="17">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="DG30" s="135"/>
+      <c r="DH30" s="85"/>
+      <c r="DJ30" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="DK30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="DL30" s="157">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="DM30" s="13">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="DN30" s="13">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="DO30" s="130"/>
+      <c r="DP30" s="148"/>
+      <c r="DQ30" s="154"/>
+      <c r="DR30" s="13">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="DS30" s="15">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="DT30" s="157"/>
+      <c r="DU30" s="138"/>
+      <c r="DV30" s="17">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="DW30" s="135"/>
+      <c r="DX30" s="85"/>
+    </row>
+    <row r="31" spans="2:128">
+      <c r="B31" s="104"/>
+      <c r="C31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F31" s="23">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="K31" s="17">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="M31" s="17">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="N31" s="27">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="O31" s="17">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="P31" s="17">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="R31" s="104"/>
+      <c r="S31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T31" s="16">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="U31" s="16">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="V31" s="82"/>
+      <c r="W31" s="16">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="X31" s="16">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="Y31" s="16">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="Z31" s="16">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AA31" s="17">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AB31" s="16">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AC31" s="17">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AD31" s="27">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="AE31" s="17">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AF31" s="128">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="AH31" s="104"/>
+      <c r="AI31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ31" s="17">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="AK31" s="16">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AL31" s="82"/>
+      <c r="AM31" s="16">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="AN31" s="16">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AO31" s="16">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AP31" s="16">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AQ31" s="17">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="AR31" s="16">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AS31" s="136">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AT31" s="27">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="AU31" s="17">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AV31" s="128"/>
+      <c r="AX31" s="104"/>
+      <c r="AY31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ31" s="17">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BA31" s="16">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="BB31" s="82"/>
+      <c r="BC31" s="16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="BD31" s="16">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="BE31" s="16">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="BF31" s="16">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BG31" s="139">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BH31" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="BI31" s="136"/>
+      <c r="BJ31" s="27">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="BK31" s="17">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="BL31" s="128"/>
+      <c r="BN31" s="104"/>
+      <c r="BO31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP31" s="146">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="BQ31" s="143"/>
+      <c r="BR31" s="143"/>
+      <c r="BS31" s="143"/>
+      <c r="BT31" s="143"/>
+      <c r="BU31" s="143"/>
+      <c r="BV31" s="143"/>
+      <c r="BW31" s="143"/>
+      <c r="BX31" s="143"/>
+      <c r="BY31" s="143"/>
+      <c r="BZ31" s="143"/>
+      <c r="CA31" s="143"/>
+      <c r="CB31" s="143"/>
+      <c r="CD31" s="104"/>
+      <c r="CE31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF31" s="13">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="CG31" s="143"/>
+      <c r="CH31" s="143"/>
+      <c r="CI31" s="143"/>
+      <c r="CJ31" s="143"/>
+      <c r="CK31" s="143"/>
+      <c r="CL31" s="143"/>
+      <c r="CM31" s="143"/>
+      <c r="CN31" s="143"/>
+      <c r="CO31" s="143"/>
+      <c r="CP31" s="143"/>
+      <c r="CQ31" s="143"/>
+      <c r="CR31" s="143"/>
+      <c r="CT31" s="104"/>
+      <c r="CU31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV31" s="13">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="CW31" s="143"/>
+      <c r="CX31" s="143"/>
+      <c r="CY31" s="143"/>
+      <c r="CZ31" s="143"/>
+      <c r="DA31" s="143"/>
+      <c r="DB31" s="143"/>
+      <c r="DC31" s="143"/>
+      <c r="DD31" s="143"/>
+      <c r="DE31" s="143"/>
+      <c r="DF31" s="143"/>
+      <c r="DG31" s="143"/>
+      <c r="DH31" s="143"/>
+      <c r="DJ31" s="104"/>
+      <c r="DK31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="DL31" s="13">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="DM31" s="143"/>
+      <c r="DN31" s="143"/>
+      <c r="DO31" s="143"/>
+      <c r="DP31" s="143"/>
+      <c r="DQ31" s="143"/>
+      <c r="DR31" s="143"/>
+      <c r="DS31" s="143"/>
+      <c r="DT31" s="143"/>
+      <c r="DU31" s="143"/>
+      <c r="DV31" s="143"/>
+      <c r="DW31" s="143"/>
+      <c r="DX31" s="143"/>
+    </row>
+    <row r="32" spans="2:128">
+      <c r="B32" s="104"/>
+      <c r="C32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="J32" s="23">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="K32" s="17">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="M32" s="17">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="N32" s="27">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="O32" s="17">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="P32" s="17">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="R32" s="104"/>
+      <c r="S32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="16">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="U32" s="16">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="V32" s="16">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="W32" s="16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="X32" s="16">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="Y32" s="131">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="17">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AB32" s="16">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="AC32" s="17">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="AD32" s="27">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="AE32" s="17">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AF32" s="17">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AH32" s="104"/>
+      <c r="AI32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ32" s="16">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AK32" s="16">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="AL32" s="133">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AM32" s="16">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AN32" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="AO32" s="131"/>
+      <c r="AP32" s="82"/>
+      <c r="AQ32" s="17">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AR32" s="16">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="AS32" s="17">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AT32" s="27">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AU32" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="AV32" s="17">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AX32" s="104"/>
+      <c r="AY32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ32" s="16">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BA32" s="16">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="BB32" s="133"/>
+      <c r="BC32" s="16">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="BD32" s="16">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BE32" s="131"/>
+      <c r="BF32" s="82"/>
+      <c r="BG32" s="17">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="BH32" s="16">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="BI32" s="17">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="BJ32" s="27">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="BK32" s="17">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="BL32" s="139">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BN32" s="104"/>
+      <c r="BO32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP32" s="143">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BQ32" s="143"/>
+      <c r="BR32" s="143"/>
+      <c r="BS32" s="143"/>
+      <c r="BT32" s="143"/>
+      <c r="BU32" s="143"/>
+      <c r="BV32" s="143"/>
+      <c r="BW32" s="143"/>
+      <c r="BX32" s="143"/>
+      <c r="BY32" s="143"/>
+      <c r="BZ32" s="143"/>
+      <c r="CA32" s="143"/>
+      <c r="CB32" s="143"/>
+      <c r="CD32" s="104"/>
+      <c r="CE32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF32" s="143">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="CG32" s="143"/>
+      <c r="CH32" s="143"/>
+      <c r="CI32" s="143"/>
+      <c r="CJ32" s="143"/>
+      <c r="CK32" s="143"/>
+      <c r="CL32" s="143"/>
+      <c r="CM32" s="143"/>
+      <c r="CN32" s="143"/>
+      <c r="CO32" s="143"/>
+      <c r="CP32" s="143"/>
+      <c r="CQ32" s="143"/>
+      <c r="CR32" s="143"/>
+      <c r="CT32" s="104"/>
+      <c r="CU32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV32" s="143">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="CW32" s="143"/>
+      <c r="CX32" s="143"/>
+      <c r="CY32" s="143"/>
+      <c r="CZ32" s="143"/>
+      <c r="DA32" s="143"/>
+      <c r="DB32" s="143"/>
+      <c r="DC32" s="143"/>
+      <c r="DD32" s="143"/>
+      <c r="DE32" s="143"/>
+      <c r="DF32" s="143"/>
+      <c r="DG32" s="143"/>
+      <c r="DH32" s="143"/>
+      <c r="DJ32" s="104"/>
+      <c r="DK32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="DL32" s="143">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="DM32" s="143"/>
+      <c r="DN32" s="143"/>
+      <c r="DO32" s="143"/>
+      <c r="DP32" s="143"/>
+      <c r="DQ32" s="143"/>
+      <c r="DR32" s="143"/>
+      <c r="DS32" s="143"/>
+      <c r="DT32" s="143"/>
+      <c r="DU32" s="143"/>
+      <c r="DV32" s="143"/>
+      <c r="DW32" s="143"/>
+      <c r="DX32" s="143"/>
+    </row>
+    <row r="33" spans="2:128">
+      <c r="B33" s="105"/>
+      <c r="C33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="H33" s="18">
+        <v>0.81</v>
+      </c>
+      <c r="I33" s="18">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="J33" s="18">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="K33" s="18">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="L33" s="18">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="M33" s="19">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="N33" s="28">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="O33" s="19">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="P33" s="21">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="R33" s="105"/>
+      <c r="S33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T33" s="15">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="U33" s="18">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="V33" s="18">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="W33" s="18">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="X33" s="18">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="Y33" s="18">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="Z33" s="18">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AA33" s="18">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AB33" s="18">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AC33" s="19">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="AD33" s="28">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AE33" s="129">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="AF33" s="85"/>
+      <c r="AH33" s="105"/>
+      <c r="AI33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ33" s="19">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="AK33" s="18">
+        <v>0.79</v>
+      </c>
+      <c r="AL33" s="18">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AM33" s="137">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AN33" s="18">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AO33" s="18">
+        <v>0.82</v>
+      </c>
+      <c r="AP33" s="18">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AQ33" s="18">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="AR33" s="18">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AS33" s="19">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="AT33" s="28">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="AU33" s="129"/>
+      <c r="AV33" s="85"/>
+      <c r="AX33" s="105"/>
+      <c r="AY33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ33" s="18">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="BA33" s="18">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="BB33" s="18">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="BC33" s="137"/>
+      <c r="BD33" s="142">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="BE33" s="18">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="BF33" s="18">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="BG33" s="18">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="BH33" s="18">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="BI33" s="19">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="BJ33" s="28">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="BK33" s="129"/>
+      <c r="BL33" s="85"/>
+      <c r="BN33" s="105"/>
+      <c r="BO33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP33" s="18">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="BQ33" s="18">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="BR33" s="18">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="BS33" s="137"/>
+      <c r="BT33" s="142"/>
+      <c r="BU33" s="18">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="BV33" s="18">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="BW33" s="18">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="BX33" s="18">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="BY33" s="147">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="BZ33" s="28">
+        <v>0.753</v>
+      </c>
+      <c r="CA33" s="129"/>
+      <c r="CB33" s="85"/>
+      <c r="CD33" s="105"/>
+      <c r="CE33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF33" s="13">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="CG33" s="18">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="CH33" s="18">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="CI33" s="137"/>
+      <c r="CJ33" s="142"/>
+      <c r="CK33" s="153">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="CL33" s="18">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="CM33" s="18">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="CN33" s="18">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="CO33" s="147"/>
+      <c r="CP33" s="28">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="CQ33" s="129"/>
+      <c r="CR33" s="85"/>
+      <c r="CT33" s="105"/>
+      <c r="CU33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV33" s="153">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="CW33" s="18">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="CX33" s="18">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="CY33" s="137"/>
+      <c r="CZ33" s="142"/>
+      <c r="DA33" s="153"/>
+      <c r="DB33" s="18">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="DC33" s="18">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="DD33" s="158">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="DE33" s="147"/>
+      <c r="DF33" s="28">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="DG33" s="129"/>
+      <c r="DH33" s="85"/>
+      <c r="DJ33" s="105"/>
+      <c r="DK33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="DL33" s="158">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="DM33" s="18">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="DN33" s="18">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="DO33" s="137"/>
+      <c r="DP33" s="142"/>
+      <c r="DQ33" s="153"/>
+      <c r="DR33" s="18">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="DS33" s="18">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="DT33" s="158"/>
+      <c r="DU33" s="147"/>
+      <c r="DV33" s="28">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="DW33" s="129"/>
+      <c r="DX33" s="85"/>
+    </row>
+    <row r="34" spans="2:128">
+      <c r="CF34" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="46">
+    <mergeCell ref="DJ20:DK20"/>
+    <mergeCell ref="DL20:DX20"/>
+    <mergeCell ref="DJ22:DJ25"/>
+    <mergeCell ref="DJ26:DJ29"/>
+    <mergeCell ref="DJ30:DJ33"/>
+    <mergeCell ref="CT20:CU20"/>
+    <mergeCell ref="CV20:DH20"/>
+    <mergeCell ref="CT22:CT25"/>
+    <mergeCell ref="CT26:CT29"/>
+    <mergeCell ref="CT30:CT33"/>
+    <mergeCell ref="CD20:CE20"/>
+    <mergeCell ref="CF20:CR20"/>
+    <mergeCell ref="CD22:CD25"/>
+    <mergeCell ref="CD26:CD29"/>
+    <mergeCell ref="CD30:CD33"/>
+    <mergeCell ref="BN20:BO20"/>
+    <mergeCell ref="BP20:CB20"/>
+    <mergeCell ref="BN22:BN25"/>
+    <mergeCell ref="BN26:BN29"/>
+    <mergeCell ref="BN30:BN33"/>
+    <mergeCell ref="AX20:AY20"/>
+    <mergeCell ref="AZ20:BL20"/>
+    <mergeCell ref="AX22:AX25"/>
+    <mergeCell ref="AX26:AX29"/>
+    <mergeCell ref="AX30:AX33"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AJ20:AV20"/>
+    <mergeCell ref="AH22:AH25"/>
+    <mergeCell ref="AH26:AH29"/>
+    <mergeCell ref="AH30:AH33"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:AF20"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="R30:R33"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:H3"/>
@@ -12906,5 +16701,6 @@
     <mergeCell ref="B9:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/project_results.xlsx
+++ b/project_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mafalda\Documents\NOVAIMS\Semester2\MachineLearning\machineLearningProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3A3C30-F72C-4D2D-A606-BA2D11952FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8440E940-455A-41EE-A88D-AFF7C2237326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DBFDAFC6-5964-47A5-B37B-48FDB3DF0ABC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{DBFDAFC6-5964-47A5-B37B-48FDB3DF0ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="SVC - RFE" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Logistic Regression" sheetId="1" r:id="rId4"/>
     <sheet name="LR - RFE" sheetId="3" r:id="rId5"/>
     <sheet name="SVC - Bagging" sheetId="6" r:id="rId6"/>
+    <sheet name="AdaBoost" sheetId="7" r:id="rId7"/>
+    <sheet name="LR - OneHot" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="42">
   <si>
     <t>Logistic Regression</t>
   </si>
@@ -116,6 +118,54 @@
   </si>
   <si>
     <t>Is_young</t>
+  </si>
+  <si>
+    <t>{'C': 0.1, 'fit_intercept': True, 'l1_ratio': 0.9, 'multi_class': 'multinomial', 'penalty': 'elasticnet', 'solver': 'saga', 'warm_start': True}</t>
+  </si>
+  <si>
+    <t>{'C': 0.1, 'fit_intercept': True, 'l1_ratio': 0.9, 'multi_class': 'multinomial', 'penalty': 'l2', 'solver': 'newton-cg', 'warm_start': True}</t>
+  </si>
+  <si>
+    <t>{'C': 0.1, 'fit_intercept': False, 'l1_ratio': 0.9, 'multi_class': 'multinomial', 'penalty': 'elasticnet', 'solver': 'saga', 'warm_start': True}</t>
+  </si>
+  <si>
+    <t>{'C': 0.1, 'fit_intercept': True, 'l1_ratio': 0.9, 'multi_class': 'multinomial', 'penalty': 'l1', 'solver': 'saga', 'warm_start': True}</t>
+  </si>
+  <si>
+    <t>{'C': 0.1, 'fit_intercept': False, 'l1_ratio': 0.9, 'multi_class': 'multinomial', 'penalty': 'none', 'solver': 'sag', 'warm_start': True}</t>
+  </si>
+  <si>
+    <t>{'C': 0.1, 'fit_intercept': False, 'l1_ratio': 0.9, 'multi_class': 'multinomial', 'penalty': 'l2', 'solver': 'saga', 'warm_start': True}</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'fit_intercept': True, 'l1_ratio': 0.9, 'multi_class': 'multinomial', 'penalty': 'l2', 'solver': 'newton-cg', 'warm_start': True}</t>
+  </si>
+  <si>
+    <t>{'C': 0.1, 'fit_intercept': True, 'l1_ratio': 0.9, 'multi_class': 'multinomial', 'penalty': 'none', 'solver': 'saga', 'warm_start': True}</t>
+  </si>
+  <si>
+    <t>Title_Miss</t>
+  </si>
+  <si>
+    <t>Title_Ms</t>
+  </si>
+  <si>
+    <t>Title_Mrs</t>
+  </si>
+  <si>
+    <t>Title_Mr</t>
+  </si>
+  <si>
+    <t>Title_Master</t>
+  </si>
+  <si>
+    <t>City_SantaFe</t>
+  </si>
+  <si>
+    <t>City_Albuquerque</t>
+  </si>
+  <si>
+    <t>City_Taos</t>
   </si>
 </sst>
 </file>
@@ -361,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,6 +585,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -571,13 +637,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -589,10 +652,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -601,10 +667,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,18 +1008,18 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="108" t="s">
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116" t="s">
         <v>1</v>
       </c>
     </row>
@@ -965,10 +1045,10 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="109"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -994,7 +1074,7 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="111"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1018,7 +1098,7 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="111"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1122,7 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="111"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1066,7 +1146,7 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1092,7 +1172,7 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="103"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1196,7 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="103"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1140,7 +1220,7 @@
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="104"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1164,7 +1244,7 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1190,7 +1270,7 @@
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="103"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +1294,7 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="103"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -1238,7 +1318,7 @@
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="104"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -1278,7 +1358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA72FF5-B3A9-48DA-B6B9-A51BCB6109DB}">
   <dimension ref="A2:GC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+    <sheetView topLeftCell="BT1" workbookViewId="0">
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
@@ -1323,210 +1403,210 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:185">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="108" t="s">
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="118" t="s">
+      <c r="L2" s="124"/>
+      <c r="M2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="AA2" s="121" t="s">
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="AA2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="118" t="s">
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="119"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="119"/>
-      <c r="AH2" s="119"/>
-      <c r="AI2" s="119"/>
-      <c r="AJ2" s="119"/>
-      <c r="AK2" s="119"/>
-      <c r="AL2" s="119"/>
-      <c r="AM2" s="119"/>
-      <c r="AN2" s="119"/>
-      <c r="AO2" s="120"/>
-      <c r="AQ2" s="121" t="s">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
+      <c r="AM2" s="126"/>
+      <c r="AN2" s="126"/>
+      <c r="AO2" s="127"/>
+      <c r="AQ2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="118" t="s">
+      <c r="AR2" s="124"/>
+      <c r="AS2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="119"/>
-      <c r="AU2" s="119"/>
-      <c r="AV2" s="119"/>
-      <c r="AW2" s="119"/>
-      <c r="AX2" s="119"/>
-      <c r="AY2" s="119"/>
-      <c r="AZ2" s="119"/>
-      <c r="BA2" s="119"/>
-      <c r="BB2" s="119"/>
-      <c r="BC2" s="119"/>
-      <c r="BD2" s="119"/>
-      <c r="BE2" s="120"/>
-      <c r="BG2" s="121" t="s">
+      <c r="AT2" s="126"/>
+      <c r="AU2" s="126"/>
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
+      <c r="AX2" s="126"/>
+      <c r="AY2" s="126"/>
+      <c r="AZ2" s="126"/>
+      <c r="BA2" s="126"/>
+      <c r="BB2" s="126"/>
+      <c r="BC2" s="126"/>
+      <c r="BD2" s="126"/>
+      <c r="BE2" s="127"/>
+      <c r="BG2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="BH2" s="122"/>
-      <c r="BI2" s="118" t="s">
+      <c r="BH2" s="124"/>
+      <c r="BI2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="119"/>
-      <c r="BK2" s="119"/>
-      <c r="BL2" s="119"/>
-      <c r="BM2" s="119"/>
-      <c r="BN2" s="119"/>
-      <c r="BO2" s="119"/>
-      <c r="BP2" s="119"/>
-      <c r="BQ2" s="119"/>
-      <c r="BR2" s="119"/>
-      <c r="BS2" s="119"/>
-      <c r="BT2" s="119"/>
-      <c r="BU2" s="120"/>
-      <c r="BW2" s="121" t="s">
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="126"/>
+      <c r="BN2" s="126"/>
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
+      <c r="BR2" s="126"/>
+      <c r="BS2" s="126"/>
+      <c r="BT2" s="126"/>
+      <c r="BU2" s="127"/>
+      <c r="BW2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="BX2" s="122"/>
-      <c r="BY2" s="118" t="s">
+      <c r="BX2" s="124"/>
+      <c r="BY2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="BZ2" s="119"/>
-      <c r="CA2" s="119"/>
-      <c r="CB2" s="119"/>
-      <c r="CC2" s="119"/>
-      <c r="CD2" s="119"/>
-      <c r="CE2" s="119"/>
-      <c r="CF2" s="119"/>
-      <c r="CG2" s="119"/>
-      <c r="CH2" s="119"/>
-      <c r="CI2" s="119"/>
-      <c r="CJ2" s="119"/>
-      <c r="CK2" s="120"/>
-      <c r="CM2" s="121" t="s">
+      <c r="BZ2" s="126"/>
+      <c r="CA2" s="126"/>
+      <c r="CB2" s="126"/>
+      <c r="CC2" s="126"/>
+      <c r="CD2" s="126"/>
+      <c r="CE2" s="126"/>
+      <c r="CF2" s="126"/>
+      <c r="CG2" s="126"/>
+      <c r="CH2" s="126"/>
+      <c r="CI2" s="126"/>
+      <c r="CJ2" s="126"/>
+      <c r="CK2" s="127"/>
+      <c r="CM2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="CN2" s="122"/>
-      <c r="CO2" s="118" t="s">
+      <c r="CN2" s="124"/>
+      <c r="CO2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="CP2" s="119"/>
-      <c r="CQ2" s="119"/>
-      <c r="CR2" s="119"/>
-      <c r="CS2" s="119"/>
-      <c r="CT2" s="119"/>
-      <c r="CU2" s="119"/>
-      <c r="CV2" s="119"/>
-      <c r="CW2" s="119"/>
-      <c r="CX2" s="119"/>
-      <c r="CY2" s="119"/>
-      <c r="CZ2" s="119"/>
-      <c r="DA2" s="120"/>
-      <c r="DC2" s="121" t="s">
+      <c r="CP2" s="126"/>
+      <c r="CQ2" s="126"/>
+      <c r="CR2" s="126"/>
+      <c r="CS2" s="126"/>
+      <c r="CT2" s="126"/>
+      <c r="CU2" s="126"/>
+      <c r="CV2" s="126"/>
+      <c r="CW2" s="126"/>
+      <c r="CX2" s="126"/>
+      <c r="CY2" s="126"/>
+      <c r="CZ2" s="126"/>
+      <c r="DA2" s="127"/>
+      <c r="DC2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="DD2" s="122"/>
-      <c r="DE2" s="118" t="s">
+      <c r="DD2" s="124"/>
+      <c r="DE2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="DF2" s="119"/>
-      <c r="DG2" s="119"/>
-      <c r="DH2" s="119"/>
-      <c r="DI2" s="119"/>
-      <c r="DJ2" s="119"/>
-      <c r="DK2" s="119"/>
-      <c r="DL2" s="119"/>
-      <c r="DM2" s="119"/>
-      <c r="DN2" s="119"/>
-      <c r="DO2" s="119"/>
-      <c r="DP2" s="119"/>
-      <c r="DQ2" s="120"/>
-      <c r="DS2" s="121" t="s">
+      <c r="DF2" s="126"/>
+      <c r="DG2" s="126"/>
+      <c r="DH2" s="126"/>
+      <c r="DI2" s="126"/>
+      <c r="DJ2" s="126"/>
+      <c r="DK2" s="126"/>
+      <c r="DL2" s="126"/>
+      <c r="DM2" s="126"/>
+      <c r="DN2" s="126"/>
+      <c r="DO2" s="126"/>
+      <c r="DP2" s="126"/>
+      <c r="DQ2" s="127"/>
+      <c r="DS2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="DT2" s="122"/>
-      <c r="DU2" s="118" t="s">
+      <c r="DT2" s="124"/>
+      <c r="DU2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="DV2" s="119"/>
-      <c r="DW2" s="119"/>
-      <c r="DX2" s="119"/>
-      <c r="DY2" s="119"/>
-      <c r="DZ2" s="119"/>
-      <c r="EA2" s="119"/>
-      <c r="EB2" s="119"/>
-      <c r="EC2" s="119"/>
-      <c r="ED2" s="119"/>
-      <c r="EE2" s="119"/>
-      <c r="EF2" s="119"/>
-      <c r="EG2" s="120"/>
-      <c r="EI2" s="121" t="s">
+      <c r="DV2" s="126"/>
+      <c r="DW2" s="126"/>
+      <c r="DX2" s="126"/>
+      <c r="DY2" s="126"/>
+      <c r="DZ2" s="126"/>
+      <c r="EA2" s="126"/>
+      <c r="EB2" s="126"/>
+      <c r="EC2" s="126"/>
+      <c r="ED2" s="126"/>
+      <c r="EE2" s="126"/>
+      <c r="EF2" s="126"/>
+      <c r="EG2" s="127"/>
+      <c r="EI2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="EJ2" s="122"/>
-      <c r="EK2" s="118" t="s">
+      <c r="EJ2" s="124"/>
+      <c r="EK2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" s="119"/>
-      <c r="EM2" s="119"/>
-      <c r="EN2" s="119"/>
-      <c r="EO2" s="119"/>
-      <c r="EP2" s="119"/>
-      <c r="EQ2" s="119"/>
-      <c r="ER2" s="119"/>
-      <c r="ES2" s="119"/>
-      <c r="ET2" s="119"/>
-      <c r="EU2" s="119"/>
-      <c r="EV2" s="119"/>
-      <c r="EW2" s="120"/>
-      <c r="EY2" s="121" t="s">
+      <c r="EL2" s="126"/>
+      <c r="EM2" s="126"/>
+      <c r="EN2" s="126"/>
+      <c r="EO2" s="126"/>
+      <c r="EP2" s="126"/>
+      <c r="EQ2" s="126"/>
+      <c r="ER2" s="126"/>
+      <c r="ES2" s="126"/>
+      <c r="ET2" s="126"/>
+      <c r="EU2" s="126"/>
+      <c r="EV2" s="126"/>
+      <c r="EW2" s="127"/>
+      <c r="EY2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="EZ2" s="122"/>
-      <c r="FA2" s="118" t="s">
+      <c r="EZ2" s="124"/>
+      <c r="FA2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="FB2" s="119"/>
-      <c r="FC2" s="119"/>
-      <c r="FD2" s="119"/>
-      <c r="FE2" s="119"/>
-      <c r="FF2" s="119"/>
-      <c r="FG2" s="119"/>
-      <c r="FH2" s="119"/>
-      <c r="FI2" s="119"/>
-      <c r="FJ2" s="119"/>
-      <c r="FK2" s="119"/>
-      <c r="FL2" s="119"/>
-      <c r="FM2" s="120"/>
+      <c r="FB2" s="126"/>
+      <c r="FC2" s="126"/>
+      <c r="FD2" s="126"/>
+      <c r="FE2" s="126"/>
+      <c r="FF2" s="126"/>
+      <c r="FG2" s="126"/>
+      <c r="FH2" s="126"/>
+      <c r="FI2" s="126"/>
+      <c r="FJ2" s="126"/>
+      <c r="FK2" s="126"/>
+      <c r="FL2" s="126"/>
+      <c r="FM2" s="127"/>
       <c r="FO2" s="99"/>
       <c r="FP2" s="99"/>
       <c r="FQ2" s="98"/>
@@ -1565,7 +1645,7 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="109"/>
+      <c r="I3" s="117"/>
       <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2043,7 +2123,7 @@
     </row>
     <row r="4" spans="1:185" s="25" customFormat="1">
       <c r="A4"/>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2068,7 +2148,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -2114,7 +2194,7 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="Z4" s="33"/>
-      <c r="AA4" s="115" t="s">
+      <c r="AA4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="AB4" s="59" t="s">
@@ -2157,7 +2237,7 @@
       <c r="AO4" s="15">
         <v>0.81899999999999995</v>
       </c>
-      <c r="AQ4" s="115" t="s">
+      <c r="AQ4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="AR4" s="59" t="s">
@@ -2198,7 +2278,7 @@
       <c r="BE4" s="15">
         <v>0.81799999999999995</v>
       </c>
-      <c r="BG4" s="115" t="s">
+      <c r="BG4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="BH4" s="59" t="s">
@@ -2237,7 +2317,7 @@
       <c r="BU4" s="21">
         <v>0.82299999999999995</v>
       </c>
-      <c r="BW4" s="115" t="s">
+      <c r="BW4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="BX4" s="59" t="s">
@@ -2274,7 +2354,7 @@
       </c>
       <c r="CJ4" s="85"/>
       <c r="CK4" s="85"/>
-      <c r="CM4" s="115" t="s">
+      <c r="CM4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="CN4" s="59" t="s">
@@ -2309,7 +2389,7 @@
       </c>
       <c r="CZ4" s="85"/>
       <c r="DA4" s="85"/>
-      <c r="DC4" s="115" t="s">
+      <c r="DC4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="DD4" s="59" t="s">
@@ -2342,7 +2422,7 @@
       </c>
       <c r="DP4" s="85"/>
       <c r="DQ4" s="85"/>
-      <c r="DS4" s="115" t="s">
+      <c r="DS4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="DT4" s="59" t="s">
@@ -2373,7 +2453,7 @@
       </c>
       <c r="EF4" s="85"/>
       <c r="EG4" s="85"/>
-      <c r="EI4" s="115" t="s">
+      <c r="EI4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="EJ4" s="59" t="s">
@@ -2402,7 +2482,7 @@
       </c>
       <c r="EV4" s="85"/>
       <c r="EW4" s="85"/>
-      <c r="EY4" s="115" t="s">
+      <c r="EY4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="EZ4" s="59" t="s">
@@ -2429,7 +2509,7 @@
       </c>
       <c r="FL4" s="85"/>
       <c r="FM4" s="85"/>
-      <c r="FO4" s="115" t="s">
+      <c r="FO4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="FP4" s="59" t="s">
@@ -2452,7 +2532,7 @@
       <c r="GC4" s="33"/>
     </row>
     <row r="5" spans="1:185" s="25" customFormat="1">
-      <c r="B5" s="111"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2474,7 +2554,7 @@
       <c r="I5" s="70">
         <v>0.80900000000000005</v>
       </c>
-      <c r="K5" s="111"/>
+      <c r="K5" s="119"/>
       <c r="L5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2517,7 +2597,7 @@
       <c r="Y5" s="22">
         <v>0.81299999999999994</v>
       </c>
-      <c r="AA5" s="116"/>
+      <c r="AA5" s="129"/>
       <c r="AB5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2558,7 +2638,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="AO5" s="84"/>
-      <c r="AQ5" s="116"/>
+      <c r="AQ5" s="129"/>
       <c r="AR5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2597,7 +2677,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="BE5" s="84"/>
-      <c r="BG5" s="116"/>
+      <c r="BG5" s="129"/>
       <c r="BH5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2634,7 +2714,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="BU5" s="84"/>
-      <c r="BW5" s="116"/>
+      <c r="BW5" s="129"/>
       <c r="BX5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2669,7 +2749,7 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="CK5" s="84"/>
-      <c r="CM5" s="116"/>
+      <c r="CM5" s="129"/>
       <c r="CN5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2702,7 +2782,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="DA5" s="84"/>
-      <c r="DC5" s="116"/>
+      <c r="DC5" s="129"/>
       <c r="DD5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2733,7 +2813,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="DQ5" s="84"/>
-      <c r="DS5" s="116"/>
+      <c r="DS5" s="129"/>
       <c r="DT5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2762,7 +2842,7 @@
       </c>
       <c r="EF5" s="84"/>
       <c r="EG5" s="84"/>
-      <c r="EI5" s="116"/>
+      <c r="EI5" s="129"/>
       <c r="EJ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2789,7 +2869,7 @@
       </c>
       <c r="EV5" s="84"/>
       <c r="EW5" s="84"/>
-      <c r="EY5" s="116"/>
+      <c r="EY5" s="129"/>
       <c r="EZ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2814,7 +2894,7 @@
       </c>
       <c r="FL5" s="84"/>
       <c r="FM5" s="84"/>
-      <c r="FO5" s="116"/>
+      <c r="FO5" s="129"/>
       <c r="FP5" s="63" t="s">
         <v>7</v>
       </c>
@@ -2836,7 +2916,7 @@
     </row>
     <row r="6" spans="1:185" s="25" customFormat="1">
       <c r="A6"/>
-      <c r="B6" s="111"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -2859,7 +2939,7 @@
         <v>0.752</v>
       </c>
       <c r="J6"/>
-      <c r="K6" s="111"/>
+      <c r="K6" s="119"/>
       <c r="L6" s="7" t="s">
         <v>8</v>
       </c>
@@ -2902,7 +2982,7 @@
       <c r="Y6" s="17">
         <v>0.752</v>
       </c>
-      <c r="AA6" s="116"/>
+      <c r="AA6" s="129"/>
       <c r="AB6" s="63" t="s">
         <v>8</v>
       </c>
@@ -2943,7 +3023,7 @@
       <c r="AO6" s="17">
         <v>0.75700000000000001</v>
       </c>
-      <c r="AQ6" s="116"/>
+      <c r="AQ6" s="129"/>
       <c r="AR6" s="63" t="s">
         <v>8</v>
       </c>
@@ -2982,7 +3062,7 @@
       <c r="BE6" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BG6" s="116"/>
+      <c r="BG6" s="129"/>
       <c r="BH6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3019,7 +3099,7 @@
       <c r="BU6" s="22">
         <v>0.82199999999999995</v>
       </c>
-      <c r="BW6" s="116"/>
+      <c r="BW6" s="129"/>
       <c r="BX6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3054,7 +3134,7 @@
         <v>0.79</v>
       </c>
       <c r="CK6" s="84"/>
-      <c r="CM6" s="116"/>
+      <c r="CM6" s="129"/>
       <c r="CN6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3087,7 +3167,7 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="DA6" s="84"/>
-      <c r="DC6" s="116"/>
+      <c r="DC6" s="129"/>
       <c r="DD6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3118,7 +3198,7 @@
         <v>0.76619999999999999</v>
       </c>
       <c r="DQ6" s="84"/>
-      <c r="DS6" s="116"/>
+      <c r="DS6" s="129"/>
       <c r="DT6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3147,7 +3227,7 @@
         <v>0.752</v>
       </c>
       <c r="EG6" s="84"/>
-      <c r="EI6" s="116"/>
+      <c r="EI6" s="129"/>
       <c r="EJ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3174,7 +3254,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="EW6" s="84"/>
-      <c r="EY6" s="116"/>
+      <c r="EY6" s="129"/>
       <c r="EZ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3199,7 +3279,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="FM6" s="84"/>
-      <c r="FO6" s="116"/>
+      <c r="FO6" s="129"/>
       <c r="FP6" s="63" t="s">
         <v>8</v>
       </c>
@@ -3221,7 +3301,7 @@
     </row>
     <row r="7" spans="1:185" s="25" customFormat="1">
       <c r="A7"/>
-      <c r="B7" s="111"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -3244,7 +3324,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="J7"/>
-      <c r="K7" s="123"/>
+      <c r="K7" s="131"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
@@ -3287,7 +3367,7 @@
       <c r="Y7" s="19">
         <v>0.79300000000000004</v>
       </c>
-      <c r="AA7" s="117"/>
+      <c r="AA7" s="130"/>
       <c r="AB7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3328,7 +3408,7 @@
       <c r="AO7" s="19">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AQ7" s="117"/>
+      <c r="AQ7" s="130"/>
       <c r="AR7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3367,7 +3447,7 @@
       <c r="BE7" s="19">
         <v>0.79700000000000004</v>
       </c>
-      <c r="BG7" s="117"/>
+      <c r="BG7" s="130"/>
       <c r="BH7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3404,7 +3484,7 @@
       <c r="BU7" s="19">
         <v>0.80200000000000005</v>
       </c>
-      <c r="BW7" s="117"/>
+      <c r="BW7" s="130"/>
       <c r="BX7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3439,7 +3519,7 @@
       <c r="CK7" s="19">
         <v>0.8</v>
       </c>
-      <c r="CM7" s="117"/>
+      <c r="CM7" s="130"/>
       <c r="CN7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3472,7 +3552,7 @@
       <c r="DA7" s="19">
         <v>0.81399999999999995</v>
       </c>
-      <c r="DC7" s="117"/>
+      <c r="DC7" s="130"/>
       <c r="DD7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3503,7 +3583,7 @@
       <c r="DQ7" s="24">
         <v>0.80100000000000005</v>
       </c>
-      <c r="DS7" s="117"/>
+      <c r="DS7" s="130"/>
       <c r="DT7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3532,7 +3612,7 @@
       </c>
       <c r="EF7" s="88"/>
       <c r="EG7" s="88"/>
-      <c r="EI7" s="117"/>
+      <c r="EI7" s="130"/>
       <c r="EJ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3559,7 +3639,7 @@
       </c>
       <c r="EV7" s="88"/>
       <c r="EW7" s="88"/>
-      <c r="EY7" s="117"/>
+      <c r="EY7" s="130"/>
       <c r="EZ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3584,7 +3664,7 @@
       </c>
       <c r="FL7" s="88"/>
       <c r="FM7" s="88"/>
-      <c r="FO7" s="117"/>
+      <c r="FO7" s="130"/>
       <c r="FP7" s="63" t="s">
         <v>9</v>
       </c>
@@ -3605,7 +3685,7 @@
       <c r="GC7" s="33"/>
     </row>
     <row r="8" spans="1:185" ht="14.5" customHeight="1">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3629,7 +3709,7 @@
       <c r="I8" s="77">
         <v>0.80600000000000005</v>
       </c>
-      <c r="K8" s="102" t="s">
+      <c r="K8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -3675,7 +3755,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="Z8" s="25"/>
-      <c r="AA8" s="112" t="s">
+      <c r="AA8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="AB8" s="59" t="s">
@@ -3719,7 +3799,7 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="AP8" s="25"/>
-      <c r="AQ8" s="112" t="s">
+      <c r="AQ8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="AR8" s="59" t="s">
@@ -3761,7 +3841,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="BF8" s="25"/>
-      <c r="BG8" s="112" t="s">
+      <c r="BG8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="BH8" s="59" t="s">
@@ -3801,7 +3881,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="BV8" s="25"/>
-      <c r="BW8" s="112" t="s">
+      <c r="BW8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="BX8" s="59" t="s">
@@ -3839,7 +3919,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="CL8" s="25"/>
-      <c r="CM8" s="112" t="s">
+      <c r="CM8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="CN8" s="59" t="s">
@@ -3875,7 +3955,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="DB8" s="25"/>
-      <c r="DC8" s="112" t="s">
+      <c r="DC8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="DD8" s="59" t="s">
@@ -3909,7 +3989,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="DR8" s="25"/>
-      <c r="DS8" s="112" t="s">
+      <c r="DS8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="DT8" s="59" t="s">
@@ -3941,7 +4021,7 @@
         <v>0.746</v>
       </c>
       <c r="EH8" s="25"/>
-      <c r="EI8" s="112" t="s">
+      <c r="EI8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="EJ8" s="59" t="s">
@@ -3971,7 +4051,7 @@
         <v>0.74199999999999999</v>
       </c>
       <c r="EX8" s="25"/>
-      <c r="EY8" s="112" t="s">
+      <c r="EY8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="EZ8" s="59" t="s">
@@ -3998,7 +4078,7 @@
       <c r="FM8" s="15">
         <v>0.74199999999999999</v>
       </c>
-      <c r="FO8" s="112" t="s">
+      <c r="FO8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="FP8" s="59" t="s">
@@ -4021,7 +4101,7 @@
       <c r="GC8" s="33"/>
     </row>
     <row r="9" spans="1:185">
-      <c r="B9" s="103"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -4043,7 +4123,7 @@
       <c r="I9" s="70">
         <v>0.80100000000000005</v>
       </c>
-      <c r="K9" s="103"/>
+      <c r="K9" s="111"/>
       <c r="L9" s="7" t="s">
         <v>7</v>
       </c>
@@ -4087,7 +4167,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="Z9" s="25"/>
-      <c r="AA9" s="113"/>
+      <c r="AA9" s="121"/>
       <c r="AB9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4129,7 +4209,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="AP9" s="25"/>
-      <c r="AQ9" s="113"/>
+      <c r="AQ9" s="121"/>
       <c r="AR9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4169,7 +4249,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="BF9" s="25"/>
-      <c r="BG9" s="113"/>
+      <c r="BG9" s="121"/>
       <c r="BH9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4207,7 +4287,7 @@
         <v>0.82</v>
       </c>
       <c r="BV9" s="25"/>
-      <c r="BW9" s="113"/>
+      <c r="BW9" s="121"/>
       <c r="BX9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4243,7 +4323,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="CL9" s="25"/>
-      <c r="CM9" s="113"/>
+      <c r="CM9" s="121"/>
       <c r="CN9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4277,7 +4357,7 @@
       </c>
       <c r="DA9" s="84"/>
       <c r="DB9" s="25"/>
-      <c r="DC9" s="113"/>
+      <c r="DC9" s="121"/>
       <c r="DD9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4309,7 +4389,7 @@
       </c>
       <c r="DQ9" s="84"/>
       <c r="DR9" s="25"/>
-      <c r="DS9" s="113"/>
+      <c r="DS9" s="121"/>
       <c r="DT9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4339,7 +4419,7 @@
       </c>
       <c r="EG9" s="84"/>
       <c r="EH9" s="25"/>
-      <c r="EI9" s="113"/>
+      <c r="EI9" s="121"/>
       <c r="EJ9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4367,7 +4447,7 @@
       </c>
       <c r="EW9" s="84"/>
       <c r="EX9" s="25"/>
-      <c r="EY9" s="113"/>
+      <c r="EY9" s="121"/>
       <c r="EZ9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4392,7 +4472,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="FM9" s="84"/>
-      <c r="FO9" s="113"/>
+      <c r="FO9" s="121"/>
       <c r="FP9" s="63" t="s">
         <v>7</v>
       </c>
@@ -4413,7 +4493,7 @@
       <c r="GC9" s="33"/>
     </row>
     <row r="10" spans="1:185">
-      <c r="B10" s="103"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -4435,7 +4515,7 @@
       <c r="I10" s="70">
         <v>0.75600000000000001</v>
       </c>
-      <c r="K10" s="103"/>
+      <c r="K10" s="111"/>
       <c r="L10" s="7" t="s">
         <v>8</v>
       </c>
@@ -4479,7 +4559,7 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="Z10" s="25"/>
-      <c r="AA10" s="113"/>
+      <c r="AA10" s="121"/>
       <c r="AB10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4521,7 +4601,7 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="AP10" s="25"/>
-      <c r="AQ10" s="113"/>
+      <c r="AQ10" s="121"/>
       <c r="AR10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4561,7 +4641,7 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="BF10" s="25"/>
-      <c r="BG10" s="113"/>
+      <c r="BG10" s="121"/>
       <c r="BH10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4599,7 +4679,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="BV10" s="25"/>
-      <c r="BW10" s="113"/>
+      <c r="BW10" s="121"/>
       <c r="BX10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4635,7 +4715,7 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="CL10" s="25"/>
-      <c r="CM10" s="113"/>
+      <c r="CM10" s="121"/>
       <c r="CN10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4669,7 +4749,7 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="DB10" s="25"/>
-      <c r="DC10" s="113"/>
+      <c r="DC10" s="121"/>
       <c r="DD10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4701,7 +4781,7 @@
       </c>
       <c r="DQ10" s="84"/>
       <c r="DR10" s="25"/>
-      <c r="DS10" s="113"/>
+      <c r="DS10" s="121"/>
       <c r="DT10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4731,7 +4811,7 @@
       </c>
       <c r="EG10" s="84"/>
       <c r="EH10" s="25"/>
-      <c r="EI10" s="113"/>
+      <c r="EI10" s="121"/>
       <c r="EJ10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4759,7 +4839,7 @@
       </c>
       <c r="EW10" s="84"/>
       <c r="EX10" s="25"/>
-      <c r="EY10" s="113"/>
+      <c r="EY10" s="121"/>
       <c r="EZ10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4784,7 +4864,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="FM10" s="84"/>
-      <c r="FO10" s="113"/>
+      <c r="FO10" s="121"/>
       <c r="FP10" s="63" t="s">
         <v>8</v>
       </c>
@@ -4805,7 +4885,7 @@
       <c r="GC10" s="33"/>
     </row>
     <row r="11" spans="1:185">
-      <c r="B11" s="104"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -4827,7 +4907,7 @@
       <c r="I11" s="72">
         <v>0.80700000000000005</v>
       </c>
-      <c r="K11" s="104"/>
+      <c r="K11" s="112"/>
       <c r="L11" s="8" t="s">
         <v>9</v>
       </c>
@@ -4871,7 +4951,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="114"/>
+      <c r="AA11" s="122"/>
       <c r="AB11" s="64" t="s">
         <v>9</v>
       </c>
@@ -4913,7 +4993,7 @@
         <v>0.81299999999999994</v>
       </c>
       <c r="AP11" s="25"/>
-      <c r="AQ11" s="114"/>
+      <c r="AQ11" s="122"/>
       <c r="AR11" s="64" t="s">
         <v>9</v>
       </c>
@@ -4953,7 +5033,7 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="BF11" s="25"/>
-      <c r="BG11" s="114"/>
+      <c r="BG11" s="122"/>
       <c r="BH11" s="64" t="s">
         <v>9</v>
       </c>
@@ -4991,7 +5071,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="BV11" s="25"/>
-      <c r="BW11" s="114"/>
+      <c r="BW11" s="122"/>
       <c r="BX11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5027,7 +5107,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="CL11" s="25"/>
-      <c r="CM11" s="114"/>
+      <c r="CM11" s="122"/>
       <c r="CN11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5061,7 +5141,7 @@
       <c r="CZ11" s="88"/>
       <c r="DA11" s="88"/>
       <c r="DB11" s="25"/>
-      <c r="DC11" s="114"/>
+      <c r="DC11" s="122"/>
       <c r="DD11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5093,7 +5173,7 @@
       <c r="DP11" s="88"/>
       <c r="DQ11" s="88"/>
       <c r="DR11" s="25"/>
-      <c r="DS11" s="114"/>
+      <c r="DS11" s="122"/>
       <c r="DT11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5123,7 +5203,7 @@
       <c r="EF11" s="88"/>
       <c r="EG11" s="88"/>
       <c r="EH11" s="25"/>
-      <c r="EI11" s="114"/>
+      <c r="EI11" s="122"/>
       <c r="EJ11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5151,7 +5231,7 @@
       <c r="EV11" s="88"/>
       <c r="EW11" s="88"/>
       <c r="EX11" s="25"/>
-      <c r="EY11" s="114"/>
+      <c r="EY11" s="122"/>
       <c r="EZ11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5176,7 +5256,7 @@
       </c>
       <c r="FL11" s="88"/>
       <c r="FM11" s="88"/>
-      <c r="FO11" s="114"/>
+      <c r="FO11" s="122"/>
       <c r="FP11" s="64" t="s">
         <v>9</v>
       </c>
@@ -5197,7 +5277,7 @@
       <c r="GC11" s="33"/>
     </row>
     <row r="12" spans="1:185" ht="14.5" customHeight="1">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -5221,7 +5301,7 @@
       <c r="I12" s="68">
         <v>0.80600000000000005</v>
       </c>
-      <c r="K12" s="102" t="s">
+      <c r="K12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -5267,7 +5347,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="Z12" s="25"/>
-      <c r="AA12" s="112" t="s">
+      <c r="AA12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="AB12" s="59" t="s">
@@ -5311,7 +5391,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="AP12" s="25"/>
-      <c r="AQ12" s="112" t="s">
+      <c r="AQ12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="AR12" s="59" t="s">
@@ -5353,7 +5433,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="BF12" s="25"/>
-      <c r="BG12" s="112" t="s">
+      <c r="BG12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="BH12" s="59" t="s">
@@ -5393,7 +5473,7 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="BV12" s="25"/>
-      <c r="BW12" s="112" t="s">
+      <c r="BW12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="BX12" s="59" t="s">
@@ -5431,7 +5511,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="CL12" s="25"/>
-      <c r="CM12" s="112" t="s">
+      <c r="CM12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="CN12" s="59" t="s">
@@ -5467,7 +5547,7 @@
       <c r="CZ12" s="85"/>
       <c r="DA12" s="85"/>
       <c r="DB12" s="25"/>
-      <c r="DC12" s="112" t="s">
+      <c r="DC12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="DD12" s="59" t="s">
@@ -5501,7 +5581,7 @@
       <c r="DP12" s="85"/>
       <c r="DQ12" s="85"/>
       <c r="DR12" s="25"/>
-      <c r="DS12" s="112" t="s">
+      <c r="DS12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="DT12" s="59" t="s">
@@ -5533,7 +5613,7 @@
       <c r="EF12" s="85"/>
       <c r="EG12" s="85"/>
       <c r="EH12" s="25"/>
-      <c r="EI12" s="112" t="s">
+      <c r="EI12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="EJ12" s="59" t="s">
@@ -5563,7 +5643,7 @@
       <c r="EV12" s="85"/>
       <c r="EW12" s="85"/>
       <c r="EX12" s="25"/>
-      <c r="EY12" s="112" t="s">
+      <c r="EY12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="EZ12" s="59" t="s">
@@ -5590,7 +5670,7 @@
       </c>
       <c r="FL12" s="85"/>
       <c r="FM12" s="85"/>
-      <c r="FO12" s="112" t="s">
+      <c r="FO12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="FP12" s="59" t="s">
@@ -5613,7 +5693,7 @@
       <c r="GC12" s="33"/>
     </row>
     <row r="13" spans="1:185">
-      <c r="B13" s="103"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
@@ -5635,7 +5715,7 @@
       <c r="I13" s="70">
         <v>0.80200000000000005</v>
       </c>
-      <c r="K13" s="103"/>
+      <c r="K13" s="111"/>
       <c r="L13" s="7" t="s">
         <v>7</v>
       </c>
@@ -5679,7 +5759,7 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="Z13" s="25"/>
-      <c r="AA13" s="113"/>
+      <c r="AA13" s="121"/>
       <c r="AB13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5721,7 +5801,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="AP13" s="25"/>
-      <c r="AQ13" s="113"/>
+      <c r="AQ13" s="121"/>
       <c r="AR13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5761,7 +5841,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="BF13" s="25"/>
-      <c r="BG13" s="113"/>
+      <c r="BG13" s="121"/>
       <c r="BH13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5799,7 +5879,7 @@
         <v>0.82</v>
       </c>
       <c r="BV13" s="25"/>
-      <c r="BW13" s="113"/>
+      <c r="BW13" s="121"/>
       <c r="BX13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5835,7 +5915,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="CL13" s="25"/>
-      <c r="CM13" s="113"/>
+      <c r="CM13" s="121"/>
       <c r="CN13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5869,7 +5949,7 @@
       </c>
       <c r="DA13" s="84"/>
       <c r="DB13" s="25"/>
-      <c r="DC13" s="113"/>
+      <c r="DC13" s="121"/>
       <c r="DD13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5901,7 +5981,7 @@
       </c>
       <c r="DQ13" s="84"/>
       <c r="DR13" s="25"/>
-      <c r="DS13" s="113"/>
+      <c r="DS13" s="121"/>
       <c r="DT13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5931,7 +6011,7 @@
       </c>
       <c r="EG13" s="84"/>
       <c r="EH13" s="25"/>
-      <c r="EI13" s="113"/>
+      <c r="EI13" s="121"/>
       <c r="EJ13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5959,7 +6039,7 @@
       </c>
       <c r="EW13" s="84"/>
       <c r="EX13" s="25"/>
-      <c r="EY13" s="113"/>
+      <c r="EY13" s="121"/>
       <c r="EZ13" s="63" t="s">
         <v>7</v>
       </c>
@@ -5984,7 +6064,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="FM13" s="84"/>
-      <c r="FO13" s="113"/>
+      <c r="FO13" s="121"/>
       <c r="FP13" s="63" t="s">
         <v>7</v>
       </c>
@@ -6005,7 +6085,7 @@
       <c r="GC13" s="33"/>
     </row>
     <row r="14" spans="1:185">
-      <c r="B14" s="103"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -6027,7 +6107,7 @@
       <c r="I14" s="76">
         <v>0.75900000000000001</v>
       </c>
-      <c r="K14" s="103"/>
+      <c r="K14" s="111"/>
       <c r="L14" s="7" t="s">
         <v>8</v>
       </c>
@@ -6071,7 +6151,7 @@
         <v>0.76</v>
       </c>
       <c r="Z14" s="25"/>
-      <c r="AA14" s="113"/>
+      <c r="AA14" s="121"/>
       <c r="AB14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6113,7 +6193,7 @@
         <v>0.77100000000000002</v>
       </c>
       <c r="AP14" s="25"/>
-      <c r="AQ14" s="113"/>
+      <c r="AQ14" s="121"/>
       <c r="AR14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6153,7 +6233,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="BF14" s="25"/>
-      <c r="BG14" s="113"/>
+      <c r="BG14" s="121"/>
       <c r="BH14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6191,7 +6271,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="BV14" s="25"/>
-      <c r="BW14" s="113"/>
+      <c r="BW14" s="121"/>
       <c r="BX14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6227,7 +6307,7 @@
       </c>
       <c r="CK14" s="84"/>
       <c r="CL14" s="25"/>
-      <c r="CM14" s="113"/>
+      <c r="CM14" s="121"/>
       <c r="CN14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6261,7 +6341,7 @@
       </c>
       <c r="DA14" s="84"/>
       <c r="DB14" s="25"/>
-      <c r="DC14" s="113"/>
+      <c r="DC14" s="121"/>
       <c r="DD14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6293,7 +6373,7 @@
       </c>
       <c r="DQ14" s="84"/>
       <c r="DR14" s="25"/>
-      <c r="DS14" s="113"/>
+      <c r="DS14" s="121"/>
       <c r="DT14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6323,7 +6403,7 @@
       </c>
       <c r="EG14" s="84"/>
       <c r="EH14" s="25"/>
-      <c r="EI14" s="113"/>
+      <c r="EI14" s="121"/>
       <c r="EJ14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6351,7 +6431,7 @@
       </c>
       <c r="EW14" s="84"/>
       <c r="EX14" s="25"/>
-      <c r="EY14" s="113"/>
+      <c r="EY14" s="121"/>
       <c r="EZ14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6376,7 +6456,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="FM14" s="84"/>
-      <c r="FO14" s="113"/>
+      <c r="FO14" s="121"/>
       <c r="FP14" s="63" t="s">
         <v>8</v>
       </c>
@@ -6397,7 +6477,7 @@
       <c r="GC14" s="33"/>
     </row>
     <row r="15" spans="1:185">
-      <c r="B15" s="104"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -6419,7 +6499,7 @@
       <c r="I15" s="72">
         <v>0.78900000000000003</v>
       </c>
-      <c r="K15" s="104"/>
+      <c r="K15" s="112"/>
       <c r="L15" s="8" t="s">
         <v>9</v>
       </c>
@@ -6463,7 +6543,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="Z15" s="25"/>
-      <c r="AA15" s="114"/>
+      <c r="AA15" s="122"/>
       <c r="AB15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6505,7 +6585,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="AP15" s="25"/>
-      <c r="AQ15" s="114"/>
+      <c r="AQ15" s="122"/>
       <c r="AR15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6545,7 +6625,7 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="BF15" s="25"/>
-      <c r="BG15" s="114"/>
+      <c r="BG15" s="122"/>
       <c r="BH15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6583,7 +6663,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="BV15" s="25"/>
-      <c r="BW15" s="114"/>
+      <c r="BW15" s="122"/>
       <c r="BX15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6619,7 +6699,7 @@
       <c r="CJ15" s="88"/>
       <c r="CK15" s="88"/>
       <c r="CL15" s="25"/>
-      <c r="CM15" s="114"/>
+      <c r="CM15" s="122"/>
       <c r="CN15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6653,7 +6733,7 @@
       <c r="CZ15" s="88"/>
       <c r="DA15" s="88"/>
       <c r="DB15" s="25"/>
-      <c r="DC15" s="114"/>
+      <c r="DC15" s="122"/>
       <c r="DD15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6685,7 +6765,7 @@
       <c r="DP15" s="88"/>
       <c r="DQ15" s="88"/>
       <c r="DR15" s="25"/>
-      <c r="DS15" s="114"/>
+      <c r="DS15" s="122"/>
       <c r="DT15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6715,7 +6795,7 @@
       <c r="EF15" s="88"/>
       <c r="EG15" s="88"/>
       <c r="EH15" s="25"/>
-      <c r="EI15" s="114"/>
+      <c r="EI15" s="122"/>
       <c r="EJ15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6743,7 +6823,7 @@
       <c r="EV15" s="88"/>
       <c r="EW15" s="88"/>
       <c r="EX15" s="25"/>
-      <c r="EY15" s="114"/>
+      <c r="EY15" s="122"/>
       <c r="EZ15" s="64" t="s">
         <v>9</v>
       </c>
@@ -6768,7 +6848,7 @@
       </c>
       <c r="FL15" s="88"/>
       <c r="FM15" s="88"/>
-      <c r="FO15" s="114"/>
+      <c r="FO15" s="122"/>
       <c r="FP15" s="64" t="s">
         <v>9</v>
       </c>
@@ -7083,24 +7163,31 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="FO8:FO11"/>
-    <mergeCell ref="FO12:FO15"/>
-    <mergeCell ref="EY2:EZ2"/>
-    <mergeCell ref="FA2:FM2"/>
-    <mergeCell ref="FO4:FO7"/>
-    <mergeCell ref="EY12:EY15"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AO2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:BE2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BU2"/>
+    <mergeCell ref="BW12:BW15"/>
+    <mergeCell ref="CM12:CM15"/>
+    <mergeCell ref="DC12:DC15"/>
+    <mergeCell ref="DS12:DS15"/>
+    <mergeCell ref="EI12:EI15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="AA12:AA15"/>
+    <mergeCell ref="AQ12:AQ15"/>
+    <mergeCell ref="BG12:BG15"/>
+    <mergeCell ref="DC4:DC7"/>
+    <mergeCell ref="DS4:DS7"/>
+    <mergeCell ref="EI4:EI7"/>
+    <mergeCell ref="EY4:EY7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="AA8:AA11"/>
+    <mergeCell ref="AQ8:AQ11"/>
+    <mergeCell ref="BG8:BG11"/>
+    <mergeCell ref="BW8:BW11"/>
+    <mergeCell ref="CM8:CM11"/>
+    <mergeCell ref="DC8:DC11"/>
+    <mergeCell ref="DS8:DS11"/>
+    <mergeCell ref="EI8:EI11"/>
+    <mergeCell ref="EY8:EY11"/>
     <mergeCell ref="DU2:EG2"/>
     <mergeCell ref="EI2:EJ2"/>
     <mergeCell ref="EK2:EW2"/>
@@ -7117,31 +7204,24 @@
     <mergeCell ref="DC2:DD2"/>
     <mergeCell ref="DE2:DQ2"/>
     <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="DC4:DC7"/>
-    <mergeCell ref="DS4:DS7"/>
-    <mergeCell ref="EI4:EI7"/>
-    <mergeCell ref="EY4:EY7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="AA8:AA11"/>
-    <mergeCell ref="AQ8:AQ11"/>
-    <mergeCell ref="BG8:BG11"/>
-    <mergeCell ref="BW8:BW11"/>
-    <mergeCell ref="CM8:CM11"/>
-    <mergeCell ref="DC8:DC11"/>
-    <mergeCell ref="DS8:DS11"/>
-    <mergeCell ref="EI8:EI11"/>
-    <mergeCell ref="EY8:EY11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="AA12:AA15"/>
-    <mergeCell ref="AQ12:AQ15"/>
-    <mergeCell ref="BG12:BG15"/>
-    <mergeCell ref="BW12:BW15"/>
-    <mergeCell ref="CM12:CM15"/>
-    <mergeCell ref="DC12:DC15"/>
-    <mergeCell ref="DS12:DS15"/>
-    <mergeCell ref="EI12:EI15"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AO2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:BE2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BU2"/>
+    <mergeCell ref="FO8:FO11"/>
+    <mergeCell ref="FO12:FO15"/>
+    <mergeCell ref="EY2:EZ2"/>
+    <mergeCell ref="FA2:FM2"/>
+    <mergeCell ref="FO4:FO7"/>
+    <mergeCell ref="EY12:EY15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7159,26 +7239,26 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="2:23">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="108" t="s">
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
     </row>
     <row r="3" spans="2:23">
       <c r="B3" s="100" t="s">
@@ -7202,16 +7282,16 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
+      <c r="I3" s="117"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
     </row>
     <row r="4" spans="2:23">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -7250,7 +7330,7 @@
       <c r="O4" s="89">
         <v>10</v>
       </c>
-      <c r="P4" s="125">
+      <c r="P4" s="106">
         <v>10</v>
       </c>
       <c r="R4" s="89">
@@ -7268,12 +7348,12 @@
       <c r="V4" s="89">
         <v>3</v>
       </c>
-      <c r="W4" s="125">
+      <c r="W4" s="106">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:23">
-      <c r="B5" s="111"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="63" t="s">
         <v>7</v>
       </c>
@@ -7310,7 +7390,7 @@
       <c r="O5" s="89">
         <v>10</v>
       </c>
-      <c r="P5" s="125">
+      <c r="P5" s="106">
         <v>1</v>
       </c>
       <c r="R5" s="89">
@@ -7328,12 +7408,12 @@
       <c r="V5" s="89">
         <v>4</v>
       </c>
-      <c r="W5" s="125">
+      <c r="W5" s="106">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="111"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -7370,7 +7450,7 @@
       <c r="O6" s="89">
         <v>10</v>
       </c>
-      <c r="P6" s="125">
+      <c r="P6" s="106">
         <v>10</v>
       </c>
       <c r="R6" s="89">
@@ -7388,12 +7468,12 @@
       <c r="V6" s="89">
         <v>3</v>
       </c>
-      <c r="W6" s="125">
+      <c r="W6" s="106">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:23">
-      <c r="B7" s="111"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -7430,7 +7510,7 @@
       <c r="O7" s="89">
         <v>10</v>
       </c>
-      <c r="P7" s="125">
+      <c r="P7" s="106">
         <v>10</v>
       </c>
       <c r="R7" s="89">
@@ -7448,12 +7528,12 @@
       <c r="V7" s="89">
         <v>3</v>
       </c>
-      <c r="W7" s="125">
+      <c r="W7" s="106">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:23">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -7492,7 +7572,7 @@
       <c r="O8" s="89">
         <v>1</v>
       </c>
-      <c r="P8" s="125">
+      <c r="P8" s="106">
         <v>1</v>
       </c>
       <c r="R8" s="89">
@@ -7510,12 +7590,12 @@
       <c r="V8" s="89">
         <v>4</v>
       </c>
-      <c r="W8" s="125">
+      <c r="W8" s="106">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:23">
-      <c r="B9" s="103"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -7552,7 +7632,7 @@
       <c r="O9" s="89">
         <v>10</v>
       </c>
-      <c r="P9" s="125">
+      <c r="P9" s="106">
         <v>1</v>
       </c>
       <c r="R9" s="89">
@@ -7570,12 +7650,12 @@
       <c r="V9" s="89">
         <v>3</v>
       </c>
-      <c r="W9" s="125">
+      <c r="W9" s="106">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:23">
-      <c r="B10" s="103"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -7612,7 +7692,7 @@
       <c r="O10" s="89">
         <v>10</v>
       </c>
-      <c r="P10" s="125">
+      <c r="P10" s="106">
         <v>10</v>
       </c>
       <c r="R10" s="89">
@@ -7630,12 +7710,12 @@
       <c r="V10" s="89">
         <v>3</v>
       </c>
-      <c r="W10" s="125">
+      <c r="W10" s="106">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:23">
-      <c r="B11" s="104"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -7672,7 +7752,7 @@
       <c r="O11" s="89">
         <v>1</v>
       </c>
-      <c r="P11" s="125">
+      <c r="P11" s="106">
         <v>1</v>
       </c>
       <c r="Q11" s="89"/>
@@ -7691,12 +7771,12 @@
       <c r="V11" s="89">
         <v>4</v>
       </c>
-      <c r="W11" s="125">
+      <c r="W11" s="106">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:23">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -7735,7 +7815,7 @@
       <c r="O12" s="89">
         <v>1</v>
       </c>
-      <c r="P12" s="125">
+      <c r="P12" s="106">
         <v>1</v>
       </c>
       <c r="R12" s="89">
@@ -7753,12 +7833,12 @@
       <c r="V12" s="89">
         <v>4</v>
       </c>
-      <c r="W12" s="125">
+      <c r="W12" s="106">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="103"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
@@ -7818,7 +7898,7 @@
       </c>
     </row>
     <row r="14" spans="2:23">
-      <c r="B14" s="103"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -7855,7 +7935,7 @@
       <c r="O14" s="89">
         <v>10</v>
       </c>
-      <c r="P14" s="125">
+      <c r="P14" s="106">
         <v>10</v>
       </c>
       <c r="R14" s="89">
@@ -7873,12 +7953,12 @@
       <c r="V14" s="89">
         <v>3</v>
       </c>
-      <c r="W14" s="125">
+      <c r="W14" s="106">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:23">
-      <c r="B15" s="104"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -7915,7 +7995,7 @@
       <c r="O15" s="89">
         <v>10</v>
       </c>
-      <c r="P15" s="125">
+      <c r="P15" s="106">
         <v>1</v>
       </c>
       <c r="R15" s="89">
@@ -7933,93 +8013,93 @@
       <c r="V15" s="89">
         <v>3</v>
       </c>
-      <c r="W15" s="125">
+      <c r="W15" s="106">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:23">
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
     </row>
     <row r="17" spans="11:73">
-      <c r="K17" s="121" t="s">
+      <c r="K17" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="122"/>
-      <c r="M17" s="118" t="s">
+      <c r="L17" s="124"/>
+      <c r="M17" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="119"/>
-      <c r="W17" s="119"/>
-      <c r="X17" s="119"/>
-      <c r="Y17" s="119"/>
-      <c r="AA17" s="121" t="s">
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="126"/>
+      <c r="S17" s="126"/>
+      <c r="T17" s="126"/>
+      <c r="U17" s="126"/>
+      <c r="V17" s="126"/>
+      <c r="W17" s="126"/>
+      <c r="X17" s="126"/>
+      <c r="Y17" s="126"/>
+      <c r="AA17" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="AB17" s="122"/>
-      <c r="AC17" s="118" t="s">
+      <c r="AB17" s="124"/>
+      <c r="AC17" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AD17" s="119"/>
-      <c r="AE17" s="119"/>
-      <c r="AF17" s="119"/>
-      <c r="AG17" s="119"/>
-      <c r="AH17" s="119"/>
-      <c r="AI17" s="119"/>
-      <c r="AJ17" s="119"/>
-      <c r="AK17" s="119"/>
-      <c r="AL17" s="119"/>
-      <c r="AM17" s="119"/>
-      <c r="AN17" s="119"/>
-      <c r="AO17" s="119"/>
-      <c r="AQ17" s="121" t="s">
+      <c r="AD17" s="126"/>
+      <c r="AE17" s="126"/>
+      <c r="AF17" s="126"/>
+      <c r="AG17" s="126"/>
+      <c r="AH17" s="126"/>
+      <c r="AI17" s="126"/>
+      <c r="AJ17" s="126"/>
+      <c r="AK17" s="126"/>
+      <c r="AL17" s="126"/>
+      <c r="AM17" s="126"/>
+      <c r="AN17" s="126"/>
+      <c r="AO17" s="126"/>
+      <c r="AQ17" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="AR17" s="122"/>
-      <c r="AS17" s="118" t="s">
+      <c r="AR17" s="124"/>
+      <c r="AS17" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AT17" s="119"/>
-      <c r="AU17" s="119"/>
-      <c r="AV17" s="119"/>
-      <c r="AW17" s="119"/>
-      <c r="AX17" s="119"/>
-      <c r="AY17" s="119"/>
-      <c r="AZ17" s="119"/>
-      <c r="BA17" s="119"/>
-      <c r="BB17" s="119"/>
-      <c r="BC17" s="119"/>
-      <c r="BD17" s="119"/>
-      <c r="BE17" s="119"/>
-      <c r="BG17" s="121" t="s">
+      <c r="AT17" s="126"/>
+      <c r="AU17" s="126"/>
+      <c r="AV17" s="126"/>
+      <c r="AW17" s="126"/>
+      <c r="AX17" s="126"/>
+      <c r="AY17" s="126"/>
+      <c r="AZ17" s="126"/>
+      <c r="BA17" s="126"/>
+      <c r="BB17" s="126"/>
+      <c r="BC17" s="126"/>
+      <c r="BD17" s="126"/>
+      <c r="BE17" s="126"/>
+      <c r="BG17" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="BH17" s="122"/>
-      <c r="BI17" s="118" t="s">
+      <c r="BH17" s="124"/>
+      <c r="BI17" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="BJ17" s="119"/>
-      <c r="BK17" s="119"/>
-      <c r="BL17" s="119"/>
-      <c r="BM17" s="119"/>
-      <c r="BN17" s="119"/>
-      <c r="BO17" s="119"/>
-      <c r="BP17" s="119"/>
-      <c r="BQ17" s="119"/>
-      <c r="BR17" s="119"/>
-      <c r="BS17" s="119"/>
-      <c r="BT17" s="119"/>
-      <c r="BU17" s="119"/>
+      <c r="BJ17" s="126"/>
+      <c r="BK17" s="126"/>
+      <c r="BL17" s="126"/>
+      <c r="BM17" s="126"/>
+      <c r="BN17" s="126"/>
+      <c r="BO17" s="126"/>
+      <c r="BP17" s="126"/>
+      <c r="BQ17" s="126"/>
+      <c r="BR17" s="126"/>
+      <c r="BS17" s="126"/>
+      <c r="BT17" s="126"/>
+      <c r="BU17" s="126"/>
     </row>
     <row r="18" spans="11:73">
       <c r="K18" s="100" t="s">
@@ -8204,7 +8284,7 @@
       </c>
     </row>
     <row r="19" spans="11:73">
-      <c r="K19" s="110" t="s">
+      <c r="K19" s="118" t="s">
         <v>5</v>
       </c>
       <c r="L19" s="6" t="s">
@@ -8249,7 +8329,7 @@
       <c r="Y19" s="15">
         <v>0.81799999999999995</v>
       </c>
-      <c r="AA19" s="110" t="s">
+      <c r="AA19" s="118" t="s">
         <v>5</v>
       </c>
       <c r="AB19" s="6" t="s">
@@ -8292,7 +8372,7 @@
       <c r="AO19" s="15">
         <v>0.81799999999999995</v>
       </c>
-      <c r="AQ19" s="110" t="s">
+      <c r="AQ19" s="118" t="s">
         <v>5</v>
       </c>
       <c r="AR19" s="6" t="s">
@@ -8333,7 +8413,7 @@
       <c r="BE19" s="21">
         <v>0.82099999999999995</v>
       </c>
-      <c r="BG19" s="110" t="s">
+      <c r="BG19" s="118" t="s">
         <v>5</v>
       </c>
       <c r="BH19" s="6" t="s">
@@ -8374,7 +8454,7 @@
       <c r="BU19" s="85"/>
     </row>
     <row r="20" spans="11:73">
-      <c r="K20" s="111"/>
+      <c r="K20" s="119"/>
       <c r="L20" s="63" t="s">
         <v>7</v>
       </c>
@@ -8417,7 +8497,7 @@
       <c r="Y20" s="22">
         <v>0.81299999999999994</v>
       </c>
-      <c r="AA20" s="111"/>
+      <c r="AA20" s="119"/>
       <c r="AB20" s="63" t="s">
         <v>7</v>
       </c>
@@ -8458,7 +8538,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="AO20" s="84"/>
-      <c r="AQ20" s="111"/>
+      <c r="AQ20" s="119"/>
       <c r="AR20" s="63" t="s">
         <v>7</v>
       </c>
@@ -8497,7 +8577,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="BE20" s="84"/>
-      <c r="BG20" s="111"/>
+      <c r="BG20" s="119"/>
       <c r="BH20" s="63" t="s">
         <v>7</v>
       </c>
@@ -8536,7 +8616,7 @@
       <c r="BU20" s="84"/>
     </row>
     <row r="21" spans="11:73">
-      <c r="K21" s="111"/>
+      <c r="K21" s="119"/>
       <c r="L21" s="7" t="s">
         <v>8</v>
       </c>
@@ -8579,7 +8659,7 @@
       <c r="Y21" s="17">
         <v>0.78800000000000003</v>
       </c>
-      <c r="AA21" s="111"/>
+      <c r="AA21" s="119"/>
       <c r="AB21" s="7" t="s">
         <v>8</v>
       </c>
@@ -8620,7 +8700,7 @@
       <c r="AO21" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="AQ21" s="111"/>
+      <c r="AQ21" s="119"/>
       <c r="AR21" s="7" t="s">
         <v>8</v>
       </c>
@@ -8659,7 +8739,7 @@
       <c r="BE21" s="17">
         <v>0.81599999999999995</v>
       </c>
-      <c r="BG21" s="111"/>
+      <c r="BG21" s="119"/>
       <c r="BH21" s="7" t="s">
         <v>8</v>
       </c>
@@ -8698,7 +8778,7 @@
       </c>
     </row>
     <row r="22" spans="11:73">
-      <c r="K22" s="123"/>
+      <c r="K22" s="131"/>
       <c r="L22" s="7" t="s">
         <v>9</v>
       </c>
@@ -8741,7 +8821,7 @@
       <c r="Y22" s="19">
         <v>0.80200000000000005</v>
       </c>
-      <c r="AA22" s="123"/>
+      <c r="AA22" s="131"/>
       <c r="AB22" s="7" t="s">
         <v>9</v>
       </c>
@@ -8773,7 +8853,7 @@
       <c r="AL22" s="19">
         <v>0.80400000000000005</v>
       </c>
-      <c r="AM22" s="127">
+      <c r="AM22" s="108">
         <v>0.80600000000000005</v>
       </c>
       <c r="AN22" s="19">
@@ -8782,7 +8862,7 @@
       <c r="AO22" s="19">
         <v>0.80300000000000005</v>
       </c>
-      <c r="AQ22" s="123"/>
+      <c r="AQ22" s="131"/>
       <c r="AR22" s="7" t="s">
         <v>9</v>
       </c>
@@ -8814,14 +8894,14 @@
       <c r="BB22" s="19">
         <v>0.75900000000000001</v>
       </c>
-      <c r="BC22" s="128"/>
+      <c r="BC22" s="109"/>
       <c r="BD22" s="19">
         <v>0.75</v>
       </c>
       <c r="BE22" s="19">
         <v>0.80300000000000005</v>
       </c>
-      <c r="BG22" s="123"/>
+      <c r="BG22" s="131"/>
       <c r="BH22" s="7" t="s">
         <v>9</v>
       </c>
@@ -8851,7 +8931,7 @@
       <c r="BR22" s="19">
         <v>0.75900000000000001</v>
       </c>
-      <c r="BS22" s="128"/>
+      <c r="BS22" s="109"/>
       <c r="BT22" s="19">
         <v>0.754</v>
       </c>
@@ -8860,7 +8940,7 @@
       </c>
     </row>
     <row r="23" spans="11:73">
-      <c r="K23" s="102" t="s">
+      <c r="K23" s="110" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="6" t="s">
@@ -8905,7 +8985,7 @@
       <c r="Y23" s="15">
         <v>0.81299999999999994</v>
       </c>
-      <c r="AA23" s="102" t="s">
+      <c r="AA23" s="110" t="s">
         <v>10</v>
       </c>
       <c r="AB23" s="6" t="s">
@@ -8948,7 +9028,7 @@
       <c r="AO23" s="15">
         <v>0.81</v>
       </c>
-      <c r="AQ23" s="102" t="s">
+      <c r="AQ23" s="110" t="s">
         <v>10</v>
       </c>
       <c r="AR23" s="6" t="s">
@@ -8989,7 +9069,7 @@
       <c r="BE23" s="15">
         <v>0.81799999999999995</v>
       </c>
-      <c r="BG23" s="102" t="s">
+      <c r="BG23" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BH23" s="6" t="s">
@@ -9020,7 +9100,7 @@
       <c r="BU23" s="15"/>
     </row>
     <row r="24" spans="11:73">
-      <c r="K24" s="103"/>
+      <c r="K24" s="111"/>
       <c r="L24" s="7" t="s">
         <v>7</v>
       </c>
@@ -9063,7 +9143,7 @@
       <c r="Y24" s="17">
         <v>0.80400000000000005</v>
       </c>
-      <c r="AA24" s="103"/>
+      <c r="AA24" s="111"/>
       <c r="AB24" s="7" t="s">
         <v>7</v>
       </c>
@@ -9104,7 +9184,7 @@
       <c r="AO24" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="AQ24" s="103"/>
+      <c r="AQ24" s="111"/>
       <c r="AR24" s="7" t="s">
         <v>7</v>
       </c>
@@ -9143,7 +9223,7 @@
       <c r="BE24" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="BG24" s="103"/>
+      <c r="BG24" s="111"/>
       <c r="BH24" s="7" t="s">
         <v>7</v>
       </c>
@@ -9182,7 +9262,7 @@
       </c>
     </row>
     <row r="25" spans="11:73">
-      <c r="K25" s="103"/>
+      <c r="K25" s="111"/>
       <c r="L25" s="7" t="s">
         <v>8</v>
       </c>
@@ -9225,7 +9305,7 @@
       <c r="Y25" s="17">
         <v>0.80800000000000005</v>
       </c>
-      <c r="AA25" s="103"/>
+      <c r="AA25" s="111"/>
       <c r="AB25" s="7" t="s">
         <v>8</v>
       </c>
@@ -9266,7 +9346,7 @@
       <c r="AO25" s="17">
         <v>0.81799999999999995</v>
       </c>
-      <c r="AQ25" s="103"/>
+      <c r="AQ25" s="111"/>
       <c r="AR25" s="7" t="s">
         <v>8</v>
       </c>
@@ -9305,7 +9385,7 @@
       <c r="BE25" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="BG25" s="103"/>
+      <c r="BG25" s="111"/>
       <c r="BH25" s="7" t="s">
         <v>8</v>
       </c>
@@ -9344,7 +9424,7 @@
       </c>
     </row>
     <row r="26" spans="11:73">
-      <c r="K26" s="104"/>
+      <c r="K26" s="112"/>
       <c r="L26" s="8" t="s">
         <v>9</v>
       </c>
@@ -9387,7 +9467,7 @@
       <c r="Y26" s="19">
         <v>0.80100000000000005</v>
       </c>
-      <c r="AA26" s="104"/>
+      <c r="AA26" s="112"/>
       <c r="AB26" s="8" t="s">
         <v>9</v>
       </c>
@@ -9428,7 +9508,7 @@
       <c r="AO26" s="19">
         <v>0.81299999999999994</v>
       </c>
-      <c r="AQ26" s="104"/>
+      <c r="AQ26" s="112"/>
       <c r="AR26" s="8" t="s">
         <v>9</v>
       </c>
@@ -9458,7 +9538,7 @@
       <c r="BB26" s="19">
         <v>0.81699999999999995</v>
       </c>
-      <c r="BC26" s="127">
+      <c r="BC26" s="108">
         <v>0.82199999999999995</v>
       </c>
       <c r="BD26" s="19">
@@ -9467,7 +9547,7 @@
       <c r="BE26" s="19">
         <v>0.82099999999999995</v>
       </c>
-      <c r="BG26" s="104"/>
+      <c r="BG26" s="112"/>
       <c r="BH26" s="8" t="s">
         <v>9</v>
       </c>
@@ -9497,7 +9577,7 @@
       <c r="BR26" s="19">
         <v>0.76100000000000001</v>
       </c>
-      <c r="BS26" s="128"/>
+      <c r="BS26" s="109"/>
       <c r="BT26" s="19">
         <v>0.67600000000000005</v>
       </c>
@@ -9506,7 +9586,7 @@
       </c>
     </row>
     <row r="27" spans="11:73">
-      <c r="K27" s="102" t="s">
+      <c r="K27" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L27" s="6" t="s">
@@ -9551,7 +9631,7 @@
       <c r="Y27" s="15">
         <v>0.80700000000000005</v>
       </c>
-      <c r="AA27" s="102" t="s">
+      <c r="AA27" s="110" t="s">
         <v>11</v>
       </c>
       <c r="AB27" s="6" t="s">
@@ -9594,7 +9674,7 @@
       <c r="AO27" s="15">
         <v>0.81699999999999995</v>
       </c>
-      <c r="AQ27" s="102" t="s">
+      <c r="AQ27" s="110" t="s">
         <v>11</v>
       </c>
       <c r="AR27" s="6" t="s">
@@ -9635,7 +9715,7 @@
       <c r="BE27" s="15">
         <v>0.81399999999999995</v>
       </c>
-      <c r="BG27" s="102" t="s">
+      <c r="BG27" s="110" t="s">
         <v>11</v>
       </c>
       <c r="BH27" s="6" t="s">
@@ -9676,7 +9756,7 @@
       </c>
     </row>
     <row r="28" spans="11:73">
-      <c r="K28" s="103"/>
+      <c r="K28" s="111"/>
       <c r="L28" s="7" t="s">
         <v>7</v>
       </c>
@@ -9719,7 +9799,7 @@
       <c r="Y28" s="17">
         <v>0.79900000000000004</v>
       </c>
-      <c r="AA28" s="103"/>
+      <c r="AA28" s="111"/>
       <c r="AB28" s="7" t="s">
         <v>7</v>
       </c>
@@ -9760,7 +9840,7 @@
       <c r="AO28" s="17">
         <v>0.80600000000000005</v>
       </c>
-      <c r="AQ28" s="103"/>
+      <c r="AQ28" s="111"/>
       <c r="AR28" s="7" t="s">
         <v>7</v>
       </c>
@@ -9799,7 +9879,7 @@
       <c r="BE28" s="17">
         <v>0.81599999999999995</v>
       </c>
-      <c r="BG28" s="103"/>
+      <c r="BG28" s="111"/>
       <c r="BH28" s="7" t="s">
         <v>7</v>
       </c>
@@ -9838,7 +9918,7 @@
       </c>
     </row>
     <row r="29" spans="11:73">
-      <c r="K29" s="103"/>
+      <c r="K29" s="111"/>
       <c r="L29" s="7" t="s">
         <v>8</v>
       </c>
@@ -9881,7 +9961,7 @@
       <c r="Y29" s="17">
         <v>0.80900000000000005</v>
       </c>
-      <c r="AA29" s="103"/>
+      <c r="AA29" s="111"/>
       <c r="AB29" s="7" t="s">
         <v>8</v>
       </c>
@@ -9922,7 +10002,7 @@
       <c r="AO29" s="17">
         <v>0.81200000000000006</v>
       </c>
-      <c r="AQ29" s="103"/>
+      <c r="AQ29" s="111"/>
       <c r="AR29" s="7" t="s">
         <v>8</v>
       </c>
@@ -9961,7 +10041,7 @@
       <c r="BE29" s="22">
         <v>0.82</v>
       </c>
-      <c r="BG29" s="103"/>
+      <c r="BG29" s="111"/>
       <c r="BH29" s="7" t="s">
         <v>8</v>
       </c>
@@ -10000,7 +10080,7 @@
       <c r="BU29" s="84"/>
     </row>
     <row r="30" spans="11:73">
-      <c r="K30" s="104"/>
+      <c r="K30" s="112"/>
       <c r="L30" s="8" t="s">
         <v>9</v>
       </c>
@@ -10043,7 +10123,7 @@
       <c r="Y30" s="19">
         <v>0.79700000000000004</v>
       </c>
-      <c r="AA30" s="104"/>
+      <c r="AA30" s="112"/>
       <c r="AB30" s="8" t="s">
         <v>9</v>
       </c>
@@ -10084,7 +10164,7 @@
       <c r="AO30" s="19">
         <v>0.80100000000000005</v>
       </c>
-      <c r="AQ30" s="104"/>
+      <c r="AQ30" s="112"/>
       <c r="AR30" s="8" t="s">
         <v>9</v>
       </c>
@@ -10123,7 +10203,7 @@
       <c r="BE30" s="19">
         <v>0.81200000000000006</v>
       </c>
-      <c r="BG30" s="104"/>
+      <c r="BG30" s="112"/>
       <c r="BH30" s="8" t="s">
         <v>9</v>
       </c>
@@ -10163,16 +10243,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="BG17:BH17"/>
-    <mergeCell ref="BI17:BU17"/>
-    <mergeCell ref="BG19:BG22"/>
-    <mergeCell ref="BG23:BG26"/>
-    <mergeCell ref="BG27:BG30"/>
-    <mergeCell ref="AC17:AO17"/>
-    <mergeCell ref="AA19:AA22"/>
-    <mergeCell ref="AA23:AA26"/>
-    <mergeCell ref="AA27:AA30"/>
-    <mergeCell ref="AQ17:AR17"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
     <mergeCell ref="AS17:BE17"/>
     <mergeCell ref="AQ19:AQ22"/>
     <mergeCell ref="AQ23:AQ26"/>
@@ -10183,12 +10259,16 @@
     <mergeCell ref="K23:K26"/>
     <mergeCell ref="K27:K30"/>
     <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="AC17:AO17"/>
+    <mergeCell ref="AA19:AA22"/>
+    <mergeCell ref="AA23:AA26"/>
+    <mergeCell ref="AA27:AA30"/>
+    <mergeCell ref="AQ17:AR17"/>
+    <mergeCell ref="BG17:BH17"/>
+    <mergeCell ref="BI17:BU17"/>
+    <mergeCell ref="BG19:BG22"/>
+    <mergeCell ref="BG23:BG26"/>
+    <mergeCell ref="BG27:BG30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10198,8 +10278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64011DA5-02EF-48AC-ACFA-FEAB6A3DC307}">
   <dimension ref="B2:FA59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:I59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10243,191 +10323,191 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:157" ht="14.5" customHeight="1">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="121" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="108" t="s">
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="118" t="s">
+      <c r="L2" s="124"/>
+      <c r="M2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="AA2" s="121" t="s">
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="AA2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="118" t="s">
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="119"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="119"/>
-      <c r="AH2" s="119"/>
-      <c r="AI2" s="119"/>
-      <c r="AJ2" s="119"/>
-      <c r="AK2" s="119"/>
-      <c r="AL2" s="119"/>
-      <c r="AM2" s="119"/>
-      <c r="AN2" s="119"/>
-      <c r="AO2" s="120"/>
-      <c r="AQ2" s="121" t="s">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
+      <c r="AM2" s="126"/>
+      <c r="AN2" s="126"/>
+      <c r="AO2" s="127"/>
+      <c r="AQ2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="118" t="s">
+      <c r="AR2" s="124"/>
+      <c r="AS2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="119"/>
-      <c r="AU2" s="119"/>
-      <c r="AV2" s="119"/>
-      <c r="AW2" s="119"/>
-      <c r="AX2" s="119"/>
-      <c r="AY2" s="119"/>
-      <c r="AZ2" s="119"/>
-      <c r="BA2" s="119"/>
-      <c r="BB2" s="119"/>
-      <c r="BC2" s="119"/>
-      <c r="BD2" s="119"/>
-      <c r="BE2" s="120"/>
-      <c r="BG2" s="121" t="s">
+      <c r="AT2" s="126"/>
+      <c r="AU2" s="126"/>
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
+      <c r="AX2" s="126"/>
+      <c r="AY2" s="126"/>
+      <c r="AZ2" s="126"/>
+      <c r="BA2" s="126"/>
+      <c r="BB2" s="126"/>
+      <c r="BC2" s="126"/>
+      <c r="BD2" s="126"/>
+      <c r="BE2" s="127"/>
+      <c r="BG2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="BH2" s="122"/>
-      <c r="BI2" s="118" t="s">
+      <c r="BH2" s="124"/>
+      <c r="BI2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="119"/>
-      <c r="BK2" s="119"/>
-      <c r="BL2" s="119"/>
-      <c r="BM2" s="119"/>
-      <c r="BN2" s="119"/>
-      <c r="BO2" s="119"/>
-      <c r="BP2" s="119"/>
-      <c r="BQ2" s="119"/>
-      <c r="BR2" s="119"/>
-      <c r="BS2" s="119"/>
-      <c r="BT2" s="119"/>
-      <c r="BU2" s="120"/>
-      <c r="BW2" s="121" t="s">
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="126"/>
+      <c r="BN2" s="126"/>
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
+      <c r="BR2" s="126"/>
+      <c r="BS2" s="126"/>
+      <c r="BT2" s="126"/>
+      <c r="BU2" s="127"/>
+      <c r="BW2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="BX2" s="122"/>
-      <c r="BY2" s="118" t="s">
+      <c r="BX2" s="124"/>
+      <c r="BY2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="BZ2" s="119"/>
-      <c r="CA2" s="119"/>
-      <c r="CB2" s="119"/>
-      <c r="CC2" s="119"/>
-      <c r="CD2" s="119"/>
-      <c r="CE2" s="119"/>
-      <c r="CF2" s="119"/>
-      <c r="CG2" s="119"/>
-      <c r="CH2" s="119"/>
-      <c r="CI2" s="119"/>
-      <c r="CJ2" s="119"/>
-      <c r="CK2" s="120"/>
-      <c r="CM2" s="121" t="s">
+      <c r="BZ2" s="126"/>
+      <c r="CA2" s="126"/>
+      <c r="CB2" s="126"/>
+      <c r="CC2" s="126"/>
+      <c r="CD2" s="126"/>
+      <c r="CE2" s="126"/>
+      <c r="CF2" s="126"/>
+      <c r="CG2" s="126"/>
+      <c r="CH2" s="126"/>
+      <c r="CI2" s="126"/>
+      <c r="CJ2" s="126"/>
+      <c r="CK2" s="127"/>
+      <c r="CM2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="CN2" s="122"/>
-      <c r="CO2" s="118" t="s">
+      <c r="CN2" s="124"/>
+      <c r="CO2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="CP2" s="119"/>
-      <c r="CQ2" s="119"/>
-      <c r="CR2" s="119"/>
-      <c r="CS2" s="119"/>
-      <c r="CT2" s="119"/>
-      <c r="CU2" s="119"/>
-      <c r="CV2" s="119"/>
-      <c r="CW2" s="119"/>
-      <c r="CX2" s="119"/>
-      <c r="CY2" s="119"/>
-      <c r="CZ2" s="119"/>
-      <c r="DA2" s="120"/>
-      <c r="DC2" s="121" t="s">
+      <c r="CP2" s="126"/>
+      <c r="CQ2" s="126"/>
+      <c r="CR2" s="126"/>
+      <c r="CS2" s="126"/>
+      <c r="CT2" s="126"/>
+      <c r="CU2" s="126"/>
+      <c r="CV2" s="126"/>
+      <c r="CW2" s="126"/>
+      <c r="CX2" s="126"/>
+      <c r="CY2" s="126"/>
+      <c r="CZ2" s="126"/>
+      <c r="DA2" s="127"/>
+      <c r="DC2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="DD2" s="122"/>
-      <c r="DE2" s="118" t="s">
+      <c r="DD2" s="124"/>
+      <c r="DE2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="DF2" s="119"/>
-      <c r="DG2" s="119"/>
-      <c r="DH2" s="119"/>
-      <c r="DI2" s="119"/>
-      <c r="DJ2" s="119"/>
-      <c r="DK2" s="119"/>
-      <c r="DL2" s="119"/>
-      <c r="DM2" s="119"/>
-      <c r="DN2" s="119"/>
-      <c r="DO2" s="119"/>
-      <c r="DP2" s="119"/>
-      <c r="DQ2" s="120"/>
-      <c r="DS2" s="121" t="s">
+      <c r="DF2" s="126"/>
+      <c r="DG2" s="126"/>
+      <c r="DH2" s="126"/>
+      <c r="DI2" s="126"/>
+      <c r="DJ2" s="126"/>
+      <c r="DK2" s="126"/>
+      <c r="DL2" s="126"/>
+      <c r="DM2" s="126"/>
+      <c r="DN2" s="126"/>
+      <c r="DO2" s="126"/>
+      <c r="DP2" s="126"/>
+      <c r="DQ2" s="127"/>
+      <c r="DS2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="DT2" s="122"/>
-      <c r="DU2" s="118" t="s">
+      <c r="DT2" s="124"/>
+      <c r="DU2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="DV2" s="119"/>
-      <c r="DW2" s="119"/>
-      <c r="DX2" s="119"/>
-      <c r="DY2" s="119"/>
-      <c r="DZ2" s="119"/>
-      <c r="EA2" s="119"/>
-      <c r="EB2" s="119"/>
-      <c r="EC2" s="119"/>
-      <c r="ED2" s="119"/>
-      <c r="EE2" s="119"/>
-      <c r="EF2" s="119"/>
-      <c r="EG2" s="120"/>
-      <c r="EI2" s="121" t="s">
+      <c r="DV2" s="126"/>
+      <c r="DW2" s="126"/>
+      <c r="DX2" s="126"/>
+      <c r="DY2" s="126"/>
+      <c r="DZ2" s="126"/>
+      <c r="EA2" s="126"/>
+      <c r="EB2" s="126"/>
+      <c r="EC2" s="126"/>
+      <c r="ED2" s="126"/>
+      <c r="EE2" s="126"/>
+      <c r="EF2" s="126"/>
+      <c r="EG2" s="127"/>
+      <c r="EI2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="EJ2" s="122"/>
-      <c r="EK2" s="118" t="s">
+      <c r="EJ2" s="124"/>
+      <c r="EK2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" s="119"/>
-      <c r="EM2" s="119"/>
-      <c r="EN2" s="119"/>
-      <c r="EO2" s="119"/>
-      <c r="EP2" s="119"/>
-      <c r="EQ2" s="119"/>
-      <c r="ER2" s="119"/>
-      <c r="ES2" s="119"/>
-      <c r="ET2" s="119"/>
-      <c r="EU2" s="119"/>
-      <c r="EV2" s="119"/>
-      <c r="EW2" s="120"/>
+      <c r="EL2" s="126"/>
+      <c r="EM2" s="126"/>
+      <c r="EN2" s="126"/>
+      <c r="EO2" s="126"/>
+      <c r="EP2" s="126"/>
+      <c r="EQ2" s="126"/>
+      <c r="ER2" s="126"/>
+      <c r="ES2" s="126"/>
+      <c r="ET2" s="126"/>
+      <c r="EU2" s="126"/>
+      <c r="EV2" s="126"/>
+      <c r="EW2" s="127"/>
     </row>
     <row r="3" spans="2:157">
       <c r="B3" s="66" t="s">
@@ -10451,7 +10531,7 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="109"/>
+      <c r="I3" s="117"/>
       <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
@@ -10868,7 +10948,7 @@
       </c>
     </row>
     <row r="4" spans="2:157">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -10892,7 +10972,7 @@
       <c r="I4" s="15">
         <v>0.78200000000000003</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -10938,7 +11018,7 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="Z4" s="33"/>
-      <c r="AA4" s="110" t="s">
+      <c r="AA4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="AB4" s="6" t="s">
@@ -10981,7 +11061,7 @@
       <c r="AO4" s="15">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AQ4" s="110" t="s">
+      <c r="AQ4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="AR4" s="59" t="s">
@@ -11022,7 +11102,7 @@
       <c r="BE4" s="15">
         <v>0.79600000000000004</v>
       </c>
-      <c r="BG4" s="110" t="s">
+      <c r="BG4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="BH4" s="52" t="s">
@@ -11061,7 +11141,7 @@
         <v>0.79</v>
       </c>
       <c r="BU4" s="48"/>
-      <c r="BW4" s="110" t="s">
+      <c r="BW4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="BX4" s="52" t="s">
@@ -11082,7 +11162,7 @@
       <c r="CI4" s="51"/>
       <c r="CJ4" s="48"/>
       <c r="CK4" s="48"/>
-      <c r="CM4" s="110" t="s">
+      <c r="CM4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="CN4" s="52" t="s">
@@ -11103,7 +11183,7 @@
       <c r="CY4" s="51"/>
       <c r="CZ4" s="48"/>
       <c r="DA4" s="48"/>
-      <c r="DC4" s="110" t="s">
+      <c r="DC4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="DD4" s="52" t="s">
@@ -11124,7 +11204,7 @@
       <c r="DO4" s="51"/>
       <c r="DP4" s="48"/>
       <c r="DQ4" s="48"/>
-      <c r="DS4" s="110" t="s">
+      <c r="DS4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="DT4" s="52" t="s">
@@ -11145,7 +11225,7 @@
       <c r="EE4" s="51"/>
       <c r="EF4" s="48"/>
       <c r="EG4" s="48"/>
-      <c r="EI4" s="110" t="s">
+      <c r="EI4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="EJ4" s="52" t="s">
@@ -11166,7 +11246,7 @@
       <c r="EU4" s="51"/>
       <c r="EV4" s="48"/>
       <c r="EW4" s="48"/>
-      <c r="EY4" s="115" t="s">
+      <c r="EY4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="EZ4" s="59" t="s">
@@ -11177,7 +11257,7 @@
       </c>
     </row>
     <row r="5" spans="2:157">
-      <c r="B5" s="111"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
@@ -11199,7 +11279,7 @@
       <c r="I5" s="22">
         <v>0.78800000000000003</v>
       </c>
-      <c r="K5" s="111"/>
+      <c r="K5" s="119"/>
       <c r="L5" s="7" t="s">
         <v>7</v>
       </c>
@@ -11242,7 +11322,7 @@
       <c r="Y5" s="17">
         <v>0.78400000000000003</v>
       </c>
-      <c r="AA5" s="111"/>
+      <c r="AA5" s="119"/>
       <c r="AB5" s="7" t="s">
         <v>7</v>
       </c>
@@ -11283,7 +11363,7 @@
       <c r="AO5" s="17">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AQ5" s="111"/>
+      <c r="AQ5" s="119"/>
       <c r="AR5" s="63" t="s">
         <v>7</v>
       </c>
@@ -11320,7 +11400,7 @@
       <c r="BE5" s="17">
         <v>0.77900000000000003</v>
       </c>
-      <c r="BG5" s="111"/>
+      <c r="BG5" s="119"/>
       <c r="BH5" s="7" t="s">
         <v>7</v>
       </c>
@@ -11357,7 +11437,7 @@
       <c r="BU5" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BW5" s="111"/>
+      <c r="BW5" s="119"/>
       <c r="BX5" s="7" t="s">
         <v>7</v>
       </c>
@@ -11392,7 +11472,7 @@
       <c r="CK5" s="10">
         <v>0.79400000000000004</v>
       </c>
-      <c r="CM5" s="111"/>
+      <c r="CM5" s="119"/>
       <c r="CN5" s="42" t="s">
         <v>7</v>
       </c>
@@ -11425,7 +11505,7 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="DA5" s="43"/>
-      <c r="DC5" s="111"/>
+      <c r="DC5" s="119"/>
       <c r="DD5" s="42" t="s">
         <v>7</v>
       </c>
@@ -11444,7 +11524,7 @@
       <c r="DO5" s="43"/>
       <c r="DP5" s="43"/>
       <c r="DQ5" s="43"/>
-      <c r="DS5" s="111"/>
+      <c r="DS5" s="119"/>
       <c r="DT5" s="42" t="s">
         <v>7</v>
       </c>
@@ -11463,7 +11543,7 @@
       <c r="EE5" s="43"/>
       <c r="EF5" s="43"/>
       <c r="EG5" s="43"/>
-      <c r="EI5" s="111"/>
+      <c r="EI5" s="119"/>
       <c r="EJ5" s="42" t="s">
         <v>7</v>
       </c>
@@ -11482,7 +11562,7 @@
       <c r="EU5" s="43"/>
       <c r="EV5" s="43"/>
       <c r="EW5" s="43"/>
-      <c r="EY5" s="116"/>
+      <c r="EY5" s="129"/>
       <c r="EZ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -11491,7 +11571,7 @@
       </c>
     </row>
     <row r="6" spans="2:157">
-      <c r="B6" s="111"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -11513,7 +11593,7 @@
       <c r="I6" s="22">
         <v>0.78900000000000003</v>
       </c>
-      <c r="K6" s="111"/>
+      <c r="K6" s="119"/>
       <c r="L6" s="7" t="s">
         <v>8</v>
       </c>
@@ -11556,7 +11636,7 @@
       <c r="Y6" s="17">
         <v>0.79</v>
       </c>
-      <c r="AA6" s="111"/>
+      <c r="AA6" s="119"/>
       <c r="AB6" s="7" t="s">
         <v>8</v>
       </c>
@@ -11597,7 +11677,7 @@
       <c r="AO6" s="17">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AQ6" s="111"/>
+      <c r="AQ6" s="119"/>
       <c r="AR6" s="63" t="s">
         <v>8</v>
       </c>
@@ -11632,7 +11712,7 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="BE6" s="17"/>
-      <c r="BG6" s="111"/>
+      <c r="BG6" s="119"/>
       <c r="BH6" s="42" t="s">
         <v>8</v>
       </c>
@@ -11651,7 +11731,7 @@
       <c r="BS6" s="43"/>
       <c r="BT6" s="43"/>
       <c r="BU6" s="43"/>
-      <c r="BW6" s="111"/>
+      <c r="BW6" s="119"/>
       <c r="BX6" s="42" t="s">
         <v>8</v>
       </c>
@@ -11670,7 +11750,7 @@
       <c r="CI6" s="43"/>
       <c r="CJ6" s="43"/>
       <c r="CK6" s="43"/>
-      <c r="CM6" s="111"/>
+      <c r="CM6" s="119"/>
       <c r="CN6" s="42" t="s">
         <v>8</v>
       </c>
@@ -11689,7 +11769,7 @@
       <c r="CY6" s="43"/>
       <c r="CZ6" s="43"/>
       <c r="DA6" s="43"/>
-      <c r="DC6" s="111"/>
+      <c r="DC6" s="119"/>
       <c r="DD6" s="42" t="s">
         <v>8</v>
       </c>
@@ -11708,7 +11788,7 @@
       <c r="DO6" s="43"/>
       <c r="DP6" s="43"/>
       <c r="DQ6" s="43"/>
-      <c r="DS6" s="111"/>
+      <c r="DS6" s="119"/>
       <c r="DT6" s="42" t="s">
         <v>8</v>
       </c>
@@ -11727,7 +11807,7 @@
       <c r="EE6" s="43"/>
       <c r="EF6" s="43"/>
       <c r="EG6" s="43"/>
-      <c r="EI6" s="111"/>
+      <c r="EI6" s="119"/>
       <c r="EJ6" s="42" t="s">
         <v>8</v>
       </c>
@@ -11746,7 +11826,7 @@
       <c r="EU6" s="43"/>
       <c r="EV6" s="43"/>
       <c r="EW6" s="43"/>
-      <c r="EY6" s="116"/>
+      <c r="EY6" s="129"/>
       <c r="EZ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -11755,7 +11835,7 @@
       </c>
     </row>
     <row r="7" spans="2:157">
-      <c r="B7" s="123"/>
+      <c r="B7" s="131"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -11777,7 +11857,7 @@
       <c r="I7" s="22">
         <v>0.78600000000000003</v>
       </c>
-      <c r="K7" s="123"/>
+      <c r="K7" s="131"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
@@ -11820,7 +11900,7 @@
       <c r="Y7" s="19">
         <v>0.78600000000000003</v>
       </c>
-      <c r="AA7" s="123"/>
+      <c r="AA7" s="131"/>
       <c r="AB7" s="7" t="s">
         <v>9</v>
       </c>
@@ -11861,7 +11941,7 @@
       <c r="AO7" s="19">
         <v>0.78400000000000003</v>
       </c>
-      <c r="AQ7" s="123"/>
+      <c r="AQ7" s="131"/>
       <c r="AR7" s="63" t="s">
         <v>9</v>
       </c>
@@ -11900,7 +11980,7 @@
       <c r="BE7" s="19">
         <v>0.78800000000000003</v>
       </c>
-      <c r="BG7" s="123"/>
+      <c r="BG7" s="131"/>
       <c r="BH7" s="7" t="s">
         <v>9</v>
       </c>
@@ -11937,7 +12017,7 @@
       <c r="BU7" s="19">
         <v>0.78100000000000003</v>
       </c>
-      <c r="BW7" s="123"/>
+      <c r="BW7" s="131"/>
       <c r="BX7" s="42" t="s">
         <v>9</v>
       </c>
@@ -11972,7 +12052,7 @@
       <c r="CK7" s="56">
         <v>0.78</v>
       </c>
-      <c r="CM7" s="123"/>
+      <c r="CM7" s="131"/>
       <c r="CN7" s="42" t="s">
         <v>9</v>
       </c>
@@ -11991,7 +12071,7 @@
       <c r="CY7" s="58"/>
       <c r="CZ7" s="56"/>
       <c r="DA7" s="56"/>
-      <c r="DC7" s="123"/>
+      <c r="DC7" s="131"/>
       <c r="DD7" s="42" t="s">
         <v>9</v>
       </c>
@@ -12010,7 +12090,7 @@
       <c r="DO7" s="58"/>
       <c r="DP7" s="56"/>
       <c r="DQ7" s="56"/>
-      <c r="DS7" s="123"/>
+      <c r="DS7" s="131"/>
       <c r="DT7" s="42" t="s">
         <v>9</v>
       </c>
@@ -12029,7 +12109,7 @@
       <c r="EE7" s="58"/>
       <c r="EF7" s="56"/>
       <c r="EG7" s="56"/>
-      <c r="EI7" s="123"/>
+      <c r="EI7" s="131"/>
       <c r="EJ7" s="42" t="s">
         <v>9</v>
       </c>
@@ -12048,7 +12128,7 @@
       <c r="EU7" s="58"/>
       <c r="EV7" s="56"/>
       <c r="EW7" s="56"/>
-      <c r="EY7" s="117"/>
+      <c r="EY7" s="130"/>
       <c r="EZ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -12057,7 +12137,7 @@
       </c>
     </row>
     <row r="8" spans="2:157" ht="14.5" customHeight="1">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -12081,7 +12161,7 @@
       <c r="I8" s="21">
         <v>0.77900000000000003</v>
       </c>
-      <c r="K8" s="102" t="s">
+      <c r="K8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -12126,7 +12206,7 @@
       <c r="Y8" s="15">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AA8" s="102" t="s">
+      <c r="AA8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="AB8" s="6" t="s">
@@ -12169,7 +12249,7 @@
       <c r="AO8" s="15">
         <v>0.78300000000000003</v>
       </c>
-      <c r="AQ8" s="102" t="s">
+      <c r="AQ8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="AR8" s="59" t="s">
@@ -12210,7 +12290,7 @@
       <c r="BE8" s="15">
         <v>0.78800000000000003</v>
       </c>
-      <c r="BG8" s="102" t="s">
+      <c r="BG8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BH8" s="6" t="s">
@@ -12249,7 +12329,7 @@
       <c r="BU8" s="15">
         <v>0.78600000000000003</v>
       </c>
-      <c r="BW8" s="102" t="s">
+      <c r="BW8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BX8" s="6" t="s">
@@ -12286,7 +12366,7 @@
       <c r="CK8" s="15">
         <v>0.78800000000000003</v>
       </c>
-      <c r="CM8" s="102" t="s">
+      <c r="CM8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="CN8" s="52" t="s">
@@ -12321,7 +12401,7 @@
       <c r="DA8" s="48">
         <v>0.79100000000000004</v>
       </c>
-      <c r="DC8" s="102" t="s">
+      <c r="DC8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="DD8" s="52" t="s">
@@ -12342,7 +12422,7 @@
       <c r="DO8" s="51"/>
       <c r="DP8" s="48"/>
       <c r="DQ8" s="48"/>
-      <c r="DS8" s="102" t="s">
+      <c r="DS8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="DT8" s="52" t="s">
@@ -12363,7 +12443,7 @@
       <c r="EE8" s="51"/>
       <c r="EF8" s="48"/>
       <c r="EG8" s="48"/>
-      <c r="EI8" s="102" t="s">
+      <c r="EI8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="EJ8" s="52" t="s">
@@ -12384,7 +12464,7 @@
       <c r="EU8" s="51"/>
       <c r="EV8" s="48"/>
       <c r="EW8" s="48"/>
-      <c r="EY8" s="112" t="s">
+      <c r="EY8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="EZ8" s="59" t="s">
@@ -12395,7 +12475,7 @@
       </c>
     </row>
     <row r="9" spans="2:157">
-      <c r="B9" s="103"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -12417,7 +12497,7 @@
       <c r="I9" s="17">
         <v>0.77700000000000002</v>
       </c>
-      <c r="K9" s="103"/>
+      <c r="K9" s="111"/>
       <c r="L9" s="7" t="s">
         <v>7</v>
       </c>
@@ -12460,7 +12540,7 @@
       <c r="Y9" s="17">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AA9" s="103"/>
+      <c r="AA9" s="111"/>
       <c r="AB9" s="7" t="s">
         <v>7</v>
       </c>
@@ -12501,7 +12581,7 @@
       <c r="AO9" s="17">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AQ9" s="103"/>
+      <c r="AQ9" s="111"/>
       <c r="AR9" s="63" t="s">
         <v>7</v>
       </c>
@@ -12540,7 +12620,7 @@
       <c r="BE9" s="17">
         <v>0.78800000000000003</v>
       </c>
-      <c r="BG9" s="103"/>
+      <c r="BG9" s="111"/>
       <c r="BH9" s="7" t="s">
         <v>7</v>
       </c>
@@ -12577,7 +12657,7 @@
       <c r="BU9" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BW9" s="103"/>
+      <c r="BW9" s="111"/>
       <c r="BX9" s="7" t="s">
         <v>7</v>
       </c>
@@ -12612,7 +12692,7 @@
       <c r="CK9" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="CM9" s="103"/>
+      <c r="CM9" s="111"/>
       <c r="CN9" s="7" t="s">
         <v>7</v>
       </c>
@@ -12645,7 +12725,7 @@
       <c r="DA9" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="DC9" s="103"/>
+      <c r="DC9" s="111"/>
       <c r="DD9" s="7" t="s">
         <v>7</v>
       </c>
@@ -12676,7 +12756,7 @@
       <c r="DQ9" s="10">
         <v>0.79100000000000004</v>
       </c>
-      <c r="DS9" s="103"/>
+      <c r="DS9" s="111"/>
       <c r="DT9" s="42" t="s">
         <v>7</v>
       </c>
@@ -12705,7 +12785,7 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="EG9" s="43"/>
-      <c r="EI9" s="103"/>
+      <c r="EI9" s="111"/>
       <c r="EJ9" s="42" t="s">
         <v>7</v>
       </c>
@@ -12724,7 +12804,7 @@
       <c r="EU9" s="46"/>
       <c r="EV9" s="43"/>
       <c r="EW9" s="43"/>
-      <c r="EY9" s="113"/>
+      <c r="EY9" s="121"/>
       <c r="EZ9" s="63" t="s">
         <v>7</v>
       </c>
@@ -12733,7 +12813,7 @@
       </c>
     </row>
     <row r="10" spans="2:157">
-      <c r="B10" s="103"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -12755,7 +12835,7 @@
       <c r="I10" s="22">
         <v>0.78</v>
       </c>
-      <c r="K10" s="103"/>
+      <c r="K10" s="111"/>
       <c r="L10" s="7" t="s">
         <v>8</v>
       </c>
@@ -12798,7 +12878,7 @@
       <c r="Y10" s="17">
         <v>0.78</v>
       </c>
-      <c r="AA10" s="103"/>
+      <c r="AA10" s="111"/>
       <c r="AB10" s="7" t="s">
         <v>8</v>
       </c>
@@ -12839,7 +12919,7 @@
       <c r="AO10" s="17">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AQ10" s="103"/>
+      <c r="AQ10" s="111"/>
       <c r="AR10" s="63" t="s">
         <v>8</v>
       </c>
@@ -12876,7 +12956,7 @@
       <c r="BE10" s="17">
         <v>0.78300000000000003</v>
       </c>
-      <c r="BG10" s="103"/>
+      <c r="BG10" s="111"/>
       <c r="BH10" s="42" t="s">
         <v>8</v>
       </c>
@@ -12895,7 +12975,7 @@
       <c r="BS10" s="46"/>
       <c r="BT10" s="43"/>
       <c r="BU10" s="43"/>
-      <c r="BW10" s="103"/>
+      <c r="BW10" s="111"/>
       <c r="BX10" s="42" t="s">
         <v>8</v>
       </c>
@@ -12914,7 +12994,7 @@
       <c r="CI10" s="46"/>
       <c r="CJ10" s="43"/>
       <c r="CK10" s="43"/>
-      <c r="CM10" s="103"/>
+      <c r="CM10" s="111"/>
       <c r="CN10" s="42" t="s">
         <v>8</v>
       </c>
@@ -12933,7 +13013,7 @@
       <c r="CY10" s="46"/>
       <c r="CZ10" s="43"/>
       <c r="DA10" s="43"/>
-      <c r="DC10" s="103"/>
+      <c r="DC10" s="111"/>
       <c r="DD10" s="42" t="s">
         <v>8</v>
       </c>
@@ -12952,7 +13032,7 @@
       <c r="DO10" s="46"/>
       <c r="DP10" s="43"/>
       <c r="DQ10" s="43"/>
-      <c r="DS10" s="103"/>
+      <c r="DS10" s="111"/>
       <c r="DT10" s="42" t="s">
         <v>8</v>
       </c>
@@ -12971,7 +13051,7 @@
       <c r="EE10" s="46"/>
       <c r="EF10" s="43"/>
       <c r="EG10" s="43"/>
-      <c r="EI10" s="103"/>
+      <c r="EI10" s="111"/>
       <c r="EJ10" s="42" t="s">
         <v>8</v>
       </c>
@@ -12990,7 +13070,7 @@
       <c r="EU10" s="46"/>
       <c r="EV10" s="43"/>
       <c r="EW10" s="43"/>
-      <c r="EY10" s="113"/>
+      <c r="EY10" s="121"/>
       <c r="EZ10" s="63" t="s">
         <v>8</v>
       </c>
@@ -12999,7 +13079,7 @@
       </c>
     </row>
     <row r="11" spans="2:157">
-      <c r="B11" s="104"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -13021,7 +13101,7 @@
       <c r="I11" s="24">
         <v>0.77900000000000003</v>
       </c>
-      <c r="K11" s="104"/>
+      <c r="K11" s="112"/>
       <c r="L11" s="8" t="s">
         <v>9</v>
       </c>
@@ -13064,7 +13144,7 @@
       <c r="Y11" s="19">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AA11" s="104"/>
+      <c r="AA11" s="112"/>
       <c r="AB11" s="8" t="s">
         <v>9</v>
       </c>
@@ -13105,7 +13185,7 @@
       <c r="AO11" s="19">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AQ11" s="104"/>
+      <c r="AQ11" s="112"/>
       <c r="AR11" s="64" t="s">
         <v>9</v>
       </c>
@@ -13144,7 +13224,7 @@
       <c r="BE11" s="19">
         <v>0.78600000000000003</v>
       </c>
-      <c r="BG11" s="104"/>
+      <c r="BG11" s="112"/>
       <c r="BH11" s="8" t="s">
         <v>9</v>
       </c>
@@ -13181,7 +13261,7 @@
       <c r="BU11" s="19">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BW11" s="104"/>
+      <c r="BW11" s="112"/>
       <c r="BX11" s="8" t="s">
         <v>9</v>
       </c>
@@ -13216,7 +13296,7 @@
       <c r="CK11" s="19">
         <v>0.78900000000000003</v>
       </c>
-      <c r="CM11" s="104"/>
+      <c r="CM11" s="112"/>
       <c r="CN11" s="8" t="s">
         <v>9</v>
       </c>
@@ -13249,7 +13329,7 @@
       <c r="DA11" s="14">
         <v>0.78900000000000003</v>
       </c>
-      <c r="DC11" s="104"/>
+      <c r="DC11" s="112"/>
       <c r="DD11" s="60" t="s">
         <v>9</v>
       </c>
@@ -13280,7 +13360,7 @@
         <v>0.61299999999999999</v>
       </c>
       <c r="DQ11" s="56"/>
-      <c r="DS11" s="104"/>
+      <c r="DS11" s="112"/>
       <c r="DT11" s="60" t="s">
         <v>9</v>
       </c>
@@ -13299,7 +13379,7 @@
       <c r="EE11" s="58"/>
       <c r="EF11" s="56"/>
       <c r="EG11" s="56"/>
-      <c r="EI11" s="104"/>
+      <c r="EI11" s="112"/>
       <c r="EJ11" s="60" t="s">
         <v>9</v>
       </c>
@@ -13318,7 +13398,7 @@
       <c r="EU11" s="58"/>
       <c r="EV11" s="56"/>
       <c r="EW11" s="56"/>
-      <c r="EY11" s="114"/>
+      <c r="EY11" s="122"/>
       <c r="EZ11" s="64" t="s">
         <v>9</v>
       </c>
@@ -13327,7 +13407,7 @@
       </c>
     </row>
     <row r="12" spans="2:157" ht="14.5" customHeight="1">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -13351,7 +13431,7 @@
       <c r="I12" s="21">
         <v>0.77900000000000003</v>
       </c>
-      <c r="K12" s="102" t="s">
+      <c r="K12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -13396,7 +13476,7 @@
       <c r="Y12" s="15">
         <v>0.77700000000000002</v>
       </c>
-      <c r="AA12" s="102" t="s">
+      <c r="AA12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="AB12" s="6" t="s">
@@ -13439,7 +13519,7 @@
       <c r="AO12" s="15">
         <v>0.78700000000000003</v>
       </c>
-      <c r="AQ12" s="102" t="s">
+      <c r="AQ12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="AR12" s="6" t="s">
@@ -13480,7 +13560,7 @@
       <c r="BE12" s="15">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BG12" s="102" t="s">
+      <c r="BG12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="BH12" s="6" t="s">
@@ -13519,7 +13599,7 @@
       <c r="BU12" s="15">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BW12" s="102" t="s">
+      <c r="BW12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="BX12" s="59" t="s">
@@ -13556,7 +13636,7 @@
       <c r="CK12" s="15">
         <v>0.78700000000000003</v>
       </c>
-      <c r="CM12" s="102" t="s">
+      <c r="CM12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="CN12" s="59" t="s">
@@ -13591,7 +13671,7 @@
       <c r="DA12" s="15">
         <v>0.78600000000000003</v>
       </c>
-      <c r="DC12" s="102" t="s">
+      <c r="DC12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="DD12" s="59" t="s">
@@ -13624,7 +13704,7 @@
       <c r="DQ12" s="15">
         <v>0.8</v>
       </c>
-      <c r="DS12" s="102" t="s">
+      <c r="DS12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="DT12" s="59" t="s">
@@ -13655,7 +13735,7 @@
       <c r="EG12" s="12">
         <v>0.80100000000000005</v>
       </c>
-      <c r="EI12" s="102" t="s">
+      <c r="EI12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="EJ12" s="59" t="s">
@@ -13684,7 +13764,7 @@
       </c>
       <c r="EV12" s="35"/>
       <c r="EW12" s="35"/>
-      <c r="EY12" s="112" t="s">
+      <c r="EY12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="EZ12" s="59" t="s">
@@ -13695,7 +13775,7 @@
       </c>
     </row>
     <row r="13" spans="2:157">
-      <c r="B13" s="103"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
@@ -13717,7 +13797,7 @@
       <c r="I13" s="22">
         <v>0.78100000000000003</v>
       </c>
-      <c r="K13" s="103"/>
+      <c r="K13" s="111"/>
       <c r="L13" s="7" t="s">
         <v>7</v>
       </c>
@@ -13760,7 +13840,7 @@
       <c r="Y13" s="17">
         <v>0.77700000000000002</v>
       </c>
-      <c r="AA13" s="103"/>
+      <c r="AA13" s="111"/>
       <c r="AB13" s="7" t="s">
         <v>7</v>
       </c>
@@ -13801,7 +13881,7 @@
       <c r="AO13" s="17">
         <v>0.78600000000000003</v>
       </c>
-      <c r="AQ13" s="103"/>
+      <c r="AQ13" s="111"/>
       <c r="AR13" s="7" t="s">
         <v>7</v>
       </c>
@@ -13840,7 +13920,7 @@
       <c r="BE13" s="17">
         <v>0.78600000000000003</v>
       </c>
-      <c r="BG13" s="103"/>
+      <c r="BG13" s="111"/>
       <c r="BH13" s="7" t="s">
         <v>7</v>
       </c>
@@ -13877,7 +13957,7 @@
       <c r="BU13" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BW13" s="103"/>
+      <c r="BW13" s="111"/>
       <c r="BX13" s="7" t="s">
         <v>7</v>
       </c>
@@ -13912,7 +13992,7 @@
       <c r="CK13" s="10">
         <v>0.79900000000000004</v>
       </c>
-      <c r="CM13" s="103"/>
+      <c r="CM13" s="111"/>
       <c r="CN13" s="42" t="s">
         <v>7</v>
       </c>
@@ -13945,7 +14025,7 @@
       </c>
       <c r="CZ13" s="43"/>
       <c r="DA13" s="43"/>
-      <c r="DC13" s="103"/>
+      <c r="DC13" s="111"/>
       <c r="DD13" s="42" t="s">
         <v>7</v>
       </c>
@@ -13964,7 +14044,7 @@
       <c r="DO13" s="46"/>
       <c r="DP13" s="43"/>
       <c r="DQ13" s="43"/>
-      <c r="DS13" s="103"/>
+      <c r="DS13" s="111"/>
       <c r="DT13" s="42" t="s">
         <v>7</v>
       </c>
@@ -13983,7 +14063,7 @@
       <c r="EE13" s="46"/>
       <c r="EF13" s="43"/>
       <c r="EG13" s="43"/>
-      <c r="EI13" s="103"/>
+      <c r="EI13" s="111"/>
       <c r="EJ13" s="42" t="s">
         <v>7</v>
       </c>
@@ -14002,7 +14082,7 @@
       <c r="EU13" s="46"/>
       <c r="EV13" s="43"/>
       <c r="EW13" s="43"/>
-      <c r="EY13" s="113"/>
+      <c r="EY13" s="121"/>
       <c r="EZ13" s="63" t="s">
         <v>7</v>
       </c>
@@ -14011,7 +14091,7 @@
       </c>
     </row>
     <row r="14" spans="2:157">
-      <c r="B14" s="103"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -14033,7 +14113,7 @@
       <c r="I14" s="22">
         <v>0.78300000000000003</v>
       </c>
-      <c r="K14" s="103"/>
+      <c r="K14" s="111"/>
       <c r="L14" s="7" t="s">
         <v>8</v>
       </c>
@@ -14076,7 +14156,7 @@
       <c r="Y14" s="17">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AA14" s="103"/>
+      <c r="AA14" s="111"/>
       <c r="AB14" s="7" t="s">
         <v>8</v>
       </c>
@@ -14117,7 +14197,7 @@
       <c r="AO14" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="AQ14" s="103"/>
+      <c r="AQ14" s="111"/>
       <c r="AR14" s="7" t="s">
         <v>8</v>
       </c>
@@ -14156,7 +14236,7 @@
       <c r="BE14" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="BG14" s="103"/>
+      <c r="BG14" s="111"/>
       <c r="BH14" s="7" t="s">
         <v>8</v>
       </c>
@@ -14193,7 +14273,7 @@
       <c r="BU14" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="BW14" s="103"/>
+      <c r="BW14" s="111"/>
       <c r="BX14" s="7" t="s">
         <v>8</v>
       </c>
@@ -14228,7 +14308,7 @@
       <c r="CK14" s="17">
         <v>0.79200000000000004</v>
       </c>
-      <c r="CM14" s="103"/>
+      <c r="CM14" s="111"/>
       <c r="CN14" s="7" t="s">
         <v>8</v>
       </c>
@@ -14261,7 +14341,7 @@
       <c r="DA14" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="DC14" s="103"/>
+      <c r="DC14" s="111"/>
       <c r="DD14" s="42" t="s">
         <v>8</v>
       </c>
@@ -14292,7 +14372,7 @@
       <c r="DQ14" s="43">
         <v>0.79800000000000004</v>
       </c>
-      <c r="DS14" s="103"/>
+      <c r="DS14" s="111"/>
       <c r="DT14" s="42" t="s">
         <v>8</v>
       </c>
@@ -14311,7 +14391,7 @@
       <c r="EE14" s="46"/>
       <c r="EF14" s="43"/>
       <c r="EG14" s="43"/>
-      <c r="EI14" s="103"/>
+      <c r="EI14" s="111"/>
       <c r="EJ14" s="42" t="s">
         <v>8</v>
       </c>
@@ -14330,7 +14410,7 @@
       <c r="EU14" s="46"/>
       <c r="EV14" s="43"/>
       <c r="EW14" s="43"/>
-      <c r="EY14" s="113"/>
+      <c r="EY14" s="121"/>
       <c r="EZ14" s="63" t="s">
         <v>8</v>
       </c>
@@ -14339,7 +14419,7 @@
       </c>
     </row>
     <row r="15" spans="2:157">
-      <c r="B15" s="104"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -14361,7 +14441,7 @@
       <c r="I15" s="24">
         <v>0.78100000000000003</v>
       </c>
-      <c r="K15" s="104"/>
+      <c r="K15" s="112"/>
       <c r="L15" s="8" t="s">
         <v>9</v>
       </c>
@@ -14404,7 +14484,7 @@
       <c r="Y15" s="19">
         <v>0.78200000000000003</v>
       </c>
-      <c r="AA15" s="104"/>
+      <c r="AA15" s="112"/>
       <c r="AB15" s="8" t="s">
         <v>9</v>
       </c>
@@ -14445,7 +14525,7 @@
       <c r="AO15" s="19">
         <v>0.78200000000000003</v>
       </c>
-      <c r="AQ15" s="104"/>
+      <c r="AQ15" s="112"/>
       <c r="AR15" s="8" t="s">
         <v>9</v>
       </c>
@@ -14484,7 +14564,7 @@
       <c r="BE15" s="19">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BG15" s="104"/>
+      <c r="BG15" s="112"/>
       <c r="BH15" s="8" t="s">
         <v>9</v>
       </c>
@@ -14521,7 +14601,7 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="BU15" s="47"/>
-      <c r="BW15" s="104"/>
+      <c r="BW15" s="112"/>
       <c r="BX15" s="8" t="s">
         <v>9</v>
       </c>
@@ -14556,7 +14636,7 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="CK15" s="47"/>
-      <c r="CM15" s="104"/>
+      <c r="CM15" s="112"/>
       <c r="CN15" s="8" t="s">
         <v>9</v>
       </c>
@@ -14589,7 +14669,7 @@
       </c>
       <c r="CZ15" s="47"/>
       <c r="DA15" s="47"/>
-      <c r="DC15" s="104"/>
+      <c r="DC15" s="112"/>
       <c r="DD15" s="60" t="s">
         <v>9</v>
       </c>
@@ -14620,7 +14700,7 @@
       </c>
       <c r="DP15" s="56"/>
       <c r="DQ15" s="56"/>
-      <c r="DS15" s="104"/>
+      <c r="DS15" s="112"/>
       <c r="DT15" s="60" t="s">
         <v>9</v>
       </c>
@@ -14639,7 +14719,7 @@
       <c r="EE15" s="58"/>
       <c r="EF15" s="56"/>
       <c r="EG15" s="56"/>
-      <c r="EI15" s="104"/>
+      <c r="EI15" s="112"/>
       <c r="EJ15" s="60" t="s">
         <v>9</v>
       </c>
@@ -14658,7 +14738,7 @@
       <c r="EU15" s="58"/>
       <c r="EV15" s="56"/>
       <c r="EW15" s="56"/>
-      <c r="EY15" s="114"/>
+      <c r="EY15" s="122"/>
       <c r="EZ15" s="64" t="s">
         <v>9</v>
       </c>
@@ -15188,19 +15268,32 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="EK2:EW2"/>
-    <mergeCell ref="EI4:EI7"/>
-    <mergeCell ref="EI8:EI11"/>
-    <mergeCell ref="EI12:EI15"/>
-    <mergeCell ref="EY4:EY7"/>
-    <mergeCell ref="EY8:EY11"/>
-    <mergeCell ref="EY12:EY15"/>
-    <mergeCell ref="EI2:EJ2"/>
-    <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="DU2:EG2"/>
-    <mergeCell ref="DS4:DS7"/>
-    <mergeCell ref="DS8:DS11"/>
-    <mergeCell ref="DS12:DS15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:Y2"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="BI2:BU2"/>
+    <mergeCell ref="BG4:BG7"/>
+    <mergeCell ref="BG8:BG11"/>
+    <mergeCell ref="BG12:BG15"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AO2"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AA8:AA11"/>
+    <mergeCell ref="AA12:AA15"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:BE2"/>
+    <mergeCell ref="AQ4:AQ7"/>
+    <mergeCell ref="AQ8:AQ11"/>
+    <mergeCell ref="AQ12:AQ15"/>
+    <mergeCell ref="BG2:BH2"/>
     <mergeCell ref="DE2:DQ2"/>
     <mergeCell ref="DC4:DC7"/>
     <mergeCell ref="DC8:DC11"/>
@@ -15216,32 +15309,19 @@
     <mergeCell ref="CM8:CM11"/>
     <mergeCell ref="CM12:CM15"/>
     <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="BI2:BU2"/>
-    <mergeCell ref="BG4:BG7"/>
-    <mergeCell ref="BG8:BG11"/>
-    <mergeCell ref="BG12:BG15"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AO2"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AA8:AA11"/>
-    <mergeCell ref="AA12:AA15"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:BE2"/>
-    <mergeCell ref="AQ4:AQ7"/>
-    <mergeCell ref="AQ8:AQ11"/>
-    <mergeCell ref="AQ12:AQ15"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:Y2"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="DS2:DT2"/>
+    <mergeCell ref="DU2:EG2"/>
+    <mergeCell ref="DS4:DS7"/>
+    <mergeCell ref="DS8:DS11"/>
+    <mergeCell ref="DS12:DS15"/>
+    <mergeCell ref="EK2:EW2"/>
+    <mergeCell ref="EI4:EI7"/>
+    <mergeCell ref="EI8:EI11"/>
+    <mergeCell ref="EI12:EI15"/>
+    <mergeCell ref="EY4:EY7"/>
+    <mergeCell ref="EY8:EY11"/>
+    <mergeCell ref="EY12:EY15"/>
+    <mergeCell ref="EI2:EJ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -15253,24 +15333,24 @@
   <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B2" sqref="B2:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="108" t="s">
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116" t="s">
         <v>1</v>
       </c>
     </row>
@@ -15296,10 +15376,10 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="109"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -15325,7 +15405,7 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="111"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
@@ -15349,7 +15429,7 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="111"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -15373,7 +15453,7 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="111"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -15397,7 +15477,7 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -15423,7 +15503,7 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="103"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -15447,7 +15527,7 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="103"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -15471,7 +15551,7 @@
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="104"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -15495,7 +15575,7 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -15521,7 +15601,7 @@
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="103"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
@@ -15545,7 +15625,7 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="103"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -15569,7 +15649,7 @@
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="104"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -15610,7 +15690,7 @@
   <dimension ref="A2:GC28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15654,210 +15734,210 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:185">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="108" t="s">
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="118" t="s">
+      <c r="L2" s="124"/>
+      <c r="M2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="AA2" s="121" t="s">
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="AA2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="118" t="s">
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="119"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="119"/>
-      <c r="AH2" s="119"/>
-      <c r="AI2" s="119"/>
-      <c r="AJ2" s="119"/>
-      <c r="AK2" s="119"/>
-      <c r="AL2" s="119"/>
-      <c r="AM2" s="119"/>
-      <c r="AN2" s="119"/>
-      <c r="AO2" s="120"/>
-      <c r="AQ2" s="121" t="s">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
+      <c r="AM2" s="126"/>
+      <c r="AN2" s="126"/>
+      <c r="AO2" s="127"/>
+      <c r="AQ2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="118" t="s">
+      <c r="AR2" s="124"/>
+      <c r="AS2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="119"/>
-      <c r="AU2" s="119"/>
-      <c r="AV2" s="119"/>
-      <c r="AW2" s="119"/>
-      <c r="AX2" s="119"/>
-      <c r="AY2" s="119"/>
-      <c r="AZ2" s="119"/>
-      <c r="BA2" s="119"/>
-      <c r="BB2" s="119"/>
-      <c r="BC2" s="119"/>
-      <c r="BD2" s="119"/>
-      <c r="BE2" s="120"/>
-      <c r="BG2" s="121" t="s">
+      <c r="AT2" s="126"/>
+      <c r="AU2" s="126"/>
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
+      <c r="AX2" s="126"/>
+      <c r="AY2" s="126"/>
+      <c r="AZ2" s="126"/>
+      <c r="BA2" s="126"/>
+      <c r="BB2" s="126"/>
+      <c r="BC2" s="126"/>
+      <c r="BD2" s="126"/>
+      <c r="BE2" s="127"/>
+      <c r="BG2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="BH2" s="122"/>
-      <c r="BI2" s="118" t="s">
+      <c r="BH2" s="124"/>
+      <c r="BI2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="119"/>
-      <c r="BK2" s="119"/>
-      <c r="BL2" s="119"/>
-      <c r="BM2" s="119"/>
-      <c r="BN2" s="119"/>
-      <c r="BO2" s="119"/>
-      <c r="BP2" s="119"/>
-      <c r="BQ2" s="119"/>
-      <c r="BR2" s="119"/>
-      <c r="BS2" s="119"/>
-      <c r="BT2" s="119"/>
-      <c r="BU2" s="120"/>
-      <c r="BW2" s="121" t="s">
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="126"/>
+      <c r="BN2" s="126"/>
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
+      <c r="BR2" s="126"/>
+      <c r="BS2" s="126"/>
+      <c r="BT2" s="126"/>
+      <c r="BU2" s="127"/>
+      <c r="BW2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="BX2" s="122"/>
-      <c r="BY2" s="118" t="s">
+      <c r="BX2" s="124"/>
+      <c r="BY2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="BZ2" s="119"/>
-      <c r="CA2" s="119"/>
-      <c r="CB2" s="119"/>
-      <c r="CC2" s="119"/>
-      <c r="CD2" s="119"/>
-      <c r="CE2" s="119"/>
-      <c r="CF2" s="119"/>
-      <c r="CG2" s="119"/>
-      <c r="CH2" s="119"/>
-      <c r="CI2" s="119"/>
-      <c r="CJ2" s="119"/>
-      <c r="CK2" s="120"/>
-      <c r="CM2" s="121" t="s">
+      <c r="BZ2" s="126"/>
+      <c r="CA2" s="126"/>
+      <c r="CB2" s="126"/>
+      <c r="CC2" s="126"/>
+      <c r="CD2" s="126"/>
+      <c r="CE2" s="126"/>
+      <c r="CF2" s="126"/>
+      <c r="CG2" s="126"/>
+      <c r="CH2" s="126"/>
+      <c r="CI2" s="126"/>
+      <c r="CJ2" s="126"/>
+      <c r="CK2" s="127"/>
+      <c r="CM2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="CN2" s="122"/>
-      <c r="CO2" s="118" t="s">
+      <c r="CN2" s="124"/>
+      <c r="CO2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="CP2" s="119"/>
-      <c r="CQ2" s="119"/>
-      <c r="CR2" s="119"/>
-      <c r="CS2" s="119"/>
-      <c r="CT2" s="119"/>
-      <c r="CU2" s="119"/>
-      <c r="CV2" s="119"/>
-      <c r="CW2" s="119"/>
-      <c r="CX2" s="119"/>
-      <c r="CY2" s="119"/>
-      <c r="CZ2" s="119"/>
-      <c r="DA2" s="120"/>
-      <c r="DC2" s="121" t="s">
+      <c r="CP2" s="126"/>
+      <c r="CQ2" s="126"/>
+      <c r="CR2" s="126"/>
+      <c r="CS2" s="126"/>
+      <c r="CT2" s="126"/>
+      <c r="CU2" s="126"/>
+      <c r="CV2" s="126"/>
+      <c r="CW2" s="126"/>
+      <c r="CX2" s="126"/>
+      <c r="CY2" s="126"/>
+      <c r="CZ2" s="126"/>
+      <c r="DA2" s="127"/>
+      <c r="DC2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="DD2" s="122"/>
-      <c r="DE2" s="118" t="s">
+      <c r="DD2" s="124"/>
+      <c r="DE2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="DF2" s="119"/>
-      <c r="DG2" s="119"/>
-      <c r="DH2" s="119"/>
-      <c r="DI2" s="119"/>
-      <c r="DJ2" s="119"/>
-      <c r="DK2" s="119"/>
-      <c r="DL2" s="119"/>
-      <c r="DM2" s="119"/>
-      <c r="DN2" s="119"/>
-      <c r="DO2" s="119"/>
-      <c r="DP2" s="119"/>
-      <c r="DQ2" s="120"/>
-      <c r="DS2" s="121" t="s">
+      <c r="DF2" s="126"/>
+      <c r="DG2" s="126"/>
+      <c r="DH2" s="126"/>
+      <c r="DI2" s="126"/>
+      <c r="DJ2" s="126"/>
+      <c r="DK2" s="126"/>
+      <c r="DL2" s="126"/>
+      <c r="DM2" s="126"/>
+      <c r="DN2" s="126"/>
+      <c r="DO2" s="126"/>
+      <c r="DP2" s="126"/>
+      <c r="DQ2" s="127"/>
+      <c r="DS2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="DT2" s="122"/>
-      <c r="DU2" s="118" t="s">
+      <c r="DT2" s="124"/>
+      <c r="DU2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="DV2" s="119"/>
-      <c r="DW2" s="119"/>
-      <c r="DX2" s="119"/>
-      <c r="DY2" s="119"/>
-      <c r="DZ2" s="119"/>
-      <c r="EA2" s="119"/>
-      <c r="EB2" s="119"/>
-      <c r="EC2" s="119"/>
-      <c r="ED2" s="119"/>
-      <c r="EE2" s="119"/>
-      <c r="EF2" s="119"/>
-      <c r="EG2" s="120"/>
-      <c r="EI2" s="121" t="s">
+      <c r="DV2" s="126"/>
+      <c r="DW2" s="126"/>
+      <c r="DX2" s="126"/>
+      <c r="DY2" s="126"/>
+      <c r="DZ2" s="126"/>
+      <c r="EA2" s="126"/>
+      <c r="EB2" s="126"/>
+      <c r="EC2" s="126"/>
+      <c r="ED2" s="126"/>
+      <c r="EE2" s="126"/>
+      <c r="EF2" s="126"/>
+      <c r="EG2" s="127"/>
+      <c r="EI2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="EJ2" s="122"/>
-      <c r="EK2" s="118" t="s">
+      <c r="EJ2" s="124"/>
+      <c r="EK2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" s="119"/>
-      <c r="EM2" s="119"/>
-      <c r="EN2" s="119"/>
-      <c r="EO2" s="119"/>
-      <c r="EP2" s="119"/>
-      <c r="EQ2" s="119"/>
-      <c r="ER2" s="119"/>
-      <c r="ES2" s="119"/>
-      <c r="ET2" s="119"/>
-      <c r="EU2" s="119"/>
-      <c r="EV2" s="119"/>
-      <c r="EW2" s="120"/>
-      <c r="EY2" s="121" t="s">
+      <c r="EL2" s="126"/>
+      <c r="EM2" s="126"/>
+      <c r="EN2" s="126"/>
+      <c r="EO2" s="126"/>
+      <c r="EP2" s="126"/>
+      <c r="EQ2" s="126"/>
+      <c r="ER2" s="126"/>
+      <c r="ES2" s="126"/>
+      <c r="ET2" s="126"/>
+      <c r="EU2" s="126"/>
+      <c r="EV2" s="126"/>
+      <c r="EW2" s="127"/>
+      <c r="EY2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="EZ2" s="122"/>
-      <c r="FA2" s="118" t="s">
+      <c r="EZ2" s="124"/>
+      <c r="FA2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="FB2" s="119"/>
-      <c r="FC2" s="119"/>
-      <c r="FD2" s="119"/>
-      <c r="FE2" s="119"/>
-      <c r="FF2" s="119"/>
-      <c r="FG2" s="119"/>
-      <c r="FH2" s="119"/>
-      <c r="FI2" s="119"/>
-      <c r="FJ2" s="119"/>
-      <c r="FK2" s="119"/>
-      <c r="FL2" s="119"/>
-      <c r="FM2" s="120"/>
+      <c r="FB2" s="126"/>
+      <c r="FC2" s="126"/>
+      <c r="FD2" s="126"/>
+      <c r="FE2" s="126"/>
+      <c r="FF2" s="126"/>
+      <c r="FG2" s="126"/>
+      <c r="FH2" s="126"/>
+      <c r="FI2" s="126"/>
+      <c r="FJ2" s="126"/>
+      <c r="FK2" s="126"/>
+      <c r="FL2" s="126"/>
+      <c r="FM2" s="127"/>
       <c r="FO2" s="99"/>
       <c r="FP2" s="99"/>
       <c r="FQ2" s="98"/>
@@ -15896,7 +15976,7 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="109"/>
+      <c r="I3" s="117"/>
       <c r="K3" s="100" t="s">
         <v>3</v>
       </c>
@@ -16374,7 +16454,7 @@
     </row>
     <row r="4" spans="1:185" s="25" customFormat="1">
       <c r="A4"/>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -16387,7 +16467,7 @@
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4"/>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -16433,7 +16513,7 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="Z4" s="33"/>
-      <c r="AA4" s="115" t="s">
+      <c r="AA4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="AB4" s="59" t="s">
@@ -16476,7 +16556,7 @@
       <c r="AO4" s="15">
         <v>0.81899999999999995</v>
       </c>
-      <c r="AQ4" s="115" t="s">
+      <c r="AQ4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="AR4" s="59" t="s">
@@ -16517,7 +16597,7 @@
       <c r="BE4" s="15">
         <v>0.81799999999999995</v>
       </c>
-      <c r="BG4" s="115" t="s">
+      <c r="BG4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="BH4" s="59" t="s">
@@ -16556,7 +16636,7 @@
       <c r="BU4" s="21">
         <v>0.82299999999999995</v>
       </c>
-      <c r="BW4" s="115" t="s">
+      <c r="BW4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="BX4" s="59" t="s">
@@ -16593,7 +16673,7 @@
       </c>
       <c r="CJ4" s="85"/>
       <c r="CK4" s="85"/>
-      <c r="CM4" s="115" t="s">
+      <c r="CM4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="CN4" s="59" t="s">
@@ -16628,7 +16708,7 @@
       </c>
       <c r="CZ4" s="85"/>
       <c r="DA4" s="85"/>
-      <c r="DC4" s="115" t="s">
+      <c r="DC4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="DD4" s="59" t="s">
@@ -16661,7 +16741,7 @@
       </c>
       <c r="DP4" s="85"/>
       <c r="DQ4" s="85"/>
-      <c r="DS4" s="115" t="s">
+      <c r="DS4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="DT4" s="59" t="s">
@@ -16692,7 +16772,7 @@
       </c>
       <c r="EF4" s="85"/>
       <c r="EG4" s="85"/>
-      <c r="EI4" s="115" t="s">
+      <c r="EI4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="EJ4" s="59" t="s">
@@ -16721,7 +16801,7 @@
       </c>
       <c r="EV4" s="85"/>
       <c r="EW4" s="85"/>
-      <c r="EY4" s="115" t="s">
+      <c r="EY4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="EZ4" s="59" t="s">
@@ -16748,7 +16828,7 @@
       </c>
       <c r="FL4" s="85"/>
       <c r="FM4" s="85"/>
-      <c r="FO4" s="115" t="s">
+      <c r="FO4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="FP4" s="59" t="s">
@@ -16771,7 +16851,7 @@
       <c r="GC4" s="33"/>
     </row>
     <row r="5" spans="1:185" s="25" customFormat="1">
-      <c r="B5" s="111"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="63" t="s">
         <v>7</v>
       </c>
@@ -16781,7 +16861,7 @@
       <c r="G5" s="69"/>
       <c r="H5" s="70"/>
       <c r="I5" s="70"/>
-      <c r="K5" s="111"/>
+      <c r="K5" s="119"/>
       <c r="L5" s="63" t="s">
         <v>7</v>
       </c>
@@ -16824,7 +16904,7 @@
       <c r="Y5" s="22">
         <v>0.81299999999999994</v>
       </c>
-      <c r="AA5" s="116"/>
+      <c r="AA5" s="129"/>
       <c r="AB5" s="63" t="s">
         <v>7</v>
       </c>
@@ -16865,7 +16945,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="AO5" s="84"/>
-      <c r="AQ5" s="116"/>
+      <c r="AQ5" s="129"/>
       <c r="AR5" s="63" t="s">
         <v>7</v>
       </c>
@@ -16904,7 +16984,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="BE5" s="84"/>
-      <c r="BG5" s="116"/>
+      <c r="BG5" s="129"/>
       <c r="BH5" s="63" t="s">
         <v>7</v>
       </c>
@@ -16941,7 +17021,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="BU5" s="84"/>
-      <c r="BW5" s="116"/>
+      <c r="BW5" s="129"/>
       <c r="BX5" s="63" t="s">
         <v>7</v>
       </c>
@@ -16976,7 +17056,7 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="CK5" s="84"/>
-      <c r="CM5" s="116"/>
+      <c r="CM5" s="129"/>
       <c r="CN5" s="63" t="s">
         <v>7</v>
       </c>
@@ -17009,7 +17089,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="DA5" s="84"/>
-      <c r="DC5" s="116"/>
+      <c r="DC5" s="129"/>
       <c r="DD5" s="63" t="s">
         <v>7</v>
       </c>
@@ -17040,7 +17120,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="DQ5" s="84"/>
-      <c r="DS5" s="116"/>
+      <c r="DS5" s="129"/>
       <c r="DT5" s="63" t="s">
         <v>7</v>
       </c>
@@ -17069,7 +17149,7 @@
       </c>
       <c r="EF5" s="84"/>
       <c r="EG5" s="84"/>
-      <c r="EI5" s="116"/>
+      <c r="EI5" s="129"/>
       <c r="EJ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -17096,7 +17176,7 @@
       </c>
       <c r="EV5" s="84"/>
       <c r="EW5" s="84"/>
-      <c r="EY5" s="116"/>
+      <c r="EY5" s="129"/>
       <c r="EZ5" s="63" t="s">
         <v>7</v>
       </c>
@@ -17121,7 +17201,7 @@
       </c>
       <c r="FL5" s="84"/>
       <c r="FM5" s="84"/>
-      <c r="FO5" s="116"/>
+      <c r="FO5" s="129"/>
       <c r="FP5" s="63" t="s">
         <v>7</v>
       </c>
@@ -17143,7 +17223,7 @@
     </row>
     <row r="6" spans="1:185" s="25" customFormat="1">
       <c r="A6"/>
-      <c r="B6" s="111"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -17154,7 +17234,7 @@
       <c r="H6" s="70"/>
       <c r="I6" s="70"/>
       <c r="J6"/>
-      <c r="K6" s="111"/>
+      <c r="K6" s="119"/>
       <c r="L6" s="7" t="s">
         <v>8</v>
       </c>
@@ -17197,7 +17277,7 @@
       <c r="Y6" s="17">
         <v>0.752</v>
       </c>
-      <c r="AA6" s="116"/>
+      <c r="AA6" s="129"/>
       <c r="AB6" s="63" t="s">
         <v>8</v>
       </c>
@@ -17238,7 +17318,7 @@
       <c r="AO6" s="17">
         <v>0.75700000000000001</v>
       </c>
-      <c r="AQ6" s="116"/>
+      <c r="AQ6" s="129"/>
       <c r="AR6" s="63" t="s">
         <v>8</v>
       </c>
@@ -17277,7 +17357,7 @@
       <c r="BE6" s="17">
         <v>0.78900000000000003</v>
       </c>
-      <c r="BG6" s="116"/>
+      <c r="BG6" s="129"/>
       <c r="BH6" s="63" t="s">
         <v>8</v>
       </c>
@@ -17314,7 +17394,7 @@
       <c r="BU6" s="22">
         <v>0.82199999999999995</v>
       </c>
-      <c r="BW6" s="116"/>
+      <c r="BW6" s="129"/>
       <c r="BX6" s="63" t="s">
         <v>8</v>
       </c>
@@ -17349,7 +17429,7 @@
         <v>0.79</v>
       </c>
       <c r="CK6" s="84"/>
-      <c r="CM6" s="116"/>
+      <c r="CM6" s="129"/>
       <c r="CN6" s="63" t="s">
         <v>8</v>
       </c>
@@ -17382,7 +17462,7 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="DA6" s="84"/>
-      <c r="DC6" s="116"/>
+      <c r="DC6" s="129"/>
       <c r="DD6" s="63" t="s">
         <v>8</v>
       </c>
@@ -17413,7 +17493,7 @@
         <v>0.76619999999999999</v>
       </c>
       <c r="DQ6" s="84"/>
-      <c r="DS6" s="116"/>
+      <c r="DS6" s="129"/>
       <c r="DT6" s="63" t="s">
         <v>8</v>
       </c>
@@ -17442,7 +17522,7 @@
         <v>0.752</v>
       </c>
       <c r="EG6" s="84"/>
-      <c r="EI6" s="116"/>
+      <c r="EI6" s="129"/>
       <c r="EJ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -17469,7 +17549,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="EW6" s="84"/>
-      <c r="EY6" s="116"/>
+      <c r="EY6" s="129"/>
       <c r="EZ6" s="63" t="s">
         <v>8</v>
       </c>
@@ -17494,7 +17574,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="FM6" s="84"/>
-      <c r="FO6" s="116"/>
+      <c r="FO6" s="129"/>
       <c r="FP6" s="63" t="s">
         <v>8</v>
       </c>
@@ -17516,7 +17596,7 @@
     </row>
     <row r="7" spans="1:185" s="25" customFormat="1">
       <c r="A7"/>
-      <c r="B7" s="111"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -17527,7 +17607,7 @@
       <c r="H7" s="70"/>
       <c r="I7" s="70"/>
       <c r="J7"/>
-      <c r="K7" s="123"/>
+      <c r="K7" s="131"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
@@ -17570,7 +17650,7 @@
       <c r="Y7" s="19">
         <v>0.79300000000000004</v>
       </c>
-      <c r="AA7" s="117"/>
+      <c r="AA7" s="130"/>
       <c r="AB7" s="63" t="s">
         <v>9</v>
       </c>
@@ -17611,7 +17691,7 @@
       <c r="AO7" s="19">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AQ7" s="117"/>
+      <c r="AQ7" s="130"/>
       <c r="AR7" s="63" t="s">
         <v>9</v>
       </c>
@@ -17650,7 +17730,7 @@
       <c r="BE7" s="19">
         <v>0.79700000000000004</v>
       </c>
-      <c r="BG7" s="117"/>
+      <c r="BG7" s="130"/>
       <c r="BH7" s="63" t="s">
         <v>9</v>
       </c>
@@ -17687,7 +17767,7 @@
       <c r="BU7" s="19">
         <v>0.80200000000000005</v>
       </c>
-      <c r="BW7" s="117"/>
+      <c r="BW7" s="130"/>
       <c r="BX7" s="63" t="s">
         <v>9</v>
       </c>
@@ -17722,7 +17802,7 @@
       <c r="CK7" s="19">
         <v>0.8</v>
       </c>
-      <c r="CM7" s="117"/>
+      <c r="CM7" s="130"/>
       <c r="CN7" s="63" t="s">
         <v>9</v>
       </c>
@@ -17755,7 +17835,7 @@
       <c r="DA7" s="19">
         <v>0.81399999999999995</v>
       </c>
-      <c r="DC7" s="117"/>
+      <c r="DC7" s="130"/>
       <c r="DD7" s="63" t="s">
         <v>9</v>
       </c>
@@ -17786,7 +17866,7 @@
       <c r="DQ7" s="24">
         <v>0.80100000000000005</v>
       </c>
-      <c r="DS7" s="117"/>
+      <c r="DS7" s="130"/>
       <c r="DT7" s="63" t="s">
         <v>9</v>
       </c>
@@ -17815,7 +17895,7 @@
       </c>
       <c r="EF7" s="88"/>
       <c r="EG7" s="88"/>
-      <c r="EI7" s="117"/>
+      <c r="EI7" s="130"/>
       <c r="EJ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -17842,7 +17922,7 @@
       </c>
       <c r="EV7" s="88"/>
       <c r="EW7" s="88"/>
-      <c r="EY7" s="117"/>
+      <c r="EY7" s="130"/>
       <c r="EZ7" s="63" t="s">
         <v>9</v>
       </c>
@@ -17867,7 +17947,7 @@
       </c>
       <c r="FL7" s="88"/>
       <c r="FM7" s="88"/>
-      <c r="FO7" s="117"/>
+      <c r="FO7" s="130"/>
       <c r="FP7" s="63" t="s">
         <v>9</v>
       </c>
@@ -17888,7 +17968,7 @@
       <c r="GC7" s="33"/>
     </row>
     <row r="8" spans="1:185" ht="14.5" customHeight="1">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -17900,7 +17980,7 @@
       <c r="G8" s="67"/>
       <c r="H8" s="68"/>
       <c r="I8" s="68"/>
-      <c r="K8" s="102" t="s">
+      <c r="K8" s="110" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -17946,7 +18026,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="Z8" s="25"/>
-      <c r="AA8" s="112" t="s">
+      <c r="AA8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="AB8" s="59" t="s">
@@ -17990,7 +18070,7 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="AP8" s="25"/>
-      <c r="AQ8" s="112" t="s">
+      <c r="AQ8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="AR8" s="59" t="s">
@@ -18032,7 +18112,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="BF8" s="25"/>
-      <c r="BG8" s="112" t="s">
+      <c r="BG8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="BH8" s="59" t="s">
@@ -18072,7 +18152,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="BV8" s="25"/>
-      <c r="BW8" s="112" t="s">
+      <c r="BW8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="BX8" s="59" t="s">
@@ -18110,7 +18190,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="CL8" s="25"/>
-      <c r="CM8" s="112" t="s">
+      <c r="CM8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="CN8" s="59" t="s">
@@ -18146,7 +18226,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="DB8" s="25"/>
-      <c r="DC8" s="112" t="s">
+      <c r="DC8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="DD8" s="59" t="s">
@@ -18180,7 +18260,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="DR8" s="25"/>
-      <c r="DS8" s="112" t="s">
+      <c r="DS8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="DT8" s="59" t="s">
@@ -18212,7 +18292,7 @@
         <v>0.746</v>
       </c>
       <c r="EH8" s="25"/>
-      <c r="EI8" s="112" t="s">
+      <c r="EI8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="EJ8" s="59" t="s">
@@ -18242,7 +18322,7 @@
         <v>0.74199999999999999</v>
       </c>
       <c r="EX8" s="25"/>
-      <c r="EY8" s="112" t="s">
+      <c r="EY8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="EZ8" s="59" t="s">
@@ -18269,7 +18349,7 @@
       <c r="FM8" s="15">
         <v>0.74199999999999999</v>
       </c>
-      <c r="FO8" s="112" t="s">
+      <c r="FO8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="FP8" s="59" t="s">
@@ -18292,7 +18372,7 @@
       <c r="GC8" s="33"/>
     </row>
     <row r="9" spans="1:185">
-      <c r="B9" s="103"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -18302,7 +18382,7 @@
       <c r="G9" s="69"/>
       <c r="H9" s="70"/>
       <c r="I9" s="70"/>
-      <c r="K9" s="103"/>
+      <c r="K9" s="111"/>
       <c r="L9" s="7" t="s">
         <v>7</v>
       </c>
@@ -18346,7 +18426,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="Z9" s="25"/>
-      <c r="AA9" s="113"/>
+      <c r="AA9" s="121"/>
       <c r="AB9" s="63" t="s">
         <v>7</v>
       </c>
@@ -18388,7 +18468,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="AP9" s="25"/>
-      <c r="AQ9" s="113"/>
+      <c r="AQ9" s="121"/>
       <c r="AR9" s="63" t="s">
         <v>7</v>
       </c>
@@ -18428,7 +18508,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="BF9" s="25"/>
-      <c r="BG9" s="113"/>
+      <c r="BG9" s="121"/>
       <c r="BH9" s="63" t="s">
         <v>7</v>
       </c>
@@ -18466,7 +18546,7 @@
         <v>0.82</v>
       </c>
       <c r="BV9" s="25"/>
-      <c r="BW9" s="113"/>
+      <c r="BW9" s="121"/>
       <c r="BX9" s="63" t="s">
         <v>7</v>
       </c>
@@ -18502,7 +18582,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="CL9" s="25"/>
-      <c r="CM9" s="113"/>
+      <c r="CM9" s="121"/>
       <c r="CN9" s="63" t="s">
         <v>7</v>
       </c>
@@ -18536,7 +18616,7 @@
       </c>
       <c r="DA9" s="84"/>
       <c r="DB9" s="25"/>
-      <c r="DC9" s="113"/>
+      <c r="DC9" s="121"/>
       <c r="DD9" s="63" t="s">
         <v>7</v>
       </c>
@@ -18568,7 +18648,7 @@
       </c>
       <c r="DQ9" s="84"/>
       <c r="DR9" s="25"/>
-      <c r="DS9" s="113"/>
+      <c r="DS9" s="121"/>
       <c r="DT9" s="63" t="s">
         <v>7</v>
       </c>
@@ -18598,7 +18678,7 @@
       </c>
       <c r="EG9" s="84"/>
       <c r="EH9" s="25"/>
-      <c r="EI9" s="113"/>
+      <c r="EI9" s="121"/>
       <c r="EJ9" s="63" t="s">
         <v>7</v>
       </c>
@@ -18626,7 +18706,7 @@
       </c>
       <c r="EW9" s="84"/>
       <c r="EX9" s="25"/>
-      <c r="EY9" s="113"/>
+      <c r="EY9" s="121"/>
       <c r="EZ9" s="63" t="s">
         <v>7</v>
       </c>
@@ -18651,7 +18731,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="FM9" s="84"/>
-      <c r="FO9" s="113"/>
+      <c r="FO9" s="121"/>
       <c r="FP9" s="63" t="s">
         <v>7</v>
       </c>
@@ -18672,7 +18752,7 @@
       <c r="GC9" s="33"/>
     </row>
     <row r="10" spans="1:185">
-      <c r="B10" s="103"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -18682,7 +18762,7 @@
       <c r="G10" s="69"/>
       <c r="H10" s="70"/>
       <c r="I10" s="70"/>
-      <c r="K10" s="103"/>
+      <c r="K10" s="111"/>
       <c r="L10" s="7" t="s">
         <v>8</v>
       </c>
@@ -18726,7 +18806,7 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="Z10" s="25"/>
-      <c r="AA10" s="113"/>
+      <c r="AA10" s="121"/>
       <c r="AB10" s="63" t="s">
         <v>8</v>
       </c>
@@ -18768,7 +18848,7 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="AP10" s="25"/>
-      <c r="AQ10" s="113"/>
+      <c r="AQ10" s="121"/>
       <c r="AR10" s="63" t="s">
         <v>8</v>
       </c>
@@ -18808,7 +18888,7 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="BF10" s="25"/>
-      <c r="BG10" s="113"/>
+      <c r="BG10" s="121"/>
       <c r="BH10" s="63" t="s">
         <v>8</v>
       </c>
@@ -18846,7 +18926,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="BV10" s="25"/>
-      <c r="BW10" s="113"/>
+      <c r="BW10" s="121"/>
       <c r="BX10" s="63" t="s">
         <v>8</v>
       </c>
@@ -18882,7 +18962,7 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="CL10" s="25"/>
-      <c r="CM10" s="113"/>
+      <c r="CM10" s="121"/>
       <c r="CN10" s="63" t="s">
         <v>8</v>
       </c>
@@ -18916,7 +18996,7 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="DB10" s="25"/>
-      <c r="DC10" s="113"/>
+      <c r="DC10" s="121"/>
       <c r="DD10" s="63" t="s">
         <v>8</v>
       </c>
@@ -18948,7 +19028,7 @@
       </c>
       <c r="DQ10" s="84"/>
       <c r="DR10" s="25"/>
-      <c r="DS10" s="113"/>
+      <c r="DS10" s="121"/>
       <c r="DT10" s="63" t="s">
         <v>8</v>
       </c>
@@ -18978,7 +19058,7 @@
       </c>
       <c r="EG10" s="84"/>
       <c r="EH10" s="25"/>
-      <c r="EI10" s="113"/>
+      <c r="EI10" s="121"/>
       <c r="EJ10" s="63" t="s">
         <v>8</v>
       </c>
@@ -19006,7 +19086,7 @@
       </c>
       <c r="EW10" s="84"/>
       <c r="EX10" s="25"/>
-      <c r="EY10" s="113"/>
+      <c r="EY10" s="121"/>
       <c r="EZ10" s="63" t="s">
         <v>8</v>
       </c>
@@ -19031,7 +19111,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="FM10" s="84"/>
-      <c r="FO10" s="113"/>
+      <c r="FO10" s="121"/>
       <c r="FP10" s="63" t="s">
         <v>8</v>
       </c>
@@ -19052,7 +19132,7 @@
       <c r="GC10" s="33"/>
     </row>
     <row r="11" spans="1:185">
-      <c r="B11" s="104"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -19062,7 +19142,7 @@
       <c r="G11" s="71"/>
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
-      <c r="K11" s="104"/>
+      <c r="K11" s="112"/>
       <c r="L11" s="8" t="s">
         <v>9</v>
       </c>
@@ -19106,7 +19186,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="114"/>
+      <c r="AA11" s="122"/>
       <c r="AB11" s="64" t="s">
         <v>9</v>
       </c>
@@ -19148,7 +19228,7 @@
         <v>0.81299999999999994</v>
       </c>
       <c r="AP11" s="25"/>
-      <c r="AQ11" s="114"/>
+      <c r="AQ11" s="122"/>
       <c r="AR11" s="64" t="s">
         <v>9</v>
       </c>
@@ -19188,7 +19268,7 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="BF11" s="25"/>
-      <c r="BG11" s="114"/>
+      <c r="BG11" s="122"/>
       <c r="BH11" s="64" t="s">
         <v>9</v>
       </c>
@@ -19226,7 +19306,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="BV11" s="25"/>
-      <c r="BW11" s="114"/>
+      <c r="BW11" s="122"/>
       <c r="BX11" s="64" t="s">
         <v>9</v>
       </c>
@@ -19262,7 +19342,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="CL11" s="25"/>
-      <c r="CM11" s="114"/>
+      <c r="CM11" s="122"/>
       <c r="CN11" s="64" t="s">
         <v>9</v>
       </c>
@@ -19296,7 +19376,7 @@
       <c r="CZ11" s="88"/>
       <c r="DA11" s="88"/>
       <c r="DB11" s="25"/>
-      <c r="DC11" s="114"/>
+      <c r="DC11" s="122"/>
       <c r="DD11" s="64" t="s">
         <v>9</v>
       </c>
@@ -19328,7 +19408,7 @@
       <c r="DP11" s="88"/>
       <c r="DQ11" s="88"/>
       <c r="DR11" s="25"/>
-      <c r="DS11" s="114"/>
+      <c r="DS11" s="122"/>
       <c r="DT11" s="64" t="s">
         <v>9</v>
       </c>
@@ -19358,7 +19438,7 @@
       <c r="EF11" s="88"/>
       <c r="EG11" s="88"/>
       <c r="EH11" s="25"/>
-      <c r="EI11" s="114"/>
+      <c r="EI11" s="122"/>
       <c r="EJ11" s="64" t="s">
         <v>9</v>
       </c>
@@ -19386,7 +19466,7 @@
       <c r="EV11" s="88"/>
       <c r="EW11" s="88"/>
       <c r="EX11" s="25"/>
-      <c r="EY11" s="114"/>
+      <c r="EY11" s="122"/>
       <c r="EZ11" s="64" t="s">
         <v>9</v>
       </c>
@@ -19411,7 +19491,7 @@
       </c>
       <c r="FL11" s="88"/>
       <c r="FM11" s="88"/>
-      <c r="FO11" s="114"/>
+      <c r="FO11" s="122"/>
       <c r="FP11" s="64" t="s">
         <v>9</v>
       </c>
@@ -19432,7 +19512,7 @@
       <c r="GC11" s="33"/>
     </row>
     <row r="12" spans="1:185" ht="14.5" customHeight="1">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -19444,7 +19524,7 @@
       <c r="G12" s="67"/>
       <c r="H12" s="68"/>
       <c r="I12" s="68"/>
-      <c r="K12" s="102" t="s">
+      <c r="K12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -19490,7 +19570,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="Z12" s="25"/>
-      <c r="AA12" s="112" t="s">
+      <c r="AA12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="AB12" s="59" t="s">
@@ -19534,7 +19614,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="AP12" s="25"/>
-      <c r="AQ12" s="112" t="s">
+      <c r="AQ12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="AR12" s="59" t="s">
@@ -19576,7 +19656,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="BF12" s="25"/>
-      <c r="BG12" s="112" t="s">
+      <c r="BG12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="BH12" s="59" t="s">
@@ -19616,7 +19696,7 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="BV12" s="25"/>
-      <c r="BW12" s="112" t="s">
+      <c r="BW12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="BX12" s="59" t="s">
@@ -19654,7 +19734,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="CL12" s="25"/>
-      <c r="CM12" s="112" t="s">
+      <c r="CM12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="CN12" s="59" t="s">
@@ -19690,7 +19770,7 @@
       <c r="CZ12" s="85"/>
       <c r="DA12" s="85"/>
       <c r="DB12" s="25"/>
-      <c r="DC12" s="112" t="s">
+      <c r="DC12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="DD12" s="59" t="s">
@@ -19724,7 +19804,7 @@
       <c r="DP12" s="85"/>
       <c r="DQ12" s="85"/>
       <c r="DR12" s="25"/>
-      <c r="DS12" s="112" t="s">
+      <c r="DS12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="DT12" s="59" t="s">
@@ -19756,7 +19836,7 @@
       <c r="EF12" s="85"/>
       <c r="EG12" s="85"/>
       <c r="EH12" s="25"/>
-      <c r="EI12" s="112" t="s">
+      <c r="EI12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="EJ12" s="59" t="s">
@@ -19786,7 +19866,7 @@
       <c r="EV12" s="85"/>
       <c r="EW12" s="85"/>
       <c r="EX12" s="25"/>
-      <c r="EY12" s="112" t="s">
+      <c r="EY12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="EZ12" s="59" t="s">
@@ -19813,7 +19893,7 @@
       </c>
       <c r="FL12" s="85"/>
       <c r="FM12" s="85"/>
-      <c r="FO12" s="112" t="s">
+      <c r="FO12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="FP12" s="59" t="s">
@@ -19836,7 +19916,7 @@
       <c r="GC12" s="33"/>
     </row>
     <row r="13" spans="1:185">
-      <c r="B13" s="103"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
@@ -19846,7 +19926,7 @@
       <c r="G13" s="69"/>
       <c r="H13" s="70"/>
       <c r="I13" s="70"/>
-      <c r="K13" s="103"/>
+      <c r="K13" s="111"/>
       <c r="L13" s="7" t="s">
         <v>7</v>
       </c>
@@ -19890,7 +19970,7 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="Z13" s="25"/>
-      <c r="AA13" s="113"/>
+      <c r="AA13" s="121"/>
       <c r="AB13" s="63" t="s">
         <v>7</v>
       </c>
@@ -19932,7 +20012,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="AP13" s="25"/>
-      <c r="AQ13" s="113"/>
+      <c r="AQ13" s="121"/>
       <c r="AR13" s="63" t="s">
         <v>7</v>
       </c>
@@ -19972,7 +20052,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="BF13" s="25"/>
-      <c r="BG13" s="113"/>
+      <c r="BG13" s="121"/>
       <c r="BH13" s="63" t="s">
         <v>7</v>
       </c>
@@ -20010,7 +20090,7 @@
         <v>0.82</v>
       </c>
       <c r="BV13" s="25"/>
-      <c r="BW13" s="113"/>
+      <c r="BW13" s="121"/>
       <c r="BX13" s="63" t="s">
         <v>7</v>
       </c>
@@ -20046,7 +20126,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="CL13" s="25"/>
-      <c r="CM13" s="113"/>
+      <c r="CM13" s="121"/>
       <c r="CN13" s="63" t="s">
         <v>7</v>
       </c>
@@ -20080,7 +20160,7 @@
       </c>
       <c r="DA13" s="84"/>
       <c r="DB13" s="25"/>
-      <c r="DC13" s="113"/>
+      <c r="DC13" s="121"/>
       <c r="DD13" s="63" t="s">
         <v>7</v>
       </c>
@@ -20112,7 +20192,7 @@
       </c>
       <c r="DQ13" s="84"/>
       <c r="DR13" s="25"/>
-      <c r="DS13" s="113"/>
+      <c r="DS13" s="121"/>
       <c r="DT13" s="63" t="s">
         <v>7</v>
       </c>
@@ -20142,7 +20222,7 @@
       </c>
       <c r="EG13" s="84"/>
       <c r="EH13" s="25"/>
-      <c r="EI13" s="113"/>
+      <c r="EI13" s="121"/>
       <c r="EJ13" s="63" t="s">
         <v>7</v>
       </c>
@@ -20170,7 +20250,7 @@
       </c>
       <c r="EW13" s="84"/>
       <c r="EX13" s="25"/>
-      <c r="EY13" s="113"/>
+      <c r="EY13" s="121"/>
       <c r="EZ13" s="63" t="s">
         <v>7</v>
       </c>
@@ -20195,7 +20275,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="FM13" s="84"/>
-      <c r="FO13" s="113"/>
+      <c r="FO13" s="121"/>
       <c r="FP13" s="63" t="s">
         <v>7</v>
       </c>
@@ -20216,7 +20296,7 @@
       <c r="GC13" s="33"/>
     </row>
     <row r="14" spans="1:185">
-      <c r="B14" s="103"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -20226,7 +20306,7 @@
       <c r="G14" s="69"/>
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
-      <c r="K14" s="103"/>
+      <c r="K14" s="111"/>
       <c r="L14" s="7" t="s">
         <v>8</v>
       </c>
@@ -20270,7 +20350,7 @@
         <v>0.76</v>
       </c>
       <c r="Z14" s="25"/>
-      <c r="AA14" s="113"/>
+      <c r="AA14" s="121"/>
       <c r="AB14" s="63" t="s">
         <v>8</v>
       </c>
@@ -20312,7 +20392,7 @@
         <v>0.77100000000000002</v>
       </c>
       <c r="AP14" s="25"/>
-      <c r="AQ14" s="113"/>
+      <c r="AQ14" s="121"/>
       <c r="AR14" s="63" t="s">
         <v>8</v>
       </c>
@@ -20352,7 +20432,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="BF14" s="25"/>
-      <c r="BG14" s="113"/>
+      <c r="BG14" s="121"/>
       <c r="BH14" s="63" t="s">
         <v>8</v>
       </c>
@@ -20390,7 +20470,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="BV14" s="25"/>
-      <c r="BW14" s="113"/>
+      <c r="BW14" s="121"/>
       <c r="BX14" s="63" t="s">
         <v>8</v>
       </c>
@@ -20426,7 +20506,7 @@
       </c>
       <c r="CK14" s="84"/>
       <c r="CL14" s="25"/>
-      <c r="CM14" s="113"/>
+      <c r="CM14" s="121"/>
       <c r="CN14" s="63" t="s">
         <v>8</v>
       </c>
@@ -20460,7 +20540,7 @@
       </c>
       <c r="DA14" s="84"/>
       <c r="DB14" s="25"/>
-      <c r="DC14" s="113"/>
+      <c r="DC14" s="121"/>
       <c r="DD14" s="63" t="s">
         <v>8</v>
       </c>
@@ -20492,7 +20572,7 @@
       </c>
       <c r="DQ14" s="84"/>
       <c r="DR14" s="25"/>
-      <c r="DS14" s="113"/>
+      <c r="DS14" s="121"/>
       <c r="DT14" s="63" t="s">
         <v>8</v>
       </c>
@@ -20522,7 +20602,7 @@
       </c>
       <c r="EG14" s="84"/>
       <c r="EH14" s="25"/>
-      <c r="EI14" s="113"/>
+      <c r="EI14" s="121"/>
       <c r="EJ14" s="63" t="s">
         <v>8</v>
       </c>
@@ -20550,7 +20630,7 @@
       </c>
       <c r="EW14" s="84"/>
       <c r="EX14" s="25"/>
-      <c r="EY14" s="113"/>
+      <c r="EY14" s="121"/>
       <c r="EZ14" s="63" t="s">
         <v>8</v>
       </c>
@@ -20575,7 +20655,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="FM14" s="84"/>
-      <c r="FO14" s="113"/>
+      <c r="FO14" s="121"/>
       <c r="FP14" s="63" t="s">
         <v>8</v>
       </c>
@@ -20596,7 +20676,7 @@
       <c r="GC14" s="33"/>
     </row>
     <row r="15" spans="1:185">
-      <c r="B15" s="104"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -20606,7 +20686,7 @@
       <c r="G15" s="71"/>
       <c r="H15" s="72"/>
       <c r="I15" s="72"/>
-      <c r="K15" s="104"/>
+      <c r="K15" s="112"/>
       <c r="L15" s="8" t="s">
         <v>9</v>
       </c>
@@ -20650,7 +20730,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="Z15" s="25"/>
-      <c r="AA15" s="114"/>
+      <c r="AA15" s="122"/>
       <c r="AB15" s="64" t="s">
         <v>9</v>
       </c>
@@ -20692,7 +20772,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="AP15" s="25"/>
-      <c r="AQ15" s="114"/>
+      <c r="AQ15" s="122"/>
       <c r="AR15" s="64" t="s">
         <v>9</v>
       </c>
@@ -20732,7 +20812,7 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="BF15" s="25"/>
-      <c r="BG15" s="114"/>
+      <c r="BG15" s="122"/>
       <c r="BH15" s="64" t="s">
         <v>9</v>
       </c>
@@ -20770,7 +20850,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="BV15" s="25"/>
-      <c r="BW15" s="114"/>
+      <c r="BW15" s="122"/>
       <c r="BX15" s="64" t="s">
         <v>9</v>
       </c>
@@ -20806,7 +20886,7 @@
       <c r="CJ15" s="88"/>
       <c r="CK15" s="88"/>
       <c r="CL15" s="25"/>
-      <c r="CM15" s="114"/>
+      <c r="CM15" s="122"/>
       <c r="CN15" s="64" t="s">
         <v>9</v>
       </c>
@@ -20840,7 +20920,7 @@
       <c r="CZ15" s="88"/>
       <c r="DA15" s="88"/>
       <c r="DB15" s="25"/>
-      <c r="DC15" s="114"/>
+      <c r="DC15" s="122"/>
       <c r="DD15" s="64" t="s">
         <v>9</v>
       </c>
@@ -20872,7 +20952,7 @@
       <c r="DP15" s="88"/>
       <c r="DQ15" s="88"/>
       <c r="DR15" s="25"/>
-      <c r="DS15" s="114"/>
+      <c r="DS15" s="122"/>
       <c r="DT15" s="64" t="s">
         <v>9</v>
       </c>
@@ -20902,7 +20982,7 @@
       <c r="EF15" s="88"/>
       <c r="EG15" s="88"/>
       <c r="EH15" s="25"/>
-      <c r="EI15" s="114"/>
+      <c r="EI15" s="122"/>
       <c r="EJ15" s="64" t="s">
         <v>9</v>
       </c>
@@ -20930,7 +21010,7 @@
       <c r="EV15" s="88"/>
       <c r="EW15" s="88"/>
       <c r="EX15" s="25"/>
-      <c r="EY15" s="114"/>
+      <c r="EY15" s="122"/>
       <c r="EZ15" s="64" t="s">
         <v>9</v>
       </c>
@@ -20955,7 +21035,7 @@
       </c>
       <c r="FL15" s="88"/>
       <c r="FM15" s="88"/>
-      <c r="FO15" s="114"/>
+      <c r="FO15" s="122"/>
       <c r="FP15" s="64" t="s">
         <v>9</v>
       </c>
@@ -21270,21 +21350,34 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="DC12:DC15"/>
-    <mergeCell ref="DS12:DS15"/>
-    <mergeCell ref="EI12:EI15"/>
-    <mergeCell ref="EY12:EY15"/>
-    <mergeCell ref="FO12:FO15"/>
-    <mergeCell ref="EI8:EI11"/>
-    <mergeCell ref="EY8:EY11"/>
-    <mergeCell ref="FO8:FO11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="AA12:AA15"/>
-    <mergeCell ref="AQ12:AQ15"/>
-    <mergeCell ref="BG12:BG15"/>
-    <mergeCell ref="BW12:BW15"/>
-    <mergeCell ref="CM12:CM15"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:Y2"/>
+    <mergeCell ref="DS2:DT2"/>
+    <mergeCell ref="AC2:AO2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:BE2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BU2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:CK2"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="CO2:DA2"/>
+    <mergeCell ref="DC2:DD2"/>
+    <mergeCell ref="DE2:DQ2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AQ4:AQ7"/>
+    <mergeCell ref="BG4:BG7"/>
+    <mergeCell ref="DU2:EG2"/>
+    <mergeCell ref="EI2:EJ2"/>
+    <mergeCell ref="EK2:EW2"/>
+    <mergeCell ref="EY2:EZ2"/>
+    <mergeCell ref="FA2:FM2"/>
     <mergeCell ref="FO4:FO7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="K8:K11"/>
@@ -21301,34 +21394,1916 @@
     <mergeCell ref="DS4:DS7"/>
     <mergeCell ref="EI4:EI7"/>
     <mergeCell ref="EY4:EY7"/>
-    <mergeCell ref="DU2:EG2"/>
-    <mergeCell ref="EI2:EJ2"/>
-    <mergeCell ref="EK2:EW2"/>
-    <mergeCell ref="EY2:EZ2"/>
-    <mergeCell ref="FA2:FM2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AQ4:AQ7"/>
-    <mergeCell ref="BG4:BG7"/>
-    <mergeCell ref="BY2:CK2"/>
-    <mergeCell ref="CM2:CN2"/>
-    <mergeCell ref="CO2:DA2"/>
-    <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="DE2:DQ2"/>
-    <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="AC2:AO2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:BE2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BU2"/>
-    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="EI8:EI11"/>
+    <mergeCell ref="EY8:EY11"/>
+    <mergeCell ref="FO8:FO11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="AA12:AA15"/>
+    <mergeCell ref="AQ12:AQ15"/>
+    <mergeCell ref="BG12:BG15"/>
+    <mergeCell ref="BW12:BW15"/>
+    <mergeCell ref="CM12:CM15"/>
+    <mergeCell ref="DC12:DC15"/>
+    <mergeCell ref="DS12:DS15"/>
+    <mergeCell ref="EI12:EI15"/>
+    <mergeCell ref="EY12:EY15"/>
+    <mergeCell ref="FO12:FO15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4205E4FB-F385-4F2F-8F5C-C720FE67755D}">
+  <dimension ref="B2:BQ15"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="BE4" sqref="BE4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:69">
+      <c r="B2" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Z2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
+      <c r="AM2" s="126"/>
+      <c r="AO2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ2" s="126"/>
+      <c r="AR2" s="126"/>
+      <c r="AS2" s="126"/>
+      <c r="AT2" s="126"/>
+      <c r="AU2" s="126"/>
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
+      <c r="AX2" s="126"/>
+      <c r="AY2" s="126"/>
+      <c r="AZ2" s="126"/>
+      <c r="BA2" s="126"/>
+      <c r="BB2" s="126"/>
+      <c r="BD2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF2" s="126"/>
+      <c r="BG2" s="126"/>
+      <c r="BH2" s="126"/>
+      <c r="BI2" s="126"/>
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="126"/>
+      <c r="BN2" s="126"/>
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
+    </row>
+    <row r="3" spans="2:69" ht="14.5" customHeight="1">
+      <c r="B3" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="117"/>
+      <c r="K3" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO3" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP3" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD3" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE3" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="BN3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="BO3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="BP3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ3" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:69">
+      <c r="B4" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="67">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="E4" s="67">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F4" s="67">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G4" s="67">
+        <v>0.81</v>
+      </c>
+      <c r="H4" s="77">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="I4" s="68">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="K4" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="M4" s="25">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="S4" s="15">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="T4" s="13">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="V4" s="26">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="W4" s="21">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="X4" s="15">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="Z4" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AB4" s="17">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AD4" s="13">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="AE4" s="13">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AF4" s="13">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AG4" s="15">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AH4" s="15">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AK4" s="26">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="77">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="AO4" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP4" s="15">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="AQ4" s="17">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AS4" s="13">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AT4" s="13">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AU4" s="73">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="AV4" s="15">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AW4" s="15">
+        <v>0.81</v>
+      </c>
+      <c r="AX4" s="13">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="AY4" s="15">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AZ4" s="26">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="BA4" s="85"/>
+      <c r="BB4" s="141"/>
+      <c r="BD4" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE4" s="15">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="BF4" s="17">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="BG4" s="13">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="BH4" s="13">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="BI4" s="13">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BJ4" s="73"/>
+      <c r="BK4" s="15">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="BL4" s="15">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="BM4" s="13">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="BN4" s="15">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="BO4" s="26">
+        <v>0.78</v>
+      </c>
+      <c r="BP4" s="85"/>
+      <c r="BQ4" s="141"/>
+    </row>
+    <row r="5" spans="2:69">
+      <c r="B5" s="119"/>
+      <c r="C5" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="69">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="E5" s="69">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F5" s="69">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G5" s="69">
+        <v>0.81</v>
+      </c>
+      <c r="H5" s="76">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="I5" s="70">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="K5" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0.81</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="R5" s="13">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="T5" s="13">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="V5" s="26">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="W5" s="15">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="X5" s="21">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="Z5" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>0.81</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="AE5" s="13">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AF5" s="15">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AG5" s="13">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AH5" s="15">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AI5" s="13">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AK5" s="26">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AM5" s="85"/>
+      <c r="AO5" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="15">
+        <v>0.81</v>
+      </c>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="26"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="15"/>
+      <c r="BD5" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE5" s="15">
+        <v>0.81</v>
+      </c>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="13"/>
+      <c r="BH5" s="13"/>
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="13"/>
+      <c r="BL5" s="15"/>
+      <c r="BM5" s="13"/>
+      <c r="BN5" s="15"/>
+      <c r="BO5" s="26"/>
+      <c r="BP5" s="15"/>
+      <c r="BQ5" s="15"/>
+    </row>
+    <row r="6" spans="2:69">
+      <c r="B6" s="119"/>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="69">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="E6" s="69">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F6" s="69">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G6" s="69">
+        <v>0.81</v>
+      </c>
+      <c r="H6" s="76">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="I6" s="70">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="K6" s="134" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="135">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="M6" s="136">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="N6" s="136">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="O6" s="136">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="P6" s="138">
+        <v>0.81</v>
+      </c>
+      <c r="Q6" s="135">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="R6" s="136">
+        <v>0.8</v>
+      </c>
+      <c r="S6" s="135">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="T6" s="136">
+        <v>0.8</v>
+      </c>
+      <c r="U6" s="135">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="V6" s="137">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="W6" s="135">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="X6" s="135">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="Z6" s="134" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="135">
+        <v>0.81</v>
+      </c>
+      <c r="AB6" s="136">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AC6" s="136">
+        <v>0.79</v>
+      </c>
+      <c r="AD6" s="136">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="AE6" s="139"/>
+      <c r="AF6" s="140">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AG6" s="136">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="AH6" s="135">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AI6" s="136">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AJ6" s="135">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AK6" s="137">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="AL6" s="135">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AM6" s="135">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AO6" s="134" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP6" s="135">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AQ6" s="136">
+        <v>0.8</v>
+      </c>
+      <c r="AR6" s="136">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="AS6" s="136">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="AT6" s="139"/>
+      <c r="AU6" s="142"/>
+      <c r="AV6" s="136">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="AW6" s="135">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AX6" s="136">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="AY6" s="135">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="AZ6" s="137">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="BA6" s="135">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="BB6" s="140">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BD6" s="134" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE6" s="135">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="BF6" s="136">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="BG6" s="136">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="BH6" s="136">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="BI6" s="139"/>
+      <c r="BJ6" s="142"/>
+      <c r="BK6" s="136">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="BL6" s="135">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="BM6" s="136">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="BN6" s="135">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="BO6" s="137">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="BP6" s="135">
+        <v>0.81</v>
+      </c>
+      <c r="BQ6" s="140"/>
+    </row>
+    <row r="7" spans="2:69">
+      <c r="B7" s="119"/>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="69">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="E7" s="69">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F7" s="69">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G7" s="69">
+        <v>0.81</v>
+      </c>
+      <c r="H7" s="76">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="I7" s="70">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:69" ht="14.5" customHeight="1">
+      <c r="B8" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="67">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="E8" s="67">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F8" s="67">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G8" s="67">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H8" s="77">
+        <v>0.81</v>
+      </c>
+      <c r="I8" s="68">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:69" ht="14.5" customHeight="1">
+      <c r="B9" s="111"/>
+      <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="69">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="E9" s="69">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F9" s="69">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G9" s="69">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H9" s="76">
+        <v>0.81</v>
+      </c>
+      <c r="I9" s="70">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:69">
+      <c r="B10" s="111"/>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="69">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="E10" s="69">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F10" s="69">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G10" s="69">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H10" s="76">
+        <v>0.81</v>
+      </c>
+      <c r="I10" s="70">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:69">
+      <c r="B11" s="112"/>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="71">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="E11" s="71">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F11" s="71">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G11" s="71">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H11" s="133">
+        <v>0.81</v>
+      </c>
+      <c r="I11" s="70">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:69" ht="14.5" customHeight="1">
+      <c r="B12" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="67">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="E12" s="67">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F12" s="67">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G12" s="75">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H12" s="68">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="I12" s="68">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:69" ht="14.5" customHeight="1">
+      <c r="B13" s="111"/>
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="69">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="E13" s="69">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F13" s="69">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G13" s="78">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H13" s="70">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="I13" s="70">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:69">
+      <c r="B14" s="111"/>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="69">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="E14" s="69">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F14" s="69">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G14" s="78">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H14" s="70">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="I14" s="70">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:69">
+      <c r="B15" s="112"/>
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="71">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="E15" s="71">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F15" s="71">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G15" s="79">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H15" s="72">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="I15" s="72">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="AA2:AM2"/>
+    <mergeCell ref="AP2:BB2"/>
+    <mergeCell ref="BE2:BQ2"/>
+    <mergeCell ref="L2:X2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E669D960-33D9-42A0-B83D-7D361E0D0AD2}">
+  <dimension ref="B2:V30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="117"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="K4">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="M4" s="74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="119"/>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="K5">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="M5" s="74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="119"/>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.79</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="K6">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="M6" s="74" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="119"/>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="K7">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="M7" s="74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="K8">
+        <v>0.78</v>
+      </c>
+      <c r="M8" s="74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="111"/>
+      <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.79</v>
+      </c>
+      <c r="M9" s="74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="111"/>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0.78</v>
+      </c>
+      <c r="K10">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="M10" s="74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="112"/>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="K11">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="M11" s="74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="F12" s="73">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="K12">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="M12" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="111"/>
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="K13">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="M13" s="74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="111"/>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="K14">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="M14" s="74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="112"/>
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="F15" s="80">
+        <v>0.79</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="K15">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="M15" s="74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="14.5" customHeight="1">
+      <c r="B17" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="124"/>
+      <c r="D17" s="143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="144"/>
+      <c r="T17" s="144"/>
+      <c r="U17" s="144"/>
+      <c r="V17" s="144"/>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="119"/>
+      <c r="C20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="119"/>
+      <c r="C21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="131"/>
+      <c r="C22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="111"/>
+      <c r="C24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="111"/>
+      <c r="C25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="112"/>
+      <c r="C26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="111"/>
+      <c r="C28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="111"/>
+      <c r="C29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="112"/>
+      <c r="C30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="D17:V17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/project_results.xlsx
+++ b/project_results.xlsx
@@ -12,6 +12,7 @@
     <sheet name="cat_tests" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Logistic Regression" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="LR - RFE" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="94">
   <si>
     <t xml:space="preserve">Logistic Regression</t>
   </si>
@@ -224,6 +225,77 @@
     <t xml:space="preserve">0.801</t>
   </si>
   <si>
+    <t xml:space="preserve">Random Forest – HOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEATURE SELECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Parents or siblings infected', 'Wife/Husband or children infected', 'Marital_Status', 'Gender',  'Title_Ms', 'Title_Mrs', 'Title_Mr', 'Title_Master',
+       'City_SantaFe', 'City_Albuquerque', 'City_Taos'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model = RandomForestClassifier(warm_start = True, random_state = 42, n_estimators = 100, max_depth = 17, criterion = 'gini', ccp_alpha = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Parents or siblings infected', 'Wife/Husband or children infected', 'Marital_Status', 'Is_young', 'Title_Miss', 'Title_Mrs', 'Title_Mr', 'Title_Master','City_SantaFe', 'City_Albuquerque', 'City_Taos'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'ccp_alpha': 0, 'criterion': 'gini', 'max_depth': 17, 'n_estimators': 100, 'random_state': 42, 'warm_start': True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RandomForestClassifier(warm_start = True, random_state = 42, n_estimators = 100, max_depth = 17, criterion = 'gini', ccp_alpha = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model = RandomForestClassifier(warm_start = True, random_state = 42, n_estimators = 500, max_depth = 10, criterion = 'gini', ccp_alpha = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Parents or siblings infected', 'Wife/Husband or children infected', 'Marital_Status',  'Is_young',        'Title_Miss', 'Title_Mrs', 'Title_Master','City_SantaFe', 'City_Albuquerque', 'City_Taos'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model = RandomForestClassifier(warm_start = True, random_state = 42, n_estimators = 700, max_depth = 10, criterion = 'gini', ccp_alpha = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">823</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Family_Case_ID</t>
   </si>
   <si>
@@ -261,7 +333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,6 +363,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
@@ -298,7 +375,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +402,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
         <bgColor rgb="FF81D41A"/>
       </patternFill>
@@ -332,7 +421,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFBF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -467,7 +556,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="106">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -704,60 +793,100 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -768,11 +897,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -780,55 +925,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -887,7 +1036,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF70AD47"/>
@@ -1275,18 +1424,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:FR32"/>
+  <dimension ref="B2:FR55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K52" activeCellId="0" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="5.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="114.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="77.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="111.69"/>
@@ -2048,7 +2201,7 @@
       <c r="FQ5" s="30"/>
       <c r="FR5" s="30"/>
     </row>
-    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
       <c r="C6" s="10" t="s">
         <v>8</v>
@@ -4281,8 +4434,472 @@
         <v>54</v>
       </c>
     </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1"/>
+      <c r="C39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1"/>
+      <c r="C40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1"/>
+      <c r="C41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="13"/>
+      <c r="C43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="13"/>
+      <c r="C44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="13"/>
+      <c r="C45" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="13"/>
+      <c r="C47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="13"/>
+      <c r="C48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="H48" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="13"/>
+      <c r="C49" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="72"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+    </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="73">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:I3"/>
@@ -4348,6 +4965,14 @@
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B52:B55"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4630,40 +5255,40 @@
         <v>40</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="T3" s="24" t="s">
         <v>32</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V3" s="23" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="W3" s="23" t="s">
         <v>45</v>
       </c>
       <c r="X3" s="23" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="Y3" s="23" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>3</v>
@@ -4675,40 +5300,40 @@
         <v>40</v>
       </c>
       <c r="AD3" s="21" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="AE3" s="21" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="AF3" s="22" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="AG3" s="23" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="AH3" s="23" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="AI3" s="22" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="AJ3" s="24" t="s">
         <v>32</v>
       </c>
       <c r="AK3" s="23" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AL3" s="23" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AM3" s="23" t="s">
         <v>45</v>
       </c>
       <c r="AN3" s="23" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AO3" s="23" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AQ3" s="2" t="s">
         <v>3</v>
@@ -4720,40 +5345,40 @@
         <v>40</v>
       </c>
       <c r="AT3" s="21" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="AU3" s="21" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="AV3" s="22" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="AW3" s="23" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="AX3" s="23" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="AY3" s="22" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="AZ3" s="24" t="s">
         <v>32</v>
       </c>
       <c r="BA3" s="23" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="BB3" s="23" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="BC3" s="23" t="s">
         <v>45</v>
       </c>
       <c r="BD3" s="23" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="BE3" s="23" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="BG3" s="2" t="s">
         <v>3</v>
@@ -4765,40 +5390,40 @@
         <v>40</v>
       </c>
       <c r="BJ3" s="21" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="BK3" s="21" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="BL3" s="22" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="BM3" s="23" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="BN3" s="23" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="BO3" s="22" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="BP3" s="24" t="s">
         <v>32</v>
       </c>
       <c r="BQ3" s="23" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="BR3" s="23" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="BS3" s="23" t="s">
         <v>45</v>
       </c>
       <c r="BT3" s="23" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="BU3" s="23" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="BW3" s="2" t="s">
         <v>3</v>
@@ -4810,40 +5435,40 @@
         <v>40</v>
       </c>
       <c r="BZ3" s="21" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="CA3" s="21" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="CB3" s="22" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="CC3" s="23" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="CD3" s="23" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="CE3" s="22" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="CF3" s="24" t="s">
         <v>32</v>
       </c>
       <c r="CG3" s="23" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="CH3" s="23" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="CI3" s="23" t="s">
         <v>45</v>
       </c>
       <c r="CJ3" s="23" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="CK3" s="23" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="CM3" s="2" t="s">
         <v>3</v>
@@ -4855,40 +5480,40 @@
         <v>40</v>
       </c>
       <c r="CP3" s="21" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="CQ3" s="21" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="CR3" s="22" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="CS3" s="23" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="CT3" s="23" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="CU3" s="22" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="CV3" s="24" t="s">
         <v>32</v>
       </c>
       <c r="CW3" s="23" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="CX3" s="23" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="CY3" s="23" t="s">
         <v>45</v>
       </c>
       <c r="CZ3" s="23" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="DA3" s="23" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="DC3" s="2" t="s">
         <v>3</v>
@@ -4900,40 +5525,40 @@
         <v>40</v>
       </c>
       <c r="DF3" s="21" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="DG3" s="21" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="DH3" s="22" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="DI3" s="23" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="DJ3" s="23" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="DK3" s="22" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="DL3" s="24" t="s">
         <v>32</v>
       </c>
       <c r="DM3" s="23" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="DN3" s="23" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="DO3" s="23" t="s">
         <v>45</v>
       </c>
       <c r="DP3" s="23" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="DQ3" s="23" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="DS3" s="2" t="s">
         <v>3</v>
@@ -4945,40 +5570,40 @@
         <v>40</v>
       </c>
       <c r="DV3" s="21" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="DW3" s="21" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="DX3" s="22" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="DY3" s="23" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="DZ3" s="23" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="EA3" s="22" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="EB3" s="24" t="s">
         <v>32</v>
       </c>
       <c r="EC3" s="23" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="ED3" s="23" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="EE3" s="23" t="s">
         <v>45</v>
       </c>
       <c r="EF3" s="23" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="EG3" s="23" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="EI3" s="2" t="s">
         <v>3</v>
@@ -4990,40 +5615,40 @@
         <v>40</v>
       </c>
       <c r="EL3" s="21" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="EM3" s="21" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="EN3" s="22" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="EO3" s="23" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="EP3" s="23" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="EQ3" s="22" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="ER3" s="24" t="s">
         <v>32</v>
       </c>
       <c r="ES3" s="23" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="ET3" s="23" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="EU3" s="23" t="s">
         <v>45</v>
       </c>
       <c r="EV3" s="23" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="EW3" s="23" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="EY3" s="2" t="s">
         <v>3</v>
@@ -5084,7 +5709,7 @@
       <c r="R4" s="8" t="n">
         <v>0.786</v>
       </c>
-      <c r="S4" s="59" t="n">
+      <c r="S4" s="74" t="n">
         <v>0.796</v>
       </c>
       <c r="T4" s="9" t="n">
@@ -5124,13 +5749,13 @@
       <c r="AF4" s="8" t="n">
         <v>0.778</v>
       </c>
-      <c r="AG4" s="60" t="n">
+      <c r="AG4" s="75" t="n">
         <v>0.796</v>
       </c>
       <c r="AH4" s="8" t="n">
         <v>0.796</v>
       </c>
-      <c r="AI4" s="61"/>
+      <c r="AI4" s="76"/>
       <c r="AJ4" s="9" t="n">
         <v>0.788</v>
       </c>
@@ -5167,11 +5792,11 @@
       <c r="AV4" s="8" t="n">
         <v>0.776</v>
       </c>
-      <c r="AW4" s="62"/>
+      <c r="AW4" s="77"/>
       <c r="AX4" s="8" t="n">
         <v>0.793</v>
       </c>
-      <c r="AY4" s="61"/>
+      <c r="AY4" s="76"/>
       <c r="AZ4" s="9" t="n">
         <v>0.788</v>
       </c>
@@ -5193,147 +5818,147 @@
       <c r="BG4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BH4" s="63" t="s">
+      <c r="BH4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="BI4" s="64" t="n">
+      <c r="BI4" s="79" t="n">
         <v>0.796</v>
       </c>
-      <c r="BJ4" s="65" t="n">
+      <c r="BJ4" s="80" t="n">
         <v>0.788</v>
       </c>
-      <c r="BK4" s="66" t="n">
+      <c r="BK4" s="81" t="n">
         <v>0.789</v>
       </c>
-      <c r="BL4" s="66" t="n">
+      <c r="BL4" s="81" t="n">
         <v>0.789</v>
       </c>
-      <c r="BM4" s="66"/>
-      <c r="BN4" s="66" t="n">
+      <c r="BM4" s="81"/>
+      <c r="BN4" s="81" t="n">
         <v>0.791</v>
       </c>
-      <c r="BO4" s="64"/>
-      <c r="BP4" s="64" t="n">
+      <c r="BO4" s="79"/>
+      <c r="BP4" s="79" t="n">
         <v>0.783</v>
       </c>
-      <c r="BQ4" s="66" t="n">
+      <c r="BQ4" s="81" t="n">
         <v>0.788</v>
       </c>
-      <c r="BR4" s="64" t="n">
+      <c r="BR4" s="79" t="n">
         <v>0.789</v>
       </c>
-      <c r="BS4" s="67" t="n">
+      <c r="BS4" s="82" t="n">
         <v>0.771</v>
       </c>
-      <c r="BT4" s="64" t="n">
+      <c r="BT4" s="79" t="n">
         <v>0.79</v>
       </c>
-      <c r="BU4" s="64"/>
+      <c r="BU4" s="79"/>
       <c r="BW4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BX4" s="63" t="s">
+      <c r="BX4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="BY4" s="64" t="n">
+      <c r="BY4" s="79" t="n">
         <v>0.796</v>
       </c>
-      <c r="BZ4" s="65"/>
-      <c r="CA4" s="66"/>
-      <c r="CB4" s="66"/>
-      <c r="CC4" s="66"/>
-      <c r="CD4" s="66"/>
-      <c r="CE4" s="64"/>
-      <c r="CF4" s="64"/>
-      <c r="CG4" s="66"/>
-      <c r="CH4" s="64"/>
-      <c r="CI4" s="67"/>
-      <c r="CJ4" s="64"/>
-      <c r="CK4" s="64"/>
+      <c r="BZ4" s="80"/>
+      <c r="CA4" s="81"/>
+      <c r="CB4" s="81"/>
+      <c r="CC4" s="81"/>
+      <c r="CD4" s="81"/>
+      <c r="CE4" s="79"/>
+      <c r="CF4" s="79"/>
+      <c r="CG4" s="81"/>
+      <c r="CH4" s="79"/>
+      <c r="CI4" s="82"/>
+      <c r="CJ4" s="79"/>
+      <c r="CK4" s="79"/>
       <c r="CM4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="CN4" s="63" t="s">
+      <c r="CN4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="CO4" s="64" t="n">
+      <c r="CO4" s="79" t="n">
         <v>0.796</v>
       </c>
-      <c r="CP4" s="65"/>
-      <c r="CQ4" s="66"/>
-      <c r="CR4" s="66"/>
-      <c r="CS4" s="66"/>
-      <c r="CT4" s="66"/>
-      <c r="CU4" s="64"/>
-      <c r="CV4" s="64"/>
-      <c r="CW4" s="66"/>
-      <c r="CX4" s="64"/>
-      <c r="CY4" s="67"/>
-      <c r="CZ4" s="64"/>
-      <c r="DA4" s="64"/>
+      <c r="CP4" s="80"/>
+      <c r="CQ4" s="81"/>
+      <c r="CR4" s="81"/>
+      <c r="CS4" s="81"/>
+      <c r="CT4" s="81"/>
+      <c r="CU4" s="79"/>
+      <c r="CV4" s="79"/>
+      <c r="CW4" s="81"/>
+      <c r="CX4" s="79"/>
+      <c r="CY4" s="82"/>
+      <c r="CZ4" s="79"/>
+      <c r="DA4" s="79"/>
       <c r="DC4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="DD4" s="63" t="s">
+      <c r="DD4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="DE4" s="64" t="n">
+      <c r="DE4" s="79" t="n">
         <v>0.796</v>
       </c>
-      <c r="DF4" s="65"/>
-      <c r="DG4" s="66"/>
-      <c r="DH4" s="66"/>
-      <c r="DI4" s="66"/>
-      <c r="DJ4" s="66"/>
-      <c r="DK4" s="64"/>
-      <c r="DL4" s="64"/>
-      <c r="DM4" s="66"/>
-      <c r="DN4" s="64"/>
-      <c r="DO4" s="67"/>
-      <c r="DP4" s="64"/>
-      <c r="DQ4" s="64"/>
+      <c r="DF4" s="80"/>
+      <c r="DG4" s="81"/>
+      <c r="DH4" s="81"/>
+      <c r="DI4" s="81"/>
+      <c r="DJ4" s="81"/>
+      <c r="DK4" s="79"/>
+      <c r="DL4" s="79"/>
+      <c r="DM4" s="81"/>
+      <c r="DN4" s="79"/>
+      <c r="DO4" s="82"/>
+      <c r="DP4" s="79"/>
+      <c r="DQ4" s="79"/>
       <c r="DS4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="DT4" s="63" t="s">
+      <c r="DT4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="DU4" s="64" t="n">
+      <c r="DU4" s="79" t="n">
         <v>0.796</v>
       </c>
-      <c r="DV4" s="65"/>
-      <c r="DW4" s="66"/>
-      <c r="DX4" s="66"/>
-      <c r="DY4" s="66"/>
-      <c r="DZ4" s="66"/>
-      <c r="EA4" s="64"/>
-      <c r="EB4" s="64"/>
-      <c r="EC4" s="66"/>
-      <c r="ED4" s="64"/>
-      <c r="EE4" s="67"/>
-      <c r="EF4" s="64"/>
-      <c r="EG4" s="64"/>
+      <c r="DV4" s="80"/>
+      <c r="DW4" s="81"/>
+      <c r="DX4" s="81"/>
+      <c r="DY4" s="81"/>
+      <c r="DZ4" s="81"/>
+      <c r="EA4" s="79"/>
+      <c r="EB4" s="79"/>
+      <c r="EC4" s="81"/>
+      <c r="ED4" s="79"/>
+      <c r="EE4" s="82"/>
+      <c r="EF4" s="79"/>
+      <c r="EG4" s="79"/>
       <c r="EI4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="EJ4" s="63" t="s">
+      <c r="EJ4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="EK4" s="64" t="n">
+      <c r="EK4" s="79" t="n">
         <v>0.796</v>
       </c>
-      <c r="EL4" s="65"/>
-      <c r="EM4" s="66"/>
-      <c r="EN4" s="66"/>
-      <c r="EO4" s="66"/>
-      <c r="EP4" s="66"/>
-      <c r="EQ4" s="64"/>
-      <c r="ER4" s="64"/>
-      <c r="ES4" s="66"/>
-      <c r="ET4" s="64"/>
-      <c r="EU4" s="67"/>
-      <c r="EV4" s="64"/>
-      <c r="EW4" s="64"/>
+      <c r="EL4" s="80"/>
+      <c r="EM4" s="81"/>
+      <c r="EN4" s="81"/>
+      <c r="EO4" s="81"/>
+      <c r="EP4" s="81"/>
+      <c r="EQ4" s="79"/>
+      <c r="ER4" s="79"/>
+      <c r="ES4" s="81"/>
+      <c r="ET4" s="79"/>
+      <c r="EU4" s="82"/>
+      <c r="EV4" s="79"/>
+      <c r="EW4" s="79"/>
       <c r="EY4" s="2" t="s">
         <v>5</v>
       </c>
@@ -5401,7 +6026,7 @@
       <c r="V5" s="12" t="n">
         <v>0.788</v>
       </c>
-      <c r="W5" s="68" t="n">
+      <c r="W5" s="83" t="n">
         <v>0.79</v>
       </c>
       <c r="X5" s="12" t="n">
@@ -5426,7 +6051,7 @@
       <c r="AF5" s="11" t="n">
         <v>0.78</v>
       </c>
-      <c r="AG5" s="69" t="n">
+      <c r="AG5" s="84" t="n">
         <v>0.79</v>
       </c>
       <c r="AH5" s="11" t="n">
@@ -5444,7 +6069,7 @@
       <c r="AL5" s="12" t="n">
         <v>0.736</v>
       </c>
-      <c r="AM5" s="70"/>
+      <c r="AM5" s="85"/>
       <c r="AN5" s="12" t="n">
         <v>0.689</v>
       </c>
@@ -5467,7 +6092,7 @@
       <c r="AV5" s="11" t="n">
         <v>0.779</v>
       </c>
-      <c r="AW5" s="71"/>
+      <c r="AW5" s="86"/>
       <c r="AX5" s="11"/>
       <c r="AY5" s="12" t="n">
         <v>0.782</v>
@@ -5481,7 +6106,7 @@
       <c r="BB5" s="12" t="n">
         <v>0.736</v>
       </c>
-      <c r="BC5" s="70"/>
+      <c r="BC5" s="85"/>
       <c r="BD5" s="12" t="n">
         <v>0.689</v>
       </c>
@@ -5504,9 +6129,9 @@
       <c r="BL5" s="11" t="n">
         <v>0.78</v>
       </c>
-      <c r="BM5" s="71"/>
-      <c r="BN5" s="71"/>
-      <c r="BO5" s="68" t="n">
+      <c r="BM5" s="86"/>
+      <c r="BN5" s="86"/>
+      <c r="BO5" s="83" t="n">
         <v>0.792</v>
       </c>
       <c r="BP5" s="12" t="n">
@@ -5518,7 +6143,7 @@
       <c r="BR5" s="12" t="n">
         <v>0.737</v>
       </c>
-      <c r="BS5" s="70"/>
+      <c r="BS5" s="85"/>
       <c r="BT5" s="12" t="n">
         <v>0.698</v>
       </c>
@@ -5541,9 +6166,9 @@
       <c r="CB5" s="11" t="n">
         <v>0.784</v>
       </c>
-      <c r="CC5" s="71"/>
-      <c r="CD5" s="71"/>
-      <c r="CE5" s="70"/>
+      <c r="CC5" s="86"/>
+      <c r="CD5" s="86"/>
+      <c r="CE5" s="85"/>
       <c r="CF5" s="12" t="n">
         <v>0.79</v>
       </c>
@@ -5553,103 +6178,103 @@
       <c r="CH5" s="12" t="n">
         <v>0.734</v>
       </c>
-      <c r="CI5" s="70"/>
+      <c r="CI5" s="85"/>
       <c r="CJ5" s="12" t="n">
         <v>0.693</v>
       </c>
-      <c r="CK5" s="68" t="n">
+      <c r="CK5" s="83" t="n">
         <v>0.794</v>
       </c>
       <c r="CM5" s="2"/>
-      <c r="CN5" s="72" t="s">
+      <c r="CN5" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="CO5" s="73" t="n">
+      <c r="CO5" s="88" t="n">
         <v>0.794</v>
       </c>
-      <c r="CP5" s="74" t="n">
+      <c r="CP5" s="89" t="n">
         <v>0.793</v>
       </c>
-      <c r="CQ5" s="74" t="n">
+      <c r="CQ5" s="89" t="n">
         <v>0.792</v>
       </c>
-      <c r="CR5" s="74" t="n">
+      <c r="CR5" s="89" t="n">
         <v>0.782</v>
       </c>
-      <c r="CS5" s="74"/>
-      <c r="CT5" s="74"/>
-      <c r="CU5" s="73"/>
-      <c r="CV5" s="73" t="n">
+      <c r="CS5" s="89"/>
+      <c r="CT5" s="89"/>
+      <c r="CU5" s="88"/>
+      <c r="CV5" s="88" t="n">
         <v>0.791</v>
       </c>
-      <c r="CW5" s="74" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="CX5" s="73" t="n">
+      <c r="CW5" s="89" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="CX5" s="88" t="n">
         <v>0.734</v>
       </c>
-      <c r="CY5" s="73"/>
-      <c r="CZ5" s="73" t="n">
+      <c r="CY5" s="88"/>
+      <c r="CZ5" s="88" t="n">
         <v>0.696</v>
       </c>
-      <c r="DA5" s="73"/>
+      <c r="DA5" s="88"/>
       <c r="DC5" s="2"/>
-      <c r="DD5" s="72" t="s">
+      <c r="DD5" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="DE5" s="73" t="n">
+      <c r="DE5" s="88" t="n">
         <v>0.794</v>
       </c>
-      <c r="DF5" s="74"/>
-      <c r="DG5" s="74"/>
-      <c r="DH5" s="74"/>
-      <c r="DI5" s="74"/>
-      <c r="DJ5" s="74"/>
-      <c r="DK5" s="73"/>
-      <c r="DL5" s="73"/>
-      <c r="DM5" s="74"/>
-      <c r="DN5" s="73"/>
-      <c r="DO5" s="73"/>
-      <c r="DP5" s="73"/>
-      <c r="DQ5" s="73"/>
+      <c r="DF5" s="89"/>
+      <c r="DG5" s="89"/>
+      <c r="DH5" s="89"/>
+      <c r="DI5" s="89"/>
+      <c r="DJ5" s="89"/>
+      <c r="DK5" s="88"/>
+      <c r="DL5" s="88"/>
+      <c r="DM5" s="89"/>
+      <c r="DN5" s="88"/>
+      <c r="DO5" s="88"/>
+      <c r="DP5" s="88"/>
+      <c r="DQ5" s="88"/>
       <c r="DS5" s="2"/>
-      <c r="DT5" s="72" t="s">
+      <c r="DT5" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="DU5" s="73" t="n">
+      <c r="DU5" s="88" t="n">
         <v>0.794</v>
       </c>
-      <c r="DV5" s="74"/>
-      <c r="DW5" s="74"/>
-      <c r="DX5" s="74"/>
-      <c r="DY5" s="74"/>
-      <c r="DZ5" s="74"/>
-      <c r="EA5" s="73"/>
-      <c r="EB5" s="73"/>
-      <c r="EC5" s="74"/>
-      <c r="ED5" s="73"/>
-      <c r="EE5" s="73"/>
-      <c r="EF5" s="73"/>
-      <c r="EG5" s="73"/>
+      <c r="DV5" s="89"/>
+      <c r="DW5" s="89"/>
+      <c r="DX5" s="89"/>
+      <c r="DY5" s="89"/>
+      <c r="DZ5" s="89"/>
+      <c r="EA5" s="88"/>
+      <c r="EB5" s="88"/>
+      <c r="EC5" s="89"/>
+      <c r="ED5" s="88"/>
+      <c r="EE5" s="88"/>
+      <c r="EF5" s="88"/>
+      <c r="EG5" s="88"/>
       <c r="EI5" s="2"/>
-      <c r="EJ5" s="72" t="s">
+      <c r="EJ5" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="EK5" s="73" t="n">
+      <c r="EK5" s="88" t="n">
         <v>0.794</v>
       </c>
-      <c r="EL5" s="74"/>
-      <c r="EM5" s="74"/>
-      <c r="EN5" s="74"/>
-      <c r="EO5" s="74"/>
-      <c r="EP5" s="74"/>
-      <c r="EQ5" s="73"/>
-      <c r="ER5" s="73"/>
-      <c r="ES5" s="74"/>
-      <c r="ET5" s="73"/>
-      <c r="EU5" s="73"/>
-      <c r="EV5" s="73"/>
-      <c r="EW5" s="73"/>
+      <c r="EL5" s="89"/>
+      <c r="EM5" s="89"/>
+      <c r="EN5" s="89"/>
+      <c r="EO5" s="89"/>
+      <c r="EP5" s="89"/>
+      <c r="EQ5" s="88"/>
+      <c r="ER5" s="88"/>
+      <c r="ES5" s="89"/>
+      <c r="ET5" s="88"/>
+      <c r="EU5" s="88"/>
+      <c r="EV5" s="88"/>
+      <c r="EW5" s="88"/>
       <c r="EY5" s="2"/>
       <c r="EZ5" s="10" t="s">
         <v>7</v>
@@ -5703,7 +6328,7 @@
       <c r="R6" s="11" t="n">
         <v>0.789</v>
       </c>
-      <c r="S6" s="68" t="n">
+      <c r="S6" s="83" t="n">
         <v>0.792</v>
       </c>
       <c r="T6" s="12" t="n">
@@ -5746,7 +6371,7 @@
       <c r="AH6" s="11" t="n">
         <v>0.792</v>
       </c>
-      <c r="AI6" s="70"/>
+      <c r="AI6" s="85"/>
       <c r="AJ6" s="12" t="n">
         <v>0.786</v>
       </c>
@@ -5785,11 +6410,11 @@
       <c r="AX6" s="11" t="n">
         <v>0.796</v>
       </c>
-      <c r="AY6" s="70"/>
+      <c r="AY6" s="85"/>
       <c r="AZ6" s="12" t="n">
         <v>0.797</v>
       </c>
-      <c r="BA6" s="71"/>
+      <c r="BA6" s="86"/>
       <c r="BB6" s="12" t="n">
         <v>0.789</v>
       </c>
@@ -5801,119 +6426,119 @@
       </c>
       <c r="BE6" s="12"/>
       <c r="BG6" s="2"/>
-      <c r="BH6" s="72" t="s">
+      <c r="BH6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="BI6" s="73" t="n">
+      <c r="BI6" s="88" t="n">
         <v>0.799</v>
       </c>
-      <c r="BJ6" s="74"/>
-      <c r="BK6" s="74"/>
-      <c r="BL6" s="74"/>
-      <c r="BM6" s="74"/>
-      <c r="BN6" s="74"/>
-      <c r="BO6" s="73"/>
-      <c r="BP6" s="73"/>
-      <c r="BQ6" s="74"/>
-      <c r="BR6" s="73"/>
-      <c r="BS6" s="73"/>
-      <c r="BT6" s="73"/>
-      <c r="BU6" s="73"/>
+      <c r="BJ6" s="89"/>
+      <c r="BK6" s="89"/>
+      <c r="BL6" s="89"/>
+      <c r="BM6" s="89"/>
+      <c r="BN6" s="89"/>
+      <c r="BO6" s="88"/>
+      <c r="BP6" s="88"/>
+      <c r="BQ6" s="89"/>
+      <c r="BR6" s="88"/>
+      <c r="BS6" s="88"/>
+      <c r="BT6" s="88"/>
+      <c r="BU6" s="88"/>
       <c r="BW6" s="2"/>
-      <c r="BX6" s="72" t="s">
+      <c r="BX6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="BY6" s="73" t="n">
+      <c r="BY6" s="88" t="n">
         <v>0.799</v>
       </c>
-      <c r="BZ6" s="74"/>
-      <c r="CA6" s="74"/>
-      <c r="CB6" s="74"/>
-      <c r="CC6" s="74"/>
-      <c r="CD6" s="74"/>
-      <c r="CE6" s="73"/>
-      <c r="CF6" s="73"/>
-      <c r="CG6" s="74"/>
-      <c r="CH6" s="73"/>
-      <c r="CI6" s="73"/>
-      <c r="CJ6" s="73"/>
-      <c r="CK6" s="73"/>
+      <c r="BZ6" s="89"/>
+      <c r="CA6" s="89"/>
+      <c r="CB6" s="89"/>
+      <c r="CC6" s="89"/>
+      <c r="CD6" s="89"/>
+      <c r="CE6" s="88"/>
+      <c r="CF6" s="88"/>
+      <c r="CG6" s="89"/>
+      <c r="CH6" s="88"/>
+      <c r="CI6" s="88"/>
+      <c r="CJ6" s="88"/>
+      <c r="CK6" s="88"/>
       <c r="CM6" s="2"/>
-      <c r="CN6" s="72" t="s">
+      <c r="CN6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="CO6" s="73" t="n">
+      <c r="CO6" s="88" t="n">
         <v>0.799</v>
       </c>
-      <c r="CP6" s="74"/>
-      <c r="CQ6" s="74"/>
-      <c r="CR6" s="74"/>
-      <c r="CS6" s="74"/>
-      <c r="CT6" s="74"/>
-      <c r="CU6" s="73"/>
-      <c r="CV6" s="73"/>
-      <c r="CW6" s="74"/>
-      <c r="CX6" s="73"/>
-      <c r="CY6" s="73"/>
-      <c r="CZ6" s="73"/>
-      <c r="DA6" s="73"/>
+      <c r="CP6" s="89"/>
+      <c r="CQ6" s="89"/>
+      <c r="CR6" s="89"/>
+      <c r="CS6" s="89"/>
+      <c r="CT6" s="89"/>
+      <c r="CU6" s="88"/>
+      <c r="CV6" s="88"/>
+      <c r="CW6" s="89"/>
+      <c r="CX6" s="88"/>
+      <c r="CY6" s="88"/>
+      <c r="CZ6" s="88"/>
+      <c r="DA6" s="88"/>
       <c r="DC6" s="2"/>
-      <c r="DD6" s="72" t="s">
+      <c r="DD6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="DE6" s="73" t="n">
+      <c r="DE6" s="88" t="n">
         <v>0.799</v>
       </c>
-      <c r="DF6" s="74"/>
-      <c r="DG6" s="74"/>
-      <c r="DH6" s="74"/>
-      <c r="DI6" s="74"/>
-      <c r="DJ6" s="74"/>
-      <c r="DK6" s="73"/>
-      <c r="DL6" s="73"/>
-      <c r="DM6" s="74"/>
-      <c r="DN6" s="73"/>
-      <c r="DO6" s="73"/>
-      <c r="DP6" s="73"/>
-      <c r="DQ6" s="73"/>
+      <c r="DF6" s="89"/>
+      <c r="DG6" s="89"/>
+      <c r="DH6" s="89"/>
+      <c r="DI6" s="89"/>
+      <c r="DJ6" s="89"/>
+      <c r="DK6" s="88"/>
+      <c r="DL6" s="88"/>
+      <c r="DM6" s="89"/>
+      <c r="DN6" s="88"/>
+      <c r="DO6" s="88"/>
+      <c r="DP6" s="88"/>
+      <c r="DQ6" s="88"/>
       <c r="DS6" s="2"/>
-      <c r="DT6" s="72" t="s">
+      <c r="DT6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="DU6" s="73" t="n">
+      <c r="DU6" s="88" t="n">
         <v>0.799</v>
       </c>
-      <c r="DV6" s="74"/>
-      <c r="DW6" s="74"/>
-      <c r="DX6" s="74"/>
-      <c r="DY6" s="74"/>
-      <c r="DZ6" s="74"/>
-      <c r="EA6" s="73"/>
-      <c r="EB6" s="73"/>
-      <c r="EC6" s="74"/>
-      <c r="ED6" s="73"/>
-      <c r="EE6" s="73"/>
-      <c r="EF6" s="73"/>
-      <c r="EG6" s="73"/>
+      <c r="DV6" s="89"/>
+      <c r="DW6" s="89"/>
+      <c r="DX6" s="89"/>
+      <c r="DY6" s="89"/>
+      <c r="DZ6" s="89"/>
+      <c r="EA6" s="88"/>
+      <c r="EB6" s="88"/>
+      <c r="EC6" s="89"/>
+      <c r="ED6" s="88"/>
+      <c r="EE6" s="88"/>
+      <c r="EF6" s="88"/>
+      <c r="EG6" s="88"/>
       <c r="EI6" s="2"/>
-      <c r="EJ6" s="72" t="s">
+      <c r="EJ6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="EK6" s="73" t="n">
+      <c r="EK6" s="88" t="n">
         <v>0.799</v>
       </c>
-      <c r="EL6" s="74"/>
-      <c r="EM6" s="74"/>
-      <c r="EN6" s="74"/>
-      <c r="EO6" s="74"/>
-      <c r="EP6" s="74"/>
-      <c r="EQ6" s="73"/>
-      <c r="ER6" s="73"/>
-      <c r="ES6" s="74"/>
-      <c r="ET6" s="73"/>
-      <c r="EU6" s="73"/>
-      <c r="EV6" s="73"/>
-      <c r="EW6" s="73"/>
+      <c r="EL6" s="89"/>
+      <c r="EM6" s="89"/>
+      <c r="EN6" s="89"/>
+      <c r="EO6" s="89"/>
+      <c r="EP6" s="89"/>
+      <c r="EQ6" s="88"/>
+      <c r="ER6" s="88"/>
+      <c r="ES6" s="89"/>
+      <c r="ET6" s="88"/>
+      <c r="EU6" s="88"/>
+      <c r="EV6" s="88"/>
+      <c r="EW6" s="88"/>
       <c r="EY6" s="2"/>
       <c r="EZ6" s="10" t="s">
         <v>8</v>
@@ -5952,7 +6577,7 @@
       <c r="M7" s="12" t="n">
         <v>0.786</v>
       </c>
-      <c r="N7" s="69" t="n">
+      <c r="N7" s="84" t="n">
         <v>0.793</v>
       </c>
       <c r="O7" s="11" t="n">
@@ -5995,14 +6620,14 @@
       <c r="AC7" s="12" t="n">
         <v>0.793</v>
       </c>
-      <c r="AD7" s="71"/>
+      <c r="AD7" s="86"/>
       <c r="AE7" s="11" t="n">
         <v>0.786</v>
       </c>
       <c r="AF7" s="11" t="n">
         <v>0.781</v>
       </c>
-      <c r="AG7" s="69" t="n">
+      <c r="AG7" s="84" t="n">
         <v>0.793</v>
       </c>
       <c r="AH7" s="11" t="n">
@@ -6036,14 +6661,14 @@
       <c r="AS7" s="12" t="n">
         <v>0.793</v>
       </c>
-      <c r="AT7" s="71"/>
+      <c r="AT7" s="86"/>
       <c r="AU7" s="11" t="n">
         <v>0.787</v>
       </c>
       <c r="AV7" s="11" t="n">
         <v>0.781</v>
       </c>
-      <c r="AW7" s="71"/>
+      <c r="AW7" s="86"/>
       <c r="AX7" s="11" t="n">
         <v>0.789</v>
       </c>
@@ -6075,14 +6700,14 @@
       <c r="BI7" s="12" t="n">
         <v>0.792</v>
       </c>
-      <c r="BJ7" s="71"/>
+      <c r="BJ7" s="86"/>
       <c r="BK7" s="11" t="n">
         <v>0.787</v>
       </c>
       <c r="BL7" s="11" t="n">
         <v>0.784</v>
       </c>
-      <c r="BM7" s="71"/>
+      <c r="BM7" s="86"/>
       <c r="BN7" s="11" t="n">
         <v>0.78</v>
       </c>
@@ -6092,130 +6717,130 @@
       <c r="BP7" s="16" t="n">
         <v>0.78</v>
       </c>
-      <c r="BQ7" s="75"/>
+      <c r="BQ7" s="90"/>
       <c r="BR7" s="16" t="n">
         <v>0.786</v>
       </c>
       <c r="BS7" s="47" t="n">
         <v>0.786</v>
       </c>
-      <c r="BT7" s="76" t="n">
+      <c r="BT7" s="91" t="n">
         <v>0.792</v>
       </c>
       <c r="BU7" s="16" t="n">
         <v>0.781</v>
       </c>
       <c r="BW7" s="2"/>
-      <c r="BX7" s="72" t="s">
+      <c r="BX7" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="BY7" s="73" t="n">
+      <c r="BY7" s="88" t="n">
         <v>0.792</v>
       </c>
-      <c r="BZ7" s="74"/>
-      <c r="CA7" s="74" t="n">
+      <c r="BZ7" s="89"/>
+      <c r="CA7" s="89" t="n">
         <v>0.787</v>
       </c>
-      <c r="CB7" s="74" t="n">
+      <c r="CB7" s="89" t="n">
         <v>0.784</v>
       </c>
-      <c r="CC7" s="74"/>
-      <c r="CD7" s="74" t="n">
+      <c r="CC7" s="89"/>
+      <c r="CD7" s="89" t="n">
         <v>0.78</v>
       </c>
-      <c r="CE7" s="77" t="n">
+      <c r="CE7" s="92" t="n">
         <v>0.779</v>
       </c>
-      <c r="CF7" s="77" t="n">
+      <c r="CF7" s="92" t="n">
         <v>0.779</v>
       </c>
-      <c r="CG7" s="78"/>
-      <c r="CH7" s="77" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="CI7" s="79" t="n">
+      <c r="CG7" s="93"/>
+      <c r="CH7" s="92" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="CI7" s="94" t="n">
         <v>0.698</v>
       </c>
-      <c r="CJ7" s="77"/>
-      <c r="CK7" s="77" t="n">
+      <c r="CJ7" s="92"/>
+      <c r="CK7" s="92" t="n">
         <v>0.78</v>
       </c>
       <c r="CM7" s="2"/>
-      <c r="CN7" s="72" t="s">
+      <c r="CN7" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="CO7" s="73" t="n">
+      <c r="CO7" s="88" t="n">
         <v>0.792</v>
       </c>
-      <c r="CP7" s="74"/>
-      <c r="CQ7" s="74"/>
-      <c r="CR7" s="74"/>
-      <c r="CS7" s="74"/>
-      <c r="CT7" s="74"/>
-      <c r="CU7" s="77"/>
-      <c r="CV7" s="77"/>
-      <c r="CW7" s="78"/>
-      <c r="CX7" s="77"/>
-      <c r="CY7" s="79"/>
-      <c r="CZ7" s="77"/>
-      <c r="DA7" s="77"/>
+      <c r="CP7" s="89"/>
+      <c r="CQ7" s="89"/>
+      <c r="CR7" s="89"/>
+      <c r="CS7" s="89"/>
+      <c r="CT7" s="89"/>
+      <c r="CU7" s="92"/>
+      <c r="CV7" s="92"/>
+      <c r="CW7" s="93"/>
+      <c r="CX7" s="92"/>
+      <c r="CY7" s="94"/>
+      <c r="CZ7" s="92"/>
+      <c r="DA7" s="92"/>
       <c r="DC7" s="2"/>
-      <c r="DD7" s="72" t="s">
+      <c r="DD7" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="DE7" s="73" t="n">
+      <c r="DE7" s="88" t="n">
         <v>0.792</v>
       </c>
-      <c r="DF7" s="74"/>
-      <c r="DG7" s="74"/>
-      <c r="DH7" s="74"/>
-      <c r="DI7" s="74"/>
-      <c r="DJ7" s="74"/>
-      <c r="DK7" s="77"/>
-      <c r="DL7" s="77"/>
-      <c r="DM7" s="78"/>
-      <c r="DN7" s="77"/>
-      <c r="DO7" s="79"/>
-      <c r="DP7" s="77"/>
-      <c r="DQ7" s="77"/>
+      <c r="DF7" s="89"/>
+      <c r="DG7" s="89"/>
+      <c r="DH7" s="89"/>
+      <c r="DI7" s="89"/>
+      <c r="DJ7" s="89"/>
+      <c r="DK7" s="92"/>
+      <c r="DL7" s="92"/>
+      <c r="DM7" s="93"/>
+      <c r="DN7" s="92"/>
+      <c r="DO7" s="94"/>
+      <c r="DP7" s="92"/>
+      <c r="DQ7" s="92"/>
       <c r="DS7" s="2"/>
-      <c r="DT7" s="72" t="s">
+      <c r="DT7" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="DU7" s="73" t="n">
+      <c r="DU7" s="88" t="n">
         <v>0.792</v>
       </c>
-      <c r="DV7" s="74"/>
-      <c r="DW7" s="74"/>
-      <c r="DX7" s="74"/>
-      <c r="DY7" s="74"/>
-      <c r="DZ7" s="74"/>
-      <c r="EA7" s="77"/>
-      <c r="EB7" s="77"/>
-      <c r="EC7" s="78"/>
-      <c r="ED7" s="77"/>
-      <c r="EE7" s="79"/>
-      <c r="EF7" s="77"/>
-      <c r="EG7" s="77"/>
+      <c r="DV7" s="89"/>
+      <c r="DW7" s="89"/>
+      <c r="DX7" s="89"/>
+      <c r="DY7" s="89"/>
+      <c r="DZ7" s="89"/>
+      <c r="EA7" s="92"/>
+      <c r="EB7" s="92"/>
+      <c r="EC7" s="93"/>
+      <c r="ED7" s="92"/>
+      <c r="EE7" s="94"/>
+      <c r="EF7" s="92"/>
+      <c r="EG7" s="92"/>
       <c r="EI7" s="2"/>
-      <c r="EJ7" s="72" t="s">
+      <c r="EJ7" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="EK7" s="73" t="n">
+      <c r="EK7" s="88" t="n">
         <v>0.792</v>
       </c>
-      <c r="EL7" s="74"/>
-      <c r="EM7" s="74"/>
-      <c r="EN7" s="74"/>
-      <c r="EO7" s="74"/>
-      <c r="EP7" s="74"/>
-      <c r="EQ7" s="77"/>
-      <c r="ER7" s="77"/>
-      <c r="ES7" s="78"/>
-      <c r="ET7" s="77"/>
-      <c r="EU7" s="79"/>
-      <c r="EV7" s="77"/>
-      <c r="EW7" s="77"/>
+      <c r="EL7" s="89"/>
+      <c r="EM7" s="89"/>
+      <c r="EN7" s="89"/>
+      <c r="EO7" s="89"/>
+      <c r="EP7" s="89"/>
+      <c r="EQ7" s="92"/>
+      <c r="ER7" s="92"/>
+      <c r="ES7" s="93"/>
+      <c r="ET7" s="92"/>
+      <c r="EU7" s="94"/>
+      <c r="EV7" s="92"/>
+      <c r="EW7" s="92"/>
       <c r="EY7" s="2"/>
       <c r="EZ7" s="10" t="s">
         <v>9</v>
@@ -6267,7 +6892,7 @@
       <c r="P8" s="8" t="n">
         <v>0.77</v>
       </c>
-      <c r="Q8" s="60" t="n">
+      <c r="Q8" s="75" t="n">
         <v>0.787</v>
       </c>
       <c r="R8" s="9" t="n">
@@ -6312,8 +6937,8 @@
       <c r="AF8" s="8" t="n">
         <v>0.771</v>
       </c>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="59" t="n">
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="74" t="n">
         <v>0.789</v>
       </c>
       <c r="AI8" s="8" t="n">
@@ -6355,8 +6980,8 @@
       <c r="AV8" s="8" t="n">
         <v>0.777</v>
       </c>
-      <c r="AW8" s="62"/>
-      <c r="AX8" s="61"/>
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="76"/>
       <c r="AY8" s="8" t="n">
         <v>0.789</v>
       </c>
@@ -6387,7 +7012,7 @@
       <c r="BI8" s="9" t="n">
         <v>0.789</v>
       </c>
-      <c r="BJ8" s="59" t="n">
+      <c r="BJ8" s="74" t="n">
         <v>0.79</v>
       </c>
       <c r="BK8" s="33" t="n">
@@ -6396,9 +7021,9 @@
       <c r="BL8" s="8" t="n">
         <v>0.78</v>
       </c>
-      <c r="BM8" s="62"/>
-      <c r="BN8" s="61"/>
-      <c r="BO8" s="62"/>
+      <c r="BM8" s="77"/>
+      <c r="BN8" s="76"/>
+      <c r="BO8" s="77"/>
       <c r="BP8" s="9" t="n">
         <v>0.783</v>
       </c>
@@ -6426,20 +7051,20 @@
       <c r="BY8" s="9" t="n">
         <v>0.79</v>
       </c>
-      <c r="BZ8" s="61"/>
+      <c r="BZ8" s="76"/>
       <c r="CA8" s="33" t="n">
         <v>0.789</v>
       </c>
       <c r="CB8" s="8" t="n">
         <v>0.78</v>
       </c>
-      <c r="CC8" s="62"/>
-      <c r="CD8" s="61"/>
-      <c r="CE8" s="62"/>
+      <c r="CC8" s="77"/>
+      <c r="CD8" s="76"/>
+      <c r="CE8" s="77"/>
       <c r="CF8" s="9" t="n">
         <v>0.783</v>
       </c>
-      <c r="CG8" s="60" t="n">
+      <c r="CG8" s="75" t="n">
         <v>0.794</v>
       </c>
       <c r="CH8" s="9" t="n">
@@ -6457,101 +7082,101 @@
       <c r="CM8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CN8" s="63" t="s">
+      <c r="CN8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="CO8" s="64" t="n">
+      <c r="CO8" s="79" t="n">
         <v>0.794</v>
       </c>
-      <c r="CP8" s="64"/>
-      <c r="CQ8" s="67" t="n">
+      <c r="CP8" s="79"/>
+      <c r="CQ8" s="82" t="n">
         <v>0.784</v>
       </c>
-      <c r="CR8" s="66" t="n">
+      <c r="CR8" s="81" t="n">
         <v>0.78</v>
       </c>
-      <c r="CS8" s="66"/>
-      <c r="CT8" s="64"/>
-      <c r="CU8" s="66"/>
-      <c r="CV8" s="64" t="n">
+      <c r="CS8" s="81"/>
+      <c r="CT8" s="79"/>
+      <c r="CU8" s="81"/>
+      <c r="CV8" s="79" t="n">
         <v>0.79</v>
       </c>
-      <c r="CW8" s="66"/>
-      <c r="CX8" s="64" t="n">
+      <c r="CW8" s="81"/>
+      <c r="CX8" s="79" t="n">
         <v>0.793</v>
       </c>
-      <c r="CY8" s="67" t="n">
+      <c r="CY8" s="82" t="n">
         <v>0.783</v>
       </c>
-      <c r="CZ8" s="64" t="n">
+      <c r="CZ8" s="79" t="n">
         <v>0.793</v>
       </c>
-      <c r="DA8" s="64" t="n">
+      <c r="DA8" s="79" t="n">
         <v>0.791</v>
       </c>
       <c r="DC8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="DD8" s="63" t="s">
+      <c r="DD8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="DE8" s="64" t="n">
+      <c r="DE8" s="79" t="n">
         <v>0.794</v>
       </c>
-      <c r="DF8" s="64"/>
-      <c r="DG8" s="67"/>
-      <c r="DH8" s="66"/>
-      <c r="DI8" s="66"/>
-      <c r="DJ8" s="64"/>
-      <c r="DK8" s="66"/>
-      <c r="DL8" s="64"/>
-      <c r="DM8" s="66"/>
-      <c r="DN8" s="64"/>
-      <c r="DO8" s="67"/>
-      <c r="DP8" s="64"/>
-      <c r="DQ8" s="64"/>
+      <c r="DF8" s="79"/>
+      <c r="DG8" s="82"/>
+      <c r="DH8" s="81"/>
+      <c r="DI8" s="81"/>
+      <c r="DJ8" s="79"/>
+      <c r="DK8" s="81"/>
+      <c r="DL8" s="79"/>
+      <c r="DM8" s="81"/>
+      <c r="DN8" s="79"/>
+      <c r="DO8" s="82"/>
+      <c r="DP8" s="79"/>
+      <c r="DQ8" s="79"/>
       <c r="DS8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="DT8" s="63" t="s">
+      <c r="DT8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="DU8" s="64" t="n">
+      <c r="DU8" s="79" t="n">
         <v>0.794</v>
       </c>
-      <c r="DV8" s="64"/>
-      <c r="DW8" s="67"/>
-      <c r="DX8" s="66"/>
-      <c r="DY8" s="66"/>
-      <c r="DZ8" s="64"/>
-      <c r="EA8" s="66"/>
-      <c r="EB8" s="64"/>
-      <c r="EC8" s="66"/>
-      <c r="ED8" s="64"/>
-      <c r="EE8" s="67"/>
-      <c r="EF8" s="64"/>
-      <c r="EG8" s="64"/>
+      <c r="DV8" s="79"/>
+      <c r="DW8" s="82"/>
+      <c r="DX8" s="81"/>
+      <c r="DY8" s="81"/>
+      <c r="DZ8" s="79"/>
+      <c r="EA8" s="81"/>
+      <c r="EB8" s="79"/>
+      <c r="EC8" s="81"/>
+      <c r="ED8" s="79"/>
+      <c r="EE8" s="82"/>
+      <c r="EF8" s="79"/>
+      <c r="EG8" s="79"/>
       <c r="EI8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="EJ8" s="63" t="s">
+      <c r="EJ8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="EK8" s="64" t="n">
+      <c r="EK8" s="79" t="n">
         <v>0.794</v>
       </c>
-      <c r="EL8" s="64"/>
-      <c r="EM8" s="67"/>
-      <c r="EN8" s="66"/>
-      <c r="EO8" s="66"/>
-      <c r="EP8" s="64"/>
-      <c r="EQ8" s="66"/>
-      <c r="ER8" s="64"/>
-      <c r="ES8" s="66"/>
-      <c r="ET8" s="64"/>
-      <c r="EU8" s="67"/>
-      <c r="EV8" s="64"/>
-      <c r="EW8" s="64"/>
+      <c r="EL8" s="79"/>
+      <c r="EM8" s="82"/>
+      <c r="EN8" s="81"/>
+      <c r="EO8" s="81"/>
+      <c r="EP8" s="79"/>
+      <c r="EQ8" s="81"/>
+      <c r="ER8" s="79"/>
+      <c r="ES8" s="81"/>
+      <c r="ET8" s="79"/>
+      <c r="EU8" s="82"/>
+      <c r="EV8" s="79"/>
+      <c r="EW8" s="79"/>
       <c r="EY8" s="13" t="s">
         <v>10</v>
       </c>
@@ -6595,7 +7220,7 @@
       <c r="N9" s="11" t="n">
         <v>0.778</v>
       </c>
-      <c r="O9" s="69" t="n">
+      <c r="O9" s="84" t="n">
         <v>0.78</v>
       </c>
       <c r="P9" s="11" t="n">
@@ -6638,7 +7263,7 @@
       <c r="AD9" s="12" t="n">
         <v>0.777</v>
       </c>
-      <c r="AE9" s="80"/>
+      <c r="AE9" s="95"/>
       <c r="AF9" s="11" t="n">
         <v>0.779</v>
       </c>
@@ -6648,7 +7273,7 @@
       <c r="AH9" s="11" t="n">
         <v>0.778</v>
       </c>
-      <c r="AI9" s="69" t="n">
+      <c r="AI9" s="84" t="n">
         <v>0.788</v>
       </c>
       <c r="AJ9" s="12" t="n">
@@ -6679,7 +7304,7 @@
       <c r="AT9" s="12" t="n">
         <v>0.788</v>
       </c>
-      <c r="AU9" s="80"/>
+      <c r="AU9" s="95"/>
       <c r="AV9" s="11" t="n">
         <v>0.787</v>
       </c>
@@ -6689,7 +7314,7 @@
       <c r="AX9" s="11" t="n">
         <v>0.788</v>
       </c>
-      <c r="AY9" s="71"/>
+      <c r="AY9" s="86"/>
       <c r="AZ9" s="12" t="n">
         <v>0.786</v>
       </c>
@@ -6715,8 +7340,8 @@
       <c r="BI9" s="12" t="n">
         <v>0.788</v>
       </c>
-      <c r="BJ9" s="70"/>
-      <c r="BK9" s="80"/>
+      <c r="BJ9" s="85"/>
+      <c r="BK9" s="95"/>
       <c r="BL9" s="11" t="n">
         <v>0.787</v>
       </c>
@@ -6726,7 +7351,7 @@
       <c r="BN9" s="11" t="n">
         <v>0.787</v>
       </c>
-      <c r="BO9" s="71"/>
+      <c r="BO9" s="86"/>
       <c r="BP9" s="12" t="n">
         <v>0.787</v>
       </c>
@@ -6736,7 +7361,7 @@
       <c r="BR9" s="12" t="n">
         <v>0.783</v>
       </c>
-      <c r="BS9" s="81" t="n">
+      <c r="BS9" s="96" t="n">
         <v>0.789</v>
       </c>
       <c r="BT9" s="12" t="n">
@@ -6752,18 +7377,18 @@
       <c r="BY9" s="12" t="n">
         <v>0.789</v>
       </c>
-      <c r="BZ9" s="70"/>
-      <c r="CA9" s="80"/>
+      <c r="BZ9" s="85"/>
+      <c r="CA9" s="95"/>
       <c r="CB9" s="11" t="n">
         <v>0.784</v>
       </c>
-      <c r="CC9" s="69" t="n">
+      <c r="CC9" s="84" t="n">
         <v>0.789</v>
       </c>
       <c r="CD9" s="11" t="n">
         <v>0.788</v>
       </c>
-      <c r="CE9" s="71"/>
+      <c r="CE9" s="86"/>
       <c r="CF9" s="12" t="n">
         <v>0.788</v>
       </c>
@@ -6773,7 +7398,7 @@
       <c r="CH9" s="12" t="n">
         <v>0.69</v>
       </c>
-      <c r="CI9" s="82"/>
+      <c r="CI9" s="97"/>
       <c r="CJ9" s="12" t="n">
         <v>0.643</v>
       </c>
@@ -6787,16 +7412,16 @@
       <c r="CO9" s="12" t="n">
         <v>0.789</v>
       </c>
-      <c r="CP9" s="70"/>
-      <c r="CQ9" s="80"/>
+      <c r="CP9" s="85"/>
+      <c r="CQ9" s="95"/>
       <c r="CR9" s="11" t="n">
         <v>0.789</v>
       </c>
-      <c r="CS9" s="71"/>
-      <c r="CT9" s="69" t="n">
+      <c r="CS9" s="86"/>
+      <c r="CT9" s="84" t="n">
         <v>0.791</v>
       </c>
-      <c r="CU9" s="71"/>
+      <c r="CU9" s="86"/>
       <c r="CV9" s="12" t="n">
         <v>0.789</v>
       </c>
@@ -6806,7 +7431,7 @@
       <c r="CX9" s="12" t="n">
         <v>0.673</v>
       </c>
-      <c r="CY9" s="82"/>
+      <c r="CY9" s="97"/>
       <c r="CZ9" s="12" t="n">
         <v>0.647</v>
       </c>
@@ -6820,14 +7445,14 @@
       <c r="DE9" s="12" t="n">
         <v>0.791</v>
       </c>
-      <c r="DF9" s="70"/>
-      <c r="DG9" s="80"/>
+      <c r="DF9" s="85"/>
+      <c r="DG9" s="95"/>
       <c r="DH9" s="11" t="n">
         <v>0.788</v>
       </c>
-      <c r="DI9" s="71"/>
-      <c r="DJ9" s="71"/>
-      <c r="DK9" s="71"/>
+      <c r="DI9" s="86"/>
+      <c r="DJ9" s="86"/>
+      <c r="DK9" s="86"/>
       <c r="DL9" s="12" t="n">
         <v>0.788</v>
       </c>
@@ -6837,61 +7462,61 @@
       <c r="DN9" s="12" t="n">
         <v>0.679</v>
       </c>
-      <c r="DO9" s="82"/>
+      <c r="DO9" s="97"/>
       <c r="DP9" s="12" t="n">
         <v>0.643</v>
       </c>
-      <c r="DQ9" s="68" t="n">
+      <c r="DQ9" s="83" t="n">
         <v>0.791</v>
       </c>
       <c r="DS9" s="13"/>
-      <c r="DT9" s="72" t="s">
+      <c r="DT9" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="DU9" s="73" t="n">
+      <c r="DU9" s="88" t="n">
         <v>0.791</v>
       </c>
-      <c r="DV9" s="73"/>
-      <c r="DW9" s="65"/>
-      <c r="DX9" s="74" t="n">
+      <c r="DV9" s="88"/>
+      <c r="DW9" s="80"/>
+      <c r="DX9" s="89" t="n">
         <v>0.788</v>
       </c>
-      <c r="DY9" s="74"/>
-      <c r="DZ9" s="74"/>
-      <c r="EA9" s="74"/>
-      <c r="EB9" s="73" t="n">
+      <c r="DY9" s="89"/>
+      <c r="DZ9" s="89"/>
+      <c r="EA9" s="89"/>
+      <c r="EB9" s="88" t="n">
         <v>0.788</v>
       </c>
-      <c r="EC9" s="74" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="ED9" s="73" t="n">
+      <c r="EC9" s="89" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="ED9" s="88" t="n">
         <v>0.68</v>
       </c>
-      <c r="EE9" s="83"/>
-      <c r="EF9" s="73" t="n">
+      <c r="EE9" s="98"/>
+      <c r="EF9" s="88" t="n">
         <v>0.642</v>
       </c>
-      <c r="EG9" s="73"/>
+      <c r="EG9" s="88"/>
       <c r="EI9" s="13"/>
-      <c r="EJ9" s="72" t="s">
+      <c r="EJ9" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="EK9" s="73" t="n">
+      <c r="EK9" s="88" t="n">
         <v>0.791</v>
       </c>
-      <c r="EL9" s="73"/>
-      <c r="EM9" s="65"/>
-      <c r="EN9" s="74"/>
-      <c r="EO9" s="74"/>
-      <c r="EP9" s="74"/>
-      <c r="EQ9" s="74"/>
-      <c r="ER9" s="73"/>
-      <c r="ES9" s="74"/>
-      <c r="ET9" s="73"/>
-      <c r="EU9" s="83"/>
-      <c r="EV9" s="73"/>
-      <c r="EW9" s="73"/>
+      <c r="EL9" s="88"/>
+      <c r="EM9" s="80"/>
+      <c r="EN9" s="89"/>
+      <c r="EO9" s="89"/>
+      <c r="EP9" s="89"/>
+      <c r="EQ9" s="89"/>
+      <c r="ER9" s="88"/>
+      <c r="ES9" s="89"/>
+      <c r="ET9" s="88"/>
+      <c r="EU9" s="98"/>
+      <c r="EV9" s="88"/>
+      <c r="EW9" s="88"/>
       <c r="EY9" s="13"/>
       <c r="EZ9" s="10" t="s">
         <v>7</v>
@@ -6948,7 +7573,7 @@
       <c r="S10" s="11" t="n">
         <v>0.782</v>
       </c>
-      <c r="T10" s="68" t="n">
+      <c r="T10" s="83" t="n">
         <v>0.788</v>
       </c>
       <c r="U10" s="11" t="n">
@@ -6985,13 +7610,13 @@
       <c r="AG10" s="11" t="n">
         <v>0.787</v>
       </c>
-      <c r="AH10" s="69" t="n">
+      <c r="AH10" s="84" t="n">
         <v>0.788</v>
       </c>
       <c r="AI10" s="11" t="n">
         <v>0.788</v>
       </c>
-      <c r="AJ10" s="70"/>
+      <c r="AJ10" s="85"/>
       <c r="AK10" s="11" t="n">
         <v>0.788</v>
       </c>
@@ -7026,11 +7651,11 @@
       <c r="AW10" s="11" t="n">
         <v>0.783</v>
       </c>
-      <c r="AX10" s="71"/>
+      <c r="AX10" s="86"/>
       <c r="AY10" s="11" t="n">
         <v>0.788</v>
       </c>
-      <c r="AZ10" s="70"/>
+      <c r="AZ10" s="85"/>
       <c r="BA10" s="11"/>
       <c r="BB10" s="12" t="n">
         <v>0.783</v>
@@ -7045,119 +7670,119 @@
         <v>0.783</v>
       </c>
       <c r="BG10" s="13"/>
-      <c r="BH10" s="72" t="s">
+      <c r="BH10" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="BI10" s="73" t="n">
+      <c r="BI10" s="88" t="n">
         <v>0.789</v>
       </c>
-      <c r="BJ10" s="73"/>
-      <c r="BK10" s="84"/>
-      <c r="BL10" s="74"/>
-      <c r="BM10" s="74"/>
-      <c r="BN10" s="74"/>
-      <c r="BO10" s="74"/>
-      <c r="BP10" s="73"/>
-      <c r="BQ10" s="74"/>
-      <c r="BR10" s="73"/>
-      <c r="BS10" s="83"/>
-      <c r="BT10" s="73"/>
-      <c r="BU10" s="73"/>
+      <c r="BJ10" s="88"/>
+      <c r="BK10" s="99"/>
+      <c r="BL10" s="89"/>
+      <c r="BM10" s="89"/>
+      <c r="BN10" s="89"/>
+      <c r="BO10" s="89"/>
+      <c r="BP10" s="88"/>
+      <c r="BQ10" s="89"/>
+      <c r="BR10" s="88"/>
+      <c r="BS10" s="98"/>
+      <c r="BT10" s="88"/>
+      <c r="BU10" s="88"/>
       <c r="BW10" s="13"/>
-      <c r="BX10" s="72" t="s">
+      <c r="BX10" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="BY10" s="73" t="n">
+      <c r="BY10" s="88" t="n">
         <v>0.789</v>
       </c>
-      <c r="BZ10" s="73"/>
-      <c r="CA10" s="84"/>
-      <c r="CB10" s="74"/>
-      <c r="CC10" s="74"/>
-      <c r="CD10" s="74"/>
-      <c r="CE10" s="74"/>
-      <c r="CF10" s="73"/>
-      <c r="CG10" s="74"/>
-      <c r="CH10" s="73"/>
-      <c r="CI10" s="83"/>
-      <c r="CJ10" s="73"/>
-      <c r="CK10" s="73"/>
+      <c r="BZ10" s="88"/>
+      <c r="CA10" s="99"/>
+      <c r="CB10" s="89"/>
+      <c r="CC10" s="89"/>
+      <c r="CD10" s="89"/>
+      <c r="CE10" s="89"/>
+      <c r="CF10" s="88"/>
+      <c r="CG10" s="89"/>
+      <c r="CH10" s="88"/>
+      <c r="CI10" s="98"/>
+      <c r="CJ10" s="88"/>
+      <c r="CK10" s="88"/>
       <c r="CM10" s="13"/>
-      <c r="CN10" s="72" t="s">
+      <c r="CN10" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="CO10" s="73" t="n">
+      <c r="CO10" s="88" t="n">
         <v>0.789</v>
       </c>
-      <c r="CP10" s="73"/>
-      <c r="CQ10" s="84"/>
-      <c r="CR10" s="74"/>
-      <c r="CS10" s="74"/>
-      <c r="CT10" s="74"/>
-      <c r="CU10" s="74"/>
-      <c r="CV10" s="73"/>
-      <c r="CW10" s="74"/>
-      <c r="CX10" s="73"/>
-      <c r="CY10" s="83"/>
-      <c r="CZ10" s="73"/>
-      <c r="DA10" s="73"/>
+      <c r="CP10" s="88"/>
+      <c r="CQ10" s="99"/>
+      <c r="CR10" s="89"/>
+      <c r="CS10" s="89"/>
+      <c r="CT10" s="89"/>
+      <c r="CU10" s="89"/>
+      <c r="CV10" s="88"/>
+      <c r="CW10" s="89"/>
+      <c r="CX10" s="88"/>
+      <c r="CY10" s="98"/>
+      <c r="CZ10" s="88"/>
+      <c r="DA10" s="88"/>
       <c r="DC10" s="13"/>
-      <c r="DD10" s="72" t="s">
+      <c r="DD10" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="DE10" s="73" t="n">
+      <c r="DE10" s="88" t="n">
         <v>0.789</v>
       </c>
-      <c r="DF10" s="73"/>
-      <c r="DG10" s="84"/>
-      <c r="DH10" s="74"/>
-      <c r="DI10" s="74"/>
-      <c r="DJ10" s="74"/>
-      <c r="DK10" s="74"/>
-      <c r="DL10" s="73"/>
-      <c r="DM10" s="74"/>
-      <c r="DN10" s="73"/>
-      <c r="DO10" s="83"/>
-      <c r="DP10" s="73"/>
-      <c r="DQ10" s="73"/>
+      <c r="DF10" s="88"/>
+      <c r="DG10" s="99"/>
+      <c r="DH10" s="89"/>
+      <c r="DI10" s="89"/>
+      <c r="DJ10" s="89"/>
+      <c r="DK10" s="89"/>
+      <c r="DL10" s="88"/>
+      <c r="DM10" s="89"/>
+      <c r="DN10" s="88"/>
+      <c r="DO10" s="98"/>
+      <c r="DP10" s="88"/>
+      <c r="DQ10" s="88"/>
       <c r="DS10" s="13"/>
-      <c r="DT10" s="72" t="s">
+      <c r="DT10" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="DU10" s="73" t="n">
+      <c r="DU10" s="88" t="n">
         <v>0.789</v>
       </c>
-      <c r="DV10" s="73"/>
-      <c r="DW10" s="84"/>
-      <c r="DX10" s="74"/>
-      <c r="DY10" s="74"/>
-      <c r="DZ10" s="74"/>
-      <c r="EA10" s="74"/>
-      <c r="EB10" s="73"/>
-      <c r="EC10" s="74"/>
-      <c r="ED10" s="73"/>
-      <c r="EE10" s="83"/>
-      <c r="EF10" s="73"/>
-      <c r="EG10" s="73"/>
+      <c r="DV10" s="88"/>
+      <c r="DW10" s="99"/>
+      <c r="DX10" s="89"/>
+      <c r="DY10" s="89"/>
+      <c r="DZ10" s="89"/>
+      <c r="EA10" s="89"/>
+      <c r="EB10" s="88"/>
+      <c r="EC10" s="89"/>
+      <c r="ED10" s="88"/>
+      <c r="EE10" s="98"/>
+      <c r="EF10" s="88"/>
+      <c r="EG10" s="88"/>
       <c r="EI10" s="13"/>
-      <c r="EJ10" s="72" t="s">
+      <c r="EJ10" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="EK10" s="73" t="n">
+      <c r="EK10" s="88" t="n">
         <v>0.789</v>
       </c>
-      <c r="EL10" s="73"/>
-      <c r="EM10" s="84"/>
-      <c r="EN10" s="74"/>
-      <c r="EO10" s="74"/>
-      <c r="EP10" s="74"/>
-      <c r="EQ10" s="74"/>
-      <c r="ER10" s="73"/>
-      <c r="ES10" s="74"/>
-      <c r="ET10" s="73"/>
-      <c r="EU10" s="83"/>
-      <c r="EV10" s="73"/>
-      <c r="EW10" s="73"/>
+      <c r="EL10" s="88"/>
+      <c r="EM10" s="99"/>
+      <c r="EN10" s="89"/>
+      <c r="EO10" s="89"/>
+      <c r="EP10" s="89"/>
+      <c r="EQ10" s="89"/>
+      <c r="ER10" s="88"/>
+      <c r="ES10" s="89"/>
+      <c r="ET10" s="88"/>
+      <c r="EU10" s="98"/>
+      <c r="EV10" s="88"/>
+      <c r="EW10" s="88"/>
       <c r="EY10" s="13"/>
       <c r="EZ10" s="10" t="s">
         <v>8</v>
@@ -7199,7 +7824,7 @@
       <c r="N11" s="15" t="n">
         <v>0.78</v>
       </c>
-      <c r="O11" s="85" t="n">
+      <c r="O11" s="100" t="n">
         <v>0.782</v>
       </c>
       <c r="P11" s="15" t="n">
@@ -7242,7 +7867,7 @@
       <c r="AD11" s="16" t="n">
         <v>0.782</v>
       </c>
-      <c r="AE11" s="86"/>
+      <c r="AE11" s="101"/>
       <c r="AF11" s="15" t="n">
         <v>0.78</v>
       </c>
@@ -7252,7 +7877,7 @@
       <c r="AH11" s="15" t="n">
         <v>0.782</v>
       </c>
-      <c r="AI11" s="85" t="n">
+      <c r="AI11" s="100" t="n">
         <v>0.784</v>
       </c>
       <c r="AJ11" s="15" t="n">
@@ -7283,7 +7908,7 @@
       <c r="AT11" s="16" t="n">
         <v>0.788</v>
       </c>
-      <c r="AU11" s="86"/>
+      <c r="AU11" s="101"/>
       <c r="AV11" s="15" t="n">
         <v>0.783</v>
       </c>
@@ -7293,7 +7918,7 @@
       <c r="AX11" s="15" t="n">
         <v>0.786</v>
       </c>
-      <c r="AY11" s="75"/>
+      <c r="AY11" s="90"/>
       <c r="AZ11" s="15" t="n">
         <v>0.784</v>
       </c>
@@ -7319,8 +7944,8 @@
       <c r="BI11" s="16" t="n">
         <v>0.788</v>
       </c>
-      <c r="BJ11" s="87"/>
-      <c r="BK11" s="86"/>
+      <c r="BJ11" s="102"/>
+      <c r="BK11" s="101"/>
       <c r="BL11" s="15" t="n">
         <v>0.784</v>
       </c>
@@ -7330,7 +7955,7 @@
       <c r="BN11" s="15" t="n">
         <v>0.788</v>
       </c>
-      <c r="BO11" s="75"/>
+      <c r="BO11" s="90"/>
       <c r="BP11" s="15" t="n">
         <v>0.787</v>
       </c>
@@ -7340,7 +7965,7 @@
       <c r="BR11" s="16" t="n">
         <v>0.788</v>
       </c>
-      <c r="BS11" s="88" t="n">
+      <c r="BS11" s="103" t="n">
         <v>0.789</v>
       </c>
       <c r="BT11" s="16" t="n">
@@ -7356,8 +7981,8 @@
       <c r="BY11" s="16" t="n">
         <v>0.789</v>
       </c>
-      <c r="BZ11" s="87"/>
-      <c r="CA11" s="86"/>
+      <c r="BZ11" s="102"/>
+      <c r="CA11" s="101"/>
       <c r="CB11" s="15" t="n">
         <v>0.786</v>
       </c>
@@ -7367,17 +7992,17 @@
       <c r="CD11" s="15" t="n">
         <v>0.788</v>
       </c>
-      <c r="CE11" s="75"/>
+      <c r="CE11" s="90"/>
       <c r="CF11" s="15" t="n">
         <v>0.787</v>
       </c>
-      <c r="CG11" s="85" t="n">
+      <c r="CG11" s="100" t="n">
         <v>0.789</v>
       </c>
       <c r="CH11" s="16" t="n">
         <v>0.682</v>
       </c>
-      <c r="CI11" s="86"/>
+      <c r="CI11" s="101"/>
       <c r="CJ11" s="16" t="n">
         <v>0.619</v>
       </c>
@@ -7391,8 +8016,8 @@
       <c r="CO11" s="16" t="n">
         <v>0.789</v>
       </c>
-      <c r="CP11" s="87"/>
-      <c r="CQ11" s="86"/>
+      <c r="CP11" s="102"/>
+      <c r="CQ11" s="101"/>
       <c r="CR11" s="15" t="n">
         <v>0.786</v>
       </c>
@@ -7402,90 +8027,90 @@
       <c r="CT11" s="15" t="n">
         <v>0.786</v>
       </c>
-      <c r="CU11" s="75"/>
+      <c r="CU11" s="90"/>
       <c r="CV11" s="15" t="n">
         <v>0.787</v>
       </c>
-      <c r="CW11" s="75"/>
+      <c r="CW11" s="90"/>
       <c r="CX11" s="16" t="n">
         <v>0.682</v>
       </c>
-      <c r="CY11" s="86"/>
+      <c r="CY11" s="101"/>
       <c r="CZ11" s="16" t="n">
         <v>0.617</v>
       </c>
-      <c r="DA11" s="76" t="n">
+      <c r="DA11" s="91" t="n">
         <v>0.789</v>
       </c>
       <c r="DC11" s="13"/>
-      <c r="DD11" s="89" t="s">
+      <c r="DD11" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="DE11" s="77" t="n">
+      <c r="DE11" s="92" t="n">
         <v>0.789</v>
       </c>
-      <c r="DF11" s="77"/>
-      <c r="DG11" s="79"/>
-      <c r="DH11" s="78" t="n">
+      <c r="DF11" s="92"/>
+      <c r="DG11" s="94"/>
+      <c r="DH11" s="93" t="n">
         <v>0.788</v>
       </c>
-      <c r="DI11" s="78" t="n">
+      <c r="DI11" s="93" t="n">
         <v>0.788</v>
       </c>
-      <c r="DJ11" s="78" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="DK11" s="78"/>
-      <c r="DL11" s="78" t="n">
+      <c r="DJ11" s="93" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="DK11" s="93"/>
+      <c r="DL11" s="93" t="n">
         <v>0.787</v>
       </c>
-      <c r="DM11" s="78"/>
-      <c r="DN11" s="77" t="n">
+      <c r="DM11" s="93"/>
+      <c r="DN11" s="92" t="n">
         <v>0.683</v>
       </c>
-      <c r="DO11" s="79"/>
-      <c r="DP11" s="77" t="n">
+      <c r="DO11" s="94"/>
+      <c r="DP11" s="92" t="n">
         <v>0.613</v>
       </c>
-      <c r="DQ11" s="77"/>
+      <c r="DQ11" s="92"/>
       <c r="DS11" s="13"/>
-      <c r="DT11" s="89" t="s">
+      <c r="DT11" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="DU11" s="77" t="n">
+      <c r="DU11" s="92" t="n">
         <v>0.789</v>
       </c>
-      <c r="DV11" s="77"/>
-      <c r="DW11" s="79"/>
-      <c r="DX11" s="78"/>
-      <c r="DY11" s="78"/>
-      <c r="DZ11" s="78"/>
-      <c r="EA11" s="78"/>
-      <c r="EB11" s="78"/>
-      <c r="EC11" s="78"/>
-      <c r="ED11" s="77"/>
-      <c r="EE11" s="79"/>
-      <c r="EF11" s="77"/>
-      <c r="EG11" s="77"/>
+      <c r="DV11" s="92"/>
+      <c r="DW11" s="94"/>
+      <c r="DX11" s="93"/>
+      <c r="DY11" s="93"/>
+      <c r="DZ11" s="93"/>
+      <c r="EA11" s="93"/>
+      <c r="EB11" s="93"/>
+      <c r="EC11" s="93"/>
+      <c r="ED11" s="92"/>
+      <c r="EE11" s="94"/>
+      <c r="EF11" s="92"/>
+      <c r="EG11" s="92"/>
       <c r="EI11" s="13"/>
-      <c r="EJ11" s="89" t="s">
+      <c r="EJ11" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="EK11" s="77" t="n">
+      <c r="EK11" s="92" t="n">
         <v>0.789</v>
       </c>
-      <c r="EL11" s="77"/>
-      <c r="EM11" s="79"/>
-      <c r="EN11" s="78"/>
-      <c r="EO11" s="78"/>
-      <c r="EP11" s="78"/>
-      <c r="EQ11" s="78"/>
-      <c r="ER11" s="78"/>
-      <c r="ES11" s="78"/>
-      <c r="ET11" s="77"/>
-      <c r="EU11" s="79"/>
-      <c r="EV11" s="77"/>
-      <c r="EW11" s="77"/>
+      <c r="EL11" s="92"/>
+      <c r="EM11" s="94"/>
+      <c r="EN11" s="93"/>
+      <c r="EO11" s="93"/>
+      <c r="EP11" s="93"/>
+      <c r="EQ11" s="93"/>
+      <c r="ER11" s="93"/>
+      <c r="ES11" s="93"/>
+      <c r="ET11" s="92"/>
+      <c r="EU11" s="94"/>
+      <c r="EV11" s="92"/>
+      <c r="EW11" s="92"/>
       <c r="EY11" s="13"/>
       <c r="EZ11" s="14" t="s">
         <v>9</v>
@@ -7537,7 +8162,7 @@
       <c r="P12" s="8" t="n">
         <v>0.779</v>
       </c>
-      <c r="Q12" s="60" t="n">
+      <c r="Q12" s="75" t="n">
         <v>0.788</v>
       </c>
       <c r="R12" s="9" t="n">
@@ -7582,8 +8207,8 @@
       <c r="AF12" s="8" t="n">
         <v>0.778</v>
       </c>
-      <c r="AG12" s="62"/>
-      <c r="AH12" s="59" t="n">
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="74" t="n">
         <v>0.794</v>
       </c>
       <c r="AI12" s="8" t="n">
@@ -7625,8 +8250,8 @@
       <c r="AV12" s="8" t="n">
         <v>0.781</v>
       </c>
-      <c r="AW12" s="62"/>
-      <c r="AX12" s="61"/>
+      <c r="AW12" s="77"/>
+      <c r="AX12" s="76"/>
       <c r="AY12" s="8" t="n">
         <v>0.796</v>
       </c>
@@ -7666,9 +8291,9 @@
       <c r="BL12" s="8" t="n">
         <v>0.781</v>
       </c>
-      <c r="BM12" s="62"/>
-      <c r="BN12" s="61"/>
-      <c r="BO12" s="62"/>
+      <c r="BM12" s="77"/>
+      <c r="BN12" s="76"/>
+      <c r="BO12" s="77"/>
       <c r="BP12" s="9" t="n">
         <v>0.793</v>
       </c>
@@ -7681,7 +8306,7 @@
       <c r="BS12" s="33" t="n">
         <v>0.791</v>
       </c>
-      <c r="BT12" s="59" t="n">
+      <c r="BT12" s="74" t="n">
         <v>0.796</v>
       </c>
       <c r="BU12" s="9" t="n">
@@ -7705,22 +8330,22 @@
       <c r="CB12" s="8" t="n">
         <v>0.781</v>
       </c>
-      <c r="CC12" s="62"/>
-      <c r="CD12" s="61"/>
-      <c r="CE12" s="62"/>
+      <c r="CC12" s="77"/>
+      <c r="CD12" s="76"/>
+      <c r="CE12" s="77"/>
       <c r="CF12" s="9" t="n">
         <v>0.793</v>
       </c>
       <c r="CG12" s="8" t="n">
         <v>0.79</v>
       </c>
-      <c r="CH12" s="59" t="n">
+      <c r="CH12" s="74" t="n">
         <v>0.796</v>
       </c>
       <c r="CI12" s="33" t="n">
         <v>0.698</v>
       </c>
-      <c r="CJ12" s="61"/>
+      <c r="CJ12" s="76"/>
       <c r="CK12" s="9" t="n">
         <v>0.787</v>
       </c>
@@ -7742,20 +8367,20 @@
       <c r="CR12" s="8" t="n">
         <v>0.783</v>
       </c>
-      <c r="CS12" s="62"/>
-      <c r="CT12" s="61"/>
-      <c r="CU12" s="62"/>
-      <c r="CV12" s="59" t="n">
+      <c r="CS12" s="77"/>
+      <c r="CT12" s="76"/>
+      <c r="CU12" s="77"/>
+      <c r="CV12" s="74" t="n">
         <v>0.8</v>
       </c>
       <c r="CW12" s="8" t="n">
         <v>0.791</v>
       </c>
-      <c r="CX12" s="61"/>
+      <c r="CX12" s="76"/>
       <c r="CY12" s="33" t="n">
         <v>0.696</v>
       </c>
-      <c r="CZ12" s="61"/>
+      <c r="CZ12" s="76"/>
       <c r="DA12" s="9" t="n">
         <v>0.786</v>
       </c>
@@ -7768,7 +8393,7 @@
       <c r="DE12" s="9" t="n">
         <v>0.8</v>
       </c>
-      <c r="DF12" s="60" t="n">
+      <c r="DF12" s="75" t="n">
         <v>0.8</v>
       </c>
       <c r="DG12" s="8" t="n">
@@ -7777,18 +8402,18 @@
       <c r="DH12" s="8" t="n">
         <v>0.789</v>
       </c>
-      <c r="DI12" s="62"/>
-      <c r="DJ12" s="61"/>
-      <c r="DK12" s="62"/>
-      <c r="DL12" s="61"/>
+      <c r="DI12" s="77"/>
+      <c r="DJ12" s="76"/>
+      <c r="DK12" s="77"/>
+      <c r="DL12" s="76"/>
       <c r="DM12" s="8" t="n">
         <v>0.79</v>
       </c>
-      <c r="DN12" s="61"/>
+      <c r="DN12" s="76"/>
       <c r="DO12" s="33" t="n">
         <v>0.698</v>
       </c>
-      <c r="DP12" s="61"/>
+      <c r="DP12" s="76"/>
       <c r="DQ12" s="9" t="n">
         <v>0.8</v>
       </c>
@@ -7801,26 +8426,26 @@
       <c r="DU12" s="9" t="n">
         <v>0.8</v>
       </c>
-      <c r="DV12" s="62"/>
+      <c r="DV12" s="77"/>
       <c r="DW12" s="8" t="n">
         <v>0.788</v>
       </c>
       <c r="DX12" s="8" t="n">
         <v>0.79</v>
       </c>
-      <c r="DY12" s="62"/>
-      <c r="DZ12" s="61"/>
-      <c r="EA12" s="62"/>
-      <c r="EB12" s="61"/>
+      <c r="DY12" s="77"/>
+      <c r="DZ12" s="76"/>
+      <c r="EA12" s="77"/>
+      <c r="EB12" s="76"/>
       <c r="EC12" s="8" t="n">
         <v>0.788</v>
       </c>
-      <c r="ED12" s="61"/>
+      <c r="ED12" s="76"/>
       <c r="EE12" s="33" t="n">
         <v>0.697</v>
       </c>
-      <c r="EF12" s="61"/>
-      <c r="EG12" s="59" t="n">
+      <c r="EF12" s="76"/>
+      <c r="EG12" s="74" t="n">
         <v>0.801</v>
       </c>
       <c r="EI12" s="13" t="s">
@@ -7832,33 +8457,33 @@
       <c r="EK12" s="9" t="n">
         <v>0.801</v>
       </c>
-      <c r="EL12" s="62"/>
+      <c r="EL12" s="77"/>
       <c r="EM12" s="8" t="n">
         <v>0.79</v>
       </c>
       <c r="EN12" s="8" t="n">
         <v>0.791</v>
       </c>
-      <c r="EO12" s="62"/>
-      <c r="EP12" s="61"/>
-      <c r="EQ12" s="62"/>
-      <c r="ER12" s="61"/>
+      <c r="EO12" s="77"/>
+      <c r="EP12" s="76"/>
+      <c r="EQ12" s="77"/>
+      <c r="ER12" s="76"/>
       <c r="ES12" s="8" t="n">
         <v>0.789</v>
       </c>
-      <c r="ET12" s="61"/>
+      <c r="ET12" s="76"/>
       <c r="EU12" s="33" t="n">
         <v>0.7</v>
       </c>
-      <c r="EV12" s="61"/>
-      <c r="EW12" s="61"/>
+      <c r="EV12" s="76"/>
+      <c r="EW12" s="76"/>
       <c r="EY12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="EZ12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="FA12" s="59" t="n">
+      <c r="FA12" s="74" t="n">
         <v>0.801</v>
       </c>
     </row>
@@ -7901,7 +8526,7 @@
       <c r="P13" s="11" t="n">
         <v>0.778</v>
       </c>
-      <c r="Q13" s="69" t="n">
+      <c r="Q13" s="84" t="n">
         <v>0.79</v>
       </c>
       <c r="R13" s="11" t="n">
@@ -7944,7 +8569,7 @@
       <c r="AF13" s="11" t="n">
         <v>0.778</v>
       </c>
-      <c r="AG13" s="71"/>
+      <c r="AG13" s="86"/>
       <c r="AH13" s="11" t="n">
         <v>0.791</v>
       </c>
@@ -7957,7 +8582,7 @@
       <c r="AK13" s="11" t="n">
         <v>0.786</v>
       </c>
-      <c r="AL13" s="68" t="n">
+      <c r="AL13" s="83" t="n">
         <v>0.792</v>
       </c>
       <c r="AM13" s="52" t="n">
@@ -7985,7 +8610,7 @@
       <c r="AV13" s="11" t="n">
         <v>0.778</v>
       </c>
-      <c r="AW13" s="71"/>
+      <c r="AW13" s="86"/>
       <c r="AX13" s="11" t="n">
         <v>0.792</v>
       </c>
@@ -7998,7 +8623,7 @@
       <c r="BA13" s="11" t="n">
         <v>0.784</v>
       </c>
-      <c r="BB13" s="70"/>
+      <c r="BB13" s="85"/>
       <c r="BC13" s="52" t="n">
         <v>0.736</v>
       </c>
@@ -8024,8 +8649,8 @@
       <c r="BL13" s="11" t="n">
         <v>0.779</v>
       </c>
-      <c r="BM13" s="71"/>
-      <c r="BN13" s="69" t="n">
+      <c r="BM13" s="86"/>
+      <c r="BN13" s="84" t="n">
         <v>0.797</v>
       </c>
       <c r="BO13" s="11" t="n">
@@ -8037,11 +8662,11 @@
       <c r="BQ13" s="11" t="n">
         <v>0.782</v>
       </c>
-      <c r="BR13" s="70"/>
+      <c r="BR13" s="85"/>
       <c r="BS13" s="52" t="n">
         <v>0.701</v>
       </c>
-      <c r="BT13" s="70"/>
+      <c r="BT13" s="85"/>
       <c r="BU13" s="12" t="n">
         <v>0.787</v>
       </c>
@@ -8061,8 +8686,8 @@
       <c r="CB13" s="11" t="n">
         <v>0.78</v>
       </c>
-      <c r="CC13" s="71"/>
-      <c r="CD13" s="71"/>
+      <c r="CC13" s="86"/>
+      <c r="CD13" s="86"/>
       <c r="CE13" s="11" t="n">
         <v>0.797</v>
       </c>
@@ -8072,104 +8697,104 @@
       <c r="CG13" s="11" t="n">
         <v>0.788</v>
       </c>
-      <c r="CH13" s="70"/>
+      <c r="CH13" s="85"/>
       <c r="CI13" s="52" t="n">
         <v>0.696</v>
       </c>
-      <c r="CJ13" s="70"/>
-      <c r="CK13" s="68" t="n">
+      <c r="CJ13" s="85"/>
+      <c r="CK13" s="83" t="n">
         <v>0.799</v>
       </c>
       <c r="CM13" s="13"/>
-      <c r="CN13" s="72" t="s">
+      <c r="CN13" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="CO13" s="73" t="n">
+      <c r="CO13" s="88" t="n">
         <v>0.799</v>
       </c>
-      <c r="CP13" s="74" t="n">
+      <c r="CP13" s="89" t="n">
         <v>0.797</v>
       </c>
-      <c r="CQ13" s="74" t="n">
+      <c r="CQ13" s="89" t="n">
         <v>0.784</v>
       </c>
-      <c r="CR13" s="74" t="n">
+      <c r="CR13" s="89" t="n">
         <v>0.783</v>
       </c>
-      <c r="CS13" s="74"/>
-      <c r="CT13" s="74"/>
-      <c r="CU13" s="74" t="n">
+      <c r="CS13" s="89"/>
+      <c r="CT13" s="89"/>
+      <c r="CU13" s="89" t="n">
         <v>0.797</v>
       </c>
-      <c r="CV13" s="73" t="n">
+      <c r="CV13" s="88" t="n">
         <v>0.796</v>
       </c>
-      <c r="CW13" s="74" t="n">
+      <c r="CW13" s="89" t="n">
         <v>0.787</v>
       </c>
-      <c r="CX13" s="73"/>
-      <c r="CY13" s="83" t="n">
+      <c r="CX13" s="88"/>
+      <c r="CY13" s="98" t="n">
         <v>0.696</v>
       </c>
-      <c r="CZ13" s="73"/>
-      <c r="DA13" s="73"/>
+      <c r="CZ13" s="88"/>
+      <c r="DA13" s="88"/>
       <c r="DC13" s="13"/>
-      <c r="DD13" s="72" t="s">
+      <c r="DD13" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="DE13" s="73" t="n">
+      <c r="DE13" s="88" t="n">
         <v>0.799</v>
       </c>
-      <c r="DF13" s="74"/>
-      <c r="DG13" s="74"/>
-      <c r="DH13" s="74"/>
-      <c r="DI13" s="74"/>
-      <c r="DJ13" s="74"/>
-      <c r="DK13" s="74"/>
-      <c r="DL13" s="73"/>
-      <c r="DM13" s="74"/>
-      <c r="DN13" s="73"/>
-      <c r="DO13" s="83"/>
-      <c r="DP13" s="73"/>
-      <c r="DQ13" s="73"/>
+      <c r="DF13" s="89"/>
+      <c r="DG13" s="89"/>
+      <c r="DH13" s="89"/>
+      <c r="DI13" s="89"/>
+      <c r="DJ13" s="89"/>
+      <c r="DK13" s="89"/>
+      <c r="DL13" s="88"/>
+      <c r="DM13" s="89"/>
+      <c r="DN13" s="88"/>
+      <c r="DO13" s="98"/>
+      <c r="DP13" s="88"/>
+      <c r="DQ13" s="88"/>
       <c r="DS13" s="13"/>
-      <c r="DT13" s="72" t="s">
+      <c r="DT13" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="DU13" s="73" t="n">
+      <c r="DU13" s="88" t="n">
         <v>0.799</v>
       </c>
-      <c r="DV13" s="74"/>
-      <c r="DW13" s="74"/>
-      <c r="DX13" s="74"/>
-      <c r="DY13" s="74"/>
-      <c r="DZ13" s="74"/>
-      <c r="EA13" s="74"/>
-      <c r="EB13" s="73"/>
-      <c r="EC13" s="74"/>
-      <c r="ED13" s="73"/>
-      <c r="EE13" s="83"/>
-      <c r="EF13" s="73"/>
-      <c r="EG13" s="73"/>
+      <c r="DV13" s="89"/>
+      <c r="DW13" s="89"/>
+      <c r="DX13" s="89"/>
+      <c r="DY13" s="89"/>
+      <c r="DZ13" s="89"/>
+      <c r="EA13" s="89"/>
+      <c r="EB13" s="88"/>
+      <c r="EC13" s="89"/>
+      <c r="ED13" s="88"/>
+      <c r="EE13" s="98"/>
+      <c r="EF13" s="88"/>
+      <c r="EG13" s="88"/>
       <c r="EI13" s="13"/>
-      <c r="EJ13" s="72" t="s">
+      <c r="EJ13" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="EK13" s="73" t="n">
+      <c r="EK13" s="88" t="n">
         <v>0.799</v>
       </c>
-      <c r="EL13" s="74"/>
-      <c r="EM13" s="74"/>
-      <c r="EN13" s="74"/>
-      <c r="EO13" s="74"/>
-      <c r="EP13" s="74"/>
-      <c r="EQ13" s="74"/>
-      <c r="ER13" s="73"/>
-      <c r="ES13" s="74"/>
-      <c r="ET13" s="73"/>
-      <c r="EU13" s="83"/>
-      <c r="EV13" s="73"/>
-      <c r="EW13" s="73"/>
+      <c r="EL13" s="89"/>
+      <c r="EM13" s="89"/>
+      <c r="EN13" s="89"/>
+      <c r="EO13" s="89"/>
+      <c r="EP13" s="89"/>
+      <c r="EQ13" s="89"/>
+      <c r="ER13" s="88"/>
+      <c r="ES13" s="89"/>
+      <c r="ET13" s="88"/>
+      <c r="EU13" s="98"/>
+      <c r="EV13" s="88"/>
+      <c r="EW13" s="88"/>
       <c r="EY13" s="13"/>
       <c r="EZ13" s="10" t="s">
         <v>7</v>
@@ -8217,7 +8842,7 @@
       <c r="P14" s="11" t="n">
         <v>0.783</v>
       </c>
-      <c r="Q14" s="69" t="n">
+      <c r="Q14" s="84" t="n">
         <v>0.788</v>
       </c>
       <c r="R14" s="11" t="n">
@@ -8260,8 +8885,8 @@
       <c r="AF14" s="11" t="n">
         <v>0.781</v>
       </c>
-      <c r="AG14" s="71"/>
-      <c r="AH14" s="69" t="n">
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="84" t="n">
         <v>0.789</v>
       </c>
       <c r="AI14" s="11" t="n">
@@ -8301,8 +8926,8 @@
       <c r="AV14" s="11" t="n">
         <v>0.779</v>
       </c>
-      <c r="AW14" s="71"/>
-      <c r="AX14" s="71"/>
+      <c r="AW14" s="86"/>
+      <c r="AX14" s="86"/>
       <c r="AY14" s="11" t="n">
         <v>0.792</v>
       </c>
@@ -8340,16 +8965,16 @@
       <c r="BL14" s="11" t="n">
         <v>0.784</v>
       </c>
-      <c r="BM14" s="71"/>
-      <c r="BN14" s="71"/>
-      <c r="BO14" s="71"/>
+      <c r="BM14" s="86"/>
+      <c r="BN14" s="86"/>
+      <c r="BO14" s="86"/>
       <c r="BP14" s="12" t="n">
         <v>0.793</v>
       </c>
       <c r="BQ14" s="11" t="n">
         <v>0.787</v>
       </c>
-      <c r="BR14" s="68" t="n">
+      <c r="BR14" s="83" t="n">
         <v>0.794</v>
       </c>
       <c r="BS14" s="52" t="n">
@@ -8377,20 +9002,20 @@
       <c r="CB14" s="11" t="n">
         <v>0.784</v>
       </c>
-      <c r="CC14" s="71"/>
-      <c r="CD14" s="71"/>
-      <c r="CE14" s="71"/>
+      <c r="CC14" s="86"/>
+      <c r="CD14" s="86"/>
+      <c r="CE14" s="86"/>
       <c r="CF14" s="12" t="n">
         <v>0.794</v>
       </c>
       <c r="CG14" s="11" t="n">
         <v>0.787</v>
       </c>
-      <c r="CH14" s="70"/>
+      <c r="CH14" s="85"/>
       <c r="CI14" s="52" t="n">
         <v>0.734</v>
       </c>
-      <c r="CJ14" s="68" t="n">
+      <c r="CJ14" s="83" t="n">
         <v>0.799</v>
       </c>
       <c r="CK14" s="12" t="n">
@@ -8403,7 +9028,7 @@
       <c r="CO14" s="12" t="n">
         <v>0.799</v>
       </c>
-      <c r="CP14" s="69" t="n">
+      <c r="CP14" s="84" t="n">
         <v>0.8</v>
       </c>
       <c r="CQ14" s="11" t="n">
@@ -8412,92 +9037,92 @@
       <c r="CR14" s="11" t="n">
         <v>0.786</v>
       </c>
-      <c r="CS14" s="71"/>
-      <c r="CT14" s="71"/>
-      <c r="CU14" s="71"/>
+      <c r="CS14" s="86"/>
+      <c r="CT14" s="86"/>
+      <c r="CU14" s="86"/>
       <c r="CV14" s="12" t="n">
         <v>0.798</v>
       </c>
       <c r="CW14" s="11" t="n">
         <v>0.787</v>
       </c>
-      <c r="CX14" s="70"/>
+      <c r="CX14" s="85"/>
       <c r="CY14" s="52" t="n">
         <v>0.694</v>
       </c>
-      <c r="CZ14" s="70"/>
+      <c r="CZ14" s="85"/>
       <c r="DA14" s="12" t="n">
         <v>0.794</v>
       </c>
       <c r="DC14" s="13"/>
-      <c r="DD14" s="72" t="s">
+      <c r="DD14" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="DE14" s="73" t="n">
+      <c r="DE14" s="88" t="n">
         <v>0.8</v>
       </c>
-      <c r="DF14" s="74"/>
-      <c r="DG14" s="74" t="n">
+      <c r="DF14" s="89"/>
+      <c r="DG14" s="89" t="n">
         <v>0.791</v>
       </c>
-      <c r="DH14" s="74" t="n">
+      <c r="DH14" s="89" t="n">
         <v>0.787</v>
       </c>
-      <c r="DI14" s="74"/>
-      <c r="DJ14" s="74"/>
-      <c r="DK14" s="74"/>
-      <c r="DL14" s="73" t="n">
+      <c r="DI14" s="89"/>
+      <c r="DJ14" s="89"/>
+      <c r="DK14" s="89"/>
+      <c r="DL14" s="88" t="n">
         <v>0.799</v>
       </c>
-      <c r="DM14" s="74" t="n">
+      <c r="DM14" s="89" t="n">
         <v>0.78</v>
       </c>
-      <c r="DN14" s="73"/>
-      <c r="DO14" s="83" t="n">
+      <c r="DN14" s="88"/>
+      <c r="DO14" s="98" t="n">
         <v>0.692</v>
       </c>
-      <c r="DP14" s="73"/>
-      <c r="DQ14" s="73" t="n">
+      <c r="DP14" s="88"/>
+      <c r="DQ14" s="88" t="n">
         <v>0.798</v>
       </c>
       <c r="DS14" s="13"/>
-      <c r="DT14" s="72" t="s">
+      <c r="DT14" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="DU14" s="73" t="n">
+      <c r="DU14" s="88" t="n">
         <v>0.8</v>
       </c>
-      <c r="DV14" s="74"/>
-      <c r="DW14" s="74"/>
-      <c r="DX14" s="74"/>
-      <c r="DY14" s="74"/>
-      <c r="DZ14" s="74"/>
-      <c r="EA14" s="74"/>
-      <c r="EB14" s="73"/>
-      <c r="EC14" s="74"/>
-      <c r="ED14" s="73"/>
-      <c r="EE14" s="83"/>
-      <c r="EF14" s="73"/>
-      <c r="EG14" s="73"/>
+      <c r="DV14" s="89"/>
+      <c r="DW14" s="89"/>
+      <c r="DX14" s="89"/>
+      <c r="DY14" s="89"/>
+      <c r="DZ14" s="89"/>
+      <c r="EA14" s="89"/>
+      <c r="EB14" s="88"/>
+      <c r="EC14" s="89"/>
+      <c r="ED14" s="88"/>
+      <c r="EE14" s="98"/>
+      <c r="EF14" s="88"/>
+      <c r="EG14" s="88"/>
       <c r="EI14" s="13"/>
-      <c r="EJ14" s="72" t="s">
+      <c r="EJ14" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="EK14" s="73" t="n">
+      <c r="EK14" s="88" t="n">
         <v>0.8</v>
       </c>
-      <c r="EL14" s="74"/>
-      <c r="EM14" s="74"/>
-      <c r="EN14" s="74"/>
-      <c r="EO14" s="74"/>
-      <c r="EP14" s="74"/>
-      <c r="EQ14" s="74"/>
-      <c r="ER14" s="73"/>
-      <c r="ES14" s="74"/>
-      <c r="ET14" s="73"/>
-      <c r="EU14" s="83"/>
-      <c r="EV14" s="73"/>
-      <c r="EW14" s="73"/>
+      <c r="EL14" s="89"/>
+      <c r="EM14" s="89"/>
+      <c r="EN14" s="89"/>
+      <c r="EO14" s="89"/>
+      <c r="EP14" s="89"/>
+      <c r="EQ14" s="89"/>
+      <c r="ER14" s="88"/>
+      <c r="ES14" s="89"/>
+      <c r="ET14" s="88"/>
+      <c r="EU14" s="98"/>
+      <c r="EV14" s="88"/>
+      <c r="EW14" s="88"/>
       <c r="EY14" s="13"/>
       <c r="EZ14" s="10" t="s">
         <v>8</v>
@@ -8545,7 +9170,7 @@
       <c r="P15" s="15" t="n">
         <v>0.782</v>
       </c>
-      <c r="Q15" s="85" t="n">
+      <c r="Q15" s="100" t="n">
         <v>0.783</v>
       </c>
       <c r="R15" s="15" t="n">
@@ -8588,8 +9213,8 @@
       <c r="AF15" s="15" t="n">
         <v>0.779</v>
       </c>
-      <c r="AG15" s="75"/>
-      <c r="AH15" s="85" t="n">
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="100" t="n">
         <v>0.787</v>
       </c>
       <c r="AI15" s="15" t="n">
@@ -8629,8 +9254,8 @@
       <c r="AV15" s="15" t="n">
         <v>0.782</v>
       </c>
-      <c r="AW15" s="75"/>
-      <c r="AX15" s="75"/>
+      <c r="AW15" s="90"/>
+      <c r="AX15" s="90"/>
       <c r="AY15" s="15" t="n">
         <v>0.783</v>
       </c>
@@ -8668,8 +9293,8 @@
       <c r="BL15" s="15" t="n">
         <v>0.787</v>
       </c>
-      <c r="BM15" s="75"/>
-      <c r="BN15" s="75"/>
+      <c r="BM15" s="90"/>
+      <c r="BN15" s="90"/>
       <c r="BO15" s="15" t="n">
         <v>0.782</v>
       </c>
@@ -8679,7 +9304,7 @@
       <c r="BQ15" s="15" t="n">
         <v>0.786</v>
       </c>
-      <c r="BR15" s="76" t="n">
+      <c r="BR15" s="91" t="n">
         <v>0.789</v>
       </c>
       <c r="BS15" s="47" t="n">
@@ -8688,7 +9313,7 @@
       <c r="BT15" s="16" t="n">
         <v>0.789</v>
       </c>
-      <c r="BU15" s="87"/>
+      <c r="BU15" s="102"/>
       <c r="BW15" s="13"/>
       <c r="BX15" s="14" t="s">
         <v>9</v>
@@ -8705,8 +9330,8 @@
       <c r="CB15" s="15" t="n">
         <v>0.786</v>
       </c>
-      <c r="CC15" s="75"/>
-      <c r="CD15" s="75"/>
+      <c r="CC15" s="90"/>
+      <c r="CD15" s="90"/>
       <c r="CE15" s="15" t="n">
         <v>0.783</v>
       </c>
@@ -8716,14 +9341,14 @@
       <c r="CG15" s="15" t="n">
         <v>0.786</v>
       </c>
-      <c r="CH15" s="87"/>
+      <c r="CH15" s="102"/>
       <c r="CI15" s="47" t="n">
         <v>0.736</v>
       </c>
-      <c r="CJ15" s="76" t="n">
+      <c r="CJ15" s="91" t="n">
         <v>0.794</v>
       </c>
-      <c r="CK15" s="87"/>
+      <c r="CK15" s="102"/>
       <c r="CM15" s="13"/>
       <c r="CN15" s="14" t="s">
         <v>9</v>
@@ -8731,7 +9356,7 @@
       <c r="CO15" s="16" t="n">
         <v>0.794</v>
       </c>
-      <c r="CP15" s="85" t="n">
+      <c r="CP15" s="100" t="n">
         <v>0.797</v>
       </c>
       <c r="CQ15" s="15" t="n">
@@ -8740,8 +9365,8 @@
       <c r="CR15" s="15" t="n">
         <v>0.783</v>
       </c>
-      <c r="CS15" s="75"/>
-      <c r="CT15" s="75"/>
+      <c r="CS15" s="90"/>
+      <c r="CT15" s="90"/>
       <c r="CU15" s="15" t="n">
         <v>0.793</v>
       </c>
@@ -8751,81 +9376,81 @@
       <c r="CW15" s="15" t="n">
         <v>0.784</v>
       </c>
-      <c r="CX15" s="87"/>
+      <c r="CX15" s="102"/>
       <c r="CY15" s="47" t="n">
         <v>0.696</v>
       </c>
-      <c r="CZ15" s="87"/>
-      <c r="DA15" s="87"/>
+      <c r="CZ15" s="102"/>
+      <c r="DA15" s="102"/>
       <c r="DC15" s="13"/>
-      <c r="DD15" s="89" t="s">
+      <c r="DD15" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="DE15" s="77" t="n">
+      <c r="DE15" s="92" t="n">
         <v>0.797</v>
       </c>
-      <c r="DF15" s="78"/>
-      <c r="DG15" s="78" t="n">
+      <c r="DF15" s="93"/>
+      <c r="DG15" s="93" t="n">
         <v>0.788</v>
       </c>
-      <c r="DH15" s="78" t="n">
+      <c r="DH15" s="93" t="n">
         <v>0.787</v>
       </c>
-      <c r="DI15" s="78"/>
-      <c r="DJ15" s="78"/>
-      <c r="DK15" s="78" t="n">
+      <c r="DI15" s="93"/>
+      <c r="DJ15" s="93"/>
+      <c r="DK15" s="93" t="n">
         <v>0.796</v>
       </c>
-      <c r="DL15" s="78" t="n">
+      <c r="DL15" s="93" t="n">
         <v>0.79</v>
       </c>
-      <c r="DM15" s="78" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="DN15" s="77"/>
-      <c r="DO15" s="79" t="n">
+      <c r="DM15" s="93" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="DN15" s="92"/>
+      <c r="DO15" s="94" t="n">
         <v>0.697</v>
       </c>
-      <c r="DP15" s="77"/>
-      <c r="DQ15" s="77"/>
+      <c r="DP15" s="92"/>
+      <c r="DQ15" s="92"/>
       <c r="DS15" s="13"/>
-      <c r="DT15" s="89" t="s">
+      <c r="DT15" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="DU15" s="77" t="n">
+      <c r="DU15" s="92" t="n">
         <v>0.797</v>
       </c>
-      <c r="DV15" s="78"/>
-      <c r="DW15" s="78"/>
-      <c r="DX15" s="78"/>
-      <c r="DY15" s="78"/>
-      <c r="DZ15" s="78"/>
-      <c r="EA15" s="78"/>
-      <c r="EB15" s="78"/>
-      <c r="EC15" s="78"/>
-      <c r="ED15" s="77"/>
-      <c r="EE15" s="79"/>
-      <c r="EF15" s="77"/>
-      <c r="EG15" s="77"/>
+      <c r="DV15" s="93"/>
+      <c r="DW15" s="93"/>
+      <c r="DX15" s="93"/>
+      <c r="DY15" s="93"/>
+      <c r="DZ15" s="93"/>
+      <c r="EA15" s="93"/>
+      <c r="EB15" s="93"/>
+      <c r="EC15" s="93"/>
+      <c r="ED15" s="92"/>
+      <c r="EE15" s="94"/>
+      <c r="EF15" s="92"/>
+      <c r="EG15" s="92"/>
       <c r="EI15" s="13"/>
-      <c r="EJ15" s="89" t="s">
+      <c r="EJ15" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="EK15" s="77" t="n">
+      <c r="EK15" s="92" t="n">
         <v>0.797</v>
       </c>
-      <c r="EL15" s="78"/>
-      <c r="EM15" s="78"/>
-      <c r="EN15" s="78"/>
-      <c r="EO15" s="78"/>
-      <c r="EP15" s="78"/>
-      <c r="EQ15" s="78"/>
-      <c r="ER15" s="78"/>
-      <c r="ES15" s="78"/>
-      <c r="ET15" s="77"/>
-      <c r="EU15" s="79"/>
-      <c r="EV15" s="77"/>
-      <c r="EW15" s="77"/>
+      <c r="EL15" s="93"/>
+      <c r="EM15" s="93"/>
+      <c r="EN15" s="93"/>
+      <c r="EO15" s="93"/>
+      <c r="EP15" s="93"/>
+      <c r="EQ15" s="93"/>
+      <c r="ER15" s="93"/>
+      <c r="ES15" s="93"/>
+      <c r="ET15" s="92"/>
+      <c r="EU15" s="94"/>
+      <c r="EV15" s="92"/>
+      <c r="EW15" s="92"/>
       <c r="EY15" s="13"/>
       <c r="EZ15" s="14" t="s">
         <v>9</v>
@@ -8835,487 +9460,487 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="90" t="s">
-        <v>71</v>
+      <c r="B18" s="105" t="s">
+        <v>89</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="90" t="s">
-        <v>71</v>
+      <c r="E18" s="105" t="s">
+        <v>89</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="90" t="s">
-        <v>71</v>
+      <c r="H18" s="105" t="s">
+        <v>89</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="90" t="s">
-        <v>69</v>
+      <c r="B19" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="90" t="s">
-        <v>69</v>
+        <v>92</v>
+      </c>
+      <c r="E19" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="90" t="s">
-        <v>69</v>
+        <v>85</v>
+      </c>
+      <c r="H19" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="90" t="s">
-        <v>68</v>
+      <c r="B20" s="105" t="s">
+        <v>86</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="90" t="s">
-        <v>72</v>
+        <v>85</v>
+      </c>
+      <c r="E20" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="105" t="s">
+        <v>90</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="90" t="s">
-        <v>70</v>
+      <c r="B21" s="105" t="s">
+        <v>88</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="90" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+      <c r="E21" s="105" t="s">
+        <v>88</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="90" t="s">
-        <v>68</v>
+      <c r="H21" s="105" t="s">
+        <v>86</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="90" t="s">
-        <v>72</v>
+      <c r="B22" s="105" t="s">
+        <v>90</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="90" t="s">
-        <v>68</v>
+      <c r="E22" s="105" t="s">
+        <v>86</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="90" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+      <c r="H22" s="105" t="s">
+        <v>88</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="90" t="s">
-        <v>66</v>
+      <c r="B23" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="90" t="s">
-        <v>66</v>
+        <v>93</v>
+      </c>
+      <c r="E23" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="90" t="s">
-        <v>66</v>
+        <v>93</v>
+      </c>
+      <c r="H23" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="90"/>
-      <c r="E24" s="90"/>
+      <c r="B24" s="105"/>
+      <c r="E24" s="105"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="90" t="s">
-        <v>71</v>
+      <c r="B25" s="105" t="s">
+        <v>89</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="90" t="s">
-        <v>71</v>
+      <c r="E25" s="105" t="s">
+        <v>89</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="90" t="s">
-        <v>71</v>
+      <c r="H25" s="105" t="s">
+        <v>89</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="90" t="s">
-        <v>69</v>
+      <c r="B26" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="90" t="s">
-        <v>69</v>
+        <v>92</v>
+      </c>
+      <c r="E26" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="90" t="s">
-        <v>69</v>
+        <v>85</v>
+      </c>
+      <c r="H26" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="90" t="s">
-        <v>68</v>
+      <c r="B27" s="105" t="s">
+        <v>86</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="90" t="s">
-        <v>72</v>
+        <v>85</v>
+      </c>
+      <c r="E27" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="105" t="s">
+        <v>90</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="90" t="s">
-        <v>70</v>
+      <c r="B28" s="105" t="s">
+        <v>88</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="90" t="s">
-        <v>70</v>
+      <c r="E28" s="105" t="s">
+        <v>88</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="90" t="s">
-        <v>68</v>
+        <v>91</v>
+      </c>
+      <c r="H28" s="105" t="s">
+        <v>86</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="90" t="s">
-        <v>72</v>
+      <c r="B29" s="105" t="s">
+        <v>90</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="90" t="s">
-        <v>68</v>
+        <v>91</v>
+      </c>
+      <c r="E29" s="105" t="s">
+        <v>86</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="90" t="s">
-        <v>70</v>
+      <c r="H29" s="105" t="s">
+        <v>88</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="90" t="s">
-        <v>66</v>
+      <c r="B30" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>66</v>
+        <v>93</v>
+      </c>
+      <c r="E30" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="90" t="s">
-        <v>66</v>
+        <v>93</v>
+      </c>
+      <c r="H30" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="90" t="s">
-        <v>71</v>
+      <c r="B32" s="105" t="s">
+        <v>89</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="90" t="s">
-        <v>71</v>
+      <c r="E32" s="105" t="s">
+        <v>89</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="90" t="s">
-        <v>71</v>
+      <c r="H32" s="105" t="s">
+        <v>89</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="90" t="s">
-        <v>69</v>
+      <c r="B33" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="90" t="s">
-        <v>69</v>
+        <v>92</v>
+      </c>
+      <c r="E33" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="90" t="s">
-        <v>69</v>
+        <v>85</v>
+      </c>
+      <c r="H33" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="90" t="s">
-        <v>68</v>
+      <c r="B34" s="105" t="s">
+        <v>86</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="90" t="s">
-        <v>72</v>
+        <v>85</v>
+      </c>
+      <c r="E34" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="105" t="s">
+        <v>90</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="90" t="s">
-        <v>70</v>
+      <c r="B35" s="105" t="s">
+        <v>88</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="90" t="s">
-        <v>70</v>
+      <c r="E35" s="105" t="s">
+        <v>88</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="90" t="s">
-        <v>68</v>
+      <c r="H35" s="105" t="s">
+        <v>86</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="90" t="s">
-        <v>72</v>
+      <c r="B36" s="105" t="s">
+        <v>90</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="90" t="s">
-        <v>68</v>
+        <v>91</v>
+      </c>
+      <c r="E36" s="105" t="s">
+        <v>86</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="90" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+      <c r="H36" s="105" t="s">
+        <v>88</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="90" t="s">
-        <v>66</v>
+      <c r="B37" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="90" t="s">
-        <v>66</v>
+        <v>93</v>
+      </c>
+      <c r="E37" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="90" t="s">
-        <v>66</v>
+        <v>93</v>
+      </c>
+      <c r="H37" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="90" t="s">
-        <v>71</v>
+      <c r="B39" s="105" t="s">
+        <v>89</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="90" t="s">
-        <v>71</v>
+      <c r="E39" s="105" t="s">
+        <v>89</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H39" s="90" t="s">
-        <v>71</v>
+      <c r="H39" s="105" t="s">
+        <v>89</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="90" t="s">
-        <v>69</v>
+      <c r="B40" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="90" t="s">
-        <v>69</v>
+        <v>92</v>
+      </c>
+      <c r="E40" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40" s="90" t="s">
-        <v>69</v>
+        <v>85</v>
+      </c>
+      <c r="H40" s="105" t="s">
+        <v>87</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="90" t="s">
-        <v>68</v>
+      <c r="B41" s="105" t="s">
+        <v>86</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="90" t="s">
-        <v>72</v>
+        <v>85</v>
+      </c>
+      <c r="E41" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="105" t="s">
+        <v>90</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="90" t="s">
-        <v>70</v>
+      <c r="B42" s="105" t="s">
+        <v>88</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="90" t="s">
-        <v>70</v>
+      <c r="E42" s="105" t="s">
+        <v>88</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="90" t="s">
-        <v>68</v>
+      <c r="H42" s="105" t="s">
+        <v>86</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="90" t="s">
-        <v>72</v>
+      <c r="B43" s="105" t="s">
+        <v>90</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="90" t="s">
-        <v>68</v>
+        <v>91</v>
+      </c>
+      <c r="E43" s="105" t="s">
+        <v>86</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H43" s="90" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+      <c r="H43" s="105" t="s">
+        <v>88</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="90" t="s">
-        <v>66</v>
+      <c r="B44" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="90" t="s">
-        <v>66</v>
+        <v>93</v>
+      </c>
+      <c r="E44" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H44" s="90" t="s">
-        <v>66</v>
+        <v>93</v>
+      </c>
+      <c r="H44" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9785,4 +10410,29 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L38" activeCellId="0" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>